--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="354">
   <si>
     <t>Doi</t>
   </si>
@@ -1454,6 +1454,120 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%3,    Huilong%Chen%NULL%3,    Weiming%Yan%NULL%3,    Danlei%Yang%NULL%3,    Guang%Chen%NULL%3,    Ke%Ma%NULL%3,    Dong%Xu%NULL%5,    Haijing%Yu%NULL%3,    Hongwu%Wang%NULL%3,    Tao%Wang%NULL%0,    Wei%Guo%NULL%3,    Jia%Chen%NULL%3,    Chen%Ding%NULL%3,    Xiaoping%Zhang%NULL%3,    Jiaquan%Huang%NULL%3,    Meifang%Han%NULL%3,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%3,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%3]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,   Cao%Yi-yuan%coreGivesNoEmail%0,   Dong%Xiang%coreGivesNoEmail%0,   Gao%Ya-dong%coreGivesNoEmail%0,   Yan%You-qin%coreGivesNoEmail%0,   Yang%Yi-bin%coreGivesNoEmail%0,   Yuan%Ya-dong%coreGivesNoEmail%0,   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,     Bohan%Yang%NULL%0,     Qianwen%Li%NULL%0,     Lu%Wen%NULL%0,     Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,     Mengqi%Tu%NULL%0,     Shipei%Wang%NULL%0,     Sichao%Chen%NULL%0,     Wei%Zhou%NULL%0,     Danyang%Chen%NULL%0,     Lin%Zhou%NULL%0,     Min%Wang%NULL%0,     Yan%Zhao%NULL%0,     Wen%Zeng%NULL%0,     Qi%Huang%NULL%0,     Hai'bo%Xu%NULL%0,     Zeming%Liu%NULL%0,     Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,     Jiong%Wu%NULL%0,     Faqi%Wu%NULL%0,     Dajing%Guo%NULL%0,     Linli%Chen%NULL%0,     Zheng%Fang%NULL%0,     Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,     Chengcheng%Yu%NULL%0,     Jing%Qu%NULL%0,     Lieguang%Zhang%NULL%0,     Songfeng%Jiang%NULL%0,     Deyang%Huang%NULL%0,     Bihua%Chen%NULL%0,     Zhiping%Zhang%NULL%0,     Wanhua%Guan%NULL%0,     Zhoukun%Ling%NULL%0,     Rui%Jiang%NULL%0,     Tianli%Hu%NULL%0,     Yan%Ding%NULL%0,     Lin%Lin%NULL%0,     Qingxin%Gan%NULL%0,     Liangping%Luo%tluolp@jnu.edu.cn%0,     Xiaoping%Tang%xtang@21cn.com%0,     Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,     Qiqi%Cao%NULL%0,     Le%Qin%NULL%0,     Xiaoyang%Wang%NULL%0,     Zenghui%Cheng%NULL%0,     Ashan%Pan%NULL%0,     Jianyi%Dai%NULL%0,     Qingfeng%Sun%NULL%0,     Fengquan%Zhao%NULL%0,     Jieming%Qu%NULL%0,     Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,     Fang%Jiang%NULL%0,     Wating%Su%NULL%0,     Chang%Chen%NULL%0,     Jingli%Chen%NULL%0,     Wei%Mei%NULL%0,     Li-Ying%Zhan%NULL%0,     Yifan%Jia%NULL%0,     Liangqing%Zhang%NULL%0,     Danyong%Liu%NULL%0,     Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,     Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,     Yun%Ling%NULL%0,     Yun%Ling%NULL%0,     Tao%Bai%NULL%3,     Tao%Bai%NULL%0,     Yusang%Xie%NULL%1,     Jie%Huang%NULL%2,     Jie%Huang%NULL%0,     Jian%Li%NULL%1,     Weining%Xiong%NULL%1,     Dexiang%Yang%NULL%1,     Rong%Chen%NULL%1,     Fangying%Lu%NULL%1,     Yunfei%Lu%NULL%2,     Xuhui%Liu%NULL%1,     Yuqing%Chen%NULL%2,     Yuqing%Chen%NULL%0,     Xin%Li%NULL%1,     Yong%Li%NULL%1,     Hanssa Dwarka%Summah%NULL%1,     Huihuang%Lin%NULL%1,     Jiayang%Yan%NULL%1,     Min%Zhou%NULL%0,     Hongzhou%Lu%NULL%0,     Hongzhou%Lu%NULL%0,     Jieming%Qu%NULL%0,     Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,     Wen%Yin%NULL%0,     Wen%Yin%NULL%0,     Zhaowu%Tao%NULL%1,     Weijun%Tan%NULL%1,     Yi%Hu%NULL%0,     Oliver%Schildgen%NULL%2,     Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,     Yuanyuan%Xing%NULL%0,     Yu%Xiao%NULL%0,     Liping%Deng%NULL%0,     Qiu%Zhao%NULL%0,     Hongling%Wang%NULL%0,     Yong%Xiong%NULL%0,     Zhenshun%Cheng%NULL%0,     Shicheng%Gao%NULL%0,     Ke%Liang%NULL%0,     Mingqi%Luo%NULL%0,     Tielong%Chen%NULL%0,     Shihui%Song%NULL%0,     Zhiyong%Ma%NULL%0,     Xiaoping%Chen%NULL%0,     Ruiying%Zheng%NULL%0,     Qian%Cao%NULL%0,     Fan%Wang%fanndywang@foxmail.com%0,     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,     Xun%Li%NULL%1,     Hui%Chen%NULL%0,     Shaonan%Yan%NULL%1,     Dong%Li%NULL%1,     Yan%Li%NULL%1,     Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,     Chang%Hu%NULL%1,     Linjie%Luo%NULL%1,     Fang%Fang%NULL%1,     Yongfeng%Chen%NULL%1,     Jianguo%Li%NULL%1,     Zhiyong%Peng%NULL%1,     Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,     Yongzhen%Fan%NULL%1,     Ming%Chen%NULL%2,     Xiaoyan%Wu%NULL%2,     Lin%Zhang%NULL%2,     Tao%He%NULL%2,     Hairong%Wang%NULL%2,     Jing%Wan%NULL%1,     Xinghuan%Wang%NULL%1,     Zhibing%Lu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,   Becker%L.B.%coreGivesNoEmail%0,   Chelico%J.D.%coreGivesNoEmail%0,   Cohen%S.L.%coreGivesNoEmail%0,   Cookingham%J.%coreGivesNoEmail%0,   Coppa%K.%coreGivesNoEmail%0,   Crawford%J.M.%coreGivesNoEmail%0,   Davidson%K.W.%coreGivesNoEmail%0,   Diefenbach%M.A.%coreGivesNoEmail%0,   Dominello%A.J.%coreGivesNoEmail%0,   Duer-Hefele%J.%coreGivesNoEmail%0,   Falzon%L.%coreGivesNoEmail%0,   Gitlin%J.%coreGivesNoEmail%0,   Hajizadeh%N.%coreGivesNoEmail%0,   Harvin%T.G.%coreGivesNoEmail%0,   Hirsch%J.S.%coreGivesNoEmail%0,   Hirschwerk%D.A.%coreGivesNoEmail%0,   Kim%E.J.%coreGivesNoEmail%0,   Kozel%Z.M.%coreGivesNoEmail%0,   Marrast%L.M.%coreGivesNoEmail%0,   McGinn%T.%coreGivesNoEmail%0,   Mogavero%J.N.%coreGivesNoEmail%0,   Narasimhan%M.%coreGivesNoEmail%0,   Osorio%G.A.%coreGivesNoEmail%0,   Qiu%M.%coreGivesNoEmail%0,   Richardson%S.%coreGivesNoEmail%0,   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     Nancy%Chow%NULL%1,     Katherine%Fleming-Dutra%NULL%1,     Ryan%Gierke%NULL%1,     Aron%Hall%NULL%1,     Michelle%Hughes%NULL%1,     Tamara%Pilishvili%NULL%1,     Matthew%Ritchey%NULL%1,     Katherine%Roguski%NULL%1,     Tami%Skoff%NULL%1,     Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,   Cabrini%Luca%coreGivesNoEmail%0,   Castelli%Antonio%coreGivesNoEmail%0,   Cecconi%Maurizio%coreGivesNoEmail%0,   Cereda%Danilo%coreGivesNoEmail%0,   Coluccello%Antonio%coreGivesNoEmail%0,   Foti%Giuseppe%coreGivesNoEmail%0,   Fumagalli%Roberto%coreGivesNoEmail%0,   Grasselli%Giacomo%coreGivesNoEmail%0,   Iotti%Giorgio%coreGivesNoEmail%0,   Latronico%Nicola%coreGivesNoEmail%0,   Lorini%Luca%coreGivesNoEmail%0,   Merler%Stefano%coreGivesNoEmail%0,   Natalini%Giuseppe%coreGivesNoEmail%0,   Pesenti%Antonio%coreGivesNoEmail%0,   Piatti%Alessandra%coreGivesNoEmail%0,   Ranieri%Marco Vito%coreGivesNoEmail%0,   Scandroglio%Anna Mara%coreGivesNoEmail%0,   Storti%Enrico%coreGivesNoEmail%0,   Zanella%Alberto%coreGivesNoEmail%0,   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,     Lei%Tu%NULL%3,     Lei%Tu%NULL%0,     Pingjun%Zhu%NULL%2,     Pingjun%Zhu%NULL%0,     Mi%Mu%NULL%3,     Mi%Mu%NULL%0,     Runsheng%Wang%NULL%2,     Pengcheng%Yang%NULL%2,     Xi%Wang%NULL%1,     Chao%Hu%NULL%2,     Rongyu%Ping%NULL%2,     Peng%Hu%NULL%2,     Tianzhi%Li%NULL%2,     Feng%Cao%NULL%1,     Christopher%Chang%NULL%1,     Qinyong%Hu%NULL%2,     Yang%Jin%NULL%1,     Guogang%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,     Min%Zhou%NULL%0,     Xuan%Dong%NULL%0,     Jieming%Qu%NULL%0,     Fengyun%Gong%NULL%0,     Yang%Han%NULL%0,     Yang%Qiu%NULL%0,     Jingli%Wang%NULL%0,     Ying%Liu%NULL%0,     Yuan%Wei%NULL%0,     Jia'an%Xia%NULL%0,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%0,     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%0,     Yan%Deng%NULL%0,     Wei%Liu%NULL%0,     Mei-Fang%Wang%NULL%0,     Jing-Ping%Ma%NULL%0,     Wei%Xiao%NULL%0,     Ying-Nan%Wang%NULL%0,     Min-Hua%Zhong%NULL%0,     Cheng-Hong%Li%NULL%0,     Guang-Cai%Li%NULL%0,     Hui-Guo%Liu%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Xiu-Yuan%Hao%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,     Yang%Yang%NULL%0,     Cong%Zhang%NULL%1,     Fengming%Huang%NULL%1,     Fuxiang%Wang%NULL%1,     Jing%Yuan%NULL%0,     Zhaoqin%Wang%NULL%1,     Jinxiu%Li%NULL%1,     Jianming%Li%NULL%1,     Cheng%Feng%NULL%1,     Zheng%Zhang%NULL%0,     Lifei%Wang%NULL%1,     Ling%Peng%NULL%1,     Li%Chen%NULL%1,     Yuhao%Qin%NULL%1,     Dandan%Zhao%NULL%1,     Shuguang%Tan%NULL%1,     Lu%Yin%NULL%1,     Jun%Xu%NULL%1,     Congzhao%Zhou%NULL%1,     Chengyu%Jiang%jiang@pumc.edu.cn%1,     Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,     Li-Min%Liu%NULL%0,     Wen%Yin%NULL%0,     Wen%Wang%NULL%0,     Lu-Lu%Guan%NULL%0,     Ming-Li%Yuan%NULL%0,     Yu-Lei%Li%NULL%0,     Yi%Hu%NULL%0,     Xu-Yan%Li%NULL%0,     Bing%Sun%NULL%0,     Peng%Peng%NULL%0,     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Wen-hua%Liang%NULL%0,     Yi%Zhao%NULL%2,     Heng-rui%Liang%NULL%2,     Zi-sheng%Chen%NULL%2,     Yi-min%Li%NULL%2,     Xiao-qing%Liu%NULL%2,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Chun-quan%Ou%NULL%0,     Li%Li%NULL%0,     Ping-yan%Chen%NULL%0,     Ling%Sang%NULL%4,     Wei%Wang%NULL%0,     Jian-fu%Li%NULL%2,     Cai-chen%Li%NULL%2,     Li-min%Ou%NULL%2,     Bo%Cheng%NULL%2,     Shan%Xiong%NULL%2,     Zheng-yi%Ni%NULL%0,     Jie%Xiang%NULL%0,     Yu%Hu%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Lin-ling%Cheng%NULL%2,     Feng%Ye%NULL%4,     Shi-yue%Li%NULL%0,     Jin-ping%Zheng%NULL%2,     Nuo-fu%Zhang%NULL%2,     Nan-shan%Zhong%NULL%0,     Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,     Xiao-Xin%Wu%NULL%0,     Xian-Gao%Jiang%NULL%0,     Kai-Jin%Xu%NULL%0,     Ling-Jun%Ying%NULL%0,     Chun-Lian%Ma%NULL%0,     Shi-Bo%Li%NULL%0,     Hua-Ying%Wang%NULL%0,     Sheng%Zhang%NULL%0,     Hai-Nv%Gao%NULL%0,     Ji-Fang%Sheng%NULL%0,     Hong-Liu%Cai%NULL%0,     Yun-Qing%Qiu%NULL%0,     Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,     Zhe%Dai%NULL%1,     Pingzheng%Mo%NULL%1,     Xinyu%Li%NULL%1,     Zhiyong%Ma%NULL%0,     Shihui%Song%NULL%0,     Xiaoping%Chen%NULL%0,     Mingqi%Luo%NULL%0,     Ke%Liang%NULL%0,     Shicheng%Gao%NULL%0,     Yongxi%Zhang%NULL%0,     Liping%Deng%dengdeng78@126.com%0,     Yong%Xiong%NULL%0,     Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,     Wei-jie%Guan%NULL%1,     Cai-chen%Li%NULL%0,     Yi-min%Li%NULL%0,     Heng-rui%Liang%NULL%0,     Yi%Zhao%NULL%0,     Xiao-qing%Liu%NULL%0,     Ling%Sang%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Wei%Wang%NULL%0,     Qi-hua%He%NULL%1,     Zi-sheng%Chen%NULL%0,     Sook-San%Wong%NULL%1,     Mark%Zanin%NULL%1,     Jun%Liu%NULL%0,     Xin%Xu%NULL%0,     Jun%Huang%NULL%1,     Jian-fu%Li%NULL%0,     Li-min%Ou%NULL%0,     Bo%Cheng%NULL%0,     Shan%Xiong%NULL%0,     Zhan-hong%Xie%NULL%1,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Lin-ling%Cheng%NULL%0,     Feng%Ye%NULL%0,     Shi-yue%Li%NULL%0,     Jin-ping%Zheng%NULL%0,     Nuo-fu%Zhang%NULL%0,     Nan-shan%Zhong%NULL%0,     Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,     Wenbo%He%NULL%2,     Xiaomei%Yu%NULL%2,     Dalong%Hu%NULL%2,     Mingwei%Bao%NULL%2,     Huafen%Liu%NULL%2,     Jiali%Zhou%NULL%2,     Hong%Jiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,     Wenlin%Cheng%NULL%0,     Lei%Yu%NULL%0,     Ya-Kun%Liu%NULL%0,     Xiaoyong%Hu%NULL%0,     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,     Huangqing%Ouyang%NULL%1,     Lingli%Fu%NULL%1,     Shijie%Wang%NULL%1,     Jianglong%Han%NULL%1,     Kejie%Huang%NULL%1,     Mingfang%Jia%NULL%1,     Qibin%Song%NULL%1,     Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%3,     Huilong%Chen%NULL%3,     Weiming%Yan%NULL%3,     Danlei%Yang%NULL%3,     Guang%Chen%NULL%3,     Ke%Ma%NULL%3,     Dong%Xu%NULL%5,     Haijing%Yu%NULL%3,     Hongwu%Wang%NULL%3,     Tao%Wang%NULL%0,     Wei%Guo%NULL%3,     Jia%Chen%NULL%3,     Chen%Ding%NULL%3,     Xiaoping%Zhang%NULL%3,     Jiaquan%Huang%NULL%3,     Meifang%Han%NULL%3,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%3,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -1793,6 +1907,9 @@
       <c r="H1" t="s">
         <v>57</v>
       </c>
+      <c r="I1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1808,16 +1925,19 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1834,7 +1954,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -1844,6 +1964,9 @@
       </c>
       <c r="H3" t="s">
         <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="4">
@@ -1860,7 +1983,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -1870,6 +1993,9 @@
       </c>
       <c r="H4" t="s">
         <v>58</v>
+      </c>
+      <c r="I4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="5">
@@ -1897,6 +2023,9 @@
       <c r="H5" t="s">
         <v>58</v>
       </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -1912,7 +2041,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -1922,6 +2051,9 @@
       </c>
       <c r="H6" t="s">
         <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="7">
@@ -1938,7 +2070,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -1948,6 +2080,9 @@
       </c>
       <c r="H7" t="s">
         <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8">
@@ -1964,7 +2099,7 @@
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -1974,6 +2109,9 @@
       </c>
       <c r="H8" t="s">
         <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="9">
@@ -1990,7 +2128,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -2000,6 +2138,9 @@
       </c>
       <c r="H9" t="s">
         <v>86</v>
+      </c>
+      <c r="I9" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10">
@@ -2016,7 +2157,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2026,6 +2167,9 @@
       </c>
       <c r="H10" t="s">
         <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="11">
@@ -2042,7 +2186,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2052,6 +2196,9 @@
       </c>
       <c r="H11" t="s">
         <v>92</v>
+      </c>
+      <c r="I11" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="12">
@@ -2068,7 +2215,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2078,6 +2225,9 @@
       </c>
       <c r="H12" t="s">
         <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="13">
@@ -2094,7 +2244,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -2104,6 +2254,9 @@
       </c>
       <c r="H13" t="s">
         <v>102</v>
+      </c>
+      <c r="I13" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="14">
@@ -2120,7 +2273,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -2130,6 +2283,9 @@
       </c>
       <c r="H14" t="s">
         <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="15">
@@ -2146,7 +2302,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -2156,6 +2312,9 @@
       </c>
       <c r="H15" t="s">
         <v>111</v>
+      </c>
+      <c r="I15" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="16">
@@ -2172,7 +2331,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -2182,6 +2341,9 @@
       </c>
       <c r="H16" t="s">
         <v>116</v>
+      </c>
+      <c r="I16" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="17">
@@ -2198,7 +2360,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -2208,6 +2370,9 @@
       </c>
       <c r="H17" t="s">
         <v>121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="18">
@@ -2224,16 +2389,19 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -2250,7 +2418,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -2260,6 +2428,9 @@
       </c>
       <c r="H19" t="s">
         <v>58</v>
+      </c>
+      <c r="I19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="20">
@@ -2287,6 +2458,9 @@
       <c r="H20" t="s">
         <v>58</v>
       </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -2305,13 +2479,16 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s">
         <v>58</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22">
@@ -2328,16 +2505,19 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -2354,7 +2534,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2364,6 +2544,9 @@
       </c>
       <c r="H23" t="s">
         <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="24">
@@ -2391,6 +2574,9 @@
       <c r="H24" t="s">
         <v>134</v>
       </c>
+      <c r="I24" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -2406,7 +2592,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -2416,6 +2602,9 @@
       </c>
       <c r="H25" t="s">
         <v>58</v>
+      </c>
+      <c r="I25" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="26">
@@ -2432,16 +2621,19 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -2469,6 +2661,9 @@
       <c r="H27" t="s">
         <v>111</v>
       </c>
+      <c r="I27" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
@@ -2484,7 +2679,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -2494,6 +2689,9 @@
       </c>
       <c r="H28" t="s">
         <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="29">
@@ -2510,7 +2708,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -2520,6 +2718,9 @@
       </c>
       <c r="H29" t="s">
         <v>58</v>
+      </c>
+      <c r="I29" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="30">
@@ -2536,7 +2737,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -2546,6 +2747,9 @@
       </c>
       <c r="H30" t="s">
         <v>154</v>
+      </c>
+      <c r="I30" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="31">
@@ -2562,7 +2766,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -2572,6 +2776,9 @@
       </c>
       <c r="H31" t="s">
         <v>58</v>
+      </c>
+      <c r="I31" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="32">
@@ -2588,7 +2795,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -2598,6 +2805,9 @@
       </c>
       <c r="H32" t="s">
         <v>163</v>
+      </c>
+      <c r="I32" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="33">
@@ -2614,7 +2824,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -2624,6 +2834,9 @@
       </c>
       <c r="H33" t="s">
         <v>168</v>
+      </c>
+      <c r="I33" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="34">
@@ -2640,7 +2853,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -2650,6 +2863,9 @@
       </c>
       <c r="H34" t="s">
         <v>173</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="35">
@@ -2666,7 +2882,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -2676,6 +2892,9 @@
       </c>
       <c r="H35" t="s">
         <v>58</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="36">
@@ -2692,7 +2911,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -2702,6 +2921,9 @@
       </c>
       <c r="H36" t="s">
         <v>182</v>
+      </c>
+      <c r="I36" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="37">
@@ -2718,7 +2940,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -2728,6 +2950,9 @@
       </c>
       <c r="H37" t="s">
         <v>187</v>
+      </c>
+      <c r="I37" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="38">
@@ -2744,7 +2969,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -2754,6 +2979,9 @@
       </c>
       <c r="H38" t="s">
         <v>58</v>
+      </c>
+      <c r="I38" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="39">
@@ -2770,7 +2998,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -2780,6 +3008,9 @@
       </c>
       <c r="H39" t="s">
         <v>58</v>
+      </c>
+      <c r="I39" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="40">
@@ -2796,7 +3027,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -2806,6 +3037,9 @@
       </c>
       <c r="H40" t="s">
         <v>200</v>
+      </c>
+      <c r="I40" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="41">
@@ -2822,7 +3056,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>
@@ -2832,6 +3066,9 @@
       </c>
       <c r="H41" t="s">
         <v>205</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="456">
   <si>
     <t>Doi</t>
   </si>
@@ -1568,6 +1568,312 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%3,     Huilong%Chen%NULL%3,     Weiming%Yan%NULL%3,     Danlei%Yang%NULL%3,     Guang%Chen%NULL%3,     Ke%Ma%NULL%3,     Dong%Xu%NULL%5,     Haijing%Yu%NULL%3,     Hongwu%Wang%NULL%3,     Tao%Wang%NULL%0,     Wei%Guo%NULL%3,     Jia%Chen%NULL%3,     Chen%Ding%NULL%3,     Xiaoping%Zhang%NULL%3,     Jiaquan%Huang%NULL%3,     Meifang%Han%NULL%3,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%3,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%0,    Dong%Xiang%coreGivesNoEmail%0,    Gao%Ya-dong%coreGivesNoEmail%0,    Yan%You-qin%coreGivesNoEmail%0,    Yang%Yi-bin%coreGivesNoEmail%0,    Yuan%Ya-dong%coreGivesNoEmail%0,    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,      Bohan%Yang%NULL%0,      Qianwen%Li%NULL%0,      Lu%Wen%NULL%0,      Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,      Mengqi%Tu%NULL%0,      Shipei%Wang%NULL%0,      Sichao%Chen%NULL%0,      Wei%Zhou%NULL%0,      Danyang%Chen%NULL%0,      Lin%Zhou%NULL%0,      Min%Wang%NULL%0,      Yan%Zhao%NULL%0,      Wen%Zeng%NULL%0,      Qi%Huang%NULL%0,      Hai'bo%Xu%NULL%0,      Zeming%Liu%NULL%0,      Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,      Jiong%Wu%NULL%0,      Faqi%Wu%NULL%0,      Dajing%Guo%NULL%0,      Linli%Chen%NULL%0,      Zheng%Fang%NULL%0,      Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,      Chengcheng%Yu%NULL%0,      Jing%Qu%NULL%0,      Lieguang%Zhang%NULL%0,      Songfeng%Jiang%NULL%0,      Deyang%Huang%NULL%0,      Bihua%Chen%NULL%0,      Zhiping%Zhang%NULL%0,      Wanhua%Guan%NULL%0,      Zhoukun%Ling%NULL%0,      Rui%Jiang%NULL%0,      Tianli%Hu%NULL%0,      Yan%Ding%NULL%0,      Lin%Lin%NULL%0,      Qingxin%Gan%NULL%0,      Liangping%Luo%tluolp@jnu.edu.cn%0,      Xiaoping%Tang%xtang@21cn.com%0,      Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,      Qiqi%Cao%NULL%0,      Le%Qin%NULL%0,      Xiaoyang%Wang%NULL%0,      Zenghui%Cheng%NULL%0,      Ashan%Pan%NULL%0,      Jianyi%Dai%NULL%0,      Qingfeng%Sun%NULL%0,      Fengquan%Zhao%NULL%0,      Jieming%Qu%NULL%0,      Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,      Fang%Jiang%NULL%0,      Wating%Su%NULL%0,      Chang%Chen%NULL%0,      Jingli%Chen%NULL%0,      Wei%Mei%NULL%0,      Li-Ying%Zhan%NULL%0,      Yifan%Jia%NULL%0,      Liangqing%Zhang%NULL%0,      Danyong%Liu%NULL%0,      Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,      Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,      Yun%Ling%NULL%0,      Yun%Ling%NULL%0,      Tao%Bai%NULL%0,      Tao%Bai%NULL%0,      Yusang%Xie%NULL%1,      Jie%Huang%NULL%2,      Jie%Huang%NULL%0,      Jian%Li%NULL%1,      Weining%Xiong%NULL%1,      Dexiang%Yang%NULL%1,      Rong%Chen%NULL%1,      Fangying%Lu%NULL%1,      Yunfei%Lu%NULL%2,      Xuhui%Liu%NULL%1,      Yuqing%Chen%NULL%2,      Yuqing%Chen%NULL%0,      Xin%Li%NULL%0,      Yong%Li%NULL%1,      Hanssa Dwarka%Summah%NULL%1,      Huihuang%Lin%NULL%1,      Jiayang%Yan%NULL%1,      Min%Zhou%NULL%0,      Hongzhou%Lu%NULL%0,      Hongzhou%Lu%NULL%0,      Jieming%Qu%NULL%0,      Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,      Wen%Yin%NULL%0,      Wen%Yin%NULL%0,      Zhaowu%Tao%NULL%1,      Weijun%Tan%NULL%1,      Yi%Hu%NULL%0,      Oliver%Schildgen%NULL%2,      Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,      Yuanyuan%Xing%NULL%0,      Yu%Xiao%NULL%0,      Liping%Deng%NULL%0,      Qiu%Zhao%NULL%0,      Hongling%Wang%NULL%0,      Yong%Xiong%NULL%0,      Zhenshun%Cheng%NULL%0,      Shicheng%Gao%NULL%0,      Ke%Liang%NULL%0,      Mingqi%Luo%NULL%0,      Tielong%Chen%NULL%0,      Shihui%Song%NULL%0,      Zhiyong%Ma%NULL%0,      Xiaoping%Chen%NULL%0,      Ruiying%Zheng%NULL%0,      Qian%Cao%NULL%0,      Fan%Wang%fanndywang@foxmail.com%0,      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,      Xun%Li%NULL%1,      Hui%Chen%NULL%0,      Shaonan%Yan%NULL%1,      Dong%Li%NULL%1,      Yan%Li%NULL%1,      Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,      Chang%Hu%NULL%1,      Linjie%Luo%NULL%1,      Fang%Fang%NULL%1,      Yongfeng%Chen%NULL%1,      Jianguo%Li%NULL%1,      Zhiyong%Peng%NULL%1,      Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,      Yongzhen%Fan%NULL%1,      Ming%Chen%NULL%2,      Xiaoyan%Wu%NULL%2,      Lin%Zhang%NULL%2,      Tao%He%NULL%2,      Hairong%Wang%NULL%2,      Jing%Wan%NULL%1,      Xinghuan%Wang%NULL%1,      Zhibing%Lu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,    Becker%L.B.%coreGivesNoEmail%0,    Chelico%J.D.%coreGivesNoEmail%0,    Cohen%S.L.%coreGivesNoEmail%0,    Cookingham%J.%coreGivesNoEmail%0,    Coppa%K.%coreGivesNoEmail%0,    Crawford%J.M.%coreGivesNoEmail%0,    Davidson%K.W.%coreGivesNoEmail%0,    Diefenbach%M.A.%coreGivesNoEmail%0,    Dominello%A.J.%coreGivesNoEmail%0,    Duer-Hefele%J.%coreGivesNoEmail%0,    Falzon%L.%coreGivesNoEmail%0,    Gitlin%J.%coreGivesNoEmail%0,    Hajizadeh%N.%coreGivesNoEmail%0,    Harvin%T.G.%coreGivesNoEmail%0,    Hirsch%J.S.%coreGivesNoEmail%0,    Hirschwerk%D.A.%coreGivesNoEmail%0,    Kim%E.J.%coreGivesNoEmail%0,    Kozel%Z.M.%coreGivesNoEmail%0,    Marrast%L.M.%coreGivesNoEmail%0,    McGinn%T.%coreGivesNoEmail%0,    Mogavero%J.N.%coreGivesNoEmail%0,    Narasimhan%M.%coreGivesNoEmail%0,    Osorio%G.A.%coreGivesNoEmail%0,    Qiu%M.%coreGivesNoEmail%0,    Richardson%S.%coreGivesNoEmail%0,    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      Nancy%Chow%NULL%1,      Katherine%Fleming-Dutra%NULL%1,      Ryan%Gierke%NULL%1,      Aron%Hall%NULL%1,      Michelle%Hughes%NULL%1,      Tamara%Pilishvili%NULL%1,      Matthew%Ritchey%NULL%1,      Katherine%Roguski%NULL%1,      Tami%Skoff%NULL%1,      Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,    Cabrini%Luca%coreGivesNoEmail%0,    Castelli%Antonio%coreGivesNoEmail%0,    Cecconi%Maurizio%coreGivesNoEmail%0,    Cereda%Danilo%coreGivesNoEmail%0,    Coluccello%Antonio%coreGivesNoEmail%0,    Foti%Giuseppe%coreGivesNoEmail%0,    Fumagalli%Roberto%coreGivesNoEmail%0,    Grasselli%Giacomo%coreGivesNoEmail%0,    Iotti%Giorgio%coreGivesNoEmail%0,    Latronico%Nicola%coreGivesNoEmail%0,    Lorini%Luca%coreGivesNoEmail%0,    Merler%Stefano%coreGivesNoEmail%0,    Natalini%Giuseppe%coreGivesNoEmail%0,    Pesenti%Antonio%coreGivesNoEmail%0,    Piatti%Alessandra%coreGivesNoEmail%0,    Ranieri%Marco Vito%coreGivesNoEmail%0,    Scandroglio%Anna Mara%coreGivesNoEmail%0,    Storti%Enrico%coreGivesNoEmail%0,    Zanella%Alberto%coreGivesNoEmail%0,    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,      Lei%Tu%NULL%3,      Lei%Tu%NULL%0,      Pingjun%Zhu%NULL%2,      Pingjun%Zhu%NULL%0,      Mi%Mu%NULL%3,      Mi%Mu%NULL%0,      Runsheng%Wang%NULL%2,      Pengcheng%Yang%NULL%2,      Xi%Wang%NULL%1,      Chao%Hu%NULL%2,      Rongyu%Ping%NULL%2,      Peng%Hu%NULL%2,      Tianzhi%Li%NULL%2,      Feng%Cao%NULL%1,      Christopher%Chang%NULL%1,      Qinyong%Hu%NULL%2,      Yang%Jin%NULL%1,      Guogang%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,      Min%Zhou%NULL%0,      Xuan%Dong%NULL%0,      Jieming%Qu%NULL%0,      Fengyun%Gong%NULL%0,      Yang%Han%NULL%0,      Yang%Qiu%NULL%0,      Jingli%Wang%NULL%0,      Ying%Liu%NULL%0,      Yuan%Wei%NULL%0,      Jia'an%Xia%NULL%0,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%0,      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%0,      Yan%Deng%NULL%0,      Wei%Liu%NULL%0,      Mei-Fang%Wang%NULL%0,      Jing-Ping%Ma%NULL%0,      Wei%Xiao%NULL%0,      Ying-Nan%Wang%NULL%0,      Min-Hua%Zhong%NULL%0,      Cheng-Hong%Li%NULL%0,      Guang-Cai%Li%NULL%0,      Hui-Guo%Liu%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Xiu-Yuan%Hao%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,      Yang%Yang%NULL%0,      Cong%Zhang%NULL%1,      Fengming%Huang%NULL%1,      Fuxiang%Wang%NULL%1,      Jing%Yuan%NULL%0,      Zhaoqin%Wang%NULL%1,      Jinxiu%Li%NULL%1,      Jianming%Li%NULL%1,      Cheng%Feng%NULL%1,      Zheng%Zhang%NULL%0,      Lifei%Wang%NULL%1,      Ling%Peng%NULL%1,      Li%Chen%NULL%1,      Yuhao%Qin%NULL%1,      Dandan%Zhao%NULL%1,      Shuguang%Tan%NULL%1,      Lu%Yin%NULL%0,      Jun%Xu%NULL%1,      Congzhao%Zhou%NULL%1,      Chengyu%Jiang%jiang@pumc.edu.cn%1,      Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,      Li-Min%Liu%NULL%0,      Wen%Yin%NULL%0,      Wen%Wang%NULL%0,      Lu-Lu%Guan%NULL%0,      Ming-Li%Yuan%NULL%0,      Yu-Lei%Li%NULL%0,      Yi%Hu%NULL%0,      Xu-Yan%Li%NULL%0,      Bing%Sun%NULL%0,      Peng%Peng%NULL%0,      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Wen-hua%Liang%NULL%0,      Yi%Zhao%NULL%2,      Heng-rui%Liang%NULL%2,      Zi-sheng%Chen%NULL%2,      Yi-min%Li%NULL%2,      Xiao-qing%Liu%NULL%2,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Chun-quan%Ou%NULL%0,      Li%Li%NULL%0,      Ping-yan%Chen%NULL%0,      Ling%Sang%NULL%4,      Wei%Wang%NULL%0,      Jian-fu%Li%NULL%2,      Cai-chen%Li%NULL%2,      Li-min%Ou%NULL%2,      Bo%Cheng%NULL%2,      Shan%Xiong%NULL%2,      Zheng-yi%Ni%NULL%0,      Jie%Xiang%NULL%0,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Lin-ling%Cheng%NULL%2,      Feng%Ye%NULL%4,      Shi-yue%Li%NULL%0,      Jin-ping%Zheng%NULL%2,      Nuo-fu%Zhang%NULL%2,      Nan-shan%Zhong%NULL%0,      Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,      Xiao-Xin%Wu%NULL%0,      Xian-Gao%Jiang%NULL%0,      Kai-Jin%Xu%NULL%0,      Ling-Jun%Ying%NULL%0,      Chun-Lian%Ma%NULL%0,      Shi-Bo%Li%NULL%0,      Hua-Ying%Wang%NULL%0,      Sheng%Zhang%NULL%0,      Hai-Nv%Gao%NULL%0,      Ji-Fang%Sheng%NULL%0,      Hong-Liu%Cai%NULL%0,      Yun-Qing%Qiu%NULL%0,      Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,      Zhe%Dai%NULL%1,      Pingzheng%Mo%NULL%1,      Xinyu%Li%NULL%1,      Zhiyong%Ma%NULL%0,      Shihui%Song%NULL%0,      Xiaoping%Chen%NULL%0,      Mingqi%Luo%NULL%0,      Ke%Liang%NULL%0,      Shicheng%Gao%NULL%0,      Yongxi%Zhang%NULL%0,      Liping%Deng%dengdeng78@126.com%0,      Yong%Xiong%NULL%0,      Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,      Wei-jie%Guan%NULL%1,      Cai-chen%Li%NULL%0,      Yi-min%Li%NULL%0,      Heng-rui%Liang%NULL%0,      Yi%Zhao%NULL%0,      Xiao-qing%Liu%NULL%0,      Ling%Sang%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Wei%Wang%NULL%0,      Qi-hua%He%NULL%1,      Zi-sheng%Chen%NULL%0,      Sook-San%Wong%NULL%1,      Mark%Zanin%NULL%1,      Jun%Liu%NULL%0,      Xin%Xu%NULL%0,      Jun%Huang%NULL%1,      Jian-fu%Li%NULL%0,      Li-min%Ou%NULL%0,      Bo%Cheng%NULL%0,      Shan%Xiong%NULL%0,      Zhan-hong%Xie%NULL%1,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Lin-ling%Cheng%NULL%0,      Feng%Ye%NULL%0,      Shi-yue%Li%NULL%0,      Jin-ping%Zheng%NULL%0,      Nuo-fu%Zhang%NULL%0,      Nan-shan%Zhong%NULL%0,      Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,      Wenbo%He%NULL%2,      Xiaomei%Yu%NULL%2,      Dalong%Hu%NULL%2,      Mingwei%Bao%NULL%2,      Huafen%Liu%NULL%2,      Jiali%Zhou%NULL%2,      Hong%Jiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,      Wenlin%Cheng%NULL%0,      Lei%Yu%NULL%0,      Ya-Kun%Liu%NULL%0,      Xiaoyong%Hu%NULL%0,      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,      Huangqing%Ouyang%NULL%1,      Lingli%Fu%NULL%1,      Shijie%Wang%NULL%1,      Jianglong%Han%NULL%1,      Kejie%Huang%NULL%1,      Mingfang%Jia%NULL%1,      Qibin%Song%NULL%1,      Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%3,      Huilong%Chen%NULL%3,      Weiming%Yan%NULL%3,      Danlei%Yang%NULL%3,      Guang%Chen%NULL%3,      Ke%Ma%NULL%3,      Dong%Xu%NULL%5,      Haijing%Yu%NULL%3,      Hongwu%Wang%NULL%3,      Tao%Wang%NULL%0,      Wei%Guo%NULL%3,      Jia%Chen%NULL%3,      Chen%Ding%NULL%3,      Xiaoping%Zhang%NULL%3,      Jiaquan%Huang%NULL%3,      Meifang%Han%NULL%3,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%3,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%0,     Dong%Xiang%coreGivesNoEmail%0,     Gao%Ya-dong%coreGivesNoEmail%0,     Yan%You-qin%coreGivesNoEmail%0,     Yang%Yi-bin%coreGivesNoEmail%0,     Yuan%Ya-dong%coreGivesNoEmail%0,     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,       Bohan%Yang%NULL%0,       Qianwen%Li%NULL%0,       Lu%Wen%NULL%0,       Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,       Mengqi%Tu%NULL%0,       Shipei%Wang%NULL%0,       Sichao%Chen%NULL%0,       Wei%Zhou%NULL%0,       Danyang%Chen%NULL%0,       Lin%Zhou%NULL%0,       Min%Wang%NULL%0,       Yan%Zhao%NULL%0,       Wen%Zeng%NULL%0,       Qi%Huang%NULL%0,       Hai'bo%Xu%NULL%0,       Zeming%Liu%NULL%0,       Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,       Jiong%Wu%NULL%0,       Faqi%Wu%NULL%0,       Dajing%Guo%NULL%0,       Linli%Chen%NULL%0,       Zheng%Fang%NULL%0,       Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,       Chengcheng%Yu%NULL%0,       Jing%Qu%NULL%0,       Lieguang%Zhang%NULL%0,       Songfeng%Jiang%NULL%0,       Deyang%Huang%NULL%0,       Bihua%Chen%NULL%0,       Zhiping%Zhang%NULL%0,       Wanhua%Guan%NULL%0,       Zhoukun%Ling%NULL%0,       Rui%Jiang%NULL%0,       Tianli%Hu%NULL%0,       Yan%Ding%NULL%0,       Lin%Lin%NULL%0,       Qingxin%Gan%NULL%0,       Liangping%Luo%tluolp@jnu.edu.cn%0,       Xiaoping%Tang%xtang@21cn.com%0,       Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,       Qiqi%Cao%NULL%0,       Le%Qin%NULL%0,       Xiaoyang%Wang%NULL%0,       Zenghui%Cheng%NULL%0,       Ashan%Pan%NULL%0,       Jianyi%Dai%NULL%0,       Qingfeng%Sun%NULL%0,       Fengquan%Zhao%NULL%0,       Jieming%Qu%NULL%0,       Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,       Fang%Jiang%NULL%0,       Wating%Su%NULL%0,       Chang%Chen%NULL%0,       Jingli%Chen%NULL%0,       Wei%Mei%NULL%0,       Li-Ying%Zhan%NULL%0,       Yifan%Jia%NULL%0,       Liangqing%Zhang%NULL%0,       Danyong%Liu%NULL%0,       Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,       Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,       Yun%Ling%NULL%0,       Yun%Ling%NULL%0,       Tao%Bai%NULL%0,       Tao%Bai%NULL%0,       Yusang%Xie%NULL%1,       Jie%Huang%NULL%2,       Jie%Huang%NULL%0,       Jian%Li%NULL%1,       Weining%Xiong%NULL%1,       Dexiang%Yang%NULL%1,       Rong%Chen%NULL%1,       Fangying%Lu%NULL%1,       Yunfei%Lu%NULL%2,       Xuhui%Liu%NULL%1,       Yuqing%Chen%NULL%2,       Yuqing%Chen%NULL%0,       Xin%Li%NULL%0,       Yong%Li%NULL%1,       Hanssa Dwarka%Summah%NULL%1,       Huihuang%Lin%NULL%1,       Jiayang%Yan%NULL%1,       Min%Zhou%NULL%0,       Hongzhou%Lu%NULL%0,       Hongzhou%Lu%NULL%0,       Jieming%Qu%NULL%0,       Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,       Wen%Yin%NULL%0,       Wen%Yin%NULL%0,       Zhaowu%Tao%NULL%1,       Weijun%Tan%NULL%1,       Yi%Hu%NULL%0,       Oliver%Schildgen%NULL%2,       Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,       Yuanyuan%Xing%NULL%0,       Yu%Xiao%NULL%0,       Liping%Deng%NULL%0,       Qiu%Zhao%NULL%0,       Hongling%Wang%NULL%0,       Yong%Xiong%NULL%0,       Zhenshun%Cheng%NULL%0,       Shicheng%Gao%NULL%0,       Ke%Liang%NULL%0,       Mingqi%Luo%NULL%0,       Tielong%Chen%NULL%0,       Shihui%Song%NULL%0,       Zhiyong%Ma%NULL%0,       Xiaoping%Chen%NULL%0,       Ruiying%Zheng%NULL%0,       Qian%Cao%NULL%0,       Fan%Wang%fanndywang@foxmail.com%0,       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,       Xun%Li%NULL%1,       Hui%Chen%NULL%0,       Shaonan%Yan%NULL%1,       Dong%Li%NULL%1,       Yan%Li%NULL%1,       Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,       Chang%Hu%NULL%1,       Linjie%Luo%NULL%1,       Fang%Fang%NULL%1,       Yongfeng%Chen%NULL%1,       Jianguo%Li%NULL%1,       Zhiyong%Peng%NULL%1,       Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,       Yongzhen%Fan%NULL%1,       Ming%Chen%NULL%2,       Xiaoyan%Wu%NULL%2,       Lin%Zhang%NULL%2,       Tao%He%NULL%2,       Hairong%Wang%NULL%2,       Jing%Wan%NULL%1,       Xinghuan%Wang%NULL%1,       Zhibing%Lu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,     Becker%L.B.%coreGivesNoEmail%0,     Chelico%J.D.%coreGivesNoEmail%0,     Cohen%S.L.%coreGivesNoEmail%0,     Cookingham%J.%coreGivesNoEmail%0,     Coppa%K.%coreGivesNoEmail%0,     Crawford%J.M.%coreGivesNoEmail%0,     Davidson%K.W.%coreGivesNoEmail%0,     Diefenbach%M.A.%coreGivesNoEmail%0,     Dominello%A.J.%coreGivesNoEmail%0,     Duer-Hefele%J.%coreGivesNoEmail%0,     Falzon%L.%coreGivesNoEmail%0,     Gitlin%J.%coreGivesNoEmail%0,     Hajizadeh%N.%coreGivesNoEmail%0,     Harvin%T.G.%coreGivesNoEmail%0,     Hirsch%J.S.%coreGivesNoEmail%0,     Hirschwerk%D.A.%coreGivesNoEmail%0,     Kim%E.J.%coreGivesNoEmail%0,     Kozel%Z.M.%coreGivesNoEmail%0,     Marrast%L.M.%coreGivesNoEmail%0,     McGinn%T.%coreGivesNoEmail%0,     Mogavero%J.N.%coreGivesNoEmail%0,     Narasimhan%M.%coreGivesNoEmail%0,     Osorio%G.A.%coreGivesNoEmail%0,     Qiu%M.%coreGivesNoEmail%0,     Richardson%S.%coreGivesNoEmail%0,     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       Nancy%Chow%NULL%1,       Katherine%Fleming-Dutra%NULL%1,       Ryan%Gierke%NULL%1,       Aron%Hall%NULL%1,       Michelle%Hughes%NULL%1,       Tamara%Pilishvili%NULL%1,       Matthew%Ritchey%NULL%1,       Katherine%Roguski%NULL%1,       Tami%Skoff%NULL%1,       Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,     Cabrini%Luca%coreGivesNoEmail%0,     Castelli%Antonio%coreGivesNoEmail%0,     Cecconi%Maurizio%coreGivesNoEmail%0,     Cereda%Danilo%coreGivesNoEmail%0,     Coluccello%Antonio%coreGivesNoEmail%0,     Foti%Giuseppe%coreGivesNoEmail%0,     Fumagalli%Roberto%coreGivesNoEmail%0,     Grasselli%Giacomo%coreGivesNoEmail%0,     Iotti%Giorgio%coreGivesNoEmail%0,     Latronico%Nicola%coreGivesNoEmail%0,     Lorini%Luca%coreGivesNoEmail%0,     Merler%Stefano%coreGivesNoEmail%0,     Natalini%Giuseppe%coreGivesNoEmail%0,     Pesenti%Antonio%coreGivesNoEmail%0,     Piatti%Alessandra%coreGivesNoEmail%0,     Ranieri%Marco Vito%coreGivesNoEmail%0,     Scandroglio%Anna Mara%coreGivesNoEmail%0,     Storti%Enrico%coreGivesNoEmail%0,     Zanella%Alberto%coreGivesNoEmail%0,     Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,       Lei%Tu%NULL%3,       Lei%Tu%NULL%0,       Pingjun%Zhu%NULL%2,       Pingjun%Zhu%NULL%0,       Mi%Mu%NULL%3,       Mi%Mu%NULL%0,       Runsheng%Wang%NULL%2,       Pengcheng%Yang%NULL%2,       Xi%Wang%NULL%1,       Chao%Hu%NULL%2,       Rongyu%Ping%NULL%2,       Peng%Hu%NULL%2,       Tianzhi%Li%NULL%2,       Feng%Cao%NULL%1,       Christopher%Chang%NULL%1,       Qinyong%Hu%NULL%2,       Yang%Jin%NULL%1,       Guogang%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,       Min%Zhou%NULL%0,       Xuan%Dong%NULL%0,       Jieming%Qu%NULL%0,       Fengyun%Gong%NULL%0,       Yang%Han%NULL%0,       Yang%Qiu%NULL%0,       Jingli%Wang%NULL%0,       Ying%Liu%NULL%0,       Yuan%Wei%NULL%0,       Jia'an%Xia%NULL%0,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%0,       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Mei-Fang%Wang%NULL%0,       Jing-Ping%Ma%NULL%0,       Wei%Xiao%NULL%0,       Ying-Nan%Wang%NULL%0,       Min-Hua%Zhong%NULL%0,       Cheng-Hong%Li%NULL%0,       Guang-Cai%Li%NULL%0,       Hui-Guo%Liu%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Xiu-Yuan%Hao%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,       Yang%Yang%NULL%0,       Cong%Zhang%NULL%1,       Fengming%Huang%NULL%1,       Fuxiang%Wang%NULL%1,       Jing%Yuan%NULL%0,       Zhaoqin%Wang%NULL%1,       Jinxiu%Li%NULL%1,       Jianming%Li%NULL%1,       Cheng%Feng%NULL%1,       Zheng%Zhang%NULL%0,       Lifei%Wang%NULL%1,       Ling%Peng%NULL%1,       Li%Chen%NULL%1,       Yuhao%Qin%NULL%1,       Dandan%Zhao%NULL%1,       Shuguang%Tan%NULL%1,       Lu%Yin%NULL%0,       Jun%Xu%NULL%1,       Congzhao%Zhou%NULL%1,       Chengyu%Jiang%jiang@pumc.edu.cn%1,       Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,       Li-Min%Liu%NULL%0,       Wen%Yin%NULL%0,       Wen%Wang%NULL%0,       Lu-Lu%Guan%NULL%0,       Ming-Li%Yuan%NULL%0,       Yu-Lei%Li%NULL%0,       Yi%Hu%NULL%0,       Xu-Yan%Li%NULL%0,       Bing%Sun%NULL%0,       Peng%Peng%NULL%0,       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Wen-hua%Liang%NULL%0,       Yi%Zhao%NULL%2,       Heng-rui%Liang%NULL%2,       Zi-sheng%Chen%NULL%2,       Yi-min%Li%NULL%2,       Xiao-qing%Liu%NULL%2,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Chun-quan%Ou%NULL%0,       Li%Li%NULL%0,       Ping-yan%Chen%NULL%0,       Ling%Sang%NULL%4,       Wei%Wang%NULL%0,       Jian-fu%Li%NULL%2,       Cai-chen%Li%NULL%2,       Li-min%Ou%NULL%2,       Bo%Cheng%NULL%2,       Shan%Xiong%NULL%2,       Zheng-yi%Ni%NULL%0,       Jie%Xiang%NULL%0,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Lin-ling%Cheng%NULL%2,       Feng%Ye%NULL%4,       Shi-yue%Li%NULL%0,       Jin-ping%Zheng%NULL%2,       Nuo-fu%Zhang%NULL%2,       Nan-shan%Zhong%NULL%0,       Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,       Xiao-Xin%Wu%NULL%0,       Xian-Gao%Jiang%NULL%0,       Kai-Jin%Xu%NULL%0,       Ling-Jun%Ying%NULL%0,       Chun-Lian%Ma%NULL%0,       Shi-Bo%Li%NULL%0,       Hua-Ying%Wang%NULL%0,       Sheng%Zhang%NULL%0,       Hai-Nv%Gao%NULL%0,       Ji-Fang%Sheng%NULL%0,       Hong-Liu%Cai%NULL%0,       Yun-Qing%Qiu%NULL%0,       Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,       Zhe%Dai%NULL%1,       Pingzheng%Mo%NULL%1,       Xinyu%Li%NULL%1,       Zhiyong%Ma%NULL%0,       Shihui%Song%NULL%0,       Xiaoping%Chen%NULL%0,       Mingqi%Luo%NULL%0,       Ke%Liang%NULL%0,       Shicheng%Gao%NULL%0,       Yongxi%Zhang%NULL%0,       Liping%Deng%dengdeng78@126.com%0,       Yong%Xiong%NULL%0,       Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,       Wei-jie%Guan%NULL%1,       Cai-chen%Li%NULL%0,       Yi-min%Li%NULL%0,       Heng-rui%Liang%NULL%0,       Yi%Zhao%NULL%0,       Xiao-qing%Liu%NULL%0,       Ling%Sang%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Wei%Wang%NULL%0,       Qi-hua%He%NULL%1,       Zi-sheng%Chen%NULL%0,       Sook-San%Wong%NULL%1,       Mark%Zanin%NULL%1,       Jun%Liu%NULL%0,       Xin%Xu%NULL%0,       Jun%Huang%NULL%1,       Jian-fu%Li%NULL%0,       Li-min%Ou%NULL%0,       Bo%Cheng%NULL%0,       Shan%Xiong%NULL%0,       Zhan-hong%Xie%NULL%1,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Lin-ling%Cheng%NULL%0,       Feng%Ye%NULL%0,       Shi-yue%Li%NULL%0,       Jin-ping%Zheng%NULL%0,       Nuo-fu%Zhang%NULL%0,       Nan-shan%Zhong%NULL%0,       Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,       Wenbo%He%NULL%2,       Xiaomei%Yu%NULL%2,       Dalong%Hu%NULL%2,       Mingwei%Bao%NULL%2,       Huafen%Liu%NULL%2,       Jiali%Zhou%NULL%2,       Hong%Jiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,       Wenlin%Cheng%NULL%0,       Lei%Yu%NULL%0,       Ya-Kun%Liu%NULL%0,       Xiaoyong%Hu%NULL%0,       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,       Huangqing%Ouyang%NULL%1,       Lingli%Fu%NULL%1,       Shijie%Wang%NULL%1,       Jianglong%Han%NULL%1,       Kejie%Huang%NULL%1,       Mingfang%Jia%NULL%1,       Qibin%Song%NULL%1,       Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%3,       Huilong%Chen%NULL%3,       Weiming%Yan%NULL%3,       Danlei%Yang%NULL%3,       Guang%Chen%NULL%3,       Ke%Ma%NULL%3,       Dong%Xu%NULL%5,       Haijing%Yu%NULL%3,       Hongwu%Wang%NULL%3,       Tao%Wang%NULL%0,       Wei%Guo%NULL%3,       Jia%Chen%NULL%3,       Chen%Ding%NULL%3,       Xiaoping%Zhang%NULL%3,       Jiaquan%Huang%NULL%3,       Meifang%Han%NULL%3,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%3,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%0,      Dong%Xiang%coreGivesNoEmail%0,      Gao%Ya-dong%coreGivesNoEmail%0,      Yan%You-qin%coreGivesNoEmail%0,      Yang%Yi-bin%coreGivesNoEmail%0,      Yuan%Ya-dong%coreGivesNoEmail%0,      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,        Bohan%Yang%NULL%0,        Qianwen%Li%NULL%0,        Lu%Wen%NULL%0,        Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,        Mengqi%Tu%NULL%0,        Shipei%Wang%NULL%0,        Sichao%Chen%NULL%0,        Wei%Zhou%NULL%0,        Danyang%Chen%NULL%0,        Lin%Zhou%NULL%0,        Min%Wang%NULL%0,        Yan%Zhao%NULL%0,        Wen%Zeng%NULL%0,        Qi%Huang%NULL%0,        Hai'bo%Xu%NULL%0,        Zeming%Liu%NULL%0,        Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,        Jiong%Wu%NULL%0,        Faqi%Wu%NULL%0,        Dajing%Guo%NULL%0,        Linli%Chen%NULL%0,        Zheng%Fang%NULL%0,        Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,        Chengcheng%Yu%NULL%0,        Jing%Qu%NULL%0,        Lieguang%Zhang%NULL%0,        Songfeng%Jiang%NULL%0,        Deyang%Huang%NULL%0,        Bihua%Chen%NULL%0,        Zhiping%Zhang%NULL%0,        Wanhua%Guan%NULL%0,        Zhoukun%Ling%NULL%0,        Rui%Jiang%NULL%0,        Tianli%Hu%NULL%0,        Yan%Ding%NULL%0,        Lin%Lin%NULL%0,        Qingxin%Gan%NULL%0,        Liangping%Luo%tluolp@jnu.edu.cn%0,        Xiaoping%Tang%xtang@21cn.com%0,        Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,        Qiqi%Cao%NULL%0,        Le%Qin%NULL%0,        Xiaoyang%Wang%NULL%0,        Zenghui%Cheng%NULL%0,        Ashan%Pan%NULL%0,        Jianyi%Dai%NULL%0,        Qingfeng%Sun%NULL%0,        Fengquan%Zhao%NULL%0,        Jieming%Qu%NULL%0,        Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,        Fang%Jiang%NULL%0,        Wating%Su%NULL%0,        Chang%Chen%NULL%0,        Jingli%Chen%NULL%0,        Wei%Mei%NULL%0,        Li-Ying%Zhan%NULL%0,        Yifan%Jia%NULL%0,        Liangqing%Zhang%NULL%0,        Danyong%Liu%NULL%0,        Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,        Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,        Yun%Ling%NULL%0,        Yun%Ling%NULL%0,        Tao%Bai%NULL%0,        Tao%Bai%NULL%0,        Yusang%Xie%NULL%1,        Jie%Huang%NULL%2,        Jie%Huang%NULL%0,        Jian%Li%NULL%1,        Weining%Xiong%NULL%1,        Dexiang%Yang%NULL%1,        Rong%Chen%NULL%1,        Fangying%Lu%NULL%1,        Yunfei%Lu%NULL%2,        Xuhui%Liu%NULL%1,        Yuqing%Chen%NULL%2,        Yuqing%Chen%NULL%0,        Xin%Li%NULL%0,        Yong%Li%NULL%1,        Hanssa Dwarka%Summah%NULL%1,        Huihuang%Lin%NULL%1,        Jiayang%Yan%NULL%1,        Min%Zhou%NULL%0,        Hongzhou%Lu%NULL%0,        Hongzhou%Lu%NULL%0,        Jieming%Qu%NULL%0,        Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,        Wen%Yin%NULL%0,        Wen%Yin%NULL%0,        Zhaowu%Tao%NULL%1,        Weijun%Tan%NULL%1,        Yi%Hu%NULL%0,        Oliver%Schildgen%NULL%2,        Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,        Yuanyuan%Xing%NULL%0,        Yu%Xiao%NULL%0,        Liping%Deng%NULL%0,        Qiu%Zhao%NULL%0,        Hongling%Wang%NULL%0,        Yong%Xiong%NULL%0,        Zhenshun%Cheng%NULL%0,        Shicheng%Gao%NULL%0,        Ke%Liang%NULL%0,        Mingqi%Luo%NULL%0,        Tielong%Chen%NULL%0,        Shihui%Song%NULL%0,        Zhiyong%Ma%NULL%0,        Xiaoping%Chen%NULL%0,        Ruiying%Zheng%NULL%0,        Qian%Cao%NULL%0,        Fan%Wang%fanndywang@foxmail.com%0,        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,        Xun%Li%NULL%1,        Hui%Chen%NULL%0,        Shaonan%Yan%NULL%1,        Dong%Li%NULL%1,        Yan%Li%NULL%1,        Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,        Chang%Hu%NULL%1,        Linjie%Luo%NULL%1,        Fang%Fang%NULL%1,        Yongfeng%Chen%NULL%1,        Jianguo%Li%NULL%1,        Zhiyong%Peng%NULL%1,        Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,        Yongzhen%Fan%NULL%1,        Ming%Chen%NULL%2,        Xiaoyan%Wu%NULL%2,        Lin%Zhang%NULL%2,        Tao%He%NULL%2,        Hairong%Wang%NULL%2,        Jing%Wan%NULL%1,        Xinghuan%Wang%NULL%1,        Zhibing%Lu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,      Becker%L.B.%coreGivesNoEmail%0,      Chelico%J.D.%coreGivesNoEmail%0,      Cohen%S.L.%coreGivesNoEmail%0,      Cookingham%J.%coreGivesNoEmail%0,      Coppa%K.%coreGivesNoEmail%0,      Crawford%J.M.%coreGivesNoEmail%0,      Davidson%K.W.%coreGivesNoEmail%0,      Diefenbach%M.A.%coreGivesNoEmail%0,      Dominello%A.J.%coreGivesNoEmail%0,      Duer-Hefele%J.%coreGivesNoEmail%0,      Falzon%L.%coreGivesNoEmail%0,      Gitlin%J.%coreGivesNoEmail%0,      Hajizadeh%N.%coreGivesNoEmail%0,      Harvin%T.G.%coreGivesNoEmail%0,      Hirsch%J.S.%coreGivesNoEmail%0,      Hirschwerk%D.A.%coreGivesNoEmail%0,      Kim%E.J.%coreGivesNoEmail%0,      Kozel%Z.M.%coreGivesNoEmail%0,      Marrast%L.M.%coreGivesNoEmail%0,      McGinn%T.%coreGivesNoEmail%0,      Mogavero%J.N.%coreGivesNoEmail%0,      Narasimhan%M.%coreGivesNoEmail%0,      Osorio%G.A.%coreGivesNoEmail%0,      Qiu%M.%coreGivesNoEmail%0,      Richardson%S.%coreGivesNoEmail%0,      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        Nancy%Chow%NULL%1,        Katherine%Fleming-Dutra%NULL%1,        Ryan%Gierke%NULL%1,        Aron%Hall%NULL%1,        Michelle%Hughes%NULL%1,        Tamara%Pilishvili%NULL%1,        Matthew%Ritchey%NULL%1,        Katherine%Roguski%NULL%1,        Tami%Skoff%NULL%1,        Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,      Cabrini%Luca%coreGivesNoEmail%0,      Castelli%Antonio%coreGivesNoEmail%0,      Cecconi%Maurizio%coreGivesNoEmail%0,      Cereda%Danilo%coreGivesNoEmail%0,      Coluccello%Antonio%coreGivesNoEmail%0,      Foti%Giuseppe%coreGivesNoEmail%0,      Fumagalli%Roberto%coreGivesNoEmail%0,      Grasselli%Giacomo%coreGivesNoEmail%0,      Iotti%Giorgio%coreGivesNoEmail%0,      Latronico%Nicola%coreGivesNoEmail%0,      Lorini%Luca%coreGivesNoEmail%0,      Merler%Stefano%coreGivesNoEmail%0,      Natalini%Giuseppe%coreGivesNoEmail%0,      Pesenti%Antonio%coreGivesNoEmail%0,      Piatti%Alessandra%coreGivesNoEmail%0,      Ranieri%Marco Vito%coreGivesNoEmail%0,      Scandroglio%Anna Mara%coreGivesNoEmail%0,      Storti%Enrico%coreGivesNoEmail%0,      Zanella%Alberto%coreGivesNoEmail%0,      Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,        Lei%Tu%NULL%3,        Lei%Tu%NULL%0,        Pingjun%Zhu%NULL%2,        Pingjun%Zhu%NULL%0,        Mi%Mu%NULL%3,        Mi%Mu%NULL%0,        Runsheng%Wang%NULL%2,        Pengcheng%Yang%NULL%2,        Xi%Wang%NULL%1,        Chao%Hu%NULL%2,        Rongyu%Ping%NULL%2,        Peng%Hu%NULL%2,        Tianzhi%Li%NULL%2,        Feng%Cao%NULL%1,        Christopher%Chang%NULL%1,        Qinyong%Hu%NULL%2,        Yang%Jin%NULL%1,        Guogang%Xu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,        Min%Zhou%NULL%0,        Xuan%Dong%NULL%0,        Jieming%Qu%NULL%0,        Fengyun%Gong%NULL%0,        Yang%Han%NULL%0,        Yang%Qiu%NULL%0,        Jingli%Wang%NULL%0,        Ying%Liu%NULL%0,        Yuan%Wei%NULL%0,        Jia'an%Xia%NULL%0,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%0,        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%0,        Yan%Deng%NULL%0,        Wei%Liu%NULL%0,        Mei-Fang%Wang%NULL%0,        Jing-Ping%Ma%NULL%0,        Wei%Xiao%NULL%0,        Ying-Nan%Wang%NULL%0,        Min-Hua%Zhong%NULL%0,        Cheng-Hong%Li%NULL%0,        Guang-Cai%Li%NULL%0,        Hui-Guo%Liu%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Xiu-Yuan%Hao%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,        Yang%Yang%NULL%0,        Cong%Zhang%NULL%1,        Fengming%Huang%NULL%1,        Fuxiang%Wang%NULL%1,        Jing%Yuan%NULL%0,        Zhaoqin%Wang%NULL%1,        Jinxiu%Li%NULL%1,        Jianming%Li%NULL%1,        Cheng%Feng%NULL%1,        Zheng%Zhang%NULL%0,        Lifei%Wang%NULL%1,        Ling%Peng%NULL%1,        Li%Chen%NULL%1,        Yuhao%Qin%NULL%1,        Dandan%Zhao%NULL%1,        Shuguang%Tan%NULL%1,        Lu%Yin%NULL%0,        Jun%Xu%NULL%1,        Congzhao%Zhou%NULL%1,        Chengyu%Jiang%jiang@pumc.edu.cn%1,        Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,        Li-Min%Liu%NULL%0,        Wen%Yin%NULL%0,        Wen%Wang%NULL%0,        Lu-Lu%Guan%NULL%0,        Ming-Li%Yuan%NULL%0,        Yu-Lei%Li%NULL%0,        Yi%Hu%NULL%0,        Xu-Yan%Li%NULL%0,        Bing%Sun%NULL%0,        Peng%Peng%NULL%0,        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Wen-hua%Liang%NULL%0,        Yi%Zhao%NULL%2,        Heng-rui%Liang%NULL%2,        Zi-sheng%Chen%NULL%2,        Yi-min%Li%NULL%2,        Xiao-qing%Liu%NULL%2,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Chun-quan%Ou%NULL%0,        Li%Li%NULL%0,        Ping-yan%Chen%NULL%0,        Ling%Sang%NULL%4,        Wei%Wang%NULL%0,        Jian-fu%Li%NULL%2,        Cai-chen%Li%NULL%2,        Li-min%Ou%NULL%2,        Bo%Cheng%NULL%2,        Shan%Xiong%NULL%2,        Zheng-yi%Ni%NULL%0,        Jie%Xiang%NULL%0,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Lin-ling%Cheng%NULL%2,        Feng%Ye%NULL%4,        Shi-yue%Li%NULL%0,        Jin-ping%Zheng%NULL%2,        Nuo-fu%Zhang%NULL%2,        Nan-shan%Zhong%NULL%0,        Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,        Xiao-Xin%Wu%NULL%0,        Xian-Gao%Jiang%NULL%0,        Kai-Jin%Xu%NULL%0,        Ling-Jun%Ying%NULL%0,        Chun-Lian%Ma%NULL%0,        Shi-Bo%Li%NULL%0,        Hua-Ying%Wang%NULL%0,        Sheng%Zhang%NULL%0,        Hai-Nv%Gao%NULL%0,        Ji-Fang%Sheng%NULL%0,        Hong-Liu%Cai%NULL%0,        Yun-Qing%Qiu%NULL%0,        Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,        Zhe%Dai%NULL%1,        Pingzheng%Mo%NULL%1,        Xinyu%Li%NULL%1,        Zhiyong%Ma%NULL%0,        Shihui%Song%NULL%0,        Xiaoping%Chen%NULL%0,        Mingqi%Luo%NULL%0,        Ke%Liang%NULL%0,        Shicheng%Gao%NULL%0,        Yongxi%Zhang%NULL%0,        Liping%Deng%dengdeng78@126.com%0,        Yong%Xiong%NULL%0,        Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,        Wei-jie%Guan%NULL%1,        Cai-chen%Li%NULL%0,        Yi-min%Li%NULL%0,        Heng-rui%Liang%NULL%0,        Yi%Zhao%NULL%0,        Xiao-qing%Liu%NULL%0,        Ling%Sang%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Wei%Wang%NULL%0,        Qi-hua%He%NULL%1,        Zi-sheng%Chen%NULL%0,        Sook-San%Wong%NULL%1,        Mark%Zanin%NULL%1,        Jun%Liu%NULL%0,        Xin%Xu%NULL%0,        Jun%Huang%NULL%1,        Jian-fu%Li%NULL%0,        Li-min%Ou%NULL%0,        Bo%Cheng%NULL%0,        Shan%Xiong%NULL%0,        Zhan-hong%Xie%NULL%1,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Lin-ling%Cheng%NULL%0,        Feng%Ye%NULL%0,        Shi-yue%Li%NULL%0,        Jin-ping%Zheng%NULL%0,        Nuo-fu%Zhang%NULL%0,        Nan-shan%Zhong%NULL%0,        Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,        Wenbo%He%NULL%2,        Xiaomei%Yu%NULL%2,        Dalong%Hu%NULL%2,        Mingwei%Bao%NULL%2,        Huafen%Liu%NULL%2,        Jiali%Zhou%NULL%2,        Hong%Jiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,        Wenlin%Cheng%NULL%0,        Lei%Yu%NULL%0,        Ya-Kun%Liu%NULL%0,        Xiaoyong%Hu%NULL%0,        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,        Huangqing%Ouyang%NULL%1,        Lingli%Fu%NULL%1,        Shijie%Wang%NULL%1,        Jianglong%Han%NULL%1,        Kejie%Huang%NULL%1,        Mingfang%Jia%NULL%1,        Qibin%Song%NULL%1,        Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%3,        Huilong%Chen%NULL%3,        Weiming%Yan%NULL%3,        Danlei%Yang%NULL%3,        Guang%Chen%NULL%3,        Ke%Ma%NULL%3,        Dong%Xu%NULL%5,        Haijing%Yu%NULL%3,        Hongwu%Wang%NULL%3,        Tao%Wang%NULL%0,        Wei%Guo%NULL%3,        Jia%Chen%NULL%3,        Chen%Ding%NULL%3,        Xiaoping%Zhang%NULL%3,        Jiaquan%Huang%NULL%3,        Meifang%Han%NULL%3,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%3,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%3]</t>
   </si>
 </sst>
 </file>
@@ -1925,13 +2231,13 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>422</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
@@ -1954,7 +2260,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>423</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -1983,7 +2289,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -2041,7 +2347,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2070,7 +2376,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>426</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2099,7 +2405,7 @@
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -2128,7 +2434,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -2157,7 +2463,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>326</v>
+        <v>428</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2186,7 +2492,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2215,7 +2521,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>430</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2244,7 +2550,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -2273,7 +2579,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>432</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -2302,7 +2608,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>433</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -2331,7 +2637,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>332</v>
+        <v>434</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -2360,7 +2666,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -2389,13 +2695,13 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>334</v>
+        <v>436</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="H18" t="s">
         <v>58</v>
@@ -2418,7 +2724,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>335</v>
+        <v>437</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -2505,13 +2811,13 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>336</v>
+        <v>438</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="H22" t="s">
         <v>58</v>
@@ -2534,7 +2840,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>337</v>
+        <v>439</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2592,7 +2898,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>338</v>
+        <v>440</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -2621,13 +2927,13 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>339</v>
+        <v>441</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="H26" t="s">
         <v>58</v>
@@ -2679,7 +2985,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>340</v>
+        <v>442</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -2708,7 +3014,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -2737,7 +3043,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>342</v>
+        <v>444</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -2766,7 +3072,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>343</v>
+        <v>445</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -2795,7 +3101,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>344</v>
+        <v>446</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -2824,7 +3130,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>345</v>
+        <v>447</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -2853,7 +3159,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>346</v>
+        <v>448</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -2882,7 +3188,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>347</v>
+        <v>449</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -2911,7 +3217,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>348</v>
+        <v>450</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -2940,7 +3246,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -2969,7 +3275,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -2998,7 +3304,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -3027,7 +3333,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>352</v>
+        <v>454</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3056,7 +3362,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>353</v>
+        <v>455</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="532">
   <si>
     <t>Doi</t>
   </si>
@@ -1874,6 +1874,234 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%3,        Huilong%Chen%NULL%3,        Weiming%Yan%NULL%3,        Danlei%Yang%NULL%3,        Guang%Chen%NULL%3,        Ke%Ma%NULL%3,        Dong%Xu%NULL%5,        Haijing%Yu%NULL%3,        Hongwu%Wang%NULL%3,        Tao%Wang%NULL%0,        Wei%Guo%NULL%3,        Jia%Chen%NULL%3,        Chen%Ding%NULL%3,        Xiaoping%Zhang%NULL%3,        Jiaquan%Huang%NULL%3,        Meifang%Han%NULL%3,        Shusheng%Li%NULL%0,        Xiaoping%Luo%NULL%3,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%0,       Dong%Xiang%coreGivesNoEmail%0,       Gao%Ya-dong%coreGivesNoEmail%0,       Yan%You-qin%coreGivesNoEmail%0,       Yang%Yi-bin%coreGivesNoEmail%0,       Yuan%Ya-dong%coreGivesNoEmail%0,       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,         Bohan%Yang%NULL%0,         Qianwen%Li%NULL%0,         Lu%Wen%NULL%0,         Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Risk Factors Associated With Acute Respiratory Distress Syndrome and Death in Patients With Coronavirus Disease 2019 Pneumonia in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0, Xiaoyan%Chen%xref no email%0, Yanping%Cai%xref no email%0, Jia\u2019an%Xia%xref no email%0, Xing%Zhou%xref no email%0, Sha%Xu%xref no email%0, Hanping%Huang%xref no email%0, Li%Zhang%xref no email%0, Xia%Zhou%xref no email%0, Chunling%Du%xref no email%0, Yuye%Zhang%xref no email%0, Juan%Song%xref no email%0, Sijiao%Wang%xref no email%0, Yencheng%Chao%xref no email%0, Zeyong%Yang%xref no email%0, Jie%Xu%xref no email%0, Xin%Zhou%xref no email%0, Dechang%Chen%xref no email%0, Weining%Xiong%xref no email%0, Lei%Xu%xref no email%0, Feng%Zhou%xref no email%0, Jinjun%Jiang%xref no email%0, Chunxue%Bai%xref no email%0, Junhua%Zheng%xref no email%0, Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,         Mengqi%Tu%NULL%0,         Shipei%Wang%NULL%0,         Sichao%Chen%NULL%0,         Wei%Zhou%NULL%0,         Danyang%Chen%NULL%0,         Lin%Zhou%NULL%0,         Min%Wang%NULL%0,         Yan%Zhao%NULL%0,         Wen%Zeng%NULL%0,         Qi%Huang%NULL%0,         Hai'bo%Xu%NULL%0,         Zeming%Liu%NULL%0,         Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,         Jiong%Wu%NULL%0,         Faqi%Wu%NULL%0,         Dajing%Guo%NULL%0,         Linli%Chen%NULL%0,         Zheng%Fang%NULL%0,         Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,         Chengcheng%Yu%NULL%0,         Jing%Qu%NULL%0,         Lieguang%Zhang%NULL%0,         Songfeng%Jiang%NULL%0,         Deyang%Huang%NULL%0,         Bihua%Chen%NULL%0,         Zhiping%Zhang%NULL%0,         Wanhua%Guan%NULL%0,         Zhoukun%Ling%NULL%0,         Rui%Jiang%NULL%0,         Tianli%Hu%NULL%0,         Yan%Ding%NULL%0,         Lin%Lin%NULL%0,         Qingxin%Gan%NULL%0,         Liangping%Luo%tluolp@jnu.edu.cn%0,         Xiaoping%Tang%xtang@21cn.com%0,         Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,         Qiqi%Cao%NULL%0,         Le%Qin%NULL%0,         Xiaoyang%Wang%NULL%0,         Zenghui%Cheng%NULL%0,         Ashan%Pan%NULL%0,         Jianyi%Dai%NULL%0,         Qingfeng%Sun%NULL%0,         Fengquan%Zhao%NULL%0,         Jieming%Qu%NULL%0,         Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,         Fang%Jiang%NULL%0,         Wating%Su%NULL%0,         Chang%Chen%NULL%0,         Jingli%Chen%NULL%0,         Wei%Mei%NULL%0,         Li-Ying%Zhan%NULL%0,         Yifan%Jia%NULL%0,         Liangqing%Zhang%NULL%0,         Danyong%Liu%NULL%0,         Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,         Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,         Yun%Ling%NULL%0,         Yun%Ling%NULL%0,         Tao%Bai%NULL%0,         Tao%Bai%NULL%0,         Yusang%Xie%NULL%0,         Jie%Huang%NULL%0,         Jie%Huang%NULL%0,         Jian%Li%NULL%0,         Weining%Xiong%NULL%0,         Dexiang%Yang%NULL%0,         Rong%Chen%NULL%0,         Fangying%Lu%NULL%0,         Yunfei%Lu%NULL%0,         Xuhui%Liu%NULL%0,         Yuqing%Chen%NULL%0,         Yuqing%Chen%NULL%0,         Xin%Li%NULL%0,         Yong%Li%NULL%0,         Hanssa Dwarka%Summah%NULL%0,         Huihuang%Lin%NULL%0,         Jiayang%Yan%NULL%0,         Min%Zhou%NULL%0,         Hongzhou%Lu%NULL%0,         Hongzhou%Lu%NULL%0,         Jieming%Qu%NULL%0,         Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,         Wen%Yin%NULL%0,         Wen%Yin%NULL%0,         Zhaowu%Tao%NULL%1,         Weijun%Tan%NULL%1,         Yi%Hu%NULL%0,         Oliver%Schildgen%NULL%2,         Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,         Yuanyuan%Xing%NULL%0,         Yu%Xiao%NULL%0,         Liping%Deng%NULL%0,         Qiu%Zhao%NULL%0,         Hongling%Wang%NULL%0,         Yong%Xiong%NULL%0,         Zhenshun%Cheng%NULL%0,         Shicheng%Gao%NULL%0,         Ke%Liang%NULL%0,         Mingqi%Luo%NULL%0,         Tielong%Chen%NULL%0,         Shihui%Song%NULL%0,         Zhiyong%Ma%NULL%0,         Xiaoping%Chen%NULL%0,         Ruiying%Zheng%NULL%0,         Qian%Cao%NULL%0,         Fan%Wang%fanndywang@foxmail.com%0,         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,         Xun%Li%NULL%1,         Hui%Chen%NULL%0,         Shaonan%Yan%NULL%1,         Dong%Li%NULL%1,         Yan%Li%NULL%1,         Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,         Chang%Hu%NULL%0,         Linjie%Luo%NULL%0,         Fang%Fang%NULL%0,         Yongfeng%Chen%NULL%0,         Jianguo%Li%NULL%0,         Zhiyong%Peng%NULL%0,         Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,         Yongzhen%Fan%NULL%0,         Ming%Chen%NULL%0,         Xiaoyan%Wu%NULL%0,         Lin%Zhang%NULL%0,         Tao%He%NULL%0,         Hairong%Wang%NULL%0,         Jing%Wan%NULL%0,         Xinghuan%Wang%NULL%0,         Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,       Becker%L.B.%coreGivesNoEmail%0,       Chelico%J.D.%coreGivesNoEmail%0,       Cohen%S.L.%coreGivesNoEmail%0,       Cookingham%J.%coreGivesNoEmail%0,       Coppa%K.%coreGivesNoEmail%0,       Crawford%J.M.%coreGivesNoEmail%0,       Davidson%K.W.%coreGivesNoEmail%0,       Diefenbach%M.A.%coreGivesNoEmail%0,       Dominello%A.J.%coreGivesNoEmail%0,       Duer-Hefele%J.%coreGivesNoEmail%0,       Falzon%L.%coreGivesNoEmail%0,       Gitlin%J.%coreGivesNoEmail%0,       Hajizadeh%N.%coreGivesNoEmail%0,       Harvin%T.G.%coreGivesNoEmail%0,       Hirsch%J.S.%coreGivesNoEmail%0,       Hirschwerk%D.A.%coreGivesNoEmail%0,       Kim%E.J.%coreGivesNoEmail%0,       Kozel%Z.M.%coreGivesNoEmail%0,       Marrast%L.M.%coreGivesNoEmail%0,       McGinn%T.%coreGivesNoEmail%0,       Mogavero%J.N.%coreGivesNoEmail%0,       Narasimhan%M.%coreGivesNoEmail%0,       Osorio%G.A.%coreGivesNoEmail%0,       Qiu%M.%coreGivesNoEmail%0,       Richardson%S.%coreGivesNoEmail%0,       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         Nancy%Chow%NULL%0,         Katherine%Fleming-Dutra%NULL%0,         Ryan%Gierke%NULL%0,         Aron%Hall%NULL%0,         Michelle%Hughes%NULL%0,         Tamara%Pilishvili%NULL%0,         Matthew%Ritchey%NULL%0,         Katherine%Roguski%NULL%0,         Tami%Skoff%NULL%0,         Emily%Ussery%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Epidemiologic Features and Clinical Course of Patients Infected With SARS-CoV-2 in Singapore"</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0, Sean Wei Xiang%Ong%xref no email%0, Shirin%Kalimuddin%xref no email%0, Jenny G.%Low%xref no email%0, Seow Yen%Tan%xref no email%0, Jiashen%Loh%xref no email%0, Oon-Tek%Ng%xref no email%0, Kalisvar%Marimuthu%xref no email%0, Li Wei%Ang%xref no email%0, Tze Minn%Mak%xref no email%0, Sok Kiang%Lau%xref no email%0, Danielle E.%Anderson%xref no email%0, Kian Sing%Chan%xref no email%0, Thean Yen%Tan%xref no email%0, Tong Yong%Ng%xref no email%0, Lin%Cui%xref no email%0, Zubaidah%Said%xref no email%0, Lalitha%Kurupatham%xref no email%0, Mark I-Cheng%Chen%xref no email%0, Monica%Chan%xref no email%0, Shawn%Vasoo%xref no email%0, Lin-Fa%Wang%xref no email%0, Boon Huan%Tan%xref no email%0, Raymond Tzer Pin%Lin%xref no email%0, Vernon Jian Ming%Lee%xref no email%0, Yee-Sin%Leo%xref no email%0, David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,       Cabrini%Luca%coreGivesNoEmail%0,       Castelli%Antonio%coreGivesNoEmail%0,       Cecconi%Maurizio%coreGivesNoEmail%0,       Cereda%Danilo%coreGivesNoEmail%0,       Coluccello%Antonio%coreGivesNoEmail%0,       Foti%Giuseppe%coreGivesNoEmail%0,       Fumagalli%Roberto%coreGivesNoEmail%0,       Grasselli%Giacomo%coreGivesNoEmail%0,       Iotti%Giorgio%coreGivesNoEmail%0,       Latronico%Nicola%coreGivesNoEmail%0,       Lorini%Luca%coreGivesNoEmail%0,       Merler%Stefano%coreGivesNoEmail%0,       Natalini%Giuseppe%coreGivesNoEmail%0,       Pesenti%Antonio%coreGivesNoEmail%0,       Piatti%Alessandra%coreGivesNoEmail%0,       Ranieri%Marco Vito%coreGivesNoEmail%0,       Scandroglio%Anna Mara%coreGivesNoEmail%0,       Storti%Enrico%coreGivesNoEmail%0,       Zanella%Alberto%coreGivesNoEmail%0,       Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,         Lei%Tu%NULL%0,         Lei%Tu%NULL%0,         Pingjun%Zhu%NULL%0,         Pingjun%Zhu%NULL%0,         Mi%Mu%NULL%0,         Mi%Mu%NULL%0,         Runsheng%Wang%NULL%0,         Pengcheng%Yang%NULL%0,         Xi%Wang%NULL%0,         Chao%Hu%NULL%0,         Rongyu%Ping%NULL%0,         Peng%Hu%NULL%0,         Tianzhi%Li%NULL%0,         Feng%Cao%NULL%0,         Christopher%Chang%NULL%0,         Qinyong%Hu%NULL%0,         Yang%Jin%NULL%0,         Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,         Min%Zhou%NULL%0,         Xuan%Dong%NULL%0,         Jieming%Qu%NULL%0,         Fengyun%Gong%NULL%0,         Yang%Han%NULL%0,         Yang%Qiu%NULL%0,         Jingli%Wang%NULL%0,         Ying%Liu%NULL%0,         Yuan%Wei%NULL%0,         Jia'an%Xia%NULL%0,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%0,         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,       Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%0,         Yan%Deng%NULL%0,         Wei%Liu%NULL%0,         Mei-Fang%Wang%NULL%0,         Jing-Ping%Ma%NULL%0,         Wei%Xiao%NULL%0,         Ying-Nan%Wang%NULL%0,         Min-Hua%Zhong%NULL%0,         Cheng-Hong%Li%NULL%0,         Guang-Cai%Li%NULL%0,         Hui-Guo%Liu%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Xiu-Yuan%Hao%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,         Yang%Yang%NULL%0,         Cong%Zhang%NULL%0,         Fengming%Huang%NULL%0,         Fuxiang%Wang%NULL%0,         Jing%Yuan%NULL%0,         Zhaoqin%Wang%NULL%0,         Jinxiu%Li%NULL%0,         Jianming%Li%NULL%0,         Cheng%Feng%NULL%0,         Zheng%Zhang%NULL%0,         Lifei%Wang%NULL%0,         Ling%Peng%NULL%0,         Li%Chen%NULL%0,         Yuhao%Qin%NULL%0,         Dandan%Zhao%NULL%0,         Shuguang%Tan%NULL%0,         Lu%Yin%NULL%0,         Jun%Xu%NULL%0,         Congzhao%Zhou%NULL%0,         Chengyu%Jiang%jiang@pumc.edu.cn%0,         Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,         Li-Min%Liu%NULL%0,         Wen%Yin%NULL%0,         Wen%Wang%NULL%0,         Lu-Lu%Guan%NULL%0,         Ming-Li%Yuan%NULL%0,         Yu-Lei%Li%NULL%0,         Yi%Hu%NULL%0,         Xu-Yan%Li%NULL%0,         Bing%Sun%NULL%0,         Peng%Peng%NULL%0,         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Wen-hua%Liang%NULL%0,         Yi%Zhao%NULL%0,         Heng-rui%Liang%NULL%0,         Zi-sheng%Chen%NULL%0,         Yi-min%Li%NULL%0,         Xiao-qing%Liu%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Chun-quan%Ou%NULL%0,         Li%Li%NULL%0,         Ping-yan%Chen%NULL%0,         Ling%Sang%NULL%0,         Wei%Wang%NULL%0,         Jian-fu%Li%NULL%0,         Cai-chen%Li%NULL%0,         Li-min%Ou%NULL%0,         Bo%Cheng%NULL%0,         Shan%Xiong%NULL%0,         Zheng-yi%Ni%NULL%0,         Jie%Xiang%NULL%0,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Lin-ling%Cheng%NULL%0,         Feng%Ye%NULL%0,         Shi-yue%Li%NULL%0,         Jin-ping%Zheng%NULL%0,         Nuo-fu%Zhang%NULL%0,         Nan-shan%Zhong%NULL%0,         Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,         Xiao-Xin%Wu%NULL%0,         Xian-Gao%Jiang%NULL%0,         Kai-Jin%Xu%NULL%0,         Ling-Jun%Ying%NULL%0,         Chun-Lian%Ma%NULL%0,         Shi-Bo%Li%NULL%0,         Hua-Ying%Wang%NULL%0,         Sheng%Zhang%NULL%0,         Hai-Nv%Gao%NULL%0,         Ji-Fang%Sheng%NULL%0,         Hong-Liu%Cai%NULL%0,         Yun-Qing%Qiu%NULL%0,         Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,         Zhe%Dai%NULL%1,         Pingzheng%Mo%NULL%1,         Xinyu%Li%NULL%1,         Zhiyong%Ma%NULL%0,         Shihui%Song%NULL%0,         Xiaoping%Chen%NULL%0,         Mingqi%Luo%NULL%0,         Ke%Liang%NULL%0,         Shicheng%Gao%NULL%0,         Yongxi%Zhang%NULL%0,         Liping%Deng%dengdeng78@126.com%0,         Yong%Xiong%NULL%0,         Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,         Wei-jie%Guan%NULL%0,         Cai-chen%Li%NULL%0,         Yi-min%Li%NULL%0,         Heng-rui%Liang%NULL%0,         Yi%Zhao%NULL%0,         Xiao-qing%Liu%NULL%0,         Ling%Sang%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Wei%Wang%NULL%0,         Qi-hua%He%NULL%0,         Zi-sheng%Chen%NULL%0,         Sook-San%Wong%NULL%0,         Mark%Zanin%NULL%0,         Jun%Liu%NULL%0,         Xin%Xu%NULL%0,         Jun%Huang%NULL%0,         Jian-fu%Li%NULL%0,         Li-min%Ou%NULL%0,         Bo%Cheng%NULL%0,         Shan%Xiong%NULL%0,         Zhan-hong%Xie%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Lin-ling%Cheng%NULL%0,         Feng%Ye%NULL%0,         Shi-yue%Li%NULL%0,         Jin-ping%Zheng%NULL%0,         Nuo-fu%Zhang%NULL%0,         Nan-shan%Zhong%NULL%0,         Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,         Wenbo%He%NULL%0,         Xiaomei%Yu%NULL%0,         Dalong%Hu%NULL%0,         Mingwei%Bao%NULL%0,         Huafen%Liu%NULL%0,         Jiali%Zhou%NULL%0,         Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,         Wenlin%Cheng%NULL%0,         Lei%Yu%NULL%0,         Ya-Kun%Liu%NULL%0,         Xiaoyong%Hu%NULL%0,         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,         Huangqing%Ouyang%NULL%0,         Lingli%Fu%NULL%0,         Shijie%Wang%NULL%0,         Jianglong%Han%NULL%0,         Kejie%Huang%NULL%0,         Mingfang%Jia%NULL%0,         Qibin%Song%NULL%0,         Zhenming%Fu%davidfuzming@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%0,         Huilong%Chen%NULL%0,         Weiming%Yan%NULL%0,         Danlei%Yang%NULL%0,         Guang%Chen%NULL%0,         Ke%Ma%NULL%0,         Dong%Xu%NULL%0,         Haijing%Yu%NULL%0,         Hongwu%Wang%NULL%0,         Tao%Wang%NULL%0,         Wei%Guo%NULL%0,         Jia%Chen%NULL%0,         Chen%Ding%NULL%0,         Xiaoping%Zhang%NULL%0,         Jiaquan%Huang%NULL%0,         Meifang%Han%NULL%0,         Shusheng%Li%NULL%0,         Xiaoping%Luo%NULL%0,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%0,        Dong%Xiang%coreGivesNoEmail%0,        Gao%Ya-dong%coreGivesNoEmail%0,        Yan%You-qin%coreGivesNoEmail%0,        Yang%Yi-bin%coreGivesNoEmail%0,        Yuan%Ya-dong%coreGivesNoEmail%0,        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,          Bohan%Yang%NULL%0,          Qianwen%Li%NULL%0,          Lu%Wen%NULL%0,          Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,  Xiaoyan%Chen%xref no email%0,  Yanping%Cai%xref no email%0,  Jia\u2019an%Xia%xref no email%0,  Xing%Zhou%xref no email%0,  Sha%Xu%xref no email%0,  Hanping%Huang%xref no email%0,  Li%Zhang%xref no email%0,  Xia%Zhou%xref no email%0,  Chunling%Du%xref no email%0,  Yuye%Zhang%xref no email%0,  Juan%Song%xref no email%0,  Sijiao%Wang%xref no email%0,  Yencheng%Chao%xref no email%0,  Zeyong%Yang%xref no email%0,  Jie%Xu%xref no email%0,  Xin%Zhou%xref no email%0,  Dechang%Chen%xref no email%0,  Weining%Xiong%xref no email%0,  Lei%Xu%xref no email%0,  Feng%Zhou%xref no email%0,  Jinjun%Jiang%xref no email%0,  Chunxue%Bai%xref no email%0,  Junhua%Zheng%xref no email%0,  Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,          Mengqi%Tu%NULL%0,          Shipei%Wang%NULL%0,          Sichao%Chen%NULL%0,          Wei%Zhou%NULL%0,          Danyang%Chen%NULL%0,          Lin%Zhou%NULL%0,          Min%Wang%NULL%0,          Yan%Zhao%NULL%0,          Wen%Zeng%NULL%0,          Qi%Huang%NULL%0,          Hai'bo%Xu%NULL%0,          Zeming%Liu%NULL%0,          Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,          Jiong%Wu%NULL%0,          Faqi%Wu%NULL%0,          Dajing%Guo%NULL%0,          Linli%Chen%NULL%0,          Zheng%Fang%NULL%0,          Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,          Chengcheng%Yu%NULL%0,          Jing%Qu%NULL%0,          Lieguang%Zhang%NULL%0,          Songfeng%Jiang%NULL%0,          Deyang%Huang%NULL%0,          Bihua%Chen%NULL%0,          Zhiping%Zhang%NULL%0,          Wanhua%Guan%NULL%0,          Zhoukun%Ling%NULL%0,          Rui%Jiang%NULL%0,          Tianli%Hu%NULL%0,          Yan%Ding%NULL%0,          Lin%Lin%NULL%0,          Qingxin%Gan%NULL%0,          Liangping%Luo%tluolp@jnu.edu.cn%0,          Xiaoping%Tang%xtang@21cn.com%0,          Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,          Qiqi%Cao%NULL%0,          Le%Qin%NULL%0,          Xiaoyang%Wang%NULL%0,          Zenghui%Cheng%NULL%0,          Ashan%Pan%NULL%0,          Jianyi%Dai%NULL%0,          Qingfeng%Sun%NULL%0,          Fengquan%Zhao%NULL%0,          Jieming%Qu%NULL%0,          Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,          Fang%Jiang%NULL%0,          Wating%Su%NULL%0,          Chang%Chen%NULL%0,          Jingli%Chen%NULL%0,          Wei%Mei%NULL%0,          Li-Ying%Zhan%NULL%0,          Yifan%Jia%NULL%0,          Liangqing%Zhang%NULL%0,          Danyong%Liu%NULL%0,          Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,          Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,          Yun%Ling%NULL%0,          Yun%Ling%NULL%0,          Tao%Bai%NULL%0,          Tao%Bai%NULL%0,          Yusang%Xie%NULL%0,          Jie%Huang%NULL%0,          Jie%Huang%NULL%0,          Jian%Li%NULL%0,          Weining%Xiong%NULL%0,          Dexiang%Yang%NULL%0,          Rong%Chen%NULL%0,          Fangying%Lu%NULL%0,          Yunfei%Lu%NULL%0,          Xuhui%Liu%NULL%0,          Yuqing%Chen%NULL%0,          Yuqing%Chen%NULL%0,          Xin%Li%NULL%0,          Yong%Li%NULL%0,          Hanssa Dwarka%Summah%NULL%0,          Huihuang%Lin%NULL%0,          Jiayang%Yan%NULL%0,          Min%Zhou%NULL%0,          Hongzhou%Lu%NULL%0,          Hongzhou%Lu%NULL%0,          Jieming%Qu%NULL%0,          Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,          Wen%Yin%NULL%0,          Wen%Yin%NULL%0,          Zhaowu%Tao%NULL%1,          Weijun%Tan%NULL%1,          Yi%Hu%NULL%0,          Oliver%Schildgen%NULL%2,          Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,          Yuanyuan%Xing%NULL%0,          Yu%Xiao%NULL%0,          Liping%Deng%NULL%0,          Qiu%Zhao%NULL%0,          Hongling%Wang%NULL%0,          Yong%Xiong%NULL%0,          Zhenshun%Cheng%NULL%0,          Shicheng%Gao%NULL%0,          Ke%Liang%NULL%0,          Mingqi%Luo%NULL%0,          Tielong%Chen%NULL%0,          Shihui%Song%NULL%0,          Zhiyong%Ma%NULL%0,          Xiaoping%Chen%NULL%0,          Ruiying%Zheng%NULL%0,          Qian%Cao%NULL%0,          Fan%Wang%fanndywang@foxmail.com%0,          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,          Xun%Li%NULL%1,          Hui%Chen%NULL%0,          Shaonan%Yan%NULL%1,          Dong%Li%NULL%1,          Yan%Li%NULL%1,          Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,          Chang%Hu%NULL%0,          Linjie%Luo%NULL%0,          Fang%Fang%NULL%0,          Yongfeng%Chen%NULL%0,          Jianguo%Li%NULL%0,          Zhiyong%Peng%NULL%0,          Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,          Yongzhen%Fan%NULL%0,          Ming%Chen%NULL%0,          Xiaoyan%Wu%NULL%0,          Lin%Zhang%NULL%0,          Tao%He%NULL%0,          Hairong%Wang%NULL%0,          Jing%Wan%NULL%0,          Xinghuan%Wang%NULL%0,          Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,        Becker%L.B.%coreGivesNoEmail%0,        Chelico%J.D.%coreGivesNoEmail%0,        Cohen%S.L.%coreGivesNoEmail%0,        Cookingham%J.%coreGivesNoEmail%0,        Coppa%K.%coreGivesNoEmail%0,        Crawford%J.M.%coreGivesNoEmail%0,        Davidson%K.W.%coreGivesNoEmail%0,        Diefenbach%M.A.%coreGivesNoEmail%0,        Dominello%A.J.%coreGivesNoEmail%0,        Duer-Hefele%J.%coreGivesNoEmail%0,        Falzon%L.%coreGivesNoEmail%0,        Gitlin%J.%coreGivesNoEmail%0,        Hajizadeh%N.%coreGivesNoEmail%0,        Harvin%T.G.%coreGivesNoEmail%0,        Hirsch%J.S.%coreGivesNoEmail%0,        Hirschwerk%D.A.%coreGivesNoEmail%0,        Kim%E.J.%coreGivesNoEmail%0,        Kozel%Z.M.%coreGivesNoEmail%0,        Marrast%L.M.%coreGivesNoEmail%0,        McGinn%T.%coreGivesNoEmail%0,        Mogavero%J.N.%coreGivesNoEmail%0,        Narasimhan%M.%coreGivesNoEmail%0,        Osorio%G.A.%coreGivesNoEmail%0,        Qiu%M.%coreGivesNoEmail%0,        Richardson%S.%coreGivesNoEmail%0,        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          Nancy%Chow%NULL%0,          Katherine%Fleming-Dutra%NULL%0,          Ryan%Gierke%NULL%0,          Aron%Hall%NULL%0,          Michelle%Hughes%NULL%0,          Tamara%Pilishvili%NULL%0,          Matthew%Ritchey%NULL%0,          Katherine%Roguski%NULL%0,          Tami%Skoff%NULL%0,          Emily%Ussery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,  Sean Wei Xiang%Ong%xref no email%0,  Shirin%Kalimuddin%xref no email%0,  Jenny G.%Low%xref no email%0,  Seow Yen%Tan%xref no email%0,  Jiashen%Loh%xref no email%0,  Oon-Tek%Ng%xref no email%0,  Kalisvar%Marimuthu%xref no email%0,  Li Wei%Ang%xref no email%0,  Tze Minn%Mak%xref no email%0,  Sok Kiang%Lau%xref no email%0,  Danielle E.%Anderson%xref no email%0,  Kian Sing%Chan%xref no email%0,  Thean Yen%Tan%xref no email%0,  Tong Yong%Ng%xref no email%0,  Lin%Cui%xref no email%0,  Zubaidah%Said%xref no email%0,  Lalitha%Kurupatham%xref no email%0,  Mark I-Cheng%Chen%xref no email%0,  Monica%Chan%xref no email%0,  Shawn%Vasoo%xref no email%0,  Lin-Fa%Wang%xref no email%0,  Boon Huan%Tan%xref no email%0,  Raymond Tzer Pin%Lin%xref no email%0,  Vernon Jian Ming%Lee%xref no email%0,  Yee-Sin%Leo%xref no email%0,  David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,        Cabrini%Luca%coreGivesNoEmail%0,        Castelli%Antonio%coreGivesNoEmail%0,        Cecconi%Maurizio%coreGivesNoEmail%0,        Cereda%Danilo%coreGivesNoEmail%0,        Coluccello%Antonio%coreGivesNoEmail%0,        Foti%Giuseppe%coreGivesNoEmail%0,        Fumagalli%Roberto%coreGivesNoEmail%0,        Grasselli%Giacomo%coreGivesNoEmail%0,        Iotti%Giorgio%coreGivesNoEmail%0,        Latronico%Nicola%coreGivesNoEmail%0,        Lorini%Luca%coreGivesNoEmail%0,        Merler%Stefano%coreGivesNoEmail%0,        Natalini%Giuseppe%coreGivesNoEmail%0,        Pesenti%Antonio%coreGivesNoEmail%0,        Piatti%Alessandra%coreGivesNoEmail%0,        Ranieri%Marco Vito%coreGivesNoEmail%0,        Scandroglio%Anna Mara%coreGivesNoEmail%0,        Storti%Enrico%coreGivesNoEmail%0,        Zanella%Alberto%coreGivesNoEmail%0,        Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,          Lei%Tu%NULL%0,          Lei%Tu%NULL%0,          Pingjun%Zhu%NULL%0,          Pingjun%Zhu%NULL%0,          Mi%Mu%NULL%0,          Mi%Mu%NULL%0,          Runsheng%Wang%NULL%0,          Pengcheng%Yang%NULL%0,          Xi%Wang%NULL%0,          Chao%Hu%NULL%0,          Rongyu%Ping%NULL%0,          Peng%Hu%NULL%0,          Tianzhi%Li%NULL%0,          Feng%Cao%NULL%0,          Christopher%Chang%NULL%0,          Qinyong%Hu%NULL%0,          Yang%Jin%NULL%0,          Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,          Min%Zhou%NULL%0,          Xuan%Dong%NULL%0,          Jieming%Qu%NULL%0,          Fengyun%Gong%NULL%0,          Yang%Han%NULL%0,          Yang%Qiu%NULL%0,          Jingli%Wang%NULL%0,          Ying%Liu%NULL%0,          Yuan%Wei%NULL%0,          Jia'an%Xia%NULL%0,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%0,          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,        Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,          Yuan-Yuan%Fang%NULL%0,          Yan%Deng%NULL%0,          Wei%Liu%NULL%0,          Mei-Fang%Wang%NULL%0,          Jing-Ping%Ma%NULL%0,          Wei%Xiao%NULL%0,          Ying-Nan%Wang%NULL%0,          Min-Hua%Zhong%NULL%0,          Cheng-Hong%Li%NULL%0,          Guang-Cai%Li%NULL%0,          Hui-Guo%Liu%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Xiu-Yuan%Hao%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,          Yang%Yang%NULL%0,          Cong%Zhang%NULL%0,          Fengming%Huang%NULL%0,          Fuxiang%Wang%NULL%0,          Jing%Yuan%NULL%0,          Zhaoqin%Wang%NULL%0,          Jinxiu%Li%NULL%0,          Jianming%Li%NULL%0,          Cheng%Feng%NULL%0,          Zheng%Zhang%NULL%0,          Lifei%Wang%NULL%0,          Ling%Peng%NULL%0,          Li%Chen%NULL%0,          Yuhao%Qin%NULL%0,          Dandan%Zhao%NULL%0,          Shuguang%Tan%NULL%0,          Lu%Yin%NULL%0,          Jun%Xu%NULL%0,          Congzhao%Zhou%NULL%0,          Chengyu%Jiang%jiang@pumc.edu.cn%0,          Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,          Li-Min%Liu%NULL%0,          Wen%Yin%NULL%0,          Wen%Wang%NULL%0,          Lu-Lu%Guan%NULL%0,          Ming-Li%Yuan%NULL%0,          Yu-Lei%Li%NULL%0,          Yi%Hu%NULL%0,          Xu-Yan%Li%NULL%0,          Bing%Sun%NULL%0,          Peng%Peng%NULL%0,          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Wen-hua%Liang%NULL%0,          Yi%Zhao%NULL%0,          Heng-rui%Liang%NULL%0,          Zi-sheng%Chen%NULL%0,          Yi-min%Li%NULL%0,          Xiao-qing%Liu%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Chun-quan%Ou%NULL%0,          Li%Li%NULL%0,          Ping-yan%Chen%NULL%0,          Ling%Sang%NULL%0,          Wei%Wang%NULL%0,          Jian-fu%Li%NULL%0,          Cai-chen%Li%NULL%0,          Li-min%Ou%NULL%0,          Bo%Cheng%NULL%0,          Shan%Xiong%NULL%0,          Zheng-yi%Ni%NULL%0,          Jie%Xiang%NULL%0,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Lin-ling%Cheng%NULL%0,          Feng%Ye%NULL%0,          Shi-yue%Li%NULL%0,          Jin-ping%Zheng%NULL%0,          Nuo-fu%Zhang%NULL%0,          Nan-shan%Zhong%NULL%0,          Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,          Xiao-Xin%Wu%NULL%0,          Xian-Gao%Jiang%NULL%0,          Kai-Jin%Xu%NULL%0,          Ling-Jun%Ying%NULL%0,          Chun-Lian%Ma%NULL%0,          Shi-Bo%Li%NULL%0,          Hua-Ying%Wang%NULL%0,          Sheng%Zhang%NULL%0,          Hai-Nv%Gao%NULL%0,          Ji-Fang%Sheng%NULL%0,          Hong-Liu%Cai%NULL%0,          Yun-Qing%Qiu%NULL%0,          Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,          Zhe%Dai%NULL%1,          Pingzheng%Mo%NULL%1,          Xinyu%Li%NULL%1,          Zhiyong%Ma%NULL%0,          Shihui%Song%NULL%0,          Xiaoping%Chen%NULL%0,          Mingqi%Luo%NULL%0,          Ke%Liang%NULL%0,          Shicheng%Gao%NULL%0,          Yongxi%Zhang%NULL%0,          Liping%Deng%dengdeng78@126.com%0,          Yong%Xiong%NULL%0,          Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,          Wei-jie%Guan%NULL%0,          Cai-chen%Li%NULL%0,          Yi-min%Li%NULL%0,          Heng-rui%Liang%NULL%0,          Yi%Zhao%NULL%0,          Xiao-qing%Liu%NULL%0,          Ling%Sang%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Wei%Wang%NULL%0,          Qi-hua%He%NULL%0,          Zi-sheng%Chen%NULL%0,          Sook-San%Wong%NULL%0,          Mark%Zanin%NULL%0,          Jun%Liu%NULL%0,          Xin%Xu%NULL%0,          Jun%Huang%NULL%0,          Jian-fu%Li%NULL%0,          Li-min%Ou%NULL%0,          Bo%Cheng%NULL%0,          Shan%Xiong%NULL%0,          Zhan-hong%Xie%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Lin-ling%Cheng%NULL%0,          Feng%Ye%NULL%0,          Shi-yue%Li%NULL%0,          Jin-ping%Zheng%NULL%0,          Nuo-fu%Zhang%NULL%0,          Nan-shan%Zhong%NULL%0,          Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,          Wenbo%He%NULL%0,          Xiaomei%Yu%NULL%0,          Dalong%Hu%NULL%0,          Mingwei%Bao%NULL%0,          Huafen%Liu%NULL%0,          Jiali%Zhou%NULL%0,          Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,          Wenlin%Cheng%NULL%0,          Lei%Yu%NULL%0,          Ya-Kun%Liu%NULL%0,          Xiaoyong%Hu%NULL%0,          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,          Huangqing%Ouyang%NULL%0,          Lingli%Fu%NULL%0,          Shijie%Wang%NULL%0,          Jianglong%Han%NULL%0,          Kejie%Huang%NULL%0,          Mingfang%Jia%NULL%0,          Qibin%Song%NULL%0,          Zhenming%Fu%davidfuzming@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2231,7 +2459,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2260,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>423</v>
+        <v>497</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -2289,7 +2517,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -2312,22 +2540,22 @@
         <v>44013.0</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>459</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>499</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>461</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>462</v>
       </c>
       <c r="I5" t="s">
         <v>69</v>
@@ -2347,7 +2575,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2376,7 +2604,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2405,7 +2633,7 @@
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -2434,7 +2662,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -2463,7 +2691,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2492,7 +2720,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2521,7 +2749,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2550,7 +2778,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -2579,7 +2807,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>432</v>
+        <v>507</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -2608,7 +2836,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -2637,7 +2865,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>434</v>
+        <v>509</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -2666,7 +2894,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -2695,7 +2923,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2724,7 +2952,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -2747,22 +2975,22 @@
         <v>43942.0</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>476</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>513</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>461</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>462</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
@@ -2811,7 +3039,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -2840,7 +3068,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2898,7 +3126,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -2927,7 +3155,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -2985,7 +3213,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3014,7 +3242,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -3043,7 +3271,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
+        <v>520</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -3072,7 +3300,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -3101,7 +3329,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -3130,7 +3358,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3159,7 +3387,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -3188,7 +3416,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>449</v>
+        <v>525</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -3217,7 +3445,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -3246,7 +3474,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -3275,7 +3503,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -3304,7 +3532,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>453</v>
+        <v>529</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -3333,7 +3561,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3362,7 +3590,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="604">
   <si>
     <t>Doi</t>
   </si>
@@ -2102,6 +2102,222 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%0,          Huilong%Chen%NULL%0,          Weiming%Yan%NULL%0,          Danlei%Yang%NULL%0,          Guang%Chen%NULL%0,          Ke%Ma%NULL%0,          Dong%Xu%NULL%0,          Haijing%Yu%NULL%0,          Hongwu%Wang%NULL%0,          Tao%Wang%NULL%0,          Wei%Guo%NULL%0,          Jia%Chen%NULL%0,          Chen%Ding%NULL%0,          Xiaoping%Zhang%NULL%0,          Jiaquan%Huang%NULL%0,          Meifang%Han%NULL%0,          Shusheng%Li%NULL%0,          Xiaoping%Luo%NULL%0,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%0,         Dong%Xiang%coreGivesNoEmail%0,         Gao%Ya-dong%coreGivesNoEmail%0,         Yan%You-qin%coreGivesNoEmail%0,         Yang%Yi-bin%coreGivesNoEmail%0,         Yuan%Ya-dong%coreGivesNoEmail%0,         Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,           Bohan%Yang%NULL%0,           Qianwen%Li%NULL%0,           Lu%Wen%NULL%0,           Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%0,           Jiqian%Xu%NULL%0,           Huaqing%Shu%NULL%0,           Jia'an%Xia%NULL%0,           Hong%Liu%NULL%0,           Yongran%Wu%NULL%0,           Lu%Zhang%NULL%0,           Zhui%Yu%NULL%0,           Minghao%Fang%NULL%0,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%0,           Shangwen%Pan%NULL%0,           Xiaojing%Zou%NULL%0,           Shiying%Yuan%NULL%0,           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,   Xiaoyan%Chen%xref no email%0,   Yanping%Cai%xref no email%0,   Jia\u2019an%Xia%xref no email%0,   Xing%Zhou%xref no email%0,   Sha%Xu%xref no email%0,   Hanping%Huang%xref no email%0,   Li%Zhang%xref no email%0,   Xia%Zhou%xref no email%0,   Chunling%Du%xref no email%0,   Yuye%Zhang%xref no email%0,   Juan%Song%xref no email%0,   Sijiao%Wang%xref no email%0,   Yencheng%Chao%xref no email%0,   Zeyong%Yang%xref no email%0,   Jie%Xu%xref no email%0,   Xin%Zhou%xref no email%0,   Dechang%Chen%xref no email%0,   Weining%Xiong%xref no email%0,   Lei%Xu%xref no email%0,   Feng%Zhou%xref no email%0,   Jinjun%Jiang%xref no email%0,   Chunxue%Bai%xref no email%0,   Junhua%Zheng%xref no email%0,   Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,           Mengqi%Tu%NULL%0,           Shipei%Wang%NULL%0,           Sichao%Chen%NULL%0,           Wei%Zhou%NULL%0,           Danyang%Chen%NULL%0,           Lin%Zhou%NULL%0,           Min%Wang%NULL%0,           Yan%Zhao%NULL%0,           Wen%Zeng%NULL%0,           Qi%Huang%NULL%0,           Hai'bo%Xu%NULL%0,           Zeming%Liu%NULL%0,           Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,           Jiong%Wu%NULL%0,           Faqi%Wu%NULL%0,           Dajing%Guo%NULL%0,           Linli%Chen%NULL%0,           Zheng%Fang%NULL%0,           Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,           Chengcheng%Yu%NULL%0,           Jing%Qu%NULL%0,           Lieguang%Zhang%NULL%0,           Songfeng%Jiang%NULL%0,           Deyang%Huang%NULL%0,           Bihua%Chen%NULL%0,           Zhiping%Zhang%NULL%0,           Wanhua%Guan%NULL%0,           Zhoukun%Ling%NULL%0,           Rui%Jiang%NULL%0,           Tianli%Hu%NULL%0,           Yan%Ding%NULL%0,           Lin%Lin%NULL%0,           Qingxin%Gan%NULL%0,           Liangping%Luo%tluolp@jnu.edu.cn%0,           Xiaoping%Tang%xtang@21cn.com%0,           Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,           Qiqi%Cao%NULL%0,           Le%Qin%NULL%0,           Xiaoyang%Wang%NULL%0,           Zenghui%Cheng%NULL%0,           Ashan%Pan%NULL%0,           Jianyi%Dai%NULL%0,           Qingfeng%Sun%NULL%0,           Fengquan%Zhao%NULL%0,           Jieming%Qu%NULL%0,           Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,           Fang%Jiang%NULL%0,           Wating%Su%NULL%0,           Chang%Chen%NULL%0,           Jingli%Chen%NULL%0,           Wei%Mei%NULL%0,           Li-Ying%Zhan%NULL%0,           Yifan%Jia%NULL%0,           Liangqing%Zhang%NULL%0,           Danyong%Liu%NULL%0,           Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,           Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,           Yun%Ling%NULL%0,           Yun%Ling%NULL%0,           Tao%Bai%NULL%0,           Tao%Bai%NULL%0,           Yusang%Xie%NULL%0,           Jie%Huang%NULL%0,           Jie%Huang%NULL%0,           Jian%Li%NULL%0,           Weining%Xiong%NULL%0,           Dexiang%Yang%NULL%0,           Rong%Chen%NULL%0,           Fangying%Lu%NULL%0,           Yunfei%Lu%NULL%0,           Xuhui%Liu%NULL%0,           Yuqing%Chen%NULL%0,           Yuqing%Chen%NULL%0,           Xin%Li%NULL%0,           Yong%Li%NULL%0,           Hanssa Dwarka%Summah%NULL%0,           Huihuang%Lin%NULL%0,           Jiayang%Yan%NULL%0,           Min%Zhou%NULL%0,           Hongzhou%Lu%NULL%0,           Hongzhou%Lu%NULL%0,           Jieming%Qu%NULL%0,           Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,           Wen%Yin%NULL%0,           Wen%Yin%NULL%0,           Zhaowu%Tao%NULL%1,           Weijun%Tan%NULL%1,           Yi%Hu%NULL%0,           Oliver%Schildgen%NULL%2,           Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,           Yuanyuan%Xing%NULL%0,           Yu%Xiao%NULL%0,           Liping%Deng%NULL%0,           Qiu%Zhao%NULL%0,           Hongling%Wang%NULL%0,           Yong%Xiong%NULL%0,           Zhenshun%Cheng%NULL%0,           Shicheng%Gao%NULL%0,           Ke%Liang%NULL%0,           Mingqi%Luo%NULL%0,           Tielong%Chen%NULL%0,           Shihui%Song%NULL%0,           Zhiyong%Ma%NULL%0,           Xiaoping%Chen%NULL%0,           Ruiying%Zheng%NULL%0,           Qian%Cao%NULL%0,           Fan%Wang%fanndywang@foxmail.com%0,           Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,           Xun%Li%NULL%1,           Hui%Chen%NULL%0,           Shaonan%Yan%NULL%1,           Dong%Li%NULL%1,           Yan%Li%NULL%1,           Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,           Chang%Hu%NULL%0,           Linjie%Luo%NULL%0,           Fang%Fang%NULL%0,           Yongfeng%Chen%NULL%0,           Jianguo%Li%NULL%0,           Zhiyong%Peng%NULL%0,           Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,           Yongzhen%Fan%NULL%0,           Ming%Chen%NULL%0,           Xiaoyan%Wu%NULL%0,           Lin%Zhang%NULL%0,           Tao%He%NULL%0,           Hairong%Wang%NULL%0,           Jing%Wan%NULL%0,           Xinghuan%Wang%NULL%0,           Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,         Becker%L.B.%coreGivesNoEmail%0,         Chelico%J.D.%coreGivesNoEmail%0,         Cohen%S.L.%coreGivesNoEmail%0,         Cookingham%J.%coreGivesNoEmail%0,         Coppa%K.%coreGivesNoEmail%0,         Crawford%J.M.%coreGivesNoEmail%0,         Davidson%K.W.%coreGivesNoEmail%0,         Diefenbach%M.A.%coreGivesNoEmail%0,         Dominello%A.J.%coreGivesNoEmail%0,         Duer-Hefele%J.%coreGivesNoEmail%0,         Falzon%L.%coreGivesNoEmail%0,         Gitlin%J.%coreGivesNoEmail%0,         Hajizadeh%N.%coreGivesNoEmail%0,         Harvin%T.G.%coreGivesNoEmail%0,         Hirsch%J.S.%coreGivesNoEmail%0,         Hirschwerk%D.A.%coreGivesNoEmail%0,         Kim%E.J.%coreGivesNoEmail%0,         Kozel%Z.M.%coreGivesNoEmail%0,         Marrast%L.M.%coreGivesNoEmail%0,         McGinn%T.%coreGivesNoEmail%0,         Mogavero%J.N.%coreGivesNoEmail%0,         Narasimhan%M.%coreGivesNoEmail%0,         Osorio%G.A.%coreGivesNoEmail%0,         Qiu%M.%coreGivesNoEmail%0,         Richardson%S.%coreGivesNoEmail%0,         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           Nancy%Chow%NULL%0,           Katherine%Fleming-Dutra%NULL%0,           Ryan%Gierke%NULL%0,           Aron%Hall%NULL%0,           Michelle%Hughes%NULL%0,           Tamara%Pilishvili%NULL%0,           Matthew%Ritchey%NULL%0,           Katherine%Roguski%NULL%0,           Tami%Skoff%NULL%0,           Emily%Ussery%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,   Sean Wei Xiang%Ong%xref no email%0,   Shirin%Kalimuddin%xref no email%0,   Jenny G.%Low%xref no email%0,   Seow Yen%Tan%xref no email%0,   Jiashen%Loh%xref no email%0,   Oon-Tek%Ng%xref no email%0,   Kalisvar%Marimuthu%xref no email%0,   Li Wei%Ang%xref no email%0,   Tze Minn%Mak%xref no email%0,   Sok Kiang%Lau%xref no email%0,   Danielle E.%Anderson%xref no email%0,   Kian Sing%Chan%xref no email%0,   Thean Yen%Tan%xref no email%0,   Tong Yong%Ng%xref no email%0,   Lin%Cui%xref no email%0,   Zubaidah%Said%xref no email%0,   Lalitha%Kurupatham%xref no email%0,   Mark I-Cheng%Chen%xref no email%0,   Monica%Chan%xref no email%0,   Shawn%Vasoo%xref no email%0,   Lin-Fa%Wang%xref no email%0,   Boon Huan%Tan%xref no email%0,   Raymond Tzer Pin%Lin%xref no email%0,   Vernon Jian Ming%Lee%xref no email%0,   Yee-Sin%Leo%xref no email%0,   David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,         Cabrini%Luca%coreGivesNoEmail%0,         Castelli%Antonio%coreGivesNoEmail%0,         Cecconi%Maurizio%coreGivesNoEmail%0,         Cereda%Danilo%coreGivesNoEmail%0,         Coluccello%Antonio%coreGivesNoEmail%0,         Foti%Giuseppe%coreGivesNoEmail%0,         Fumagalli%Roberto%coreGivesNoEmail%0,         Grasselli%Giacomo%coreGivesNoEmail%0,         Iotti%Giorgio%coreGivesNoEmail%0,         Latronico%Nicola%coreGivesNoEmail%0,         Lorini%Luca%coreGivesNoEmail%0,         Merler%Stefano%coreGivesNoEmail%0,         Natalini%Giuseppe%coreGivesNoEmail%0,         Pesenti%Antonio%coreGivesNoEmail%0,         Piatti%Alessandra%coreGivesNoEmail%0,         Ranieri%Marco Vito%coreGivesNoEmail%0,         Scandroglio%Anna Mara%coreGivesNoEmail%0,         Storti%Enrico%coreGivesNoEmail%0,         Zanella%Alberto%coreGivesNoEmail%0,         Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,           Lei%Tu%NULL%0,           Lei%Tu%NULL%0,           Pingjun%Zhu%NULL%0,           Pingjun%Zhu%NULL%0,           Mi%Mu%NULL%0,           Mi%Mu%NULL%0,           Runsheng%Wang%NULL%0,           Pengcheng%Yang%NULL%0,           Xi%Wang%NULL%0,           Chao%Hu%NULL%0,           Rongyu%Ping%NULL%0,           Peng%Hu%NULL%0,           Tianzhi%Li%NULL%0,           Feng%Cao%NULL%0,           Christopher%Chang%NULL%0,           Qinyong%Hu%NULL%0,           Yang%Jin%NULL%0,           Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,           Min%Zhou%NULL%0,           Xuan%Dong%NULL%0,           Jieming%Qu%NULL%0,           Fengyun%Gong%NULL%0,           Yang%Han%NULL%0,           Yang%Qiu%NULL%0,           Jingli%Wang%NULL%0,           Ying%Liu%NULL%0,           Yuan%Wei%NULL%0,           Jia'an%Xia%NULL%0,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%0,           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,         Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%0,           Xingwang%Li%NULL%0,           Lili%Ren%NULL%0,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%0,           Li%Zhang%NULL%0,           Guohui%Fan%NULL%0,           Jiuyang%Xu%NULL%0,           Xiaoying%Gu%NULL%0,           Zhenshun%Cheng%NULL%0,           Ting%Yu%NULL%0,           Jiaan%Xia%NULL%0,           Yuan%Wei%NULL%0,           Wenjuan%Wu%NULL%0,           Xuelei%Xie%NULL%0,           Wen%Yin%NULL%0,           Hui%Li%NULL%0,           Min%Liu%NULL%0,           Yan%Xiao%NULL%0,           Hong%Gao%NULL%0,           Li%Guo%NULL%0,           Jungang%Xie%NULL%0,           Guangfa%Wang%NULL%0,           Rongmeng%Jiang%NULL%0,           Zhancheng%Gao%NULL%0,           Qi%Jin%NULL%0,           Jianwei%Wang%wangjw28@163.com%0,           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,           Yuan-Yuan%Fang%NULL%0,           Yan%Deng%NULL%0,           Wei%Liu%NULL%0,           Mei-Fang%Wang%NULL%0,           Jing-Ping%Ma%NULL%0,           Wei%Xiao%NULL%0,           Ying-Nan%Wang%NULL%0,           Min-Hua%Zhong%NULL%0,           Cheng-Hong%Li%NULL%0,           Guang-Cai%Li%NULL%0,           Hui-Guo%Liu%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Xiu-Yuan%Hao%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,           Yang%Yang%NULL%0,           Cong%Zhang%NULL%0,           Fengming%Huang%NULL%0,           Fuxiang%Wang%NULL%0,           Jing%Yuan%NULL%0,           Zhaoqin%Wang%NULL%0,           Jinxiu%Li%NULL%0,           Jianming%Li%NULL%0,           Cheng%Feng%NULL%0,           Zheng%Zhang%NULL%0,           Lifei%Wang%NULL%0,           Ling%Peng%NULL%0,           Li%Chen%NULL%0,           Yuhao%Qin%NULL%0,           Dandan%Zhao%NULL%0,           Shuguang%Tan%NULL%0,           Lu%Yin%NULL%0,           Jun%Xu%NULL%0,           Congzhao%Zhou%NULL%0,           Chengyu%Jiang%jiang@pumc.edu.cn%0,           Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Wen-hua%Liang%NULL%0,           Chun-quan%Ou%NULL%0,           Jian-xing%He%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           David S.C.%Hui%NULL%0,           Bin%Du%NULL%0,           Lan-juan%Li%NULL%0,           Guang%Zeng%NULL%0,           Kwok-Yung%Yuen%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Ping-yan%Chen%NULL%0,           Jie%Xiang%NULL%0,           Shi-yue%Li%NULL%0,           Jin-lin%Wang%NULL%0,           Zi-jing%Liang%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,           Li-Min%Liu%NULL%0,           Wen%Yin%NULL%0,           Wen%Wang%NULL%0,           Lu-Lu%Guan%NULL%0,           Ming-Li%Yuan%NULL%0,           Yu-Lei%Li%NULL%0,           Yi%Hu%NULL%0,           Xu-Yan%Li%NULL%0,           Bing%Sun%NULL%0,           Peng%Peng%NULL%0,           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Wen-hua%Liang%NULL%0,           Yi%Zhao%NULL%0,           Heng-rui%Liang%NULL%0,           Zi-sheng%Chen%NULL%0,           Yi-min%Li%NULL%0,           Xiao-qing%Liu%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Chun-quan%Ou%NULL%0,           Li%Li%NULL%0,           Ping-yan%Chen%NULL%0,           Ling%Sang%NULL%0,           Wei%Wang%NULL%0,           Jian-fu%Li%NULL%0,           Cai-chen%Li%NULL%0,           Li-min%Ou%NULL%0,           Bo%Cheng%NULL%0,           Shan%Xiong%NULL%0,           Zheng-yi%Ni%NULL%0,           Jie%Xiang%NULL%0,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Lin-ling%Cheng%NULL%0,           Feng%Ye%NULL%0,           Shi-yue%Li%NULL%0,           Jin-ping%Zheng%NULL%0,           Nuo-fu%Zhang%NULL%0,           Nan-shan%Zhong%NULL%0,           Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,           Xiao-Xin%Wu%NULL%0,           Xian-Gao%Jiang%NULL%0,           Kai-Jin%Xu%NULL%0,           Ling-Jun%Ying%NULL%0,           Chun-Lian%Ma%NULL%0,           Shi-Bo%Li%NULL%0,           Hua-Ying%Wang%NULL%0,           Sheng%Zhang%NULL%0,           Hai-Nv%Gao%NULL%0,           Ji-Fang%Sheng%NULL%0,           Hong-Liu%Cai%NULL%0,           Yun-Qing%Qiu%NULL%0,           Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,           Zhe%Dai%NULL%1,           Pingzheng%Mo%NULL%1,           Xinyu%Li%NULL%1,           Zhiyong%Ma%NULL%0,           Shihui%Song%NULL%0,           Xiaoping%Chen%NULL%0,           Mingqi%Luo%NULL%0,           Ke%Liang%NULL%0,           Shicheng%Gao%NULL%0,           Yongxi%Zhang%NULL%0,           Liping%Deng%dengdeng78@126.com%0,           Yong%Xiong%NULL%0,           Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,           Wei-jie%Guan%NULL%0,           Cai-chen%Li%NULL%0,           Yi-min%Li%NULL%0,           Heng-rui%Liang%NULL%0,           Yi%Zhao%NULL%0,           Xiao-qing%Liu%NULL%0,           Ling%Sang%NULL%0,           Ru-chong%Chen%NULL%0,           Chun-li%Tang%NULL%0,           Tao%Wang%NULL%0,           Wei%Wang%NULL%0,           Qi-hua%He%NULL%0,           Zi-sheng%Chen%NULL%0,           Sook-San%Wong%NULL%0,           Mark%Zanin%NULL%0,           Jun%Liu%NULL%0,           Xin%Xu%NULL%0,           Jun%Huang%NULL%0,           Jian-fu%Li%NULL%0,           Li-min%Ou%NULL%0,           Bo%Cheng%NULL%0,           Shan%Xiong%NULL%0,           Zhan-hong%Xie%NULL%0,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%0,           Lei%Liu%NULL%0,           Hong%Shan%NULL%0,           Chun-liang%Lei%NULL%0,           Yi-xiang%Peng%NULL%0,           Li%Wei%NULL%0,           Yong%Liu%NULL%0,           Ya-hua%Hu%NULL%0,           Peng%Peng%NULL%0,           Jian-ming%Wang%NULL%0,           Ji-yang%Liu%NULL%0,           Zhong%Chen%NULL%0,           Gang%Li%NULL%0,           Zhi-jian%Zheng%NULL%0,           Shao-qin%Qiu%NULL%0,           Jie%Luo%NULL%0,           Chang-jiang%Ye%NULL%0,           Shao-yong%Zhu%NULL%0,           Lin-ling%Cheng%NULL%0,           Feng%Ye%NULL%0,           Shi-yue%Li%NULL%0,           Jin-ping%Zheng%NULL%0,           Nuo-fu%Zhang%NULL%0,           Nan-shan%Zhong%NULL%0,           Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,           Wenbo%He%NULL%0,           Xiaomei%Yu%NULL%0,           Dalong%Hu%NULL%0,           Mingwei%Bao%NULL%0,           Huafen%Liu%NULL%0,           Jiali%Zhou%NULL%0,           Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,           Wenlin%Cheng%NULL%0,           Lei%Yu%NULL%0,           Ya-Kun%Liu%NULL%0,           Xiaoyong%Hu%NULL%0,           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,           Huangqing%Ouyang%NULL%0,           Lingli%Fu%NULL%0,           Shijie%Wang%NULL%0,           Jianglong%Han%NULL%0,           Kejie%Huang%NULL%0,           Mingfang%Jia%NULL%0,           Qibin%Song%NULL%0,           Zhenming%Fu%davidfuzming@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%0,           Huilong%Chen%NULL%0,           Weiming%Yan%NULL%0,           Danlei%Yang%NULL%0,           Guang%Chen%NULL%0,           Ke%Ma%NULL%0,           Dong%Xu%NULL%0,           Haijing%Yu%NULL%0,           Hongwu%Wang%NULL%0,           Tao%Wang%NULL%0,           Wei%Guo%NULL%0,           Jia%Chen%NULL%0,           Chen%Ding%NULL%0,           Xiaoping%Zhang%NULL%0,           Jiaquan%Huang%NULL%0,           Meifang%Han%NULL%0,           Shusheng%Li%NULL%0,           Xiaoping%Luo%NULL%0,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,          Cao%Yi-yuan%coreGivesNoEmail%0,          Dong%Xiang%coreGivesNoEmail%0,          Gao%Ya-dong%coreGivesNoEmail%0,          Yan%You-qin%coreGivesNoEmail%0,          Yang%Yi-bin%coreGivesNoEmail%0,          Yuan%Ya-dong%coreGivesNoEmail%0,          Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,            Bohan%Yang%NULL%0,            Qianwen%Li%NULL%0,            Lu%Wen%NULL%0,            Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%0,            Jiqian%Xu%NULL%0,            Huaqing%Shu%NULL%0,            Jia'an%Xia%NULL%0,            Hong%Liu%NULL%0,            Yongran%Wu%NULL%0,            Lu%Zhang%NULL%0,            Zhui%Yu%NULL%0,            Minghao%Fang%NULL%0,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%0,            Shangwen%Pan%NULL%0,            Xiaojing%Zou%NULL%0,            Shiying%Yuan%NULL%0,            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,    Xiaoyan%Chen%xref no email%0,    Yanping%Cai%xref no email%0,    Jia\u2019an%Xia%xref no email%0,    Xing%Zhou%xref no email%0,    Sha%Xu%xref no email%0,    Hanping%Huang%xref no email%0,    Li%Zhang%xref no email%0,    Xia%Zhou%xref no email%0,    Chunling%Du%xref no email%0,    Yuye%Zhang%xref no email%0,    Juan%Song%xref no email%0,    Sijiao%Wang%xref no email%0,    Yencheng%Chao%xref no email%0,    Zeyong%Yang%xref no email%0,    Jie%Xu%xref no email%0,    Xin%Zhou%xref no email%0,    Dechang%Chen%xref no email%0,    Weining%Xiong%xref no email%0,    Lei%Xu%xref no email%0,    Feng%Zhou%xref no email%0,    Jinjun%Jiang%xref no email%0,    Chunxue%Bai%xref no email%0,    Junhua%Zheng%xref no email%0,    Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,            Mengqi%Tu%NULL%0,            Shipei%Wang%NULL%0,            Sichao%Chen%NULL%0,            Wei%Zhou%NULL%0,            Danyang%Chen%NULL%0,            Lin%Zhou%NULL%0,            Min%Wang%NULL%0,            Yan%Zhao%NULL%0,            Wen%Zeng%NULL%0,            Qi%Huang%NULL%0,            Hai'bo%Xu%NULL%0,            Zeming%Liu%NULL%0,            Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,            Jiong%Wu%NULL%0,            Faqi%Wu%NULL%0,            Dajing%Guo%NULL%0,            Linli%Chen%NULL%0,            Zheng%Fang%NULL%0,            Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,            Chengcheng%Yu%NULL%0,            Jing%Qu%NULL%0,            Lieguang%Zhang%NULL%0,            Songfeng%Jiang%NULL%0,            Deyang%Huang%NULL%0,            Bihua%Chen%NULL%0,            Zhiping%Zhang%NULL%0,            Wanhua%Guan%NULL%0,            Zhoukun%Ling%NULL%0,            Rui%Jiang%NULL%0,            Tianli%Hu%NULL%0,            Yan%Ding%NULL%0,            Lin%Lin%NULL%0,            Qingxin%Gan%NULL%0,            Liangping%Luo%tluolp@jnu.edu.cn%0,            Xiaoping%Tang%xtang@21cn.com%0,            Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,            Qiqi%Cao%NULL%0,            Le%Qin%NULL%0,            Xiaoyang%Wang%NULL%0,            Zenghui%Cheng%NULL%0,            Ashan%Pan%NULL%0,            Jianyi%Dai%NULL%0,            Qingfeng%Sun%NULL%0,            Fengquan%Zhao%NULL%0,            Jieming%Qu%NULL%0,            Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,            Fang%Jiang%NULL%0,            Wating%Su%NULL%0,            Chang%Chen%NULL%0,            Jingli%Chen%NULL%0,            Wei%Mei%NULL%0,            Li-Ying%Zhan%NULL%0,            Yifan%Jia%NULL%0,            Liangqing%Zhang%NULL%0,            Danyong%Liu%NULL%0,            Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,            Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,            Yun%Ling%NULL%0,            Yun%Ling%NULL%0,            Tao%Bai%NULL%0,            Tao%Bai%NULL%0,            Yusang%Xie%NULL%1,            Jie%Huang%NULL%2,            Jie%Huang%NULL%0,            Jian%Li%NULL%1,            Weining%Xiong%NULL%1,            Dexiang%Yang%NULL%1,            Rong%Chen%NULL%1,            Fangying%Lu%NULL%1,            Yunfei%Lu%NULL%2,            Xuhui%Liu%NULL%1,            Yuqing%Chen%NULL%2,            Yuqing%Chen%NULL%0,            Xin%Li%NULL%0,            Yong%Li%NULL%1,            Hanssa Dwarka%Summah%NULL%1,            Huihuang%Lin%NULL%1,            Jiayang%Yan%NULL%1,            Min%Zhou%NULL%0,            Hongzhou%Lu%NULL%0,            Hongzhou%Lu%NULL%0,            Jieming%Qu%NULL%0,            Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,            Wen%Yin%NULL%0,            Wen%Yin%NULL%0,            Zhaowu%Tao%NULL%1,            Weijun%Tan%NULL%1,            Yi%Hu%NULL%0,            Oliver%Schildgen%NULL%2,            Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,            Yuanyuan%Xing%NULL%0,            Yu%Xiao%NULL%0,            Liping%Deng%NULL%0,            Qiu%Zhao%NULL%0,            Hongling%Wang%NULL%0,            Yong%Xiong%NULL%0,            Zhenshun%Cheng%NULL%0,            Shicheng%Gao%NULL%0,            Ke%Liang%NULL%0,            Mingqi%Luo%NULL%0,            Tielong%Chen%NULL%0,            Shihui%Song%NULL%0,            Zhiyong%Ma%NULL%0,            Xiaoping%Chen%NULL%0,            Ruiying%Zheng%NULL%0,            Qian%Cao%NULL%0,            Fan%Wang%fanndywang@foxmail.com%0,            Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,            Xun%Li%NULL%1,            Hui%Chen%NULL%0,            Shaonan%Yan%NULL%1,            Dong%Li%NULL%1,            Yan%Li%NULL%1,            Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,            Chang%Hu%NULL%0,            Linjie%Luo%NULL%0,            Fang%Fang%NULL%0,            Yongfeng%Chen%NULL%0,            Jianguo%Li%NULL%0,            Zhiyong%Peng%NULL%0,            Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,            Yongzhen%Fan%NULL%0,            Ming%Chen%NULL%0,            Xiaoyan%Wu%NULL%0,            Lin%Zhang%NULL%0,            Tao%He%NULL%0,            Hairong%Wang%NULL%0,            Jing%Wan%NULL%0,            Xinghuan%Wang%NULL%0,            Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,          Becker%L.B.%coreGivesNoEmail%0,          Chelico%J.D.%coreGivesNoEmail%0,          Cohen%S.L.%coreGivesNoEmail%0,          Cookingham%J.%coreGivesNoEmail%0,          Coppa%K.%coreGivesNoEmail%0,          Crawford%J.M.%coreGivesNoEmail%0,          Davidson%K.W.%coreGivesNoEmail%0,          Diefenbach%M.A.%coreGivesNoEmail%0,          Dominello%A.J.%coreGivesNoEmail%0,          Duer-Hefele%J.%coreGivesNoEmail%0,          Falzon%L.%coreGivesNoEmail%0,          Gitlin%J.%coreGivesNoEmail%0,          Hajizadeh%N.%coreGivesNoEmail%0,          Harvin%T.G.%coreGivesNoEmail%0,          Hirsch%J.S.%coreGivesNoEmail%0,          Hirschwerk%D.A.%coreGivesNoEmail%0,          Kim%E.J.%coreGivesNoEmail%0,          Kozel%Z.M.%coreGivesNoEmail%0,          Marrast%L.M.%coreGivesNoEmail%0,          McGinn%T.%coreGivesNoEmail%0,          Mogavero%J.N.%coreGivesNoEmail%0,          Narasimhan%M.%coreGivesNoEmail%0,          Osorio%G.A.%coreGivesNoEmail%0,          Qiu%M.%coreGivesNoEmail%0,          Richardson%S.%coreGivesNoEmail%0,          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            Nancy%Chow%NULL%0,            Katherine%Fleming-Dutra%NULL%1,            Ryan%Gierke%NULL%0,            Aron%Hall%NULL%0,            Michelle%Hughes%NULL%1,            Tamara%Pilishvili%NULL%0,            Matthew%Ritchey%NULL%0,            Katherine%Roguski%NULL%1,            Tami%Skoff%NULL%1,            Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,    Sean Wei Xiang%Ong%xref no email%0,    Shirin%Kalimuddin%xref no email%0,    Jenny G.%Low%xref no email%0,    Seow Yen%Tan%xref no email%0,    Jiashen%Loh%xref no email%0,    Oon-Tek%Ng%xref no email%0,    Kalisvar%Marimuthu%xref no email%0,    Li Wei%Ang%xref no email%0,    Tze Minn%Mak%xref no email%0,    Sok Kiang%Lau%xref no email%0,    Danielle E.%Anderson%xref no email%0,    Kian Sing%Chan%xref no email%0,    Thean Yen%Tan%xref no email%0,    Tong Yong%Ng%xref no email%0,    Lin%Cui%xref no email%0,    Zubaidah%Said%xref no email%0,    Lalitha%Kurupatham%xref no email%0,    Mark I-Cheng%Chen%xref no email%0,    Monica%Chan%xref no email%0,    Shawn%Vasoo%xref no email%0,    Lin-Fa%Wang%xref no email%0,    Boon Huan%Tan%xref no email%0,    Raymond Tzer Pin%Lin%xref no email%0,    Vernon Jian Ming%Lee%xref no email%0,    Yee-Sin%Leo%xref no email%0,    David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,          Cabrini%Luca%coreGivesNoEmail%0,          Castelli%Antonio%coreGivesNoEmail%0,          Cecconi%Maurizio%coreGivesNoEmail%0,          Cereda%Danilo%coreGivesNoEmail%0,          Coluccello%Antonio%coreGivesNoEmail%0,          Foti%Giuseppe%coreGivesNoEmail%0,          Fumagalli%Roberto%coreGivesNoEmail%0,          Grasselli%Giacomo%coreGivesNoEmail%0,          Iotti%Giorgio%coreGivesNoEmail%0,          Latronico%Nicola%coreGivesNoEmail%0,          Lorini%Luca%coreGivesNoEmail%0,          Merler%Stefano%coreGivesNoEmail%0,          Natalini%Giuseppe%coreGivesNoEmail%0,          Pesenti%Antonio%coreGivesNoEmail%0,          Piatti%Alessandra%coreGivesNoEmail%0,          Ranieri%Marco Vito%coreGivesNoEmail%0,          Scandroglio%Anna Mara%coreGivesNoEmail%0,          Storti%Enrico%coreGivesNoEmail%0,          Zanella%Alberto%coreGivesNoEmail%0,          Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,            Lei%Tu%NULL%0,            Lei%Tu%NULL%0,            Pingjun%Zhu%NULL%0,            Pingjun%Zhu%NULL%0,            Mi%Mu%NULL%0,            Mi%Mu%NULL%0,            Runsheng%Wang%NULL%0,            Pengcheng%Yang%NULL%0,            Xi%Wang%NULL%0,            Chao%Hu%NULL%0,            Rongyu%Ping%NULL%0,            Peng%Hu%NULL%0,            Tianzhi%Li%NULL%0,            Feng%Cao%NULL%0,            Christopher%Chang%NULL%0,            Qinyong%Hu%NULL%0,            Yang%Jin%NULL%0,            Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,            Min%Zhou%NULL%0,            Xuan%Dong%NULL%0,            Jieming%Qu%NULL%0,            Fengyun%Gong%NULL%0,            Yang%Han%NULL%0,            Yang%Qiu%NULL%0,            Jingli%Wang%NULL%0,            Ying%Liu%NULL%0,            Yuan%Wei%NULL%0,            Jia'an%Xia%NULL%0,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%0,            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,          Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%0,            Xingwang%Li%NULL%0,            Lili%Ren%NULL%0,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%0,            Li%Zhang%NULL%0,            Guohui%Fan%NULL%0,            Jiuyang%Xu%NULL%0,            Xiaoying%Gu%NULL%0,            Zhenshun%Cheng%NULL%0,            Ting%Yu%NULL%0,            Jiaan%Xia%NULL%0,            Yuan%Wei%NULL%0,            Wenjuan%Wu%NULL%0,            Xuelei%Xie%NULL%0,            Wen%Yin%NULL%0,            Hui%Li%NULL%0,            Min%Liu%NULL%0,            Yan%Xiao%NULL%0,            Hong%Gao%NULL%0,            Li%Guo%NULL%0,            Jungang%Xie%NULL%0,            Guangfa%Wang%NULL%0,            Rongmeng%Jiang%NULL%0,            Zhancheng%Gao%NULL%0,            Qi%Jin%NULL%0,            Jianwei%Wang%wangjw28@163.com%0,            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,            Yuan-Yuan%Fang%NULL%0,            Yan%Deng%NULL%0,            Wei%Liu%NULL%0,            Mei-Fang%Wang%NULL%0,            Jing-Ping%Ma%NULL%0,            Wei%Xiao%NULL%0,            Ying-Nan%Wang%NULL%0,            Min-Hua%Zhong%NULL%0,            Cheng-Hong%Li%NULL%0,            Guang-Cai%Li%NULL%0,            Hui-Guo%Liu%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Xiu-Yuan%Hao%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,            Yang%Yang%NULL%0,            Cong%Zhang%NULL%0,            Fengming%Huang%NULL%0,            Fuxiang%Wang%NULL%0,            Jing%Yuan%NULL%0,            Zhaoqin%Wang%NULL%0,            Jinxiu%Li%NULL%0,            Jianming%Li%NULL%0,            Cheng%Feng%NULL%0,            Zheng%Zhang%NULL%0,            Lifei%Wang%NULL%0,            Ling%Peng%NULL%0,            Li%Chen%NULL%0,            Yuhao%Qin%NULL%0,            Dandan%Zhao%NULL%0,            Shuguang%Tan%NULL%0,            Lu%Yin%NULL%0,            Jun%Xu%NULL%0,            Congzhao%Zhou%NULL%0,            Chengyu%Jiang%jiang@pumc.edu.cn%0,            Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Wen-hua%Liang%NULL%0,            Chun-quan%Ou%NULL%0,            Jian-xing%He%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            David S.C.%Hui%NULL%0,            Bin%Du%NULL%0,            Lan-juan%Li%NULL%0,            Guang%Zeng%NULL%0,            Kwok-Yung%Yuen%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Ping-yan%Chen%NULL%0,            Jie%Xiang%NULL%0,            Shi-yue%Li%NULL%0,            Jin-lin%Wang%NULL%0,            Zi-jing%Liang%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,            Li-Min%Liu%NULL%0,            Wen%Yin%NULL%0,            Wen%Wang%NULL%0,            Lu-Lu%Guan%NULL%0,            Ming-Li%Yuan%NULL%0,            Yu-Lei%Li%NULL%0,            Yi%Hu%NULL%0,            Xu-Yan%Li%NULL%0,            Bing%Sun%NULL%0,            Peng%Peng%NULL%0,            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Wen-hua%Liang%NULL%0,            Yi%Zhao%NULL%0,            Heng-rui%Liang%NULL%0,            Zi-sheng%Chen%NULL%0,            Yi-min%Li%NULL%0,            Xiao-qing%Liu%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Chun-quan%Ou%NULL%0,            Li%Li%NULL%0,            Ping-yan%Chen%NULL%0,            Ling%Sang%NULL%0,            Wei%Wang%NULL%0,            Jian-fu%Li%NULL%0,            Cai-chen%Li%NULL%0,            Li-min%Ou%NULL%0,            Bo%Cheng%NULL%0,            Shan%Xiong%NULL%0,            Zheng-yi%Ni%NULL%0,            Jie%Xiang%NULL%0,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Lin-ling%Cheng%NULL%0,            Feng%Ye%NULL%0,            Shi-yue%Li%NULL%0,            Jin-ping%Zheng%NULL%0,            Nuo-fu%Zhang%NULL%0,            Nan-shan%Zhong%NULL%0,            Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,            Xiao-Xin%Wu%NULL%0,            Xian-Gao%Jiang%NULL%0,            Kai-Jin%Xu%NULL%0,            Ling-Jun%Ying%NULL%0,            Chun-Lian%Ma%NULL%0,            Shi-Bo%Li%NULL%0,            Hua-Ying%Wang%NULL%0,            Sheng%Zhang%NULL%0,            Hai-Nv%Gao%NULL%0,            Ji-Fang%Sheng%NULL%0,            Hong-Liu%Cai%NULL%0,            Yun-Qing%Qiu%NULL%0,            Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,            Zhe%Dai%NULL%1,            Pingzheng%Mo%NULL%1,            Xinyu%Li%NULL%1,            Zhiyong%Ma%NULL%0,            Shihui%Song%NULL%0,            Xiaoping%Chen%NULL%0,            Mingqi%Luo%NULL%0,            Ke%Liang%NULL%0,            Shicheng%Gao%NULL%0,            Yongxi%Zhang%NULL%0,            Liping%Deng%dengdeng78@126.com%0,            Yong%Xiong%NULL%0,            Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,            Wei-jie%Guan%NULL%0,            Cai-chen%Li%NULL%0,            Yi-min%Li%NULL%0,            Heng-rui%Liang%NULL%0,            Yi%Zhao%NULL%0,            Xiao-qing%Liu%NULL%0,            Ling%Sang%NULL%0,            Ru-chong%Chen%NULL%0,            Chun-li%Tang%NULL%0,            Tao%Wang%NULL%0,            Wei%Wang%NULL%0,            Qi-hua%He%NULL%0,            Zi-sheng%Chen%NULL%0,            Sook-San%Wong%NULL%0,            Mark%Zanin%NULL%0,            Jun%Liu%NULL%0,            Xin%Xu%NULL%0,            Jun%Huang%NULL%0,            Jian-fu%Li%NULL%0,            Li-min%Ou%NULL%0,            Bo%Cheng%NULL%0,            Shan%Xiong%NULL%0,            Zhan-hong%Xie%NULL%0,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%0,            Lei%Liu%NULL%0,            Hong%Shan%NULL%0,            Chun-liang%Lei%NULL%0,            Yi-xiang%Peng%NULL%0,            Li%Wei%NULL%0,            Yong%Liu%NULL%0,            Ya-hua%Hu%NULL%0,            Peng%Peng%NULL%0,            Jian-ming%Wang%NULL%0,            Ji-yang%Liu%NULL%0,            Zhong%Chen%NULL%0,            Gang%Li%NULL%0,            Zhi-jian%Zheng%NULL%0,            Shao-qin%Qiu%NULL%0,            Jie%Luo%NULL%0,            Chang-jiang%Ye%NULL%0,            Shao-yong%Zhu%NULL%0,            Lin-ling%Cheng%NULL%0,            Feng%Ye%NULL%0,            Shi-yue%Li%NULL%0,            Jin-ping%Zheng%NULL%0,            Nuo-fu%Zhang%NULL%0,            Nan-shan%Zhong%NULL%0,            Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,            Wenbo%He%NULL%0,            Xiaomei%Yu%NULL%0,            Dalong%Hu%NULL%0,            Mingwei%Bao%NULL%0,            Huafen%Liu%NULL%0,            Jiali%Zhou%NULL%0,            Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,            Wenlin%Cheng%NULL%0,            Lei%Yu%NULL%0,            Ya-Kun%Liu%NULL%0,            Xiaoyong%Hu%NULL%0,            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,            Huangqing%Ouyang%NULL%1,            Lingli%Fu%NULL%1,            Shijie%Wang%NULL%1,            Jianglong%Han%NULL%1,            Kejie%Huang%NULL%1,            Mingfang%Jia%NULL%1,            Qibin%Song%NULL%1,            Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2459,7 +2675,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>496</v>
+        <v>568</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2488,7 +2704,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -2517,7 +2733,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>498</v>
+        <v>570</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -2546,7 +2762,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>499</v>
+        <v>571</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2575,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>500</v>
+        <v>572</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2604,7 +2820,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2633,7 +2849,7 @@
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>502</v>
+        <v>574</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -2662,7 +2878,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -2691,7 +2907,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>503</v>
+        <v>575</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2720,7 +2936,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>504</v>
+        <v>576</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2749,7 +2965,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>505</v>
+        <v>577</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2778,7 +2994,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>506</v>
+        <v>578</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -2807,7 +3023,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -2836,7 +3052,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -2865,7 +3081,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -2894,7 +3110,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -2923,7 +3139,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -2952,7 +3168,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -2981,7 +3197,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3039,7 +3255,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3068,7 +3284,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3126,7 +3342,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3155,7 +3371,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -3213,7 +3429,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3242,7 +3458,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -3271,7 +3487,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -3300,7 +3516,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -3329,7 +3545,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -3358,7 +3574,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3387,7 +3603,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>524</v>
+        <v>596</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -3416,7 +3632,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>525</v>
+        <v>597</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -3445,7 +3661,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>526</v>
+        <v>598</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -3474,7 +3690,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>527</v>
+        <v>599</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -3503,7 +3719,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>528</v>
+        <v>600</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -3532,7 +3748,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -3561,7 +3777,7 @@
         <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>530</v>
+        <v>602</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3590,7 +3806,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>531</v>
+        <v>603</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="678">
   <si>
     <t>Doi</t>
   </si>
@@ -2318,6 +2318,264 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%0,            Huilong%Chen%NULL%0,            Weiming%Yan%NULL%0,            Danlei%Yang%NULL%0,            Guang%Chen%NULL%0,            Ke%Ma%NULL%0,            Dong%Xu%NULL%0,            Haijing%Yu%NULL%0,            Hongwu%Wang%NULL%0,            Tao%Wang%NULL%0,            Wei%Guo%NULL%0,            Jia%Chen%NULL%0,            Chen%Ding%NULL%0,            Xiaoping%Zhang%NULL%0,            Jiaquan%Huang%NULL%0,            Meifang%Han%NULL%0,            Shusheng%Li%NULL%0,            Xiaoping%Luo%NULL%0,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%0,           Dong%Xiang%coreGivesNoEmail%0,           Gao%Ya-dong%coreGivesNoEmail%0,           Yan%You-qin%coreGivesNoEmail%0,           Yang%Yi-bin%coreGivesNoEmail%0,           Yuan%Ya-dong%coreGivesNoEmail%0,           Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,             Bohan%Yang%NULL%0,             Qianwen%Li%NULL%0,             Lu%Wen%NULL%0,             Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%0,             Jiqian%Xu%NULL%0,             Huaqing%Shu%NULL%0,             Jia'an%Xia%NULL%0,             Hong%Liu%NULL%0,             Yongran%Wu%NULL%0,             Lu%Zhang%NULL%0,             Zhui%Yu%NULL%0,             Minghao%Fang%NULL%0,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%0,             Shangwen%Pan%NULL%0,             Xiaojing%Zou%NULL%0,             Shiying%Yuan%NULL%0,             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,     Xiaoyan%Chen%xref no email%0,     Yanping%Cai%xref no email%0,     Jia\u2019an%Xia%xref no email%0,     Xing%Zhou%xref no email%0,     Sha%Xu%xref no email%0,     Hanping%Huang%xref no email%0,     Li%Zhang%xref no email%0,     Xia%Zhou%xref no email%0,     Chunling%Du%xref no email%0,     Yuye%Zhang%xref no email%0,     Juan%Song%xref no email%0,     Sijiao%Wang%xref no email%0,     Yencheng%Chao%xref no email%0,     Zeyong%Yang%xref no email%0,     Jie%Xu%xref no email%0,     Xin%Zhou%xref no email%0,     Dechang%Chen%xref no email%0,     Weining%Xiong%xref no email%0,     Lei%Xu%xref no email%0,     Feng%Zhou%xref no email%0,     Jinjun%Jiang%xref no email%0,     Chunxue%Bai%xref no email%0,     Junhua%Zheng%xref no email%0,     Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,             Mengqi%Tu%NULL%0,             Shipei%Wang%NULL%0,             Sichao%Chen%NULL%0,             Wei%Zhou%NULL%0,             Danyang%Chen%NULL%0,             Lin%Zhou%NULL%0,             Min%Wang%NULL%0,             Yan%Zhao%NULL%0,             Wen%Zeng%NULL%0,             Qi%Huang%NULL%0,             Hai'bo%Xu%NULL%0,             Zeming%Liu%NULL%0,             Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,             Jiong%Wu%NULL%0,             Faqi%Wu%NULL%0,             Dajing%Guo%NULL%0,             Linli%Chen%NULL%0,             Zheng%Fang%NULL%0,             Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+The pneumonia caused by the 2019 novel coronavirus (SARS-CoV-2, also called 2019-nCoV) recently break out in Wuhan, China, and was named as COVID-19. With the spread of the disease, similar cases have also been confirmed in other regions of China.
+ We aimed to report the imaging and clinical characteristics of these patients infected with SARS-CoV-2 in Guangzhou, China.
+Methods
+All patients with laboratory-identified SARS-CoV-2 infection by real-time polymerase chain reaction (PCR) were collected between January 23, 2020, and February 4, 2020, in a designated hospital (Guangzhou Eighth People’s Hospital).
+ This analysis included 90 patients (39 men and 51 women; median age, 50 years (age range, 18–86 years).
+ All the included SARS-CoV-2-infected patients underwent non-contrast enhanced chest computed tomography (CT).
+ We analyzed the clinical characteristics of the patients, as well as the distribution characteristics, pattern, morphology, and accompanying manifestations of lung lesions.
+ In addition, after 1–6 days (mean 3.5 days), follow-up chest CT images were evaluated to assess radiological evolution.
+Findings
+The majority of infected patients had a history of exposure in Wuhan or to infected patients and mostly presented with fever and cough.
+ More than half of the patients presented bilateral, multifocal lung lesions, with peripheral distribution, and 53 (59%) patients had more than two lobes involved.
+ Of all included patients, COVID-19 pneumonia presented with ground glass opacities in 65 (72%), consolidation in 12 (13%), crazy paving pattern in 11 (12%), interlobular thickening in 33 (37%), adjacent pleura thickening in 50 (56%), and linear opacities combined in 55 (61%).
+ Pleural effusion, pericardial effusion, and lymphadenopathy were uncommon findings.
+ In addition, baseline chest CT did not show any abnormalities in 21 patients (23%), but 3 patients presented bilateral ground glass opacities on the second CT after 3–4 days.
+Conclusion
+SARS-CoV-2 infection can be confirmed based on the patient’s history, clinical manifestations, imaging characteristics, and laboratory tests.
+ Chest CT examination plays an important role in the initial diagnosis of the novel coronavirus pneumonia.
+ Multiple patchy ground glass opacities in bilateral multiple lobular with periphery distribution are typical chest CT imaging features of the COVID-19 pneumonia.
+</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,             Chengcheng%Yu%NULL%0,             Jing%Qu%NULL%0,             Lieguang%Zhang%NULL%0,             Songfeng%Jiang%NULL%0,             Deyang%Huang%NULL%0,             Bihua%Chen%NULL%0,             Zhiping%Zhang%NULL%0,             Wanhua%Guan%NULL%0,             Zhoukun%Ling%NULL%0,             Rui%Jiang%NULL%0,             Tianli%Hu%NULL%0,             Yan%Ding%NULL%0,             Lin%Lin%NULL%0,             Qingxin%Gan%NULL%0,             Liangping%Luo%tluolp@jnu.edu.cn%0,             Xiaoping%Tang%xtang@21cn.com%0,             Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,             Qiqi%Cao%NULL%0,             Le%Qin%NULL%0,             Xiaoyang%Wang%NULL%0,             Zenghui%Cheng%NULL%0,             Ashan%Pan%NULL%0,             Jianyi%Dai%NULL%0,             Qingfeng%Sun%NULL%0,             Fengquan%Zhao%NULL%0,             Jieming%Qu%NULL%0,             Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,             Fang%Jiang%NULL%0,             Wating%Su%NULL%0,             Chang%Chen%NULL%0,             Jingli%Chen%NULL%0,             Wei%Mei%NULL%0,             Li-Ying%Zhan%NULL%0,             Yifan%Jia%NULL%0,             Liangqing%Zhang%NULL%0,             Danyong%Liu%NULL%0,             Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,             Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,             Yun%Ling%NULL%0,             Yun%Ling%NULL%0,             Tao%Bai%NULL%0,             Tao%Bai%NULL%0,             Yusang%Xie%NULL%1,             Jie%Huang%NULL%2,             Jie%Huang%NULL%0,             Jian%Li%NULL%1,             Weining%Xiong%NULL%1,             Dexiang%Yang%NULL%1,             Rong%Chen%NULL%1,             Fangying%Lu%NULL%1,             Yunfei%Lu%NULL%2,             Xuhui%Liu%NULL%1,             Yuqing%Chen%NULL%2,             Yuqing%Chen%NULL%0,             Xin%Li%NULL%0,             Yong%Li%NULL%1,             Hanssa Dwarka%Summah%NULL%1,             Huihuang%Lin%NULL%1,             Jiayang%Yan%NULL%1,             Min%Zhou%NULL%0,             Hongzhou%Lu%NULL%0,             Hongzhou%Lu%NULL%0,             Jieming%Qu%NULL%0,             Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,             Wen%Yin%NULL%0,             Wen%Yin%NULL%0,             Zhaowu%Tao%NULL%1,             Weijun%Tan%NULL%1,             Yi%Hu%NULL%0,             Oliver%Schildgen%NULL%2,             Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,             Yuanyuan%Xing%NULL%0,             Yu%Xiao%NULL%0,             Liping%Deng%NULL%0,             Qiu%Zhao%NULL%0,             Hongling%Wang%NULL%0,             Yong%Xiong%NULL%0,             Zhenshun%Cheng%NULL%0,             Shicheng%Gao%NULL%0,             Ke%Liang%NULL%0,             Mingqi%Luo%NULL%0,             Tielong%Chen%NULL%0,             Shihui%Song%NULL%0,             Zhiyong%Ma%NULL%0,             Xiaoping%Chen%NULL%0,             Ruiying%Zheng%NULL%0,             Qian%Cao%NULL%0,             Fan%Wang%fanndywang@foxmail.com%0,             Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,             Xun%Li%NULL%1,             Hui%Chen%NULL%0,             Shaonan%Yan%NULL%1,             Dong%Li%NULL%1,             Yan%Li%NULL%1,             Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,             Chang%Hu%NULL%0,             Linjie%Luo%NULL%0,             Fang%Fang%NULL%0,             Yongfeng%Chen%NULL%0,             Jianguo%Li%NULL%0,             Zhiyong%Peng%NULL%0,             Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,             Yongzhen%Fan%NULL%0,             Ming%Chen%NULL%0,             Xiaoyan%Wu%NULL%0,             Lin%Zhang%NULL%0,             Tao%He%NULL%0,             Hairong%Wang%NULL%0,             Jing%Wan%NULL%0,             Xinghuan%Wang%NULL%0,             Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,           Becker%L.B.%coreGivesNoEmail%0,           Chelico%J.D.%coreGivesNoEmail%0,           Cohen%S.L.%coreGivesNoEmail%0,           Cookingham%J.%coreGivesNoEmail%0,           Coppa%K.%coreGivesNoEmail%0,           Crawford%J.M.%coreGivesNoEmail%0,           Davidson%K.W.%coreGivesNoEmail%0,           Diefenbach%M.A.%coreGivesNoEmail%0,           Dominello%A.J.%coreGivesNoEmail%0,           Duer-Hefele%J.%coreGivesNoEmail%0,           Falzon%L.%coreGivesNoEmail%0,           Gitlin%J.%coreGivesNoEmail%0,           Hajizadeh%N.%coreGivesNoEmail%0,           Harvin%T.G.%coreGivesNoEmail%0,           Hirsch%J.S.%coreGivesNoEmail%0,           Hirschwerk%D.A.%coreGivesNoEmail%0,           Kim%E.J.%coreGivesNoEmail%0,           Kozel%Z.M.%coreGivesNoEmail%0,           Marrast%L.M.%coreGivesNoEmail%0,           McGinn%T.%coreGivesNoEmail%0,           Mogavero%J.N.%coreGivesNoEmail%0,           Narasimhan%M.%coreGivesNoEmail%0,           Osorio%G.A.%coreGivesNoEmail%0,           Qiu%M.%coreGivesNoEmail%0,           Richardson%S.%coreGivesNoEmail%0,           Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             Nancy%Chow%NULL%0,             Katherine%Fleming-Dutra%NULL%1,             Ryan%Gierke%NULL%0,             Aron%Hall%NULL%0,             Michelle%Hughes%NULL%1,             Tamara%Pilishvili%NULL%0,             Matthew%Ritchey%NULL%0,             Katherine%Roguski%NULL%1,             Tami%Skoff%NULL%1,             Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,     Sean Wei Xiang%Ong%xref no email%0,     Shirin%Kalimuddin%xref no email%0,     Jenny G.%Low%xref no email%0,     Seow Yen%Tan%xref no email%0,     Jiashen%Loh%xref no email%0,     Oon-Tek%Ng%xref no email%0,     Kalisvar%Marimuthu%xref no email%0,     Li Wei%Ang%xref no email%0,     Tze Minn%Mak%xref no email%0,     Sok Kiang%Lau%xref no email%0,     Danielle E.%Anderson%xref no email%0,     Kian Sing%Chan%xref no email%0,     Thean Yen%Tan%xref no email%0,     Tong Yong%Ng%xref no email%0,     Lin%Cui%xref no email%0,     Zubaidah%Said%xref no email%0,     Lalitha%Kurupatham%xref no email%0,     Mark I-Cheng%Chen%xref no email%0,     Monica%Chan%xref no email%0,     Shawn%Vasoo%xref no email%0,     Lin-Fa%Wang%xref no email%0,     Boon Huan%Tan%xref no email%0,     Raymond Tzer Pin%Lin%xref no email%0,     Vernon Jian Ming%Lee%xref no email%0,     Yee-Sin%Leo%xref no email%0,     David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,           Cabrini%Luca%coreGivesNoEmail%0,           Castelli%Antonio%coreGivesNoEmail%0,           Cecconi%Maurizio%coreGivesNoEmail%0,           Cereda%Danilo%coreGivesNoEmail%0,           Coluccello%Antonio%coreGivesNoEmail%0,           Foti%Giuseppe%coreGivesNoEmail%0,           Fumagalli%Roberto%coreGivesNoEmail%0,           Grasselli%Giacomo%coreGivesNoEmail%0,           Iotti%Giorgio%coreGivesNoEmail%0,           Latronico%Nicola%coreGivesNoEmail%0,           Lorini%Luca%coreGivesNoEmail%0,           Merler%Stefano%coreGivesNoEmail%0,           Natalini%Giuseppe%coreGivesNoEmail%0,           Pesenti%Antonio%coreGivesNoEmail%0,           Piatti%Alessandra%coreGivesNoEmail%0,           Ranieri%Marco Vito%coreGivesNoEmail%0,           Scandroglio%Anna Mara%coreGivesNoEmail%0,           Storti%Enrico%coreGivesNoEmail%0,           Zanella%Alberto%coreGivesNoEmail%0,           Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,             Lei%Tu%NULL%0,             Lei%Tu%NULL%0,             Pingjun%Zhu%NULL%0,             Pingjun%Zhu%NULL%0,             Mi%Mu%NULL%0,             Mi%Mu%NULL%0,             Runsheng%Wang%NULL%0,             Pengcheng%Yang%NULL%0,             Xi%Wang%NULL%0,             Chao%Hu%NULL%0,             Rongyu%Ping%NULL%0,             Peng%Hu%NULL%0,             Tianzhi%Li%NULL%0,             Feng%Cao%NULL%0,             Christopher%Chang%NULL%0,             Qinyong%Hu%NULL%0,             Yang%Jin%NULL%0,             Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,             Min%Zhou%NULL%0,             Xuan%Dong%NULL%0,             Jieming%Qu%NULL%0,             Fengyun%Gong%NULL%0,             Yang%Han%NULL%0,             Yang%Qiu%NULL%0,             Jingli%Wang%NULL%0,             Ying%Liu%NULL%0,             Yuan%Wei%NULL%0,             Jia'an%Xia%NULL%0,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%0,             Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,           Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%0,             Xingwang%Li%NULL%0,             Lili%Ren%NULL%0,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%0,             Li%Zhang%NULL%0,             Guohui%Fan%NULL%0,             Jiuyang%Xu%NULL%0,             Xiaoying%Gu%NULL%0,             Zhenshun%Cheng%NULL%0,             Ting%Yu%NULL%0,             Jiaan%Xia%NULL%0,             Yuan%Wei%NULL%0,             Wenjuan%Wu%NULL%0,             Xuelei%Xie%NULL%0,             Wen%Yin%NULL%0,             Hui%Li%NULL%0,             Min%Liu%NULL%0,             Yan%Xiao%NULL%0,             Hong%Gao%NULL%0,             Li%Guo%NULL%0,             Jungang%Xie%NULL%0,             Guangfa%Wang%NULL%0,             Rongmeng%Jiang%NULL%0,             Zhancheng%Gao%NULL%0,             Qi%Jin%NULL%0,             Jianwei%Wang%wangjw28@163.com%0,             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,             Yuan-Yuan%Fang%NULL%0,             Yan%Deng%NULL%0,             Wei%Liu%NULL%0,             Mei-Fang%Wang%NULL%0,             Jing-Ping%Ma%NULL%0,             Wei%Xiao%NULL%0,             Ying-Nan%Wang%NULL%0,             Min-Hua%Zhong%NULL%0,             Cheng-Hong%Li%NULL%0,             Guang-Cai%Li%NULL%0,             Hui-Guo%Liu%NULL%0,             Xiu-Yuan%Hao%NULL%0,             Xiu-Yuan%Hao%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,             Yang%Yang%NULL%0,             Cong%Zhang%NULL%0,             Fengming%Huang%NULL%0,             Fuxiang%Wang%NULL%0,             Jing%Yuan%NULL%0,             Zhaoqin%Wang%NULL%0,             Jinxiu%Li%NULL%0,             Jianming%Li%NULL%0,             Cheng%Feng%NULL%0,             Zheng%Zhang%NULL%0,             Lifei%Wang%NULL%0,             Ling%Peng%NULL%0,             Li%Chen%NULL%0,             Yuhao%Qin%NULL%0,             Dandan%Zhao%NULL%0,             Shuguang%Tan%NULL%0,             Lu%Yin%NULL%0,             Jun%Xu%NULL%0,             Congzhao%Zhou%NULL%0,             Chengyu%Jiang%jiang@pumc.edu.cn%0,             Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Wen-hua%Liang%NULL%0,             Chun-quan%Ou%NULL%0,             Jian-xing%He%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             David S.C.%Hui%NULL%0,             Bin%Du%NULL%0,             Lan-juan%Li%NULL%0,             Guang%Zeng%NULL%0,             Kwok-Yung%Yuen%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Ping-yan%Chen%NULL%0,             Jie%Xiang%NULL%0,             Shi-yue%Li%NULL%0,             Jin-lin%Wang%NULL%0,             Zi-jing%Liang%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,             Li-Min%Liu%NULL%0,             Wen%Yin%NULL%0,             Wen%Wang%NULL%0,             Lu-Lu%Guan%NULL%0,             Ming-Li%Yuan%NULL%0,             Yu-Lei%Li%NULL%0,             Yi%Hu%NULL%0,             Xu-Yan%Li%NULL%0,             Bing%Sun%NULL%0,             Peng%Peng%NULL%0,             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Wen-hua%Liang%NULL%0,             Yi%Zhao%NULL%0,             Heng-rui%Liang%NULL%0,             Zi-sheng%Chen%NULL%0,             Yi-min%Li%NULL%0,             Xiao-qing%Liu%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Chun-quan%Ou%NULL%0,             Li%Li%NULL%0,             Ping-yan%Chen%NULL%0,             Ling%Sang%NULL%0,             Wei%Wang%NULL%0,             Jian-fu%Li%NULL%0,             Cai-chen%Li%NULL%0,             Li-min%Ou%NULL%0,             Bo%Cheng%NULL%0,             Shan%Xiong%NULL%0,             Zheng-yi%Ni%NULL%0,             Jie%Xiang%NULL%0,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Lin-ling%Cheng%NULL%0,             Feng%Ye%NULL%0,             Shi-yue%Li%NULL%0,             Jin-ping%Zheng%NULL%0,             Nuo-fu%Zhang%NULL%0,             Nan-shan%Zhong%NULL%0,             Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,             Xiao-Xin%Wu%NULL%0,             Xian-Gao%Jiang%NULL%0,             Kai-Jin%Xu%NULL%0,             Ling-Jun%Ying%NULL%0,             Chun-Lian%Ma%NULL%0,             Shi-Bo%Li%NULL%0,             Hua-Ying%Wang%NULL%0,             Sheng%Zhang%NULL%0,             Hai-Nv%Gao%NULL%0,             Ji-Fang%Sheng%NULL%0,             Hong-Liu%Cai%NULL%0,             Yun-Qing%Qiu%NULL%0,             Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,             Zhe%Dai%NULL%1,             Pingzheng%Mo%NULL%1,             Xinyu%Li%NULL%1,             Zhiyong%Ma%NULL%0,             Shihui%Song%NULL%0,             Xiaoping%Chen%NULL%0,             Mingqi%Luo%NULL%0,             Ke%Liang%NULL%0,             Shicheng%Gao%NULL%0,             Yongxi%Zhang%NULL%0,             Liping%Deng%dengdeng78@126.com%0,             Yong%Xiong%NULL%0,             Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,             Wei-jie%Guan%NULL%0,             Cai-chen%Li%NULL%0,             Yi-min%Li%NULL%0,             Heng-rui%Liang%NULL%0,             Yi%Zhao%NULL%0,             Xiao-qing%Liu%NULL%0,             Ling%Sang%NULL%0,             Ru-chong%Chen%NULL%0,             Chun-li%Tang%NULL%0,             Tao%Wang%NULL%0,             Wei%Wang%NULL%0,             Qi-hua%He%NULL%0,             Zi-sheng%Chen%NULL%0,             Sook-San%Wong%NULL%0,             Mark%Zanin%NULL%0,             Jun%Liu%NULL%0,             Xin%Xu%NULL%0,             Jun%Huang%NULL%0,             Jian-fu%Li%NULL%0,             Li-min%Ou%NULL%0,             Bo%Cheng%NULL%0,             Shan%Xiong%NULL%0,             Zhan-hong%Xie%NULL%0,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%0,             Lei%Liu%NULL%0,             Hong%Shan%NULL%0,             Chun-liang%Lei%NULL%0,             Yi-xiang%Peng%NULL%0,             Li%Wei%NULL%0,             Yong%Liu%NULL%0,             Ya-hua%Hu%NULL%0,             Peng%Peng%NULL%0,             Jian-ming%Wang%NULL%0,             Ji-yang%Liu%NULL%0,             Zhong%Chen%NULL%0,             Gang%Li%NULL%0,             Zhi-jian%Zheng%NULL%0,             Shao-qin%Qiu%NULL%0,             Jie%Luo%NULL%0,             Chang-jiang%Ye%NULL%0,             Shao-yong%Zhu%NULL%0,             Lin-ling%Cheng%NULL%0,             Feng%Ye%NULL%0,             Shi-yue%Li%NULL%0,             Jin-ping%Zheng%NULL%0,             Nuo-fu%Zhang%NULL%0,             Nan-shan%Zhong%NULL%0,             Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,             Wenbo%He%NULL%0,             Xiaomei%Yu%NULL%0,             Dalong%Hu%NULL%0,             Mingwei%Bao%NULL%0,             Huafen%Liu%NULL%0,             Jiali%Zhou%NULL%0,             Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,             Wenlin%Cheng%NULL%0,             Lei%Yu%NULL%0,             Ya-Kun%Liu%NULL%0,             Xiaoyong%Hu%NULL%0,             Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
+ We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
+Methods
+This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
+Results
+On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
+ Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
+ There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
+Conclusions
+The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
+ Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
+Key Points
+• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
+ These findings may help clinicians to identify severe patients quickly at admission.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,             Huangqing%Ouyang%NULL%1,             Lingli%Fu%NULL%1,             Shijie%Wang%NULL%1,             Jianglong%Han%NULL%1,             Kejie%Huang%NULL%1,             Mingfang%Jia%NULL%1,             Qibin%Song%NULL%1,             Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%0,             Huilong%Chen%NULL%0,             Weiming%Yan%NULL%0,             Danlei%Yang%NULL%0,             Guang%Chen%NULL%0,             Ke%Ma%NULL%0,             Dong%Xu%NULL%0,             Haijing%Yu%NULL%0,             Hongwu%Wang%NULL%0,             Tao%Wang%NULL%0,             Wei%Guo%NULL%0,             Jia%Chen%NULL%0,             Chen%Ding%NULL%0,             Xiaoping%Zhang%NULL%0,             Jiaquan%Huang%NULL%0,             Meifang%Han%NULL%0,             Shusheng%Li%NULL%0,             Xiaoping%Luo%NULL%0,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,            Cao%Yi-yuan%coreGivesNoEmail%0,            Dong%Xiang%coreGivesNoEmail%0,            Gao%Ya-dong%coreGivesNoEmail%0,            Yan%You-qin%coreGivesNoEmail%0,            Yang%Yi-bin%coreGivesNoEmail%0,            Yuan%Ya-dong%coreGivesNoEmail%0,            Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,              Bohan%Yang%NULL%0,              Qianwen%Li%NULL%0,              Lu%Wen%NULL%0,              Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,              Yuan%Yu%NULL%0,              Jiqian%Xu%NULL%0,              Huaqing%Shu%NULL%0,              Jia'an%Xia%NULL%0,              Hong%Liu%NULL%0,              Yongran%Wu%NULL%0,              Lu%Zhang%NULL%0,              Zhui%Yu%NULL%0,              Minghao%Fang%NULL%0,              Ting%Yu%NULL%0,              Yaxin%Wang%NULL%0,              Shangwen%Pan%NULL%0,              Xiaojing%Zou%NULL%0,              Shiying%Yuan%NULL%0,              You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,      Xiaoyan%Chen%xref no email%0,      Yanping%Cai%xref no email%0,      Jia\u2019an%Xia%xref no email%0,      Xing%Zhou%xref no email%0,      Sha%Xu%xref no email%0,      Hanping%Huang%xref no email%0,      Li%Zhang%xref no email%0,      Xia%Zhou%xref no email%0,      Chunling%Du%xref no email%0,      Yuye%Zhang%xref no email%0,      Juan%Song%xref no email%0,      Sijiao%Wang%xref no email%0,      Yencheng%Chao%xref no email%0,      Zeyong%Yang%xref no email%0,      Jie%Xu%xref no email%0,      Xin%Zhou%xref no email%0,      Dechang%Chen%xref no email%0,      Weining%Xiong%xref no email%0,      Lei%Xu%xref no email%0,      Feng%Zhou%xref no email%0,      Jinjun%Jiang%xref no email%0,      Chunxue%Bai%xref no email%0,      Junhua%Zheng%xref no email%0,      Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,              Mengqi%Tu%NULL%0,              Shipei%Wang%NULL%0,              Sichao%Chen%NULL%0,              Wei%Zhou%NULL%0,              Danyang%Chen%NULL%0,              Lin%Zhou%NULL%0,              Min%Wang%NULL%0,              Yan%Zhao%NULL%0,              Wen%Zeng%NULL%0,              Qi%Huang%NULL%0,              Hai'bo%Xu%NULL%0,              Zeming%Liu%NULL%0,              Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,              Jiong%Wu%NULL%0,              Faqi%Wu%NULL%0,              Dajing%Guo%NULL%0,              Linli%Chen%NULL%0,              Zheng%Fang%NULL%0,              Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,              Chengcheng%Yu%NULL%0,              Jing%Qu%NULL%0,              Lieguang%Zhang%NULL%0,              Songfeng%Jiang%NULL%0,              Deyang%Huang%NULL%0,              Bihua%Chen%NULL%0,              Zhiping%Zhang%NULL%0,              Wanhua%Guan%NULL%0,              Zhoukun%Ling%NULL%0,              Rui%Jiang%NULL%0,              Tianli%Hu%NULL%0,              Yan%Ding%NULL%0,              Lin%Lin%NULL%0,              Qingxin%Gan%NULL%0,              Liangping%Luo%tluolp@jnu.edu.cn%0,              Xiaoping%Tang%xtang@21cn.com%0,              Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,              Qiqi%Cao%NULL%0,              Le%Qin%NULL%0,              Xiaoyang%Wang%NULL%0,              Zenghui%Cheng%NULL%0,              Ashan%Pan%NULL%0,              Jianyi%Dai%NULL%0,              Qingfeng%Sun%NULL%0,              Fengquan%Zhao%NULL%0,              Jieming%Qu%NULL%0,              Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,              Fang%Jiang%NULL%0,              Wating%Su%NULL%0,              Chang%Chen%NULL%0,              Jingli%Chen%NULL%0,              Wei%Mei%NULL%0,              Li-Ying%Zhan%NULL%0,              Yifan%Jia%NULL%0,              Liangqing%Zhang%NULL%0,              Danyong%Liu%NULL%0,              Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,              Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,              Yun%Ling%NULL%0,              Yun%Ling%NULL%0,              Tao%Bai%NULL%0,              Tao%Bai%NULL%0,              Yusang%Xie%NULL%1,              Jie%Huang%NULL%2,              Jie%Huang%NULL%0,              Jian%Li%NULL%1,              Weining%Xiong%NULL%1,              Dexiang%Yang%NULL%1,              Rong%Chen%NULL%1,              Fangying%Lu%NULL%1,              Yunfei%Lu%NULL%2,              Xuhui%Liu%NULL%1,              Yuqing%Chen%NULL%2,              Yuqing%Chen%NULL%0,              Xin%Li%NULL%0,              Yong%Li%NULL%1,              Hanssa Dwarka%Summah%NULL%1,              Huihuang%Lin%NULL%1,              Jiayang%Yan%NULL%1,              Min%Zhou%NULL%0,              Hongzhou%Lu%NULL%0,              Hongzhou%Lu%NULL%0,              Jieming%Qu%NULL%0,              Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,              Wen%Yin%NULL%0,              Wen%Yin%NULL%0,              Zhaowu%Tao%NULL%1,              Weijun%Tan%NULL%1,              Yi%Hu%NULL%0,              Oliver%Schildgen%NULL%2,              Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,              Yuanyuan%Xing%NULL%0,              Yu%Xiao%NULL%0,              Liping%Deng%NULL%0,              Qiu%Zhao%NULL%0,              Hongling%Wang%NULL%0,              Yong%Xiong%NULL%0,              Zhenshun%Cheng%NULL%0,              Shicheng%Gao%NULL%0,              Ke%Liang%NULL%0,              Mingqi%Luo%NULL%0,              Tielong%Chen%NULL%0,              Shihui%Song%NULL%0,              Zhiyong%Ma%NULL%0,              Xiaoping%Chen%NULL%0,              Ruiying%Zheng%NULL%0,              Qian%Cao%NULL%0,              Fan%Wang%fanndywang@foxmail.com%0,              Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,              Xun%Li%NULL%1,              Hui%Chen%NULL%0,              Shaonan%Yan%NULL%1,              Dong%Li%NULL%1,              Yan%Li%NULL%1,              Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,              Chang%Hu%NULL%0,              Linjie%Luo%NULL%0,              Fang%Fang%NULL%0,              Yongfeng%Chen%NULL%0,              Jianguo%Li%NULL%0,              Zhiyong%Peng%NULL%0,              Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,              Yongzhen%Fan%NULL%0,              Ming%Chen%NULL%0,              Xiaoyan%Wu%NULL%0,              Lin%Zhang%NULL%0,              Tao%He%NULL%0,              Hairong%Wang%NULL%0,              Jing%Wan%NULL%0,              Xinghuan%Wang%NULL%0,              Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,            Becker%L.B.%coreGivesNoEmail%0,            Chelico%J.D.%coreGivesNoEmail%0,            Cohen%S.L.%coreGivesNoEmail%0,            Cookingham%J.%coreGivesNoEmail%0,            Coppa%K.%coreGivesNoEmail%0,            Crawford%J.M.%coreGivesNoEmail%0,            Davidson%K.W.%coreGivesNoEmail%0,            Diefenbach%M.A.%coreGivesNoEmail%0,            Dominello%A.J.%coreGivesNoEmail%0,            Duer-Hefele%J.%coreGivesNoEmail%0,            Falzon%L.%coreGivesNoEmail%0,            Gitlin%J.%coreGivesNoEmail%0,            Hajizadeh%N.%coreGivesNoEmail%0,            Harvin%T.G.%coreGivesNoEmail%0,            Hirsch%J.S.%coreGivesNoEmail%0,            Hirschwerk%D.A.%coreGivesNoEmail%0,            Kim%E.J.%coreGivesNoEmail%0,            Kozel%Z.M.%coreGivesNoEmail%0,            Marrast%L.M.%coreGivesNoEmail%0,            McGinn%T.%coreGivesNoEmail%0,            Mogavero%J.N.%coreGivesNoEmail%0,            Narasimhan%M.%coreGivesNoEmail%0,            Osorio%G.A.%coreGivesNoEmail%0,            Qiu%M.%coreGivesNoEmail%0,            Richardson%S.%coreGivesNoEmail%0,            Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0,              Nancy%Chow%NULL%0,              Katherine%Fleming-Dutra%NULL%1,              Ryan%Gierke%NULL%0,              Aron%Hall%NULL%0,              Michelle%Hughes%NULL%1,              Tamara%Pilishvili%NULL%0,              Matthew%Ritchey%NULL%0,              Katherine%Roguski%NULL%1,              Tami%Skoff%NULL%1,              Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,      Sean Wei Xiang%Ong%xref no email%0,      Shirin%Kalimuddin%xref no email%0,      Jenny G.%Low%xref no email%0,      Seow Yen%Tan%xref no email%0,      Jiashen%Loh%xref no email%0,      Oon-Tek%Ng%xref no email%0,      Kalisvar%Marimuthu%xref no email%0,      Li Wei%Ang%xref no email%0,      Tze Minn%Mak%xref no email%0,      Sok Kiang%Lau%xref no email%0,      Danielle E.%Anderson%xref no email%0,      Kian Sing%Chan%xref no email%0,      Thean Yen%Tan%xref no email%0,      Tong Yong%Ng%xref no email%0,      Lin%Cui%xref no email%0,      Zubaidah%Said%xref no email%0,      Lalitha%Kurupatham%xref no email%0,      Mark I-Cheng%Chen%xref no email%0,      Monica%Chan%xref no email%0,      Shawn%Vasoo%xref no email%0,      Lin-Fa%Wang%xref no email%0,      Boon Huan%Tan%xref no email%0,      Raymond Tzer Pin%Lin%xref no email%0,      Vernon Jian Ming%Lee%xref no email%0,      Yee-Sin%Leo%xref no email%0,      David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,            Cabrini%Luca%coreGivesNoEmail%0,            Castelli%Antonio%coreGivesNoEmail%0,            Cecconi%Maurizio%coreGivesNoEmail%0,            Cereda%Danilo%coreGivesNoEmail%0,            Coluccello%Antonio%coreGivesNoEmail%0,            Foti%Giuseppe%coreGivesNoEmail%0,            Fumagalli%Roberto%coreGivesNoEmail%0,            Grasselli%Giacomo%coreGivesNoEmail%0,            Iotti%Giorgio%coreGivesNoEmail%0,            Latronico%Nicola%coreGivesNoEmail%0,            Lorini%Luca%coreGivesNoEmail%0,            Merler%Stefano%coreGivesNoEmail%0,            Natalini%Giuseppe%coreGivesNoEmail%0,            Pesenti%Antonio%coreGivesNoEmail%0,            Piatti%Alessandra%coreGivesNoEmail%0,            Ranieri%Marco Vito%coreGivesNoEmail%0,            Scandroglio%Anna Mara%coreGivesNoEmail%0,            Storti%Enrico%coreGivesNoEmail%0,            Zanella%Alberto%coreGivesNoEmail%0,            Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,              Lei%Tu%NULL%0,              Lei%Tu%NULL%0,              Pingjun%Zhu%NULL%0,              Pingjun%Zhu%NULL%0,              Mi%Mu%NULL%0,              Mi%Mu%NULL%0,              Runsheng%Wang%NULL%0,              Pengcheng%Yang%NULL%0,              Xi%Wang%NULL%0,              Chao%Hu%NULL%0,              Rongyu%Ping%NULL%0,              Peng%Hu%NULL%0,              Tianzhi%Li%NULL%0,              Feng%Cao%NULL%0,              Christopher%Chang%NULL%0,              Qinyong%Hu%NULL%0,              Yang%Jin%NULL%0,              Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,              Min%Zhou%NULL%0,              Xuan%Dong%NULL%0,              Jieming%Qu%NULL%0,              Fengyun%Gong%NULL%0,              Yang%Han%NULL%0,              Yang%Qiu%NULL%0,              Jingli%Wang%NULL%0,              Ying%Liu%NULL%0,              Yuan%Wei%NULL%0,              Jia'an%Xia%NULL%0,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%0,              Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,            Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,              Yeming%Wang%NULL%0,              Xingwang%Li%NULL%0,              Lili%Ren%NULL%0,              Jianping%Zhao%NULL%0,              Yi%Hu%NULL%0,              Li%Zhang%NULL%0,              Guohui%Fan%NULL%0,              Jiuyang%Xu%NULL%0,              Xiaoying%Gu%NULL%0,              Zhenshun%Cheng%NULL%0,              Ting%Yu%NULL%0,              Jiaan%Xia%NULL%0,              Yuan%Wei%NULL%0,              Wenjuan%Wu%NULL%0,              Xuelei%Xie%NULL%0,              Wen%Yin%NULL%0,              Hui%Li%NULL%0,              Min%Liu%NULL%0,              Yan%Xiao%NULL%0,              Hong%Gao%NULL%0,              Li%Guo%NULL%0,              Jungang%Xie%NULL%0,              Guangfa%Wang%NULL%0,              Rongmeng%Jiang%NULL%0,              Zhancheng%Gao%NULL%0,              Qi%Jin%NULL%0,              Jianwei%Wang%wangjw28@163.com%0,              Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,              Yuan-Yuan%Fang%NULL%0,              Yan%Deng%NULL%0,              Wei%Liu%NULL%0,              Mei-Fang%Wang%NULL%0,              Jing-Ping%Ma%NULL%0,              Wei%Xiao%NULL%0,              Ying-Nan%Wang%NULL%0,              Min-Hua%Zhong%NULL%0,              Cheng-Hong%Li%NULL%0,              Guang-Cai%Li%NULL%0,              Hui-Guo%Liu%NULL%0,              Xiu-Yuan%Hao%NULL%0,              Xiu-Yuan%Hao%NULL%0,              Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,              Yang%Yang%NULL%0,              Cong%Zhang%NULL%0,              Fengming%Huang%NULL%0,              Fuxiang%Wang%NULL%0,              Jing%Yuan%NULL%0,              Zhaoqin%Wang%NULL%0,              Jinxiu%Li%NULL%0,              Jianming%Li%NULL%0,              Cheng%Feng%NULL%0,              Zheng%Zhang%NULL%0,              Lifei%Wang%NULL%0,              Ling%Peng%NULL%0,              Li%Chen%NULL%0,              Yuhao%Qin%NULL%0,              Dandan%Zhao%NULL%0,              Shuguang%Tan%NULL%0,              Lu%Yin%NULL%0,              Jun%Xu%NULL%0,              Congzhao%Zhou%NULL%0,              Chengyu%Jiang%jiang@pumc.edu.cn%0,              Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Zheng-yi%Ni%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Wen-hua%Liang%NULL%0,              Chun-quan%Ou%NULL%0,              Jian-xing%He%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              David S.C.%Hui%NULL%0,              Bin%Du%NULL%0,              Lan-juan%Li%NULL%0,              Guang%Zeng%NULL%0,              Kwok-Yung%Yuen%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Ping-yan%Chen%NULL%0,              Jie%Xiang%NULL%0,              Shi-yue%Li%NULL%0,              Jin-lin%Wang%NULL%0,              Zi-jing%Liang%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,              Li-Min%Liu%NULL%0,              Wen%Yin%NULL%0,              Wen%Wang%NULL%0,              Lu-Lu%Guan%NULL%0,              Ming-Li%Yuan%NULL%0,              Yu-Lei%Li%NULL%0,              Yi%Hu%NULL%0,              Xu-Yan%Li%NULL%0,              Bing%Sun%NULL%0,              Peng%Peng%NULL%0,              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,              Wen-hua%Liang%NULL%0,              Yi%Zhao%NULL%0,              Heng-rui%Liang%NULL%0,              Zi-sheng%Chen%NULL%0,              Yi-min%Li%NULL%0,              Xiao-qing%Liu%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Chun-quan%Ou%NULL%0,              Li%Li%NULL%0,              Ping-yan%Chen%NULL%0,              Ling%Sang%NULL%0,              Wei%Wang%NULL%0,              Jian-fu%Li%NULL%0,              Cai-chen%Li%NULL%0,              Li-min%Ou%NULL%0,              Bo%Cheng%NULL%0,              Shan%Xiong%NULL%0,              Zheng-yi%Ni%NULL%0,              Jie%Xiang%NULL%0,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Lin-ling%Cheng%NULL%0,              Feng%Ye%NULL%0,              Shi-yue%Li%NULL%0,              Jin-ping%Zheng%NULL%0,              Nuo-fu%Zhang%NULL%0,              Nan-shan%Zhong%NULL%0,              Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,              Xiao-Xin%Wu%NULL%0,              Xian-Gao%Jiang%NULL%0,              Kai-Jin%Xu%NULL%0,              Ling-Jun%Ying%NULL%0,              Chun-Lian%Ma%NULL%0,              Shi-Bo%Li%NULL%0,              Hua-Ying%Wang%NULL%0,              Sheng%Zhang%NULL%0,              Hai-Nv%Gao%NULL%0,              Ji-Fang%Sheng%NULL%0,              Hong-Liu%Cai%NULL%0,              Yun-Qing%Qiu%NULL%0,              Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,              Zhe%Dai%NULL%1,              Pingzheng%Mo%NULL%1,              Xinyu%Li%NULL%1,              Zhiyong%Ma%NULL%0,              Shihui%Song%NULL%0,              Xiaoping%Chen%NULL%0,              Mingqi%Luo%NULL%0,              Ke%Liang%NULL%0,              Shicheng%Gao%NULL%0,              Yongxi%Zhang%NULL%0,              Liping%Deng%dengdeng78@126.com%0,              Yong%Xiong%NULL%0,              Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,              Wei-jie%Guan%NULL%0,              Cai-chen%Li%NULL%0,              Yi-min%Li%NULL%0,              Heng-rui%Liang%NULL%0,              Yi%Zhao%NULL%0,              Xiao-qing%Liu%NULL%0,              Ling%Sang%NULL%0,              Ru-chong%Chen%NULL%0,              Chun-li%Tang%NULL%0,              Tao%Wang%NULL%0,              Wei%Wang%NULL%0,              Qi-hua%He%NULL%0,              Zi-sheng%Chen%NULL%0,              Sook-San%Wong%NULL%0,              Mark%Zanin%NULL%0,              Jun%Liu%NULL%0,              Xin%Xu%NULL%0,              Jun%Huang%NULL%0,              Jian-fu%Li%NULL%0,              Li-min%Ou%NULL%0,              Bo%Cheng%NULL%0,              Shan%Xiong%NULL%0,              Zhan-hong%Xie%NULL%0,              Zheng-yi%Ni%NULL%0,              Yu%Hu%NULL%0,              Lei%Liu%NULL%0,              Hong%Shan%NULL%0,              Chun-liang%Lei%NULL%0,              Yi-xiang%Peng%NULL%0,              Li%Wei%NULL%0,              Yong%Liu%NULL%0,              Ya-hua%Hu%NULL%0,              Peng%Peng%NULL%0,              Jian-ming%Wang%NULL%0,              Ji-yang%Liu%NULL%0,              Zhong%Chen%NULL%0,              Gang%Li%NULL%0,              Zhi-jian%Zheng%NULL%0,              Shao-qin%Qiu%NULL%0,              Jie%Luo%NULL%0,              Chang-jiang%Ye%NULL%0,              Shao-yong%Zhu%NULL%0,              Lin-ling%Cheng%NULL%0,              Feng%Ye%NULL%0,              Shi-yue%Li%NULL%0,              Jin-ping%Zheng%NULL%0,              Nuo-fu%Zhang%NULL%0,              Nan-shan%Zhong%NULL%0,              Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,              Wenbo%He%NULL%0,              Xiaomei%Yu%NULL%0,              Dalong%Hu%NULL%0,              Mingwei%Bao%NULL%0,              Huafen%Liu%NULL%0,              Jiali%Zhou%NULL%0,              Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,              Wenlin%Cheng%NULL%0,              Lei%Yu%NULL%0,              Ya-Kun%Liu%NULL%0,              Xiaoyong%Hu%NULL%0,              Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,              Huangqing%Ouyang%NULL%1,              Lingli%Fu%NULL%1,              Shijie%Wang%NULL%1,              Jianglong%Han%NULL%1,              Kejie%Huang%NULL%1,              Mingfang%Jia%NULL%1,              Qibin%Song%NULL%1,              Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2933,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2704,7 +2962,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -2733,7 +2991,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -2762,7 +3020,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -2791,7 +3049,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>572</v>
+        <v>646</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2820,7 +3078,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>573</v>
+        <v>647</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2846,10 +3104,10 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>574</v>
+        <v>648</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -2878,7 +3136,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -2907,7 +3165,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>575</v>
+        <v>649</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -2936,7 +3194,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>576</v>
+        <v>650</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -2965,7 +3223,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>577</v>
+        <v>651</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -2994,7 +3252,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>578</v>
+        <v>652</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -3023,7 +3281,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3052,7 +3310,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -3081,7 +3339,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -3110,7 +3368,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>582</v>
+        <v>656</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -3139,7 +3397,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3168,7 +3426,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>584</v>
+        <v>658</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -3197,7 +3455,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>585</v>
+        <v>659</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3255,7 +3513,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>586</v>
+        <v>660</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3284,7 +3542,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3342,7 +3600,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>588</v>
+        <v>662</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3371,7 +3629,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -3429,7 +3687,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3458,7 +3716,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -3487,7 +3745,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -3516,7 +3774,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -3545,7 +3803,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>594</v>
+        <v>668</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -3574,7 +3832,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3603,7 +3861,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -3632,7 +3890,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -3661,7 +3919,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>598</v>
+        <v>672</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -3690,7 +3948,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>599</v>
+        <v>673</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -3719,7 +3977,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>600</v>
+        <v>674</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -3748,7 +4006,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>601</v>
+        <v>675</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -3774,10 +4032,10 @@
         <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>602</v>
+        <v>676</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -3806,7 +4064,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4230" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="714">
   <si>
     <t>Doi</t>
   </si>
@@ -2576,6 +2576,114 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%0,              Huilong%Chen%NULL%0,              Weiming%Yan%NULL%0,              Danlei%Yang%NULL%0,              Guang%Chen%NULL%0,              Ke%Ma%NULL%0,              Dong%Xu%NULL%0,              Haijing%Yu%NULL%0,              Hongwu%Wang%NULL%0,              Tao%Wang%NULL%0,              Wei%Guo%NULL%0,              Jia%Chen%NULL%0,              Chen%Ding%NULL%0,              Xiaoping%Zhang%NULL%0,              Jiaquan%Huang%NULL%0,              Meifang%Han%NULL%0,              Shusheng%Li%NULL%0,              Xiaoping%Luo%NULL%0,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,             Cao%Yi-yuan%coreGivesNoEmail%0,             Dong%Xiang%coreGivesNoEmail%0,             Gao%Ya-dong%coreGivesNoEmail%0,             Yan%You-qin%coreGivesNoEmail%0,             Yang%Yi-bin%coreGivesNoEmail%0,             Yuan%Ya-dong%coreGivesNoEmail%0,             Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,               Bohan%Yang%NULL%0,               Qianwen%Li%NULL%0,               Lu%Wen%NULL%0,               Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,               Yuan%Yu%NULL%0,               Jiqian%Xu%NULL%0,               Huaqing%Shu%NULL%0,               Jia'an%Xia%NULL%0,               Hong%Liu%NULL%0,               Yongran%Wu%NULL%0,               Lu%Zhang%NULL%0,               Zhui%Yu%NULL%0,               Minghao%Fang%NULL%0,               Ting%Yu%NULL%0,               Yaxin%Wang%NULL%0,               Shangwen%Pan%NULL%0,               Xiaojing%Zou%NULL%0,               Shiying%Yuan%NULL%0,               You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,       Xiaoyan%Chen%xref no email%0,       Yanping%Cai%xref no email%0,       Jia\u2019an%Xia%xref no email%0,       Xing%Zhou%xref no email%0,       Sha%Xu%xref no email%0,       Hanping%Huang%xref no email%0,       Li%Zhang%xref no email%0,       Xia%Zhou%xref no email%0,       Chunling%Du%xref no email%0,       Yuye%Zhang%xref no email%0,       Juan%Song%xref no email%0,       Sijiao%Wang%xref no email%0,       Yencheng%Chao%xref no email%0,       Zeyong%Yang%xref no email%0,       Jie%Xu%xref no email%0,       Xin%Zhou%xref no email%0,       Dechang%Chen%xref no email%0,       Weining%Xiong%xref no email%0,       Lei%Xu%xref no email%0,       Feng%Zhou%xref no email%0,       Jinjun%Jiang%xref no email%0,       Chunxue%Bai%xref no email%0,       Junhua%Zheng%xref no email%0,       Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,               Mengqi%Tu%NULL%0,               Shipei%Wang%NULL%0,               Sichao%Chen%NULL%0,               Wei%Zhou%NULL%0,               Danyang%Chen%NULL%0,               Lin%Zhou%NULL%0,               Min%Wang%NULL%0,               Yan%Zhao%NULL%0,               Wen%Zeng%NULL%0,               Qi%Huang%NULL%0,               Hai'bo%Xu%NULL%0,               Zeming%Liu%NULL%0,               Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,               Jiong%Wu%NULL%0,               Faqi%Wu%NULL%0,               Dajing%Guo%NULL%0,               Linli%Chen%NULL%0,               Zheng%Fang%NULL%0,               Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,               Chengcheng%Yu%NULL%0,               Jing%Qu%NULL%0,               Lieguang%Zhang%NULL%0,               Songfeng%Jiang%NULL%0,               Deyang%Huang%NULL%0,               Bihua%Chen%NULL%0,               Zhiping%Zhang%NULL%0,               Wanhua%Guan%NULL%0,               Zhoukun%Ling%NULL%0,               Rui%Jiang%NULL%0,               Tianli%Hu%NULL%0,               Yan%Ding%NULL%0,               Lin%Lin%NULL%0,               Qingxin%Gan%NULL%0,               Liangping%Luo%tluolp@jnu.edu.cn%0,               Xiaoping%Tang%xtang@21cn.com%0,               Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,               Qiqi%Cao%NULL%0,               Le%Qin%NULL%0,               Xiaoyang%Wang%NULL%0,               Zenghui%Cheng%NULL%0,               Ashan%Pan%NULL%0,               Jianyi%Dai%NULL%0,               Qingfeng%Sun%NULL%0,               Fengquan%Zhao%NULL%0,               Jieming%Qu%NULL%0,               Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,               Fang%Jiang%NULL%0,               Wating%Su%NULL%0,               Chang%Chen%NULL%0,               Jingli%Chen%NULL%0,               Wei%Mei%NULL%0,               Li-Ying%Zhan%NULL%0,               Yifan%Jia%NULL%0,               Liangqing%Zhang%NULL%0,               Danyong%Liu%NULL%0,               Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,               Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,               Yun%Ling%NULL%0,               Yun%Ling%NULL%0,               Tao%Bai%NULL%0,               Tao%Bai%NULL%0,               Yusang%Xie%NULL%1,               Jie%Huang%NULL%2,               Jie%Huang%NULL%0,               Jian%Li%NULL%1,               Weining%Xiong%NULL%1,               Dexiang%Yang%NULL%1,               Rong%Chen%NULL%1,               Fangying%Lu%NULL%1,               Yunfei%Lu%NULL%2,               Xuhui%Liu%NULL%1,               Yuqing%Chen%NULL%2,               Yuqing%Chen%NULL%0,               Xin%Li%NULL%0,               Yong%Li%NULL%1,               Hanssa Dwarka%Summah%NULL%1,               Huihuang%Lin%NULL%1,               Jiayang%Yan%NULL%1,               Min%Zhou%NULL%0,               Hongzhou%Lu%NULL%0,               Hongzhou%Lu%NULL%0,               Jieming%Qu%NULL%0,               Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,               Wen%Yin%NULL%0,               Wen%Yin%NULL%0,               Zhaowu%Tao%NULL%1,               Weijun%Tan%NULL%1,               Yi%Hu%NULL%0,               Oliver%Schildgen%NULL%2,               Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,               Yuanyuan%Xing%NULL%0,               Yu%Xiao%NULL%0,               Liping%Deng%NULL%0,               Qiu%Zhao%NULL%0,               Hongling%Wang%NULL%0,               Yong%Xiong%NULL%0,               Zhenshun%Cheng%NULL%0,               Shicheng%Gao%NULL%0,               Ke%Liang%NULL%0,               Mingqi%Luo%NULL%0,               Tielong%Chen%NULL%0,               Shihui%Song%NULL%0,               Zhiyong%Ma%NULL%0,               Xiaoping%Chen%NULL%0,               Ruiying%Zheng%NULL%0,               Qian%Cao%NULL%0,               Fan%Wang%fanndywang@foxmail.com%0,               Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,               Xun%Li%NULL%1,               Hui%Chen%NULL%0,               Shaonan%Yan%NULL%1,               Dong%Li%NULL%1,               Yan%Li%NULL%1,               Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,               Chang%Hu%NULL%0,               Linjie%Luo%NULL%0,               Fang%Fang%NULL%0,               Yongfeng%Chen%NULL%0,               Jianguo%Li%NULL%0,               Zhiyong%Peng%NULL%0,               Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,               Yongzhen%Fan%NULL%0,               Ming%Chen%NULL%0,               Xiaoyan%Wu%NULL%0,               Lin%Zhang%NULL%0,               Tao%He%NULL%0,               Hairong%Wang%NULL%0,               Jing%Wan%NULL%0,               Xinghuan%Wang%NULL%0,               Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,             Becker%L.B.%coreGivesNoEmail%0,             Chelico%J.D.%coreGivesNoEmail%0,             Cohen%S.L.%coreGivesNoEmail%0,             Cookingham%J.%coreGivesNoEmail%0,             Coppa%K.%coreGivesNoEmail%0,             Crawford%J.M.%coreGivesNoEmail%0,             Davidson%K.W.%coreGivesNoEmail%0,             Diefenbach%M.A.%coreGivesNoEmail%0,             Dominello%A.J.%coreGivesNoEmail%0,             Duer-Hefele%J.%coreGivesNoEmail%0,             Falzon%L.%coreGivesNoEmail%0,             Gitlin%J.%coreGivesNoEmail%0,             Hajizadeh%N.%coreGivesNoEmail%0,             Harvin%T.G.%coreGivesNoEmail%0,             Hirsch%J.S.%coreGivesNoEmail%0,             Hirschwerk%D.A.%coreGivesNoEmail%0,             Kim%E.J.%coreGivesNoEmail%0,             Kozel%Z.M.%coreGivesNoEmail%0,             Marrast%L.M.%coreGivesNoEmail%0,             McGinn%T.%coreGivesNoEmail%0,             Mogavero%J.N.%coreGivesNoEmail%0,             Narasimhan%M.%coreGivesNoEmail%0,             Osorio%G.A.%coreGivesNoEmail%0,             Qiu%M.%coreGivesNoEmail%0,             Richardson%S.%coreGivesNoEmail%0,             Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0,               Nancy%Chow%NULL%0,               Katherine%Fleming-Dutra%NULL%1,               Ryan%Gierke%NULL%0,               Aron%Hall%NULL%0,               Michelle%Hughes%NULL%1,               Tamara%Pilishvili%NULL%0,               Matthew%Ritchey%NULL%0,               Katherine%Roguski%NULL%1,               Tami%Skoff%NULL%1,               Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,       Sean Wei Xiang%Ong%xref no email%0,       Shirin%Kalimuddin%xref no email%0,       Jenny G.%Low%xref no email%0,       Seow Yen%Tan%xref no email%0,       Jiashen%Loh%xref no email%0,       Oon-Tek%Ng%xref no email%0,       Kalisvar%Marimuthu%xref no email%0,       Li Wei%Ang%xref no email%0,       Tze Minn%Mak%xref no email%0,       Sok Kiang%Lau%xref no email%0,       Danielle E.%Anderson%xref no email%0,       Kian Sing%Chan%xref no email%0,       Thean Yen%Tan%xref no email%0,       Tong Yong%Ng%xref no email%0,       Lin%Cui%xref no email%0,       Zubaidah%Said%xref no email%0,       Lalitha%Kurupatham%xref no email%0,       Mark I-Cheng%Chen%xref no email%0,       Monica%Chan%xref no email%0,       Shawn%Vasoo%xref no email%0,       Lin-Fa%Wang%xref no email%0,       Boon Huan%Tan%xref no email%0,       Raymond Tzer Pin%Lin%xref no email%0,       Vernon Jian Ming%Lee%xref no email%0,       Yee-Sin%Leo%xref no email%0,       David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,             Cabrini%Luca%coreGivesNoEmail%0,             Castelli%Antonio%coreGivesNoEmail%0,             Cecconi%Maurizio%coreGivesNoEmail%0,             Cereda%Danilo%coreGivesNoEmail%0,             Coluccello%Antonio%coreGivesNoEmail%0,             Foti%Giuseppe%coreGivesNoEmail%0,             Fumagalli%Roberto%coreGivesNoEmail%0,             Grasselli%Giacomo%coreGivesNoEmail%0,             Iotti%Giorgio%coreGivesNoEmail%0,             Latronico%Nicola%coreGivesNoEmail%0,             Lorini%Luca%coreGivesNoEmail%0,             Merler%Stefano%coreGivesNoEmail%0,             Natalini%Giuseppe%coreGivesNoEmail%0,             Pesenti%Antonio%coreGivesNoEmail%0,             Piatti%Alessandra%coreGivesNoEmail%0,             Ranieri%Marco Vito%coreGivesNoEmail%0,             Scandroglio%Anna Mara%coreGivesNoEmail%0,             Storti%Enrico%coreGivesNoEmail%0,             Zanella%Alberto%coreGivesNoEmail%0,             Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,               Lei%Tu%NULL%0,               Lei%Tu%NULL%0,               Pingjun%Zhu%NULL%0,               Pingjun%Zhu%NULL%0,               Mi%Mu%NULL%0,               Mi%Mu%NULL%0,               Runsheng%Wang%NULL%0,               Pengcheng%Yang%NULL%0,               Xi%Wang%NULL%0,               Chao%Hu%NULL%0,               Rongyu%Ping%NULL%0,               Peng%Hu%NULL%0,               Tianzhi%Li%NULL%0,               Feng%Cao%NULL%0,               Christopher%Chang%NULL%0,               Qinyong%Hu%NULL%0,               Yang%Jin%NULL%0,               Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,               Min%Zhou%NULL%0,               Xuan%Dong%NULL%0,               Jieming%Qu%NULL%0,               Fengyun%Gong%NULL%0,               Yang%Han%NULL%0,               Yang%Qiu%NULL%0,               Jingli%Wang%NULL%0,               Ying%Liu%NULL%0,               Yuan%Wei%NULL%0,               Jia'an%Xia%NULL%0,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%0,               Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,             Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,             Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,             Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,               Yeming%Wang%NULL%0,               Xingwang%Li%NULL%0,               Lili%Ren%NULL%0,               Jianping%Zhao%NULL%0,               Yi%Hu%NULL%0,               Li%Zhang%NULL%0,               Guohui%Fan%NULL%0,               Jiuyang%Xu%NULL%0,               Xiaoying%Gu%NULL%0,               Zhenshun%Cheng%NULL%0,               Ting%Yu%NULL%0,               Jiaan%Xia%NULL%0,               Yuan%Wei%NULL%0,               Wenjuan%Wu%NULL%0,               Xuelei%Xie%NULL%0,               Wen%Yin%NULL%0,               Hui%Li%NULL%0,               Min%Liu%NULL%0,               Yan%Xiao%NULL%0,               Hong%Gao%NULL%0,               Li%Guo%NULL%0,               Jungang%Xie%NULL%0,               Guangfa%Wang%NULL%0,               Rongmeng%Jiang%NULL%0,               Zhancheng%Gao%NULL%0,               Qi%Jin%NULL%0,               Jianwei%Wang%wangjw28@163.com%0,               Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,               Yuan-Yuan%Fang%NULL%0,               Yan%Deng%NULL%0,               Wei%Liu%NULL%0,               Mei-Fang%Wang%NULL%0,               Jing-Ping%Ma%NULL%0,               Wei%Xiao%NULL%0,               Ying-Nan%Wang%NULL%0,               Min-Hua%Zhong%NULL%0,               Cheng-Hong%Li%NULL%0,               Guang-Cai%Li%NULL%0,               Hui-Guo%Liu%NULL%0,               Xiu-Yuan%Hao%NULL%0,               Xiu-Yuan%Hao%NULL%0,               Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,               Yang%Yang%NULL%0,               Cong%Zhang%NULL%0,               Fengming%Huang%NULL%0,               Fuxiang%Wang%NULL%0,               Jing%Yuan%NULL%0,               Zhaoqin%Wang%NULL%0,               Jinxiu%Li%NULL%0,               Jianming%Li%NULL%0,               Cheng%Feng%NULL%0,               Zheng%Zhang%NULL%0,               Lifei%Wang%NULL%0,               Ling%Peng%NULL%0,               Li%Chen%NULL%0,               Yuhao%Qin%NULL%0,               Dandan%Zhao%NULL%0,               Shuguang%Tan%NULL%0,               Lu%Yin%NULL%0,               Jun%Xu%NULL%0,               Congzhao%Zhou%NULL%0,               Chengyu%Jiang%jiang@pumc.edu.cn%0,               Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Zheng-yi%Ni%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Wen-hua%Liang%NULL%0,               Chun-quan%Ou%NULL%0,               Jian-xing%He%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               David S.C.%Hui%NULL%0,               Bin%Du%NULL%0,               Lan-juan%Li%NULL%0,               Guang%Zeng%NULL%0,               Kwok-Yung%Yuen%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Ping-yan%Chen%NULL%0,               Jie%Xiang%NULL%0,               Shi-yue%Li%NULL%0,               Jin-lin%Wang%NULL%0,               Zi-jing%Liang%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,               Li-Min%Liu%NULL%0,               Wen%Yin%NULL%0,               Wen%Wang%NULL%0,               Lu-Lu%Guan%NULL%0,               Ming-Li%Yuan%NULL%0,               Yu-Lei%Li%NULL%0,               Yi%Hu%NULL%0,               Xu-Yan%Li%NULL%0,               Bing%Sun%NULL%0,               Peng%Peng%NULL%0,               Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,               Wen-hua%Liang%NULL%0,               Yi%Zhao%NULL%0,               Heng-rui%Liang%NULL%0,               Zi-sheng%Chen%NULL%0,               Yi-min%Li%NULL%0,               Xiao-qing%Liu%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Chun-quan%Ou%NULL%0,               Li%Li%NULL%0,               Ping-yan%Chen%NULL%0,               Ling%Sang%NULL%0,               Wei%Wang%NULL%0,               Jian-fu%Li%NULL%0,               Cai-chen%Li%NULL%0,               Li-min%Ou%NULL%0,               Bo%Cheng%NULL%0,               Shan%Xiong%NULL%0,               Zheng-yi%Ni%NULL%0,               Jie%Xiang%NULL%0,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Lin-ling%Cheng%NULL%0,               Feng%Ye%NULL%0,               Shi-yue%Li%NULL%0,               Jin-ping%Zheng%NULL%0,               Nuo-fu%Zhang%NULL%0,               Nan-shan%Zhong%NULL%0,               Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,               Xiao-Xin%Wu%NULL%0,               Xian-Gao%Jiang%NULL%0,               Kai-Jin%Xu%NULL%0,               Ling-Jun%Ying%NULL%0,               Chun-Lian%Ma%NULL%0,               Shi-Bo%Li%NULL%0,               Hua-Ying%Wang%NULL%0,               Sheng%Zhang%NULL%0,               Hai-Nv%Gao%NULL%0,               Ji-Fang%Sheng%NULL%0,               Hong-Liu%Cai%NULL%0,               Yun-Qing%Qiu%NULL%0,               Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,               Zhe%Dai%NULL%1,               Pingzheng%Mo%NULL%1,               Xinyu%Li%NULL%1,               Zhiyong%Ma%NULL%0,               Shihui%Song%NULL%0,               Xiaoping%Chen%NULL%0,               Mingqi%Luo%NULL%0,               Ke%Liang%NULL%0,               Shicheng%Gao%NULL%0,               Yongxi%Zhang%NULL%0,               Liping%Deng%dengdeng78@126.com%0,               Yong%Xiong%NULL%0,               Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,               Wei-jie%Guan%NULL%0,               Cai-chen%Li%NULL%0,               Yi-min%Li%NULL%0,               Heng-rui%Liang%NULL%0,               Yi%Zhao%NULL%0,               Xiao-qing%Liu%NULL%0,               Ling%Sang%NULL%0,               Ru-chong%Chen%NULL%0,               Chun-li%Tang%NULL%0,               Tao%Wang%NULL%0,               Wei%Wang%NULL%0,               Qi-hua%He%NULL%0,               Zi-sheng%Chen%NULL%0,               Sook-San%Wong%NULL%0,               Mark%Zanin%NULL%0,               Jun%Liu%NULL%0,               Xin%Xu%NULL%0,               Jun%Huang%NULL%0,               Jian-fu%Li%NULL%0,               Li-min%Ou%NULL%0,               Bo%Cheng%NULL%0,               Shan%Xiong%NULL%0,               Zhan-hong%Xie%NULL%0,               Zheng-yi%Ni%NULL%0,               Yu%Hu%NULL%0,               Lei%Liu%NULL%0,               Hong%Shan%NULL%0,               Chun-liang%Lei%NULL%0,               Yi-xiang%Peng%NULL%0,               Li%Wei%NULL%0,               Yong%Liu%NULL%0,               Ya-hua%Hu%NULL%0,               Peng%Peng%NULL%0,               Jian-ming%Wang%NULL%0,               Ji-yang%Liu%NULL%0,               Zhong%Chen%NULL%0,               Gang%Li%NULL%0,               Zhi-jian%Zheng%NULL%0,               Shao-qin%Qiu%NULL%0,               Jie%Luo%NULL%0,               Chang-jiang%Ye%NULL%0,               Shao-yong%Zhu%NULL%0,               Lin-ling%Cheng%NULL%0,               Feng%Ye%NULL%0,               Shi-yue%Li%NULL%0,               Jin-ping%Zheng%NULL%0,               Nuo-fu%Zhang%NULL%0,               Nan-shan%Zhong%NULL%0,               Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,               Wenbo%He%NULL%0,               Xiaomei%Yu%NULL%0,               Dalong%Hu%NULL%0,               Mingwei%Bao%NULL%0,               Huafen%Liu%NULL%0,               Jiali%Zhou%NULL%0,               Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,               Wenlin%Cheng%NULL%0,               Lei%Yu%NULL%0,               Ya-Kun%Liu%NULL%0,               Xiaoyong%Hu%NULL%0,               Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,               Huangqing%Ouyang%NULL%1,               Lingli%Fu%NULL%1,               Shijie%Wang%NULL%1,               Jianglong%Han%NULL%1,               Kejie%Huang%NULL%1,               Mingfang%Jia%NULL%1,               Qibin%Song%NULL%1,               Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +3041,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>642</v>
+        <v>678</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -2962,7 +3070,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>643</v>
+        <v>679</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -2991,7 +3099,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>644</v>
+        <v>680</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3020,7 +3128,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3049,7 +3157,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3078,7 +3186,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3107,7 +3215,7 @@
         <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -3136,7 +3244,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -3165,7 +3273,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3194,7 +3302,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3223,7 +3331,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -3252,7 +3360,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -3281,7 +3389,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
+        <v>689</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3310,7 +3418,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -3339,7 +3447,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -3368,7 +3476,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -3397,7 +3505,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3426,7 +3534,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -3455,7 +3563,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3513,7 +3621,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3542,7 +3650,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3600,7 +3708,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3629,7 +3737,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -3687,7 +3795,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>664</v>
+        <v>700</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3716,7 +3824,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -3745,7 +3853,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>666</v>
+        <v>702</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -3774,7 +3882,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>667</v>
+        <v>703</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -3803,7 +3911,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -3832,7 +3940,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3861,7 +3969,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -3890,7 +3998,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -3919,7 +4027,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -3948,7 +4056,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -3977,7 +4085,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>674</v>
+        <v>710</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -4006,7 +4114,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -4035,7 +4143,7 @@
         <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4064,7 +4172,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="750">
   <si>
     <t>Doi</t>
   </si>
@@ -2684,6 +2684,114 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%0,               Huilong%Chen%NULL%0,               Weiming%Yan%NULL%0,               Danlei%Yang%NULL%0,               Guang%Chen%NULL%0,               Ke%Ma%NULL%0,               Dong%Xu%NULL%0,               Haijing%Yu%NULL%0,               Hongwu%Wang%NULL%0,               Tao%Wang%NULL%0,               Wei%Guo%NULL%0,               Jia%Chen%NULL%0,               Chen%Ding%NULL%0,               Xiaoping%Zhang%NULL%0,               Jiaquan%Huang%NULL%0,               Meifang%Han%NULL%0,               Shusheng%Li%NULL%0,               Xiaoping%Luo%NULL%0,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,              Cao%Yi-yuan%coreGivesNoEmail%0,              Dong%Xiang%coreGivesNoEmail%0,              Gao%Ya-dong%coreGivesNoEmail%0,              Yan%You-qin%coreGivesNoEmail%0,              Yang%Yi-bin%coreGivesNoEmail%0,              Yuan%Ya-dong%coreGivesNoEmail%0,              Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                Bohan%Yang%NULL%0,                Qianwen%Li%NULL%0,                Lu%Wen%NULL%0,                Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                Yuan%Yu%NULL%0,                Jiqian%Xu%NULL%0,                Huaqing%Shu%NULL%0,                Jia'an%Xia%NULL%0,                Hong%Liu%NULL%0,                Yongran%Wu%NULL%0,                Lu%Zhang%NULL%0,                Zhui%Yu%NULL%0,                Minghao%Fang%NULL%0,                Ting%Yu%NULL%0,                Yaxin%Wang%NULL%0,                Shangwen%Pan%NULL%0,                Xiaojing%Zou%NULL%0,                Shiying%Yuan%NULL%0,                You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,        Xiaoyan%Chen%xref no email%0,        Yanping%Cai%xref no email%0,        Jia\u2019an%Xia%xref no email%0,        Xing%Zhou%xref no email%0,        Sha%Xu%xref no email%0,        Hanping%Huang%xref no email%0,        Li%Zhang%xref no email%0,        Xia%Zhou%xref no email%0,        Chunling%Du%xref no email%0,        Yuye%Zhang%xref no email%0,        Juan%Song%xref no email%0,        Sijiao%Wang%xref no email%0,        Yencheng%Chao%xref no email%0,        Zeyong%Yang%xref no email%0,        Jie%Xu%xref no email%0,        Xin%Zhou%xref no email%0,        Dechang%Chen%xref no email%0,        Weining%Xiong%xref no email%0,        Lei%Xu%xref no email%0,        Feng%Zhou%xref no email%0,        Jinjun%Jiang%xref no email%0,        Chunxue%Bai%xref no email%0,        Junhua%Zheng%xref no email%0,        Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                Mengqi%Tu%NULL%0,                Shipei%Wang%NULL%0,                Sichao%Chen%NULL%0,                Wei%Zhou%NULL%0,                Danyang%Chen%NULL%0,                Lin%Zhou%NULL%0,                Min%Wang%NULL%0,                Yan%Zhao%NULL%0,                Wen%Zeng%NULL%0,                Qi%Huang%NULL%0,                Hai'bo%Xu%NULL%0,                Zeming%Liu%NULL%0,                Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                Jiong%Wu%NULL%0,                Faqi%Wu%NULL%0,                Dajing%Guo%NULL%0,                Linli%Chen%NULL%0,                Zheng%Fang%NULL%0,                Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                Chengcheng%Yu%NULL%0,                Jing%Qu%NULL%0,                Lieguang%Zhang%NULL%0,                Songfeng%Jiang%NULL%0,                Deyang%Huang%NULL%0,                Bihua%Chen%NULL%0,                Zhiping%Zhang%NULL%0,                Wanhua%Guan%NULL%0,                Zhoukun%Ling%NULL%0,                Rui%Jiang%NULL%0,                Tianli%Hu%NULL%0,                Yan%Ding%NULL%0,                Lin%Lin%NULL%0,                Qingxin%Gan%NULL%0,                Liangping%Luo%tluolp@jnu.edu.cn%0,                Xiaoping%Tang%xtang@21cn.com%0,                Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                Qiqi%Cao%NULL%0,                Le%Qin%NULL%0,                Xiaoyang%Wang%NULL%0,                Zenghui%Cheng%NULL%0,                Ashan%Pan%NULL%0,                Jianyi%Dai%NULL%0,                Qingfeng%Sun%NULL%0,                Fengquan%Zhao%NULL%0,                Jieming%Qu%NULL%0,                Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                Fang%Jiang%NULL%0,                Wating%Su%NULL%0,                Chang%Chen%NULL%0,                Jingli%Chen%NULL%0,                Wei%Mei%NULL%0,                Li-Ying%Zhan%NULL%0,                Yifan%Jia%NULL%0,                Liangqing%Zhang%NULL%0,                Danyong%Liu%NULL%0,                Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                Yun%Ling%NULL%0,                Yun%Ling%NULL%0,                Tao%Bai%NULL%0,                Tao%Bai%NULL%0,                Yusang%Xie%NULL%1,                Jie%Huang%NULL%2,                Jie%Huang%NULL%0,                Jian%Li%NULL%1,                Weining%Xiong%NULL%1,                Dexiang%Yang%NULL%1,                Rong%Chen%NULL%1,                Fangying%Lu%NULL%1,                Yunfei%Lu%NULL%2,                Xuhui%Liu%NULL%1,                Yuqing%Chen%NULL%2,                Yuqing%Chen%NULL%0,                Xin%Li%NULL%0,                Yong%Li%NULL%1,                Hanssa Dwarka%Summah%NULL%1,                Huihuang%Lin%NULL%1,                Jiayang%Yan%NULL%1,                Min%Zhou%NULL%0,                Hongzhou%Lu%NULL%0,                Hongzhou%Lu%NULL%0,                Jieming%Qu%NULL%0,                Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                Wen%Yin%NULL%0,                Wen%Yin%NULL%0,                Zhaowu%Tao%NULL%1,                Weijun%Tan%NULL%1,                Yi%Hu%NULL%0,                Oliver%Schildgen%NULL%2,                Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                Yuanyuan%Xing%NULL%0,                Yu%Xiao%NULL%0,                Liping%Deng%NULL%0,                Qiu%Zhao%NULL%0,                Hongling%Wang%NULL%0,                Yong%Xiong%NULL%0,                Zhenshun%Cheng%NULL%0,                Shicheng%Gao%NULL%0,                Ke%Liang%NULL%0,                Mingqi%Luo%NULL%0,                Tielong%Chen%NULL%0,                Shihui%Song%NULL%0,                Zhiyong%Ma%NULL%0,                Xiaoping%Chen%NULL%0,                Ruiying%Zheng%NULL%0,                Qian%Cao%NULL%0,                Fan%Wang%fanndywang@foxmail.com%0,                Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                Xun%Li%NULL%1,                Hui%Chen%NULL%0,                Shaonan%Yan%NULL%1,                Dong%Li%NULL%1,                Yan%Li%NULL%1,                Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                Chang%Hu%NULL%0,                Linjie%Luo%NULL%0,                Fang%Fang%NULL%0,                Yongfeng%Chen%NULL%0,                Jianguo%Li%NULL%0,                Zhiyong%Peng%NULL%0,                Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                Yongzhen%Fan%NULL%0,                Ming%Chen%NULL%0,                Xiaoyan%Wu%NULL%0,                Lin%Zhang%NULL%0,                Tao%He%NULL%0,                Hairong%Wang%NULL%0,                Jing%Wan%NULL%0,                Xinghuan%Wang%NULL%0,                Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,              Becker%L.B.%coreGivesNoEmail%0,              Chelico%J.D.%coreGivesNoEmail%0,              Cohen%S.L.%coreGivesNoEmail%0,              Cookingham%J.%coreGivesNoEmail%0,              Coppa%K.%coreGivesNoEmail%0,              Crawford%J.M.%coreGivesNoEmail%0,              Davidson%K.W.%coreGivesNoEmail%0,              Diefenbach%M.A.%coreGivesNoEmail%0,              Dominello%A.J.%coreGivesNoEmail%0,              Duer-Hefele%J.%coreGivesNoEmail%0,              Falzon%L.%coreGivesNoEmail%0,              Gitlin%J.%coreGivesNoEmail%0,              Hajizadeh%N.%coreGivesNoEmail%0,              Harvin%T.G.%coreGivesNoEmail%0,              Hirsch%J.S.%coreGivesNoEmail%0,              Hirschwerk%D.A.%coreGivesNoEmail%0,              Kim%E.J.%coreGivesNoEmail%0,              Kozel%Z.M.%coreGivesNoEmail%0,              Marrast%L.M.%coreGivesNoEmail%0,              McGinn%T.%coreGivesNoEmail%0,              Mogavero%J.N.%coreGivesNoEmail%0,              Narasimhan%M.%coreGivesNoEmail%0,              Osorio%G.A.%coreGivesNoEmail%0,              Qiu%M.%coreGivesNoEmail%0,              Richardson%S.%coreGivesNoEmail%0,              Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0,                Nancy%Chow%NULL%0,                Katherine%Fleming-Dutra%NULL%1,                Ryan%Gierke%NULL%0,                Aron%Hall%NULL%0,                Michelle%Hughes%NULL%1,                Tamara%Pilishvili%NULL%0,                Matthew%Ritchey%NULL%0,                Katherine%Roguski%NULL%1,                Tami%Skoff%NULL%1,                Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,        Sean Wei Xiang%Ong%xref no email%0,        Shirin%Kalimuddin%xref no email%0,        Jenny G.%Low%xref no email%0,        Seow Yen%Tan%xref no email%0,        Jiashen%Loh%xref no email%0,        Oon-Tek%Ng%xref no email%0,        Kalisvar%Marimuthu%xref no email%0,        Li Wei%Ang%xref no email%0,        Tze Minn%Mak%xref no email%0,        Sok Kiang%Lau%xref no email%0,        Danielle E.%Anderson%xref no email%0,        Kian Sing%Chan%xref no email%0,        Thean Yen%Tan%xref no email%0,        Tong Yong%Ng%xref no email%0,        Lin%Cui%xref no email%0,        Zubaidah%Said%xref no email%0,        Lalitha%Kurupatham%xref no email%0,        Mark I-Cheng%Chen%xref no email%0,        Monica%Chan%xref no email%0,        Shawn%Vasoo%xref no email%0,        Lin-Fa%Wang%xref no email%0,        Boon Huan%Tan%xref no email%0,        Raymond Tzer Pin%Lin%xref no email%0,        Vernon Jian Ming%Lee%xref no email%0,        Yee-Sin%Leo%xref no email%0,        David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,              Cabrini%Luca%coreGivesNoEmail%0,              Castelli%Antonio%coreGivesNoEmail%0,              Cecconi%Maurizio%coreGivesNoEmail%0,              Cereda%Danilo%coreGivesNoEmail%0,              Coluccello%Antonio%coreGivesNoEmail%0,              Foti%Giuseppe%coreGivesNoEmail%0,              Fumagalli%Roberto%coreGivesNoEmail%0,              Grasselli%Giacomo%coreGivesNoEmail%0,              Iotti%Giorgio%coreGivesNoEmail%0,              Latronico%Nicola%coreGivesNoEmail%0,              Lorini%Luca%coreGivesNoEmail%0,              Merler%Stefano%coreGivesNoEmail%0,              Natalini%Giuseppe%coreGivesNoEmail%0,              Pesenti%Antonio%coreGivesNoEmail%0,              Piatti%Alessandra%coreGivesNoEmail%0,              Ranieri%Marco Vito%coreGivesNoEmail%0,              Scandroglio%Anna Mara%coreGivesNoEmail%0,              Storti%Enrico%coreGivesNoEmail%0,              Zanella%Alberto%coreGivesNoEmail%0,              Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                Lei%Tu%NULL%0,                Lei%Tu%NULL%0,                Pingjun%Zhu%NULL%0,                Pingjun%Zhu%NULL%0,                Mi%Mu%NULL%0,                Mi%Mu%NULL%0,                Runsheng%Wang%NULL%0,                Pengcheng%Yang%NULL%0,                Xi%Wang%NULL%0,                Chao%Hu%NULL%0,                Rongyu%Ping%NULL%0,                Peng%Hu%NULL%0,                Tianzhi%Li%NULL%0,                Feng%Cao%NULL%0,                Christopher%Chang%NULL%0,                Qinyong%Hu%NULL%0,                Yang%Jin%NULL%0,                Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                Min%Zhou%NULL%0,                Xuan%Dong%NULL%0,                Jieming%Qu%NULL%0,                Fengyun%Gong%NULL%0,                Yang%Han%NULL%0,                Yang%Qiu%NULL%0,                Jingli%Wang%NULL%0,                Ying%Liu%NULL%0,                Yuan%Wei%NULL%0,                Jia'an%Xia%NULL%0,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%0,                Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,              Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,              Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,              Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                Yeming%Wang%NULL%0,                Xingwang%Li%NULL%0,                Lili%Ren%NULL%0,                Jianping%Zhao%NULL%0,                Yi%Hu%NULL%0,                Li%Zhang%NULL%0,                Guohui%Fan%NULL%0,                Jiuyang%Xu%NULL%0,                Xiaoying%Gu%NULL%0,                Zhenshun%Cheng%NULL%0,                Ting%Yu%NULL%0,                Jiaan%Xia%NULL%0,                Yuan%Wei%NULL%0,                Wenjuan%Wu%NULL%0,                Xuelei%Xie%NULL%0,                Wen%Yin%NULL%0,                Hui%Li%NULL%0,                Min%Liu%NULL%0,                Yan%Xiao%NULL%0,                Hong%Gao%NULL%0,                Li%Guo%NULL%0,                Jungang%Xie%NULL%0,                Guangfa%Wang%NULL%0,                Rongmeng%Jiang%NULL%0,                Zhancheng%Gao%NULL%0,                Qi%Jin%NULL%0,                Jianwei%Wang%wangjw28@163.com%0,                Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                Yuan-Yuan%Fang%NULL%0,                Yan%Deng%NULL%0,                Wei%Liu%NULL%0,                Mei-Fang%Wang%NULL%0,                Jing-Ping%Ma%NULL%0,                Wei%Xiao%NULL%0,                Ying-Nan%Wang%NULL%0,                Min-Hua%Zhong%NULL%0,                Cheng-Hong%Li%NULL%0,                Guang-Cai%Li%NULL%0,                Hui-Guo%Liu%NULL%0,                Xiu-Yuan%Hao%NULL%0,                Xiu-Yuan%Hao%NULL%0,                Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                Yang%Yang%NULL%0,                Cong%Zhang%NULL%0,                Fengming%Huang%NULL%0,                Fuxiang%Wang%NULL%0,                Jing%Yuan%NULL%0,                Zhaoqin%Wang%NULL%0,                Jinxiu%Li%NULL%0,                Jianming%Li%NULL%0,                Cheng%Feng%NULL%0,                Zheng%Zhang%NULL%0,                Lifei%Wang%NULL%0,                Ling%Peng%NULL%0,                Li%Chen%NULL%0,                Yuhao%Qin%NULL%0,                Dandan%Zhao%NULL%0,                Shuguang%Tan%NULL%0,                Lu%Yin%NULL%0,                Jun%Xu%NULL%0,                Congzhao%Zhou%NULL%0,                Chengyu%Jiang%jiang@pumc.edu.cn%0,                Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Zheng-yi%Ni%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Wen-hua%Liang%NULL%0,                Chun-quan%Ou%NULL%0,                Jian-xing%He%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                David S.C.%Hui%NULL%0,                Bin%Du%NULL%0,                Lan-juan%Li%NULL%0,                Guang%Zeng%NULL%0,                Kwok-Yung%Yuen%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Ping-yan%Chen%NULL%0,                Jie%Xiang%NULL%0,                Shi-yue%Li%NULL%0,                Jin-lin%Wang%NULL%0,                Zi-jing%Liang%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                Li-Min%Liu%NULL%0,                Wen%Yin%NULL%0,                Wen%Wang%NULL%0,                Lu-Lu%Guan%NULL%0,                Ming-Li%Yuan%NULL%0,                Yu-Lei%Li%NULL%0,                Yi%Hu%NULL%0,                Xu-Yan%Li%NULL%0,                Bing%Sun%NULL%0,                Peng%Peng%NULL%0,                Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                Wen-hua%Liang%NULL%0,                Yi%Zhao%NULL%0,                Heng-rui%Liang%NULL%0,                Zi-sheng%Chen%NULL%0,                Yi-min%Li%NULL%0,                Xiao-qing%Liu%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Chun-quan%Ou%NULL%0,                Li%Li%NULL%0,                Ping-yan%Chen%NULL%0,                Ling%Sang%NULL%0,                Wei%Wang%NULL%0,                Jian-fu%Li%NULL%0,                Cai-chen%Li%NULL%0,                Li-min%Ou%NULL%0,                Bo%Cheng%NULL%0,                Shan%Xiong%NULL%0,                Zheng-yi%Ni%NULL%0,                Jie%Xiang%NULL%0,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Lin-ling%Cheng%NULL%0,                Feng%Ye%NULL%0,                Shi-yue%Li%NULL%0,                Jin-ping%Zheng%NULL%0,                Nuo-fu%Zhang%NULL%0,                Nan-shan%Zhong%NULL%0,                Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                Xiao-Xin%Wu%NULL%0,                Xian-Gao%Jiang%NULL%0,                Kai-Jin%Xu%NULL%0,                Ling-Jun%Ying%NULL%0,                Chun-Lian%Ma%NULL%0,                Shi-Bo%Li%NULL%0,                Hua-Ying%Wang%NULL%0,                Sheng%Zhang%NULL%0,                Hai-Nv%Gao%NULL%0,                Ji-Fang%Sheng%NULL%0,                Hong-Liu%Cai%NULL%0,                Yun-Qing%Qiu%NULL%0,                Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                Zhe%Dai%NULL%1,                Pingzheng%Mo%NULL%1,                Xinyu%Li%NULL%1,                Zhiyong%Ma%NULL%0,                Shihui%Song%NULL%0,                Xiaoping%Chen%NULL%0,                Mingqi%Luo%NULL%0,                Ke%Liang%NULL%0,                Shicheng%Gao%NULL%0,                Yongxi%Zhang%NULL%0,                Liping%Deng%dengdeng78@126.com%0,                Yong%Xiong%NULL%0,                Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                Wei-jie%Guan%NULL%0,                Cai-chen%Li%NULL%0,                Yi-min%Li%NULL%0,                Heng-rui%Liang%NULL%0,                Yi%Zhao%NULL%0,                Xiao-qing%Liu%NULL%0,                Ling%Sang%NULL%0,                Ru-chong%Chen%NULL%0,                Chun-li%Tang%NULL%0,                Tao%Wang%NULL%0,                Wei%Wang%NULL%0,                Qi-hua%He%NULL%0,                Zi-sheng%Chen%NULL%0,                Sook-San%Wong%NULL%0,                Mark%Zanin%NULL%0,                Jun%Liu%NULL%0,                Xin%Xu%NULL%0,                Jun%Huang%NULL%0,                Jian-fu%Li%NULL%0,                Li-min%Ou%NULL%0,                Bo%Cheng%NULL%0,                Shan%Xiong%NULL%0,                Zhan-hong%Xie%NULL%0,                Zheng-yi%Ni%NULL%0,                Yu%Hu%NULL%0,                Lei%Liu%NULL%0,                Hong%Shan%NULL%0,                Chun-liang%Lei%NULL%0,                Yi-xiang%Peng%NULL%0,                Li%Wei%NULL%0,                Yong%Liu%NULL%0,                Ya-hua%Hu%NULL%0,                Peng%Peng%NULL%0,                Jian-ming%Wang%NULL%0,                Ji-yang%Liu%NULL%0,                Zhong%Chen%NULL%0,                Gang%Li%NULL%0,                Zhi-jian%Zheng%NULL%0,                Shao-qin%Qiu%NULL%0,                Jie%Luo%NULL%0,                Chang-jiang%Ye%NULL%0,                Shao-yong%Zhu%NULL%0,                Lin-ling%Cheng%NULL%0,                Feng%Ye%NULL%0,                Shi-yue%Li%NULL%0,                Jin-ping%Zheng%NULL%0,                Nuo-fu%Zhang%NULL%0,                Nan-shan%Zhong%NULL%0,                Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                Wenbo%He%NULL%0,                Xiaomei%Yu%NULL%0,                Dalong%Hu%NULL%0,                Mingwei%Bao%NULL%0,                Huafen%Liu%NULL%0,                Jiali%Zhou%NULL%0,                Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                Wenlin%Cheng%NULL%0,                Lei%Yu%NULL%0,                Ya-Kun%Liu%NULL%0,                Xiaoyong%Hu%NULL%0,                Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                Huangqing%Ouyang%NULL%1,                Lingli%Fu%NULL%1,                Shijie%Wang%NULL%1,                Jianglong%Han%NULL%1,                Kejie%Huang%NULL%1,                Mingfang%Jia%NULL%1,                Qibin%Song%NULL%1,                Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3041,7 +3149,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>678</v>
+        <v>714</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3070,7 +3178,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>679</v>
+        <v>715</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3099,7 +3207,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>680</v>
+        <v>716</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3128,7 +3236,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>681</v>
+        <v>717</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3157,7 +3265,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3186,7 +3294,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>683</v>
+        <v>719</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3215,7 +3323,7 @@
         <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -3244,7 +3352,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -3273,7 +3381,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>721</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3302,7 +3410,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3331,7 +3439,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>723</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -3360,7 +3468,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>688</v>
+        <v>724</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -3389,7 +3497,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>725</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3418,7 +3526,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>726</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -3447,7 +3555,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>691</v>
+        <v>727</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -3476,7 +3584,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>728</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -3505,7 +3613,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3534,7 +3642,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>694</v>
+        <v>730</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -3563,7 +3671,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3621,7 +3729,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3650,7 +3758,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>697</v>
+        <v>733</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3708,7 +3816,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>698</v>
+        <v>734</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3737,7 +3845,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>699</v>
+        <v>735</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -3795,7 +3903,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>700</v>
+        <v>736</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3824,7 +3932,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>701</v>
+        <v>737</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -3853,7 +3961,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -3882,7 +3990,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>703</v>
+        <v>739</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -3911,7 +4019,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -3940,7 +4048,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3969,7 +4077,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -3998,7 +4106,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4027,7 +4135,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -4056,7 +4164,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4085,7 +4193,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -4114,7 +4222,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -4143,7 +4251,7 @@
         <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4172,7 +4280,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="822">
   <si>
     <t>Doi</t>
   </si>
@@ -2792,6 +2792,222 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%0,                Huilong%Chen%NULL%0,                Weiming%Yan%NULL%0,                Danlei%Yang%NULL%0,                Guang%Chen%NULL%0,                Ke%Ma%NULL%0,                Dong%Xu%NULL%0,                Haijing%Yu%NULL%0,                Hongwu%Wang%NULL%0,                Tao%Wang%NULL%0,                Wei%Guo%NULL%0,                Jia%Chen%NULL%0,                Chen%Ding%NULL%0,                Xiaoping%Zhang%NULL%0,                Jiaquan%Huang%NULL%0,                Meifang%Han%NULL%0,                Shusheng%Li%NULL%0,                Xiaoping%Luo%NULL%0,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,               Cao%Yi-yuan%coreGivesNoEmail%0,               Dong%Xiang%coreGivesNoEmail%0,               Gao%Ya-dong%coreGivesNoEmail%0,               Yan%You-qin%coreGivesNoEmail%0,               Yang%Yi-bin%coreGivesNoEmail%0,               Yuan%Ya-dong%coreGivesNoEmail%0,               Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                 Bohan%Yang%NULL%0,                 Qianwen%Li%NULL%0,                 Lu%Wen%NULL%0,                 Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                 Yuan%Yu%NULL%0,                 Jiqian%Xu%NULL%0,                 Huaqing%Shu%NULL%0,                 Jia'an%Xia%NULL%0,                 Hong%Liu%NULL%0,                 Yongran%Wu%NULL%0,                 Lu%Zhang%NULL%0,                 Zhui%Yu%NULL%0,                 Minghao%Fang%NULL%0,                 Ting%Yu%NULL%0,                 Yaxin%Wang%NULL%0,                 Shangwen%Pan%NULL%0,                 Xiaojing%Zou%NULL%0,                 Shiying%Yuan%NULL%0,                 You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,         Xiaoyan%Chen%xref no email%0,         Yanping%Cai%xref no email%0,         Jia\u2019an%Xia%xref no email%0,         Xing%Zhou%xref no email%0,         Sha%Xu%xref no email%0,         Hanping%Huang%xref no email%0,         Li%Zhang%xref no email%0,         Xia%Zhou%xref no email%0,         Chunling%Du%xref no email%0,         Yuye%Zhang%xref no email%0,         Juan%Song%xref no email%0,         Sijiao%Wang%xref no email%0,         Yencheng%Chao%xref no email%0,         Zeyong%Yang%xref no email%0,         Jie%Xu%xref no email%0,         Xin%Zhou%xref no email%0,         Dechang%Chen%xref no email%0,         Weining%Xiong%xref no email%0,         Lei%Xu%xref no email%0,         Feng%Zhou%xref no email%0,         Jinjun%Jiang%xref no email%0,         Chunxue%Bai%xref no email%0,         Junhua%Zheng%xref no email%0,         Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                 Mengqi%Tu%NULL%0,                 Shipei%Wang%NULL%0,                 Sichao%Chen%NULL%0,                 Wei%Zhou%NULL%0,                 Danyang%Chen%NULL%0,                 Lin%Zhou%NULL%0,                 Min%Wang%NULL%0,                 Yan%Zhao%NULL%0,                 Wen%Zeng%NULL%0,                 Qi%Huang%NULL%0,                 Hai'bo%Xu%NULL%0,                 Zeming%Liu%NULL%0,                 Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                 Jiong%Wu%NULL%0,                 Faqi%Wu%NULL%0,                 Dajing%Guo%NULL%0,                 Linli%Chen%NULL%0,                 Zheng%Fang%NULL%0,                 Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                 Chengcheng%Yu%NULL%0,                 Jing%Qu%NULL%0,                 Lieguang%Zhang%NULL%0,                 Songfeng%Jiang%NULL%0,                 Deyang%Huang%NULL%0,                 Bihua%Chen%NULL%0,                 Zhiping%Zhang%NULL%0,                 Wanhua%Guan%NULL%0,                 Zhoukun%Ling%NULL%0,                 Rui%Jiang%NULL%0,                 Tianli%Hu%NULL%0,                 Yan%Ding%NULL%0,                 Lin%Lin%NULL%0,                 Qingxin%Gan%NULL%0,                 Liangping%Luo%tluolp@jnu.edu.cn%0,                 Xiaoping%Tang%xtang@21cn.com%0,                 Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                 Qiqi%Cao%NULL%0,                 Le%Qin%NULL%0,                 Xiaoyang%Wang%NULL%0,                 Zenghui%Cheng%NULL%0,                 Ashan%Pan%NULL%0,                 Jianyi%Dai%NULL%0,                 Qingfeng%Sun%NULL%0,                 Fengquan%Zhao%NULL%0,                 Jieming%Qu%NULL%0,                 Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                 Fang%Jiang%NULL%0,                 Wating%Su%NULL%0,                 Chang%Chen%NULL%0,                 Jingli%Chen%NULL%0,                 Wei%Mei%NULL%0,                 Li-Ying%Zhan%NULL%0,                 Yifan%Jia%NULL%0,                 Liangqing%Zhang%NULL%0,                 Danyong%Liu%NULL%0,                 Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                 Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                 Yun%Ling%NULL%0,                 Yun%Ling%NULL%0,                 Tao%Bai%NULL%0,                 Tao%Bai%NULL%0,                 Yusang%Xie%NULL%1,                 Jie%Huang%NULL%2,                 Jie%Huang%NULL%0,                 Jian%Li%NULL%1,                 Weining%Xiong%NULL%1,                 Dexiang%Yang%NULL%1,                 Rong%Chen%NULL%1,                 Fangying%Lu%NULL%1,                 Yunfei%Lu%NULL%2,                 Xuhui%Liu%NULL%1,                 Yuqing%Chen%NULL%2,                 Yuqing%Chen%NULL%0,                 Xin%Li%NULL%0,                 Yong%Li%NULL%1,                 Hanssa Dwarka%Summah%NULL%1,                 Huihuang%Lin%NULL%1,                 Jiayang%Yan%NULL%1,                 Min%Zhou%NULL%0,                 Hongzhou%Lu%NULL%0,                 Hongzhou%Lu%NULL%0,                 Jieming%Qu%NULL%0,                 Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                 Wen%Yin%NULL%0,                 Wen%Yin%NULL%0,                 Zhaowu%Tao%NULL%1,                 Weijun%Tan%NULL%1,                 Yi%Hu%NULL%0,                 Oliver%Schildgen%NULL%2,                 Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                 Yuanyuan%Xing%NULL%0,                 Yu%Xiao%NULL%0,                 Liping%Deng%NULL%0,                 Qiu%Zhao%NULL%0,                 Hongling%Wang%NULL%0,                 Yong%Xiong%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Shicheng%Gao%NULL%0,                 Ke%Liang%NULL%0,                 Mingqi%Luo%NULL%0,                 Tielong%Chen%NULL%0,                 Shihui%Song%NULL%0,                 Zhiyong%Ma%NULL%0,                 Xiaoping%Chen%NULL%0,                 Ruiying%Zheng%NULL%0,                 Qian%Cao%NULL%0,                 Fan%Wang%fanndywang@foxmail.com%0,                 Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                 Xun%Li%NULL%1,                 Hui%Chen%NULL%0,                 Shaonan%Yan%NULL%1,                 Dong%Li%NULL%1,                 Yan%Li%NULL%1,                 Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                 Chang%Hu%NULL%0,                 Linjie%Luo%NULL%0,                 Fang%Fang%NULL%0,                 Yongfeng%Chen%NULL%0,                 Jianguo%Li%NULL%0,                 Zhiyong%Peng%NULL%0,                 Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                 Yongzhen%Fan%NULL%0,                 Ming%Chen%NULL%0,                 Xiaoyan%Wu%NULL%0,                 Lin%Zhang%NULL%0,                 Tao%He%NULL%0,                 Hairong%Wang%NULL%0,                 Jing%Wan%NULL%0,                 Xinghuan%Wang%NULL%0,                 Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,               Becker%L.B.%coreGivesNoEmail%0,               Chelico%J.D.%coreGivesNoEmail%0,               Cohen%S.L.%coreGivesNoEmail%0,               Cookingham%J.%coreGivesNoEmail%0,               Coppa%K.%coreGivesNoEmail%0,               Crawford%J.M.%coreGivesNoEmail%0,               Davidson%K.W.%coreGivesNoEmail%0,               Diefenbach%M.A.%coreGivesNoEmail%0,               Dominello%A.J.%coreGivesNoEmail%0,               Duer-Hefele%J.%coreGivesNoEmail%0,               Falzon%L.%coreGivesNoEmail%0,               Gitlin%J.%coreGivesNoEmail%0,               Hajizadeh%N.%coreGivesNoEmail%0,               Harvin%T.G.%coreGivesNoEmail%0,               Hirsch%J.S.%coreGivesNoEmail%0,               Hirschwerk%D.A.%coreGivesNoEmail%0,               Kim%E.J.%coreGivesNoEmail%0,               Kozel%Z.M.%coreGivesNoEmail%0,               Marrast%L.M.%coreGivesNoEmail%0,               McGinn%T.%coreGivesNoEmail%0,               Mogavero%J.N.%coreGivesNoEmail%0,               Narasimhan%M.%coreGivesNoEmail%0,               Osorio%G.A.%coreGivesNoEmail%0,               Qiu%M.%coreGivesNoEmail%0,               Richardson%S.%coreGivesNoEmail%0,               Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0,                 Nancy%Chow%NULL%0,                 Katherine%Fleming-Dutra%NULL%1,                 Ryan%Gierke%NULL%0,                 Aron%Hall%NULL%0,                 Michelle%Hughes%NULL%1,                 Tamara%Pilishvili%NULL%0,                 Matthew%Ritchey%NULL%0,                 Katherine%Roguski%NULL%1,                 Tami%Skoff%NULL%1,                 Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,         Sean Wei Xiang%Ong%xref no email%0,         Shirin%Kalimuddin%xref no email%0,         Jenny G.%Low%xref no email%0,         Seow Yen%Tan%xref no email%0,         Jiashen%Loh%xref no email%0,         Oon-Tek%Ng%xref no email%0,         Kalisvar%Marimuthu%xref no email%0,         Li Wei%Ang%xref no email%0,         Tze Minn%Mak%xref no email%0,         Sok Kiang%Lau%xref no email%0,         Danielle E.%Anderson%xref no email%0,         Kian Sing%Chan%xref no email%0,         Thean Yen%Tan%xref no email%0,         Tong Yong%Ng%xref no email%0,         Lin%Cui%xref no email%0,         Zubaidah%Said%xref no email%0,         Lalitha%Kurupatham%xref no email%0,         Mark I-Cheng%Chen%xref no email%0,         Monica%Chan%xref no email%0,         Shawn%Vasoo%xref no email%0,         Lin-Fa%Wang%xref no email%0,         Boon Huan%Tan%xref no email%0,         Raymond Tzer Pin%Lin%xref no email%0,         Vernon Jian Ming%Lee%xref no email%0,         Yee-Sin%Leo%xref no email%0,         David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,               Cabrini%Luca%coreGivesNoEmail%0,               Castelli%Antonio%coreGivesNoEmail%0,               Cecconi%Maurizio%coreGivesNoEmail%0,               Cereda%Danilo%coreGivesNoEmail%0,               Coluccello%Antonio%coreGivesNoEmail%0,               Foti%Giuseppe%coreGivesNoEmail%0,               Fumagalli%Roberto%coreGivesNoEmail%0,               Grasselli%Giacomo%coreGivesNoEmail%0,               Iotti%Giorgio%coreGivesNoEmail%0,               Latronico%Nicola%coreGivesNoEmail%0,               Lorini%Luca%coreGivesNoEmail%0,               Merler%Stefano%coreGivesNoEmail%0,               Natalini%Giuseppe%coreGivesNoEmail%0,               Pesenti%Antonio%coreGivesNoEmail%0,               Piatti%Alessandra%coreGivesNoEmail%0,               Ranieri%Marco Vito%coreGivesNoEmail%0,               Scandroglio%Anna Mara%coreGivesNoEmail%0,               Storti%Enrico%coreGivesNoEmail%0,               Zanella%Alberto%coreGivesNoEmail%0,               Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                 Lei%Tu%NULL%0,                 Lei%Tu%NULL%0,                 Pingjun%Zhu%NULL%0,                 Pingjun%Zhu%NULL%0,                 Mi%Mu%NULL%0,                 Mi%Mu%NULL%0,                 Runsheng%Wang%NULL%0,                 Pengcheng%Yang%NULL%0,                 Xi%Wang%NULL%0,                 Chao%Hu%NULL%0,                 Rongyu%Ping%NULL%0,                 Peng%Hu%NULL%0,                 Tianzhi%Li%NULL%0,                 Feng%Cao%NULL%0,                 Christopher%Chang%NULL%0,                 Qinyong%Hu%NULL%0,                 Yang%Jin%NULL%0,                 Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                 Min%Zhou%NULL%0,                 Xuan%Dong%NULL%0,                 Jieming%Qu%NULL%0,                 Fengyun%Gong%NULL%0,                 Yang%Han%NULL%0,                 Yang%Qiu%NULL%0,                 Jingli%Wang%NULL%0,                 Ying%Liu%NULL%0,                 Yuan%Wei%NULL%0,                 Jia'an%Xia%NULL%0,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%0,                 Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,               Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,               Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,               Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                 Yeming%Wang%NULL%0,                 Xingwang%Li%NULL%0,                 Lili%Ren%NULL%0,                 Jianping%Zhao%NULL%0,                 Yi%Hu%NULL%0,                 Li%Zhang%NULL%0,                 Guohui%Fan%NULL%0,                 Jiuyang%Xu%NULL%0,                 Xiaoying%Gu%NULL%0,                 Zhenshun%Cheng%NULL%0,                 Ting%Yu%NULL%0,                 Jiaan%Xia%NULL%0,                 Yuan%Wei%NULL%0,                 Wenjuan%Wu%NULL%0,                 Xuelei%Xie%NULL%0,                 Wen%Yin%NULL%0,                 Hui%Li%NULL%0,                 Min%Liu%NULL%0,                 Yan%Xiao%NULL%0,                 Hong%Gao%NULL%0,                 Li%Guo%NULL%0,                 Jungang%Xie%NULL%0,                 Guangfa%Wang%NULL%0,                 Rongmeng%Jiang%NULL%0,                 Zhancheng%Gao%NULL%0,                 Qi%Jin%NULL%0,                 Jianwei%Wang%wangjw28@163.com%0,                 Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                 Yuan-Yuan%Fang%NULL%0,                 Yan%Deng%NULL%0,                 Wei%Liu%NULL%0,                 Mei-Fang%Wang%NULL%0,                 Jing-Ping%Ma%NULL%0,                 Wei%Xiao%NULL%0,                 Ying-Nan%Wang%NULL%0,                 Min-Hua%Zhong%NULL%0,                 Cheng-Hong%Li%NULL%0,                 Guang-Cai%Li%NULL%0,                 Hui-Guo%Liu%NULL%0,                 Xiu-Yuan%Hao%NULL%0,                 Xiu-Yuan%Hao%NULL%0,                 Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                 Yang%Yang%NULL%0,                 Cong%Zhang%NULL%0,                 Fengming%Huang%NULL%0,                 Fuxiang%Wang%NULL%0,                 Jing%Yuan%NULL%0,                 Zhaoqin%Wang%NULL%0,                 Jinxiu%Li%NULL%0,                 Jianming%Li%NULL%0,                 Cheng%Feng%NULL%0,                 Zheng%Zhang%NULL%0,                 Lifei%Wang%NULL%0,                 Ling%Peng%NULL%0,                 Li%Chen%NULL%0,                 Yuhao%Qin%NULL%0,                 Dandan%Zhao%NULL%0,                 Shuguang%Tan%NULL%0,                 Lu%Yin%NULL%0,                 Jun%Xu%NULL%0,                 Congzhao%Zhou%NULL%0,                 Chengyu%Jiang%jiang@pumc.edu.cn%0,                 Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Wen-hua%Liang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Jian-xing%He%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 David S.C.%Hui%NULL%0,                 Bin%Du%NULL%0,                 Lan-juan%Li%NULL%0,                 Guang%Zeng%NULL%0,                 Kwok-Yung%Yuen%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Ping-yan%Chen%NULL%0,                 Jie%Xiang%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-lin%Wang%NULL%0,                 Zi-jing%Liang%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                 Li-Min%Liu%NULL%0,                 Wen%Yin%NULL%0,                 Wen%Wang%NULL%0,                 Lu-Lu%Guan%NULL%0,                 Ming-Li%Yuan%NULL%0,                 Yu-Lei%Li%NULL%0,                 Yi%Hu%NULL%0,                 Xu-Yan%Li%NULL%0,                 Bing%Sun%NULL%0,                 Peng%Peng%NULL%0,                 Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                 Wen-hua%Liang%NULL%0,                 Yi%Zhao%NULL%0,                 Heng-rui%Liang%NULL%0,                 Zi-sheng%Chen%NULL%0,                 Yi-min%Li%NULL%0,                 Xiao-qing%Liu%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Chun-quan%Ou%NULL%0,                 Li%Li%NULL%0,                 Ping-yan%Chen%NULL%0,                 Ling%Sang%NULL%0,                 Wei%Wang%NULL%0,                 Jian-fu%Li%NULL%0,                 Cai-chen%Li%NULL%0,                 Li-min%Ou%NULL%0,                 Bo%Cheng%NULL%0,                 Shan%Xiong%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Jie%Xiang%NULL%0,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Lin-ling%Cheng%NULL%0,                 Feng%Ye%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-ping%Zheng%NULL%0,                 Nuo-fu%Zhang%NULL%0,                 Nan-shan%Zhong%NULL%0,                 Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                 Xiao-Xin%Wu%NULL%0,                 Xian-Gao%Jiang%NULL%0,                 Kai-Jin%Xu%NULL%0,                 Ling-Jun%Ying%NULL%0,                 Chun-Lian%Ma%NULL%0,                 Shi-Bo%Li%NULL%0,                 Hua-Ying%Wang%NULL%0,                 Sheng%Zhang%NULL%0,                 Hai-Nv%Gao%NULL%0,                 Ji-Fang%Sheng%NULL%0,                 Hong-Liu%Cai%NULL%0,                 Yun-Qing%Qiu%NULL%0,                 Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                 Zhe%Dai%NULL%1,                 Pingzheng%Mo%NULL%1,                 Xinyu%Li%NULL%1,                 Zhiyong%Ma%NULL%0,                 Shihui%Song%NULL%0,                 Xiaoping%Chen%NULL%0,                 Mingqi%Luo%NULL%0,                 Ke%Liang%NULL%0,                 Shicheng%Gao%NULL%0,                 Yongxi%Zhang%NULL%0,                 Liping%Deng%dengdeng78@126.com%0,                 Yong%Xiong%NULL%0,                 Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                 Wei-jie%Guan%NULL%0,                 Cai-chen%Li%NULL%0,                 Yi-min%Li%NULL%0,                 Heng-rui%Liang%NULL%0,                 Yi%Zhao%NULL%0,                 Xiao-qing%Liu%NULL%0,                 Ling%Sang%NULL%0,                 Ru-chong%Chen%NULL%0,                 Chun-li%Tang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Wang%NULL%0,                 Qi-hua%He%NULL%0,                 Zi-sheng%Chen%NULL%0,                 Sook-San%Wong%NULL%0,                 Mark%Zanin%NULL%0,                 Jun%Liu%NULL%0,                 Xin%Xu%NULL%0,                 Jun%Huang%NULL%0,                 Jian-fu%Li%NULL%0,                 Li-min%Ou%NULL%0,                 Bo%Cheng%NULL%0,                 Shan%Xiong%NULL%0,                 Zhan-hong%Xie%NULL%0,                 Zheng-yi%Ni%NULL%0,                 Yu%Hu%NULL%0,                 Lei%Liu%NULL%0,                 Hong%Shan%NULL%0,                 Chun-liang%Lei%NULL%0,                 Yi-xiang%Peng%NULL%0,                 Li%Wei%NULL%0,                 Yong%Liu%NULL%0,                 Ya-hua%Hu%NULL%0,                 Peng%Peng%NULL%0,                 Jian-ming%Wang%NULL%0,                 Ji-yang%Liu%NULL%0,                 Zhong%Chen%NULL%0,                 Gang%Li%NULL%0,                 Zhi-jian%Zheng%NULL%0,                 Shao-qin%Qiu%NULL%0,                 Jie%Luo%NULL%0,                 Chang-jiang%Ye%NULL%0,                 Shao-yong%Zhu%NULL%0,                 Lin-ling%Cheng%NULL%0,                 Feng%Ye%NULL%0,                 Shi-yue%Li%NULL%0,                 Jin-ping%Zheng%NULL%0,                 Nuo-fu%Zhang%NULL%0,                 Nan-shan%Zhong%NULL%0,                 Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                 Wenbo%He%NULL%0,                 Xiaomei%Yu%NULL%0,                 Dalong%Hu%NULL%0,                 Mingwei%Bao%NULL%0,                 Huafen%Liu%NULL%0,                 Jiali%Zhou%NULL%0,                 Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                 Wenlin%Cheng%NULL%0,                 Lei%Yu%NULL%0,                 Ya-Kun%Liu%NULL%0,                 Xiaoyong%Hu%NULL%0,                 Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                 Huangqing%Ouyang%NULL%1,                 Lingli%Fu%NULL%1,                 Shijie%Wang%NULL%1,                 Jianglong%Han%NULL%1,                 Kejie%Huang%NULL%1,                 Mingfang%Jia%NULL%1,                 Qibin%Song%NULL%1,                 Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%0,                 Huilong%Chen%NULL%0,                 Weiming%Yan%NULL%0,                 Danlei%Yang%NULL%0,                 Guang%Chen%NULL%0,                 Ke%Ma%NULL%0,                 Dong%Xu%NULL%0,                 Haijing%Yu%NULL%0,                 Hongwu%Wang%NULL%0,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%0,                 Jia%Chen%NULL%0,                 Chen%Ding%NULL%0,                 Xiaoping%Zhang%NULL%0,                 Jiaquan%Huang%NULL%0,                 Meifang%Han%NULL%0,                 Shusheng%Li%NULL%0,                 Xiaoping%Luo%NULL%0,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                Cao%Yi-yuan%coreGivesNoEmail%0,                Dong%Xiang%coreGivesNoEmail%0,                Gao%Ya-dong%coreGivesNoEmail%0,                Yan%You-qin%coreGivesNoEmail%0,                Yang%Yi-bin%coreGivesNoEmail%0,                Yuan%Ya-dong%coreGivesNoEmail%0,                Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                  Bohan%Yang%NULL%0,                  Qianwen%Li%NULL%0,                  Lu%Wen%NULL%0,                  Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                  Yuan%Yu%NULL%0,                  Jiqian%Xu%NULL%0,                  Huaqing%Shu%NULL%0,                  Jia'an%Xia%NULL%0,                  Hong%Liu%NULL%0,                  Yongran%Wu%NULL%0,                  Lu%Zhang%NULL%0,                  Zhui%Yu%NULL%0,                  Minghao%Fang%NULL%0,                  Ting%Yu%NULL%0,                  Yaxin%Wang%NULL%0,                  Shangwen%Pan%NULL%0,                  Xiaojing%Zou%NULL%0,                  Shiying%Yuan%NULL%0,                  You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,          Xiaoyan%Chen%xref no email%0,          Yanping%Cai%xref no email%0,          Jia\u2019an%Xia%xref no email%0,          Xing%Zhou%xref no email%0,          Sha%Xu%xref no email%0,          Hanping%Huang%xref no email%0,          Li%Zhang%xref no email%0,          Xia%Zhou%xref no email%0,          Chunling%Du%xref no email%0,          Yuye%Zhang%xref no email%0,          Juan%Song%xref no email%0,          Sijiao%Wang%xref no email%0,          Yencheng%Chao%xref no email%0,          Zeyong%Yang%xref no email%0,          Jie%Xu%xref no email%0,          Xin%Zhou%xref no email%0,          Dechang%Chen%xref no email%0,          Weining%Xiong%xref no email%0,          Lei%Xu%xref no email%0,          Feng%Zhou%xref no email%0,          Jinjun%Jiang%xref no email%0,          Chunxue%Bai%xref no email%0,          Junhua%Zheng%xref no email%0,          Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                  Mengqi%Tu%NULL%0,                  Shipei%Wang%NULL%0,                  Sichao%Chen%NULL%0,                  Wei%Zhou%NULL%0,                  Danyang%Chen%NULL%0,                  Lin%Zhou%NULL%0,                  Min%Wang%NULL%0,                  Yan%Zhao%NULL%0,                  Wen%Zeng%NULL%0,                  Qi%Huang%NULL%0,                  Hai'bo%Xu%NULL%0,                  Zeming%Liu%NULL%0,                  Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                  Jiong%Wu%NULL%0,                  Faqi%Wu%NULL%0,                  Dajing%Guo%NULL%0,                  Linli%Chen%NULL%0,                  Zheng%Fang%NULL%0,                  Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                  Chengcheng%Yu%NULL%0,                  Jing%Qu%NULL%0,                  Lieguang%Zhang%NULL%0,                  Songfeng%Jiang%NULL%0,                  Deyang%Huang%NULL%0,                  Bihua%Chen%NULL%0,                  Zhiping%Zhang%NULL%0,                  Wanhua%Guan%NULL%0,                  Zhoukun%Ling%NULL%0,                  Rui%Jiang%NULL%0,                  Tianli%Hu%NULL%0,                  Yan%Ding%NULL%0,                  Lin%Lin%NULL%0,                  Qingxin%Gan%NULL%0,                  Liangping%Luo%tluolp@jnu.edu.cn%0,                  Xiaoping%Tang%xtang@21cn.com%0,                  Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                  Qiqi%Cao%NULL%0,                  Le%Qin%NULL%0,                  Xiaoyang%Wang%NULL%0,                  Zenghui%Cheng%NULL%0,                  Ashan%Pan%NULL%0,                  Jianyi%Dai%NULL%0,                  Qingfeng%Sun%NULL%0,                  Fengquan%Zhao%NULL%0,                  Jieming%Qu%NULL%0,                  Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                  Fang%Jiang%NULL%0,                  Wating%Su%NULL%0,                  Chang%Chen%NULL%0,                  Jingli%Chen%NULL%0,                  Wei%Mei%NULL%0,                  Li-Ying%Zhan%NULL%0,                  Yifan%Jia%NULL%0,                  Liangqing%Zhang%NULL%0,                  Danyong%Liu%NULL%0,                  Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                  Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                  Yun%Ling%NULL%0,                  Yun%Ling%NULL%0,                  Tao%Bai%NULL%0,                  Tao%Bai%NULL%0,                  Yusang%Xie%NULL%1,                  Jie%Huang%NULL%2,                  Jie%Huang%NULL%0,                  Jian%Li%NULL%1,                  Weining%Xiong%NULL%1,                  Dexiang%Yang%NULL%1,                  Rong%Chen%NULL%1,                  Fangying%Lu%NULL%1,                  Yunfei%Lu%NULL%2,                  Xuhui%Liu%NULL%1,                  Yuqing%Chen%NULL%2,                  Yuqing%Chen%NULL%0,                  Xin%Li%NULL%0,                  Yong%Li%NULL%1,                  Hanssa Dwarka%Summah%NULL%1,                  Huihuang%Lin%NULL%1,                  Jiayang%Yan%NULL%1,                  Min%Zhou%NULL%0,                  Hongzhou%Lu%NULL%0,                  Hongzhou%Lu%NULL%0,                  Jieming%Qu%NULL%0,                  Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                  Wen%Yin%NULL%0,                  Wen%Yin%NULL%0,                  Zhaowu%Tao%NULL%1,                  Weijun%Tan%NULL%1,                  Yi%Hu%NULL%0,                  Oliver%Schildgen%NULL%2,                  Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                  Yuanyuan%Xing%NULL%0,                  Yu%Xiao%NULL%0,                  Liping%Deng%NULL%0,                  Qiu%Zhao%NULL%0,                  Hongling%Wang%NULL%0,                  Yong%Xiong%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Shicheng%Gao%NULL%0,                  Ke%Liang%NULL%0,                  Mingqi%Luo%NULL%0,                  Tielong%Chen%NULL%0,                  Shihui%Song%NULL%0,                  Zhiyong%Ma%NULL%0,                  Xiaoping%Chen%NULL%0,                  Ruiying%Zheng%NULL%0,                  Qian%Cao%NULL%0,                  Fan%Wang%fanndywang@foxmail.com%0,                  Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                  Xun%Li%NULL%1,                  Hui%Chen%NULL%0,                  Shaonan%Yan%NULL%1,                  Dong%Li%NULL%1,                  Yan%Li%NULL%1,                  Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                  Chang%Hu%NULL%0,                  Linjie%Luo%NULL%0,                  Fang%Fang%NULL%0,                  Yongfeng%Chen%NULL%0,                  Jianguo%Li%NULL%0,                  Zhiyong%Peng%NULL%0,                  Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                  Yongzhen%Fan%NULL%0,                  Ming%Chen%NULL%0,                  Xiaoyan%Wu%NULL%0,                  Lin%Zhang%NULL%0,                  Tao%He%NULL%0,                  Hairong%Wang%NULL%0,                  Jing%Wan%NULL%0,                  Xinghuan%Wang%NULL%0,                  Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                Becker%L.B.%coreGivesNoEmail%0,                Chelico%J.D.%coreGivesNoEmail%0,                Cohen%S.L.%coreGivesNoEmail%0,                Cookingham%J.%coreGivesNoEmail%0,                Coppa%K.%coreGivesNoEmail%0,                Crawford%J.M.%coreGivesNoEmail%0,                Davidson%K.W.%coreGivesNoEmail%0,                Diefenbach%M.A.%coreGivesNoEmail%0,                Dominello%A.J.%coreGivesNoEmail%0,                Duer-Hefele%J.%coreGivesNoEmail%0,                Falzon%L.%coreGivesNoEmail%0,                Gitlin%J.%coreGivesNoEmail%0,                Hajizadeh%N.%coreGivesNoEmail%0,                Harvin%T.G.%coreGivesNoEmail%0,                Hirsch%J.S.%coreGivesNoEmail%0,                Hirschwerk%D.A.%coreGivesNoEmail%0,                Kim%E.J.%coreGivesNoEmail%0,                Kozel%Z.M.%coreGivesNoEmail%0,                Marrast%L.M.%coreGivesNoEmail%0,                McGinn%T.%coreGivesNoEmail%0,                Mogavero%J.N.%coreGivesNoEmail%0,                Narasimhan%M.%coreGivesNoEmail%0,                Osorio%G.A.%coreGivesNoEmail%0,                Qiu%M.%coreGivesNoEmail%0,                Richardson%S.%coreGivesNoEmail%0,                Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0,                  Nancy%Chow%NULL%0,                  Katherine%Fleming-Dutra%NULL%1,                  Ryan%Gierke%NULL%0,                  Aron%Hall%NULL%0,                  Michelle%Hughes%NULL%1,                  Tamara%Pilishvili%NULL%0,                  Matthew%Ritchey%NULL%0,                  Katherine%Roguski%NULL%1,                  Tami%Skoff%NULL%1,                  Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,          Sean Wei Xiang%Ong%xref no email%0,          Shirin%Kalimuddin%xref no email%0,          Jenny G.%Low%xref no email%0,          Seow Yen%Tan%xref no email%0,          Jiashen%Loh%xref no email%0,          Oon-Tek%Ng%xref no email%0,          Kalisvar%Marimuthu%xref no email%0,          Li Wei%Ang%xref no email%0,          Tze Minn%Mak%xref no email%0,          Sok Kiang%Lau%xref no email%0,          Danielle E.%Anderson%xref no email%0,          Kian Sing%Chan%xref no email%0,          Thean Yen%Tan%xref no email%0,          Tong Yong%Ng%xref no email%0,          Lin%Cui%xref no email%0,          Zubaidah%Said%xref no email%0,          Lalitha%Kurupatham%xref no email%0,          Mark I-Cheng%Chen%xref no email%0,          Monica%Chan%xref no email%0,          Shawn%Vasoo%xref no email%0,          Lin-Fa%Wang%xref no email%0,          Boon Huan%Tan%xref no email%0,          Raymond Tzer Pin%Lin%xref no email%0,          Vernon Jian Ming%Lee%xref no email%0,          Yee-Sin%Leo%xref no email%0,          David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                Cabrini%Luca%coreGivesNoEmail%0,                Castelli%Antonio%coreGivesNoEmail%0,                Cecconi%Maurizio%coreGivesNoEmail%0,                Cereda%Danilo%coreGivesNoEmail%0,                Coluccello%Antonio%coreGivesNoEmail%0,                Foti%Giuseppe%coreGivesNoEmail%0,                Fumagalli%Roberto%coreGivesNoEmail%0,                Grasselli%Giacomo%coreGivesNoEmail%0,                Iotti%Giorgio%coreGivesNoEmail%0,                Latronico%Nicola%coreGivesNoEmail%0,                Lorini%Luca%coreGivesNoEmail%0,                Merler%Stefano%coreGivesNoEmail%0,                Natalini%Giuseppe%coreGivesNoEmail%0,                Pesenti%Antonio%coreGivesNoEmail%0,                Piatti%Alessandra%coreGivesNoEmail%0,                Ranieri%Marco Vito%coreGivesNoEmail%0,                Scandroglio%Anna Mara%coreGivesNoEmail%0,                Storti%Enrico%coreGivesNoEmail%0,                Zanella%Alberto%coreGivesNoEmail%0,                Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                  Lei%Tu%NULL%0,                  Lei%Tu%NULL%0,                  Pingjun%Zhu%NULL%0,                  Pingjun%Zhu%NULL%0,                  Mi%Mu%NULL%0,                  Mi%Mu%NULL%0,                  Runsheng%Wang%NULL%0,                  Pengcheng%Yang%NULL%0,                  Xi%Wang%NULL%0,                  Chao%Hu%NULL%0,                  Rongyu%Ping%NULL%0,                  Peng%Hu%NULL%0,                  Tianzhi%Li%NULL%0,                  Feng%Cao%NULL%0,                  Christopher%Chang%NULL%0,                  Qinyong%Hu%NULL%0,                  Yang%Jin%NULL%0,                  Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                  Min%Zhou%NULL%0,                  Xuan%Dong%NULL%0,                  Jieming%Qu%NULL%0,                  Fengyun%Gong%NULL%0,                  Yang%Han%NULL%0,                  Yang%Qiu%NULL%0,                  Jingli%Wang%NULL%0,                  Ying%Liu%NULL%0,                  Yuan%Wei%NULL%0,                  Jia'an%Xia%NULL%0,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%0,                  Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                  Yeming%Wang%NULL%0,                  Xingwang%Li%NULL%0,                  Lili%Ren%NULL%0,                  Jianping%Zhao%NULL%0,                  Yi%Hu%NULL%0,                  Li%Zhang%NULL%0,                  Guohui%Fan%NULL%0,                  Jiuyang%Xu%NULL%0,                  Xiaoying%Gu%NULL%0,                  Zhenshun%Cheng%NULL%0,                  Ting%Yu%NULL%0,                  Jiaan%Xia%NULL%0,                  Yuan%Wei%NULL%0,                  Wenjuan%Wu%NULL%0,                  Xuelei%Xie%NULL%0,                  Wen%Yin%NULL%0,                  Hui%Li%NULL%0,                  Min%Liu%NULL%0,                  Yan%Xiao%NULL%0,                  Hong%Gao%NULL%0,                  Li%Guo%NULL%0,                  Jungang%Xie%NULL%0,                  Guangfa%Wang%NULL%0,                  Rongmeng%Jiang%NULL%0,                  Zhancheng%Gao%NULL%0,                  Qi%Jin%NULL%0,                  Jianwei%Wang%wangjw28@163.com%0,                  Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                  Yuan-Yuan%Fang%NULL%0,                  Yan%Deng%NULL%0,                  Wei%Liu%NULL%0,                  Mei-Fang%Wang%NULL%0,                  Jing-Ping%Ma%NULL%0,                  Wei%Xiao%NULL%0,                  Ying-Nan%Wang%NULL%0,                  Min-Hua%Zhong%NULL%0,                  Cheng-Hong%Li%NULL%0,                  Guang-Cai%Li%NULL%0,                  Hui-Guo%Liu%NULL%0,                  Xiu-Yuan%Hao%NULL%0,                  Xiu-Yuan%Hao%NULL%0,                  Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                  Yang%Yang%NULL%0,                  Cong%Zhang%NULL%0,                  Fengming%Huang%NULL%0,                  Fuxiang%Wang%NULL%0,                  Jing%Yuan%NULL%0,                  Zhaoqin%Wang%NULL%0,                  Jinxiu%Li%NULL%0,                  Jianming%Li%NULL%0,                  Cheng%Feng%NULL%0,                  Zheng%Zhang%NULL%0,                  Lifei%Wang%NULL%0,                  Ling%Peng%NULL%0,                  Li%Chen%NULL%0,                  Yuhao%Qin%NULL%0,                  Dandan%Zhao%NULL%0,                  Shuguang%Tan%NULL%0,                  Lu%Yin%NULL%0,                  Jun%Xu%NULL%0,                  Congzhao%Zhou%NULL%0,                  Chengyu%Jiang%jiang@pumc.edu.cn%0,                  Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Wen-hua%Liang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Jian-xing%He%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  David S.C.%Hui%NULL%0,                  Bin%Du%NULL%0,                  Lan-juan%Li%NULL%0,                  Guang%Zeng%NULL%0,                  Kwok-Yung%Yuen%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Ping-yan%Chen%NULL%0,                  Jie%Xiang%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-lin%Wang%NULL%0,                  Zi-jing%Liang%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                  Li-Min%Liu%NULL%0,                  Wen%Yin%NULL%0,                  Wen%Wang%NULL%0,                  Lu-Lu%Guan%NULL%0,                  Ming-Li%Yuan%NULL%0,                  Yu-Lei%Li%NULL%0,                  Yi%Hu%NULL%0,                  Xu-Yan%Li%NULL%0,                  Bing%Sun%NULL%0,                  Peng%Peng%NULL%0,                  Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                  Wen-hua%Liang%NULL%0,                  Yi%Zhao%NULL%0,                  Heng-rui%Liang%NULL%0,                  Zi-sheng%Chen%NULL%0,                  Yi-min%Li%NULL%0,                  Xiao-qing%Liu%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Chun-quan%Ou%NULL%0,                  Li%Li%NULL%0,                  Ping-yan%Chen%NULL%0,                  Ling%Sang%NULL%0,                  Wei%Wang%NULL%0,                  Jian-fu%Li%NULL%0,                  Cai-chen%Li%NULL%0,                  Li-min%Ou%NULL%0,                  Bo%Cheng%NULL%0,                  Shan%Xiong%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Jie%Xiang%NULL%0,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Lin-ling%Cheng%NULL%0,                  Feng%Ye%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-ping%Zheng%NULL%0,                  Nuo-fu%Zhang%NULL%0,                  Nan-shan%Zhong%NULL%0,                  Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                  Xiao-Xin%Wu%NULL%0,                  Xian-Gao%Jiang%NULL%0,                  Kai-Jin%Xu%NULL%0,                  Ling-Jun%Ying%NULL%0,                  Chun-Lian%Ma%NULL%0,                  Shi-Bo%Li%NULL%0,                  Hua-Ying%Wang%NULL%0,                  Sheng%Zhang%NULL%0,                  Hai-Nv%Gao%NULL%0,                  Ji-Fang%Sheng%NULL%0,                  Hong-Liu%Cai%NULL%0,                  Yun-Qing%Qiu%NULL%0,                  Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                  Zhe%Dai%NULL%1,                  Pingzheng%Mo%NULL%1,                  Xinyu%Li%NULL%1,                  Zhiyong%Ma%NULL%0,                  Shihui%Song%NULL%0,                  Xiaoping%Chen%NULL%0,                  Mingqi%Luo%NULL%0,                  Ke%Liang%NULL%0,                  Shicheng%Gao%NULL%0,                  Yongxi%Zhang%NULL%0,                  Liping%Deng%dengdeng78@126.com%0,                  Yong%Xiong%NULL%0,                  Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                  Wei-jie%Guan%NULL%0,                  Cai-chen%Li%NULL%0,                  Yi-min%Li%NULL%0,                  Heng-rui%Liang%NULL%0,                  Yi%Zhao%NULL%0,                  Xiao-qing%Liu%NULL%0,                  Ling%Sang%NULL%0,                  Ru-chong%Chen%NULL%0,                  Chun-li%Tang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Wang%NULL%0,                  Qi-hua%He%NULL%0,                  Zi-sheng%Chen%NULL%0,                  Sook-San%Wong%NULL%0,                  Mark%Zanin%NULL%0,                  Jun%Liu%NULL%0,                  Xin%Xu%NULL%0,                  Jun%Huang%NULL%0,                  Jian-fu%Li%NULL%0,                  Li-min%Ou%NULL%0,                  Bo%Cheng%NULL%0,                  Shan%Xiong%NULL%0,                  Zhan-hong%Xie%NULL%0,                  Zheng-yi%Ni%NULL%0,                  Yu%Hu%NULL%0,                  Lei%Liu%NULL%0,                  Hong%Shan%NULL%0,                  Chun-liang%Lei%NULL%0,                  Yi-xiang%Peng%NULL%0,                  Li%Wei%NULL%0,                  Yong%Liu%NULL%0,                  Ya-hua%Hu%NULL%0,                  Peng%Peng%NULL%0,                  Jian-ming%Wang%NULL%0,                  Ji-yang%Liu%NULL%0,                  Zhong%Chen%NULL%0,                  Gang%Li%NULL%0,                  Zhi-jian%Zheng%NULL%0,                  Shao-qin%Qiu%NULL%0,                  Jie%Luo%NULL%0,                  Chang-jiang%Ye%NULL%0,                  Shao-yong%Zhu%NULL%0,                  Lin-ling%Cheng%NULL%0,                  Feng%Ye%NULL%0,                  Shi-yue%Li%NULL%0,                  Jin-ping%Zheng%NULL%0,                  Nuo-fu%Zhang%NULL%0,                  Nan-shan%Zhong%NULL%0,                  Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                  Wenbo%He%NULL%0,                  Xiaomei%Yu%NULL%0,                  Dalong%Hu%NULL%0,                  Mingwei%Bao%NULL%0,                  Huafen%Liu%NULL%0,                  Jiali%Zhou%NULL%0,                  Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                  Wenlin%Cheng%NULL%0,                  Lei%Yu%NULL%0,                  Ya-Kun%Liu%NULL%0,                  Xiaoyong%Hu%NULL%0,                  Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                  Huangqing%Ouyang%NULL%1,                  Lingli%Fu%NULL%1,                  Shijie%Wang%NULL%1,                  Jianglong%Han%NULL%1,                  Kejie%Huang%NULL%1,                  Mingfang%Jia%NULL%1,                  Qibin%Song%NULL%1,                  Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3149,7 +3365,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>714</v>
+        <v>786</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3178,7 +3394,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>715</v>
+        <v>787</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3207,7 +3423,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>716</v>
+        <v>788</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3236,7 +3452,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>717</v>
+        <v>789</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3265,7 +3481,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>718</v>
+        <v>790</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3294,7 +3510,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>719</v>
+        <v>791</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3323,7 +3539,7 @@
         <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>720</v>
+        <v>792</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -3352,7 +3568,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>721</v>
+        <v>793</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -3381,7 +3597,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>721</v>
+        <v>793</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3410,7 +3626,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>722</v>
+        <v>794</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3439,7 +3655,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>723</v>
+        <v>795</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -3468,7 +3684,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>724</v>
+        <v>796</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -3497,7 +3713,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>725</v>
+        <v>797</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3526,7 +3742,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>726</v>
+        <v>798</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -3555,7 +3771,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>727</v>
+        <v>799</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -3584,7 +3800,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>728</v>
+        <v>800</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -3613,7 +3829,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>729</v>
+        <v>801</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3642,7 +3858,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>730</v>
+        <v>802</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -3671,7 +3887,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>731</v>
+        <v>803</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3729,7 +3945,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>732</v>
+        <v>804</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3758,7 +3974,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>733</v>
+        <v>805</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3816,7 +4032,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>734</v>
+        <v>806</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -3845,7 +4061,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>735</v>
+        <v>807</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -3903,7 +4119,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>736</v>
+        <v>808</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -3932,7 +4148,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>737</v>
+        <v>809</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -3961,7 +4177,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>738</v>
+        <v>810</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -3990,7 +4206,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>739</v>
+        <v>811</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -4019,7 +4235,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -4048,7 +4264,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>741</v>
+        <v>813</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -4077,7 +4293,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>742</v>
+        <v>814</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4106,7 +4322,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>743</v>
+        <v>815</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4135,7 +4351,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>744</v>
+        <v>816</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -4164,7 +4380,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>745</v>
+        <v>817</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4193,7 +4409,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>746</v>
+        <v>818</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -4222,7 +4438,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>747</v>
+        <v>819</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -4251,7 +4467,7 @@
         <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4280,7 +4496,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5378" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5665" uniqueCount="858">
   <si>
     <t>Doi</t>
   </si>
@@ -3008,6 +3008,114 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%0,                  Huilong%Chen%NULL%0,                  Weiming%Yan%NULL%0,                  Danlei%Yang%NULL%0,                  Guang%Chen%NULL%0,                  Ke%Ma%NULL%0,                  Dong%Xu%NULL%0,                  Haijing%Yu%NULL%0,                  Hongwu%Wang%NULL%0,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%0,                  Jia%Chen%NULL%0,                  Chen%Ding%NULL%0,                  Xiaoping%Zhang%NULL%0,                  Jiaquan%Huang%NULL%0,                  Meifang%Han%NULL%0,                  Shusheng%Li%NULL%0,                  Xiaoping%Luo%NULL%0,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                 Cao%Yi-yuan%coreGivesNoEmail%0,                 Dong%Xiang%coreGivesNoEmail%0,                 Gao%Ya-dong%coreGivesNoEmail%0,                 Yan%You-qin%coreGivesNoEmail%0,                 Yang%Yi-bin%coreGivesNoEmail%0,                 Yuan%Ya-dong%coreGivesNoEmail%0,                 Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                   Bohan%Yang%NULL%0,                   Qianwen%Li%NULL%0,                   Lu%Wen%NULL%0,                   Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                   Yuan%Yu%NULL%0,                   Jiqian%Xu%NULL%0,                   Huaqing%Shu%NULL%0,                   Jia'an%Xia%NULL%0,                   Hong%Liu%NULL%0,                   Yongran%Wu%NULL%0,                   Lu%Zhang%NULL%0,                   Zhui%Yu%NULL%0,                   Minghao%Fang%NULL%0,                   Ting%Yu%NULL%0,                   Yaxin%Wang%NULL%0,                   Shangwen%Pan%NULL%0,                   Xiaojing%Zou%NULL%0,                   Shiying%Yuan%NULL%0,                   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,           Xiaoyan%Chen%xref no email%0,           Yanping%Cai%xref no email%0,           Jia\u2019an%Xia%xref no email%0,           Xing%Zhou%xref no email%0,           Sha%Xu%xref no email%0,           Hanping%Huang%xref no email%0,           Li%Zhang%xref no email%0,           Xia%Zhou%xref no email%0,           Chunling%Du%xref no email%0,           Yuye%Zhang%xref no email%0,           Juan%Song%xref no email%0,           Sijiao%Wang%xref no email%0,           Yencheng%Chao%xref no email%0,           Zeyong%Yang%xref no email%0,           Jie%Xu%xref no email%0,           Xin%Zhou%xref no email%0,           Dechang%Chen%xref no email%0,           Weining%Xiong%xref no email%0,           Lei%Xu%xref no email%0,           Feng%Zhou%xref no email%0,           Jinjun%Jiang%xref no email%0,           Chunxue%Bai%xref no email%0,           Junhua%Zheng%xref no email%0,           Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                   Mengqi%Tu%NULL%0,                   Shipei%Wang%NULL%0,                   Sichao%Chen%NULL%0,                   Wei%Zhou%NULL%0,                   Danyang%Chen%NULL%0,                   Lin%Zhou%NULL%0,                   Min%Wang%NULL%0,                   Yan%Zhao%NULL%0,                   Wen%Zeng%NULL%0,                   Qi%Huang%NULL%0,                   Hai'bo%Xu%NULL%0,                   Zeming%Liu%NULL%0,                   Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                   Jiong%Wu%NULL%0,                   Faqi%Wu%NULL%0,                   Dajing%Guo%NULL%0,                   Linli%Chen%NULL%0,                   Zheng%Fang%NULL%0,                   Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                   Chengcheng%Yu%NULL%0,                   Jing%Qu%NULL%0,                   Lieguang%Zhang%NULL%0,                   Songfeng%Jiang%NULL%0,                   Deyang%Huang%NULL%0,                   Bihua%Chen%NULL%0,                   Zhiping%Zhang%NULL%0,                   Wanhua%Guan%NULL%0,                   Zhoukun%Ling%NULL%0,                   Rui%Jiang%NULL%0,                   Tianli%Hu%NULL%0,                   Yan%Ding%NULL%0,                   Lin%Lin%NULL%0,                   Qingxin%Gan%NULL%0,                   Liangping%Luo%tluolp@jnu.edu.cn%0,                   Xiaoping%Tang%xtang@21cn.com%0,                   Jinxin%Liu%Liujx83710378@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                   Qiqi%Cao%NULL%0,                   Le%Qin%NULL%0,                   Xiaoyang%Wang%NULL%0,                   Zenghui%Cheng%NULL%0,                   Ashan%Pan%NULL%0,                   Jianyi%Dai%NULL%0,                   Qingfeng%Sun%NULL%0,                   Fengquan%Zhao%NULL%0,                   Jieming%Qu%NULL%0,                   Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                   Fang%Jiang%NULL%0,                   Wating%Su%NULL%0,                   Chang%Chen%NULL%0,                   Jingli%Chen%NULL%0,                   Wei%Mei%NULL%0,                   Li-Ying%Zhan%NULL%0,                   Yifan%Jia%NULL%0,                   Liangqing%Zhang%NULL%0,                   Danyong%Liu%NULL%0,                   Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                   Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                   Yun%Ling%NULL%0,                   Yun%Ling%NULL%0,                   Tao%Bai%NULL%0,                   Tao%Bai%NULL%0,                   Yusang%Xie%NULL%1,                   Jie%Huang%NULL%2,                   Jie%Huang%NULL%0,                   Jian%Li%NULL%1,                   Weining%Xiong%NULL%1,                   Dexiang%Yang%NULL%1,                   Rong%Chen%NULL%1,                   Fangying%Lu%NULL%1,                   Yunfei%Lu%NULL%2,                   Xuhui%Liu%NULL%1,                   Yuqing%Chen%NULL%2,                   Yuqing%Chen%NULL%0,                   Xin%Li%NULL%0,                   Yong%Li%NULL%1,                   Hanssa Dwarka%Summah%NULL%1,                   Huihuang%Lin%NULL%1,                   Jiayang%Yan%NULL%1,                   Min%Zhou%NULL%0,                   Hongzhou%Lu%NULL%0,                   Hongzhou%Lu%NULL%0,                   Jieming%Qu%NULL%0,                   Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                   Wen%Yin%NULL%0,                   Wen%Yin%NULL%0,                   Zhaowu%Tao%NULL%1,                   Weijun%Tan%NULL%1,                   Yi%Hu%NULL%0,                   Oliver%Schildgen%NULL%2,                   Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                   Yuanyuan%Xing%NULL%0,                   Yu%Xiao%NULL%0,                   Liping%Deng%NULL%0,                   Qiu%Zhao%NULL%0,                   Hongling%Wang%NULL%0,                   Yong%Xiong%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Shicheng%Gao%NULL%0,                   Ke%Liang%NULL%0,                   Mingqi%Luo%NULL%0,                   Tielong%Chen%NULL%0,                   Shihui%Song%NULL%0,                   Zhiyong%Ma%NULL%0,                   Xiaoping%Chen%NULL%0,                   Ruiying%Zheng%NULL%0,                   Qian%Cao%NULL%0,                   Fan%Wang%fanndywang@foxmail.com%0,                   Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                   Xun%Li%NULL%1,                   Hui%Chen%NULL%0,                   Shaonan%Yan%NULL%1,                   Dong%Li%NULL%1,                   Yan%Li%NULL%1,                   Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                   Chang%Hu%NULL%0,                   Linjie%Luo%NULL%0,                   Fang%Fang%NULL%0,                   Yongfeng%Chen%NULL%0,                   Jianguo%Li%NULL%0,                   Zhiyong%Peng%NULL%0,                   Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                   Yongzhen%Fan%NULL%0,                   Ming%Chen%NULL%0,                   Xiaoyan%Wu%NULL%0,                   Lin%Zhang%NULL%0,                   Tao%He%NULL%0,                   Hairong%Wang%NULL%0,                   Jing%Wan%NULL%0,                   Xinghuan%Wang%NULL%0,                   Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                 Becker%L.B.%coreGivesNoEmail%0,                 Chelico%J.D.%coreGivesNoEmail%0,                 Cohen%S.L.%coreGivesNoEmail%0,                 Cookingham%J.%coreGivesNoEmail%0,                 Coppa%K.%coreGivesNoEmail%0,                 Crawford%J.M.%coreGivesNoEmail%0,                 Davidson%K.W.%coreGivesNoEmail%0,                 Diefenbach%M.A.%coreGivesNoEmail%0,                 Dominello%A.J.%coreGivesNoEmail%0,                 Duer-Hefele%J.%coreGivesNoEmail%0,                 Falzon%L.%coreGivesNoEmail%0,                 Gitlin%J.%coreGivesNoEmail%0,                 Hajizadeh%N.%coreGivesNoEmail%0,                 Harvin%T.G.%coreGivesNoEmail%0,                 Hirsch%J.S.%coreGivesNoEmail%0,                 Hirschwerk%D.A.%coreGivesNoEmail%0,                 Kim%E.J.%coreGivesNoEmail%0,                 Kozel%Z.M.%coreGivesNoEmail%0,                 Marrast%L.M.%coreGivesNoEmail%0,                 McGinn%T.%coreGivesNoEmail%0,                 Mogavero%J.N.%coreGivesNoEmail%0,                 Narasimhan%M.%coreGivesNoEmail%0,                 Osorio%G.A.%coreGivesNoEmail%0,                 Qiu%M.%coreGivesNoEmail%0,                 Richardson%S.%coreGivesNoEmail%0,                 Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0,                   Nancy%Chow%NULL%0,                   Katherine%Fleming-Dutra%NULL%1,                   Ryan%Gierke%NULL%0,                   Aron%Hall%NULL%0,                   Michelle%Hughes%NULL%1,                   Tamara%Pilishvili%NULL%0,                   Matthew%Ritchey%NULL%0,                   Katherine%Roguski%NULL%1,                   Tami%Skoff%NULL%1,                   Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,           Sean Wei Xiang%Ong%xref no email%0,           Shirin%Kalimuddin%xref no email%0,           Jenny G.%Low%xref no email%0,           Seow Yen%Tan%xref no email%0,           Jiashen%Loh%xref no email%0,           Oon-Tek%Ng%xref no email%0,           Kalisvar%Marimuthu%xref no email%0,           Li Wei%Ang%xref no email%0,           Tze Minn%Mak%xref no email%0,           Sok Kiang%Lau%xref no email%0,           Danielle E.%Anderson%xref no email%0,           Kian Sing%Chan%xref no email%0,           Thean Yen%Tan%xref no email%0,           Tong Yong%Ng%xref no email%0,           Lin%Cui%xref no email%0,           Zubaidah%Said%xref no email%0,           Lalitha%Kurupatham%xref no email%0,           Mark I-Cheng%Chen%xref no email%0,           Monica%Chan%xref no email%0,           Shawn%Vasoo%xref no email%0,           Lin-Fa%Wang%xref no email%0,           Boon Huan%Tan%xref no email%0,           Raymond Tzer Pin%Lin%xref no email%0,           Vernon Jian Ming%Lee%xref no email%0,           Yee-Sin%Leo%xref no email%0,           David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                 Cabrini%Luca%coreGivesNoEmail%0,                 Castelli%Antonio%coreGivesNoEmail%0,                 Cecconi%Maurizio%coreGivesNoEmail%0,                 Cereda%Danilo%coreGivesNoEmail%0,                 Coluccello%Antonio%coreGivesNoEmail%0,                 Foti%Giuseppe%coreGivesNoEmail%0,                 Fumagalli%Roberto%coreGivesNoEmail%0,                 Grasselli%Giacomo%coreGivesNoEmail%0,                 Iotti%Giorgio%coreGivesNoEmail%0,                 Latronico%Nicola%coreGivesNoEmail%0,                 Lorini%Luca%coreGivesNoEmail%0,                 Merler%Stefano%coreGivesNoEmail%0,                 Natalini%Giuseppe%coreGivesNoEmail%0,                 Pesenti%Antonio%coreGivesNoEmail%0,                 Piatti%Alessandra%coreGivesNoEmail%0,                 Ranieri%Marco Vito%coreGivesNoEmail%0,                 Scandroglio%Anna Mara%coreGivesNoEmail%0,                 Storti%Enrico%coreGivesNoEmail%0,                 Zanella%Alberto%coreGivesNoEmail%0,                 Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                   Lei%Tu%NULL%0,                   Lei%Tu%NULL%0,                   Pingjun%Zhu%NULL%0,                   Pingjun%Zhu%NULL%0,                   Mi%Mu%NULL%0,                   Mi%Mu%NULL%0,                   Runsheng%Wang%NULL%0,                   Pengcheng%Yang%NULL%0,                   Xi%Wang%NULL%0,                   Chao%Hu%NULL%0,                   Rongyu%Ping%NULL%0,                   Peng%Hu%NULL%0,                   Tianzhi%Li%NULL%0,                   Feng%Cao%NULL%0,                   Christopher%Chang%NULL%0,                   Qinyong%Hu%NULL%0,                   Yang%Jin%NULL%0,                   Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                   Min%Zhou%NULL%0,                   Xuan%Dong%NULL%0,                   Jieming%Qu%NULL%0,                   Fengyun%Gong%NULL%0,                   Yang%Han%NULL%0,                   Yang%Qiu%NULL%0,                   Jingli%Wang%NULL%0,                   Ying%Liu%NULL%0,                   Yuan%Wei%NULL%0,                   Jia'an%Xia%NULL%0,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%0,                   Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                 Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                 Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                 Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                   Yeming%Wang%NULL%0,                   Xingwang%Li%NULL%0,                   Lili%Ren%NULL%0,                   Jianping%Zhao%NULL%0,                   Yi%Hu%NULL%0,                   Li%Zhang%NULL%0,                   Guohui%Fan%NULL%0,                   Jiuyang%Xu%NULL%0,                   Xiaoying%Gu%NULL%0,                   Zhenshun%Cheng%NULL%0,                   Ting%Yu%NULL%0,                   Jiaan%Xia%NULL%0,                   Yuan%Wei%NULL%0,                   Wenjuan%Wu%NULL%0,                   Xuelei%Xie%NULL%0,                   Wen%Yin%NULL%0,                   Hui%Li%NULL%0,                   Min%Liu%NULL%0,                   Yan%Xiao%NULL%0,                   Hong%Gao%NULL%0,                   Li%Guo%NULL%0,                   Jungang%Xie%NULL%0,                   Guangfa%Wang%NULL%0,                   Rongmeng%Jiang%NULL%0,                   Zhancheng%Gao%NULL%0,                   Qi%Jin%NULL%0,                   Jianwei%Wang%wangjw28@163.com%0,                   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                   Yuan-Yuan%Fang%NULL%0,                   Yan%Deng%NULL%0,                   Wei%Liu%NULL%0,                   Mei-Fang%Wang%NULL%0,                   Jing-Ping%Ma%NULL%0,                   Wei%Xiao%NULL%0,                   Ying-Nan%Wang%NULL%0,                   Min-Hua%Zhong%NULL%0,                   Cheng-Hong%Li%NULL%0,                   Guang-Cai%Li%NULL%0,                   Hui-Guo%Liu%NULL%0,                   Xiu-Yuan%Hao%NULL%0,                   Xiu-Yuan%Hao%NULL%0,                   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                   Yang%Yang%NULL%0,                   Cong%Zhang%NULL%0,                   Fengming%Huang%NULL%0,                   Fuxiang%Wang%NULL%0,                   Jing%Yuan%NULL%0,                   Zhaoqin%Wang%NULL%0,                   Jinxiu%Li%NULL%0,                   Jianming%Li%NULL%0,                   Cheng%Feng%NULL%0,                   Zheng%Zhang%NULL%0,                   Lifei%Wang%NULL%0,                   Ling%Peng%NULL%0,                   Li%Chen%NULL%0,                   Yuhao%Qin%NULL%0,                   Dandan%Zhao%NULL%0,                   Shuguang%Tan%NULL%0,                   Lu%Yin%NULL%0,                   Jun%Xu%NULL%0,                   Congzhao%Zhou%NULL%0,                   Chengyu%Jiang%jiang@pumc.edu.cn%0,                   Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Wen-hua%Liang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Jian-xing%He%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   David S.C.%Hui%NULL%0,                   Bin%Du%NULL%0,                   Lan-juan%Li%NULL%0,                   Guang%Zeng%NULL%0,                   Kwok-Yung%Yuen%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Ping-yan%Chen%NULL%0,                   Jie%Xiang%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-lin%Wang%NULL%0,                   Zi-jing%Liang%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                   Li-Min%Liu%NULL%0,                   Wen%Yin%NULL%0,                   Wen%Wang%NULL%0,                   Lu-Lu%Guan%NULL%0,                   Ming-Li%Yuan%NULL%0,                   Yu-Lei%Li%NULL%0,                   Yi%Hu%NULL%0,                   Xu-Yan%Li%NULL%0,                   Bing%Sun%NULL%0,                   Peng%Peng%NULL%0,                   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                   Wen-hua%Liang%NULL%0,                   Yi%Zhao%NULL%0,                   Heng-rui%Liang%NULL%0,                   Zi-sheng%Chen%NULL%0,                   Yi-min%Li%NULL%0,                   Xiao-qing%Liu%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Chun-quan%Ou%NULL%0,                   Li%Li%NULL%0,                   Ping-yan%Chen%NULL%0,                   Ling%Sang%NULL%0,                   Wei%Wang%NULL%0,                   Jian-fu%Li%NULL%0,                   Cai-chen%Li%NULL%0,                   Li-min%Ou%NULL%0,                   Bo%Cheng%NULL%0,                   Shan%Xiong%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Jie%Xiang%NULL%0,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Lin-ling%Cheng%NULL%0,                   Feng%Ye%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-ping%Zheng%NULL%0,                   Nuo-fu%Zhang%NULL%0,                   Nan-shan%Zhong%NULL%0,                   Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                   Xiao-Xin%Wu%NULL%0,                   Xian-Gao%Jiang%NULL%0,                   Kai-Jin%Xu%NULL%0,                   Ling-Jun%Ying%NULL%0,                   Chun-Lian%Ma%NULL%0,                   Shi-Bo%Li%NULL%0,                   Hua-Ying%Wang%NULL%0,                   Sheng%Zhang%NULL%0,                   Hai-Nv%Gao%NULL%0,                   Ji-Fang%Sheng%NULL%0,                   Hong-Liu%Cai%NULL%0,                   Yun-Qing%Qiu%NULL%0,                   Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                   Zhe%Dai%NULL%1,                   Pingzheng%Mo%NULL%1,                   Xinyu%Li%NULL%1,                   Zhiyong%Ma%NULL%0,                   Shihui%Song%NULL%0,                   Xiaoping%Chen%NULL%0,                   Mingqi%Luo%NULL%0,                   Ke%Liang%NULL%0,                   Shicheng%Gao%NULL%0,                   Yongxi%Zhang%NULL%0,                   Liping%Deng%dengdeng78@126.com%0,                   Yong%Xiong%NULL%0,                   Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                   Wei-jie%Guan%NULL%0,                   Cai-chen%Li%NULL%0,                   Yi-min%Li%NULL%0,                   Heng-rui%Liang%NULL%0,                   Yi%Zhao%NULL%0,                   Xiao-qing%Liu%NULL%0,                   Ling%Sang%NULL%0,                   Ru-chong%Chen%NULL%0,                   Chun-li%Tang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Wang%NULL%0,                   Qi-hua%He%NULL%0,                   Zi-sheng%Chen%NULL%0,                   Sook-San%Wong%NULL%0,                   Mark%Zanin%NULL%0,                   Jun%Liu%NULL%0,                   Xin%Xu%NULL%0,                   Jun%Huang%NULL%0,                   Jian-fu%Li%NULL%0,                   Li-min%Ou%NULL%0,                   Bo%Cheng%NULL%0,                   Shan%Xiong%NULL%0,                   Zhan-hong%Xie%NULL%0,                   Zheng-yi%Ni%NULL%0,                   Yu%Hu%NULL%0,                   Lei%Liu%NULL%0,                   Hong%Shan%NULL%0,                   Chun-liang%Lei%NULL%0,                   Yi-xiang%Peng%NULL%0,                   Li%Wei%NULL%0,                   Yong%Liu%NULL%0,                   Ya-hua%Hu%NULL%0,                   Peng%Peng%NULL%0,                   Jian-ming%Wang%NULL%0,                   Ji-yang%Liu%NULL%0,                   Zhong%Chen%NULL%0,                   Gang%Li%NULL%0,                   Zhi-jian%Zheng%NULL%0,                   Shao-qin%Qiu%NULL%0,                   Jie%Luo%NULL%0,                   Chang-jiang%Ye%NULL%0,                   Shao-yong%Zhu%NULL%0,                   Lin-ling%Cheng%NULL%0,                   Feng%Ye%NULL%0,                   Shi-yue%Li%NULL%0,                   Jin-ping%Zheng%NULL%0,                   Nuo-fu%Zhang%NULL%0,                   Nan-shan%Zhong%NULL%0,                   Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                   Wenbo%He%NULL%0,                   Xiaomei%Yu%NULL%0,                   Dalong%Hu%NULL%0,                   Mingwei%Bao%NULL%0,                   Huafen%Liu%NULL%0,                   Jiali%Zhou%NULL%0,                   Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                   Wenlin%Cheng%NULL%0,                   Lei%Yu%NULL%0,                   Ya-Kun%Liu%NULL%0,                   Xiaoyong%Hu%NULL%0,                   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                   Huangqing%Ouyang%NULL%1,                   Lingli%Fu%NULL%1,                   Shijie%Wang%NULL%1,                   Jianglong%Han%NULL%1,                   Kejie%Huang%NULL%1,                   Mingfang%Jia%NULL%1,                   Qibin%Song%NULL%1,                   Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3473,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>786</v>
+        <v>822</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3394,7 +3502,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>787</v>
+        <v>823</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3423,7 +3531,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3452,7 +3560,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3481,7 +3589,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>790</v>
+        <v>826</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3510,7 +3618,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>791</v>
+        <v>827</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3539,7 +3647,7 @@
         <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -3568,7 +3676,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -3597,7 +3705,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>793</v>
+        <v>829</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3626,7 +3734,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>794</v>
+        <v>830</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3655,7 +3763,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -3684,7 +3792,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -3713,7 +3821,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>797</v>
+        <v>833</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3742,7 +3850,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>798</v>
+        <v>834</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -3771,7 +3879,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>799</v>
+        <v>835</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -3800,7 +3908,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>800</v>
+        <v>836</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -3829,7 +3937,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>801</v>
+        <v>837</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3858,7 +3966,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>802</v>
+        <v>838</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -3887,7 +3995,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>803</v>
+        <v>839</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3945,7 +4053,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>804</v>
+        <v>840</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -3974,7 +4082,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>805</v>
+        <v>841</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -4032,7 +4140,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>806</v>
+        <v>842</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -4061,7 +4169,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>807</v>
+        <v>843</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -4119,7 +4227,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>808</v>
+        <v>844</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -4148,7 +4256,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>809</v>
+        <v>845</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -4177,7 +4285,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>810</v>
+        <v>846</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -4206,7 +4314,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>811</v>
+        <v>847</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -4235,7 +4343,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>812</v>
+        <v>848</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -4264,7 +4372,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>813</v>
+        <v>849</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -4293,7 +4401,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4322,7 +4430,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>815</v>
+        <v>851</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4351,7 +4459,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>816</v>
+        <v>852</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -4380,7 +4488,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>817</v>
+        <v>853</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4409,7 +4517,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>818</v>
+        <v>854</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -4438,7 +4546,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>819</v>
+        <v>855</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -4467,7 +4575,7 @@
         <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>820</v>
+        <v>856</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4496,7 +4604,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>821</v>
+        <v>857</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5665" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="903">
   <si>
     <t>Doi</t>
   </si>
@@ -3116,6 +3116,154 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%0,                   Huilong%Chen%NULL%0,                   Weiming%Yan%NULL%0,                   Danlei%Yang%NULL%0,                   Guang%Chen%NULL%0,                   Ke%Ma%NULL%0,                   Dong%Xu%NULL%0,                   Haijing%Yu%NULL%0,                   Hongwu%Wang%NULL%0,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%0,                   Jia%Chen%NULL%0,                   Chen%Ding%NULL%0,                   Xiaoping%Zhang%NULL%0,                   Jiaquan%Huang%NULL%0,                   Meifang%Han%NULL%0,                   Shusheng%Li%NULL%0,                   Xiaoping%Luo%NULL%0,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                  Cao%Yi-yuan%coreGivesNoEmail%0,                  Dong%Xiang%coreGivesNoEmail%0,                  Gao%Ya-dong%coreGivesNoEmail%0,                  Yan%You-qin%coreGivesNoEmail%0,                  Yang%Yi-bin%coreGivesNoEmail%0,                  Yuan%Ya-dong%coreGivesNoEmail%0,                  Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                    Bohan%Yang%NULL%0,                    Qianwen%Li%NULL%0,                    Lu%Wen%NULL%0,                    Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                    Yuan%Yu%NULL%0,                    Jiqian%Xu%NULL%0,                    Huaqing%Shu%NULL%0,                    Jia'an%Xia%NULL%0,                    Hong%Liu%NULL%0,                    Yongran%Wu%NULL%0,                    Lu%Zhang%NULL%0,                    Zhui%Yu%NULL%0,                    Minghao%Fang%NULL%0,                    Ting%Yu%NULL%0,                    Yaxin%Wang%NULL%0,                    Shangwen%Pan%NULL%0,                    Xiaojing%Zou%NULL%0,                    Shiying%Yuan%NULL%0,                    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,            Xiaoyan%Chen%xref no email%0,            Yanping%Cai%xref no email%0,            Jia\u2019an%Xia%xref no email%0,            Xing%Zhou%xref no email%0,            Sha%Xu%xref no email%0,            Hanping%Huang%xref no email%0,            Li%Zhang%xref no email%0,            Xia%Zhou%xref no email%0,            Chunling%Du%xref no email%0,            Yuye%Zhang%xref no email%0,            Juan%Song%xref no email%0,            Sijiao%Wang%xref no email%0,            Yencheng%Chao%xref no email%0,            Zeyong%Yang%xref no email%0,            Jie%Xu%xref no email%0,            Xin%Zhou%xref no email%0,            Dechang%Chen%xref no email%0,            Weining%Xiong%xref no email%0,            Lei%Xu%xref no email%0,            Feng%Zhou%xref no email%0,            Jinjun%Jiang%xref no email%0,            Chunxue%Bai%xref no email%0,            Junhua%Zheng%xref no email%0,            Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                    Mengqi%Tu%NULL%0,                    Shipei%Wang%NULL%0,                    Sichao%Chen%NULL%0,                    Wei%Zhou%NULL%0,                    Danyang%Chen%NULL%0,                    Lin%Zhou%NULL%0,                    Min%Wang%NULL%0,                    Yan%Zhao%NULL%0,                    Wen%Zeng%NULL%0,                    Qi%Huang%NULL%0,                    Hai'bo%Xu%NULL%0,                    Zeming%Liu%NULL%0,                    Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                    Jiong%Wu%NULL%0,                    Faqi%Wu%NULL%0,                    Dajing%Guo%NULL%0,                    Linli%Chen%NULL%0,                    Zheng%Fang%NULL%0,                    Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                    Chengcheng%Yu%NULL%1,                    Jing%Qu%NULL%1,                    Lieguang%Zhang%NULL%1,                    Songfeng%Jiang%NULL%1,                    Deyang%Huang%NULL%1,                    Bihua%Chen%NULL%1,                    Zhiping%Zhang%NULL%1,                    Wanhua%Guan%NULL%1,                    Zhoukun%Ling%NULL%1,                    Rui%Jiang%NULL%1,                    Tianli%Hu%NULL%1,                    Yan%Ding%NULL%1,                    Lin%Lin%NULL%1,                    Qingxin%Gan%NULL%1,                    Liangping%Luo%tluolp@jnu.edu.cn%1,                    Xiaoping%Tang%xtang@21cn.com%1,                    Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                    Qiqi%Cao%NULL%2,                    Le%Qin%NULL%2,                    Xiaoyang%Wang%NULL%2,                    Zenghui%Cheng%NULL%2,                    Ashan%Pan%NULL%2,                    Jianyi%Dai%NULL%2,                    Qingfeng%Sun%NULL%2,                    Fengquan%Zhao%NULL%2,                    Jieming%Qu%NULL%0,                    Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                    Qiqi%Cao%NULL%0,                    Le%Qin%NULL%0,                    Xiaoyang%Wang%NULL%0,                    Zenghui%Cheng%NULL%0,                    Ashan%Pan%NULL%0,                    Jianyi%Dai%NULL%0,                    Qingfeng%Sun%NULL%0,                    Fengquan%Zhao%NULL%0,                    Jieming%Qu%NULL%0,                    Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                    Fang%Jiang%NULL%0,                    Wating%Su%NULL%0,                    Chang%Chen%NULL%0,                    Jingli%Chen%NULL%0,                    Wei%Mei%NULL%0,                    Li-Ying%Zhan%NULL%0,                    Yifan%Jia%NULL%0,                    Liangqing%Zhang%NULL%0,                    Danyong%Liu%NULL%0,                    Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                    Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                    Yun%Ling%NULL%0,                    Yun%Ling%NULL%0,                    Tao%Bai%NULL%0,                    Tao%Bai%NULL%0,                    Yusang%Xie%NULL%1,                    Jie%Huang%NULL%2,                    Jie%Huang%NULL%0,                    Jian%Li%NULL%1,                    Weining%Xiong%NULL%1,                    Dexiang%Yang%NULL%1,                    Rong%Chen%NULL%1,                    Fangying%Lu%NULL%1,                    Yunfei%Lu%NULL%2,                    Xuhui%Liu%NULL%1,                    Yuqing%Chen%NULL%2,                    Yuqing%Chen%NULL%0,                    Xin%Li%NULL%0,                    Yong%Li%NULL%1,                    Hanssa Dwarka%Summah%NULL%1,                    Huihuang%Lin%NULL%1,                    Jiayang%Yan%NULL%1,                    Min%Zhou%NULL%0,                    Hongzhou%Lu%NULL%0,                    Hongzhou%Lu%NULL%0,                    Jieming%Qu%NULL%0,                    Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                    Wen%Yin%NULL%0,                    Wen%Yin%NULL%0,                    Zhaowu%Tao%NULL%1,                    Weijun%Tan%NULL%1,                    Yi%Hu%NULL%0,                    Oliver%Schildgen%NULL%2,                    Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                    Yuanyuan%Xing%NULL%0,                    Yu%Xiao%NULL%0,                    Liping%Deng%NULL%0,                    Qiu%Zhao%NULL%0,                    Hongling%Wang%NULL%0,                    Yong%Xiong%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Shicheng%Gao%NULL%0,                    Ke%Liang%NULL%0,                    Mingqi%Luo%NULL%0,                    Tielong%Chen%NULL%0,                    Shihui%Song%NULL%0,                    Zhiyong%Ma%NULL%0,                    Xiaoping%Chen%NULL%0,                    Ruiying%Zheng%NULL%0,                    Qian%Cao%NULL%0,                    Fan%Wang%fanndywang@foxmail.com%0,                    Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                    Xun%Li%NULL%1,                    Hui%Chen%NULL%0,                    Shaonan%Yan%NULL%1,                    Dong%Li%NULL%1,                    Yan%Li%NULL%1,                    Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                    Chang%Hu%NULL%0,                    Linjie%Luo%NULL%0,                    Fang%Fang%NULL%0,                    Yongfeng%Chen%NULL%0,                    Jianguo%Li%NULL%0,                    Zhiyong%Peng%NULL%0,                    Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                    Yongzhen%Fan%NULL%0,                    Ming%Chen%NULL%0,                    Xiaoyan%Wu%NULL%0,                    Lin%Zhang%NULL%0,                    Tao%He%NULL%0,                    Hairong%Wang%NULL%0,                    Jing%Wan%NULL%0,                    Xinghuan%Wang%NULL%0,                    Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                  Becker%L.B.%coreGivesNoEmail%0,                  Chelico%J.D.%coreGivesNoEmail%0,                  Cohen%S.L.%coreGivesNoEmail%0,                  Cookingham%J.%coreGivesNoEmail%0,                  Coppa%K.%coreGivesNoEmail%0,                  Crawford%J.M.%coreGivesNoEmail%0,                  Davidson%K.W.%coreGivesNoEmail%0,                  Diefenbach%M.A.%coreGivesNoEmail%0,                  Dominello%A.J.%coreGivesNoEmail%0,                  Duer-Hefele%J.%coreGivesNoEmail%0,                  Falzon%L.%coreGivesNoEmail%0,                  Gitlin%J.%coreGivesNoEmail%0,                  Hajizadeh%N.%coreGivesNoEmail%0,                  Harvin%T.G.%coreGivesNoEmail%0,                  Hirsch%J.S.%coreGivesNoEmail%0,                  Hirschwerk%D.A.%coreGivesNoEmail%0,                  Kim%E.J.%coreGivesNoEmail%0,                  Kozel%Z.M.%coreGivesNoEmail%0,                  Marrast%L.M.%coreGivesNoEmail%0,                  McGinn%T.%coreGivesNoEmail%0,                  Mogavero%J.N.%coreGivesNoEmail%0,                  Narasimhan%M.%coreGivesNoEmail%0,                  Osorio%G.A.%coreGivesNoEmail%0,                  Qiu%M.%coreGivesNoEmail%0,                  Richardson%S.%coreGivesNoEmail%0,                  Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0,                    Nancy%Chow%NULL%0,                    Katherine%Fleming-Dutra%NULL%1,                    Ryan%Gierke%NULL%0,                    Aron%Hall%NULL%0,                    Michelle%Hughes%NULL%1,                    Tamara%Pilishvili%NULL%0,                    Matthew%Ritchey%NULL%0,                    Katherine%Roguski%NULL%1,                    Tami%Skoff%NULL%1,                    Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,            Sean Wei Xiang%Ong%xref no email%0,            Shirin%Kalimuddin%xref no email%0,            Jenny G.%Low%xref no email%0,            Seow Yen%Tan%xref no email%0,            Jiashen%Loh%xref no email%0,            Oon-Tek%Ng%xref no email%0,            Kalisvar%Marimuthu%xref no email%0,            Li Wei%Ang%xref no email%0,            Tze Minn%Mak%xref no email%0,            Sok Kiang%Lau%xref no email%0,            Danielle E.%Anderson%xref no email%0,            Kian Sing%Chan%xref no email%0,            Thean Yen%Tan%xref no email%0,            Tong Yong%Ng%xref no email%0,            Lin%Cui%xref no email%0,            Zubaidah%Said%xref no email%0,            Lalitha%Kurupatham%xref no email%0,            Mark I-Cheng%Chen%xref no email%0,            Monica%Chan%xref no email%0,            Shawn%Vasoo%xref no email%0,            Lin-Fa%Wang%xref no email%0,            Boon Huan%Tan%xref no email%0,            Raymond Tzer Pin%Lin%xref no email%0,            Vernon Jian Ming%Lee%xref no email%0,            Yee-Sin%Leo%xref no email%0,            David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>"Clinical and epidemiologic profile of the initial COVID-19 patients at a tertiary care centre in India"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"COVID-19 has now become a pandemic.
+ It has spread from Wuhan, China, in December 2019 to a large number of countries within three months.
+ The objective of this work is to report the initial experience with epidemiologic and clinical features, as well as with the management of COVID-19 patients in India.
+ This is a descriptive case series of the first 21 COVID-19 infected patients confirmed with polymerase chain reaction (PCR) and admitted to a tertiary care centre in India from 01.02.2020 to 19.03.2020. Clinical, laboratory, and radiologic data were collected, including age, sex, nationality, travel history, symptoms, duration of stay, and comorbidities.
+ The mean age of the population was 40.3 years with a male preponderance.
+ Thirteen (62%) patients had recent travel history outside India in the previous 30 days, two thirds of whom had travelled to Italy.
+ The most common symptoms were fever and cough (42.9%) followed by sore throat, headache and breathlessness.
+ Vital and laboratory parameters were preserved in all patients and none of them required ventilatory support.
+ Among the first 21 patients diagnosed with COVID-19 infection in India, the typical clinical presentation consisted in a mild upper respiratory tract infection predominantly affecting the young male population.
+ One patient required supplemental oxygen.
+ All patients recovered with no residual symptoms.
+&amp;#x0D;\n\u00a0&amp;#x0D;\n*The Safdarjung Hospital COVID 2019 working group: Nitesh Gupta, Sumita Agrawal, Pranav Ish, Suruchi Mishra, Rajni Gaind, Ganapathy Usha, Balvinder Singh, Manas Kamal Sen, Shibdas Chakrabarti (Consultant and Head, Pulmonary Medicine); NK Gupta (Professor, Pulmonary medicine); Dipak Bhattacharya (Consultant, Pulmonary medicine); Rohit Kumar (Assistant Professor, Pulmonary Medicine); Siddharth R.
+ Yadav (Assistant Professor, Pulmonary Medicine); Rushika Saksena (Specialist, Microbiology); Rojaleen Das (Assistant Professor,Microbiology); Vikramjeet Dutta (Assistant Professor, Microbiology); Anupam Kr Anveshi (Senior Resident, Microbiology); Santvana Kohli (Assistant Professor, Anaesthesiology); Naveen KV (Assistant Professor,\u00a0 Anaesthesiology); Amandeep Jaswal (Assistant Professor, Anaesthesiology).
+</t>
+  </si>
+  <si>
+    <t>[Nitesh%Gupta%xref no email%1, Sumita%Agrawal%xref no email%1, Pranav%Ish%xref no email%1, Suruchi%Mishra%xref no email%1, Rajni%Gaind%xref no email%1, Ganapathy%Usha%xref no email%1, Balvinder%Singh%xref no email%1, Manas Kamal%Sen%xref no email%1, *Safdarjung Hospital%COVID 2019 working group%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                  Cabrini%Luca%coreGivesNoEmail%0,                  Castelli%Antonio%coreGivesNoEmail%0,                  Cecconi%Maurizio%coreGivesNoEmail%0,                  Cereda%Danilo%coreGivesNoEmail%0,                  Coluccello%Antonio%coreGivesNoEmail%0,                  Foti%Giuseppe%coreGivesNoEmail%0,                  Fumagalli%Roberto%coreGivesNoEmail%0,                  Grasselli%Giacomo%coreGivesNoEmail%0,                  Iotti%Giorgio%coreGivesNoEmail%0,                  Latronico%Nicola%coreGivesNoEmail%0,                  Lorini%Luca%coreGivesNoEmail%0,                  Merler%Stefano%coreGivesNoEmail%0,                  Natalini%Giuseppe%coreGivesNoEmail%0,                  Pesenti%Antonio%coreGivesNoEmail%0,                  Piatti%Alessandra%coreGivesNoEmail%0,                  Ranieri%Marco Vito%coreGivesNoEmail%0,                  Scandroglio%Anna Mara%coreGivesNoEmail%0,                  Storti%Enrico%coreGivesNoEmail%0,                  Zanella%Alberto%coreGivesNoEmail%0,                  Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                    Lei%Tu%NULL%0,                    Lei%Tu%NULL%0,                    Pingjun%Zhu%NULL%0,                    Pingjun%Zhu%NULL%0,                    Mi%Mu%NULL%0,                    Mi%Mu%NULL%0,                    Runsheng%Wang%NULL%0,                    Pengcheng%Yang%NULL%0,                    Xi%Wang%NULL%0,                    Chao%Hu%NULL%0,                    Rongyu%Ping%NULL%0,                    Peng%Hu%NULL%0,                    Tianzhi%Li%NULL%0,                    Feng%Cao%NULL%0,                    Christopher%Chang%NULL%0,                    Qinyong%Hu%NULL%0,                    Yang%Jin%NULL%0,                    Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                    Min%Zhou%NULL%0,                    Xuan%Dong%NULL%0,                    Jieming%Qu%NULL%0,                    Fengyun%Gong%NULL%0,                    Yang%Han%NULL%0,                    Yang%Qiu%NULL%0,                    Jingli%Wang%NULL%0,                    Ying%Liu%NULL%0,                    Yuan%Wei%NULL%0,                    Jia'an%Xia%NULL%0,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%0,                    Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                  Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                    Yeming%Wang%NULL%0,                    Xingwang%Li%NULL%0,                    Lili%Ren%NULL%0,                    Jianping%Zhao%NULL%0,                    Yi%Hu%NULL%0,                    Li%Zhang%NULL%0,                    Guohui%Fan%NULL%0,                    Jiuyang%Xu%NULL%0,                    Xiaoying%Gu%NULL%0,                    Zhenshun%Cheng%NULL%0,                    Ting%Yu%NULL%0,                    Jiaan%Xia%NULL%0,                    Yuan%Wei%NULL%0,                    Wenjuan%Wu%NULL%0,                    Xuelei%Xie%NULL%0,                    Wen%Yin%NULL%0,                    Hui%Li%NULL%0,                    Min%Liu%NULL%0,                    Yan%Xiao%NULL%0,                    Hong%Gao%NULL%0,                    Li%Guo%NULL%0,                    Jungang%Xie%NULL%0,                    Guangfa%Wang%NULL%0,                    Rongmeng%Jiang%NULL%0,                    Zhancheng%Gao%NULL%0,                    Qi%Jin%NULL%0,                    Jianwei%Wang%wangjw28@163.com%0,                    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                    Yuan-Yuan%Fang%NULL%0,                    Yan%Deng%NULL%0,                    Wei%Liu%NULL%0,                    Mei-Fang%Wang%NULL%1,                    Jing-Ping%Ma%NULL%1,                    Wei%Xiao%NULL%1,                    Ying-Nan%Wang%NULL%1,                    Min-Hua%Zhong%NULL%1,                    Cheng-Hong%Li%NULL%1,                    Guang-Cai%Li%NULL%1,                    Hui-Guo%Liu%NULL%0,                    Xiu-Yuan%Hao%NULL%2,                    Xiu-Yuan%Hao%NULL%0,                    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                    Yang%Yang%NULL%0,                    Cong%Zhang%NULL%0,                    Fengming%Huang%NULL%0,                    Fuxiang%Wang%NULL%0,                    Jing%Yuan%NULL%0,                    Zhaoqin%Wang%NULL%0,                    Jinxiu%Li%NULL%0,                    Jianming%Li%NULL%0,                    Cheng%Feng%NULL%0,                    Zheng%Zhang%NULL%0,                    Lifei%Wang%NULL%0,                    Ling%Peng%NULL%0,                    Li%Chen%NULL%0,                    Yuhao%Qin%NULL%0,                    Dandan%Zhao%NULL%0,                    Shuguang%Tan%NULL%0,                    Lu%Yin%NULL%0,                    Jun%Xu%NULL%0,                    Congzhao%Zhou%NULL%0,                    Chengyu%Jiang%jiang@pumc.edu.cn%0,                    Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Wen-hua%Liang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Jian-xing%He%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    David S.C.%Hui%NULL%0,                    Bin%Du%NULL%0,                    Lan-juan%Li%NULL%0,                    Guang%Zeng%NULL%0,                    Kwok-Yung%Yuen%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Ping-yan%Chen%NULL%0,                    Jie%Xiang%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-lin%Wang%NULL%0,                    Zi-jing%Liang%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                    Li-Min%Liu%NULL%0,                    Wen%Yin%NULL%0,                    Wen%Wang%NULL%0,                    Lu-Lu%Guan%NULL%0,                    Ming-Li%Yuan%NULL%0,                    Yu-Lei%Li%NULL%0,                    Yi%Hu%NULL%0,                    Xu-Yan%Li%NULL%0,                    Bing%Sun%NULL%0,                    Peng%Peng%NULL%0,                    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                    Wen-hua%Liang%NULL%0,                    Yi%Zhao%NULL%0,                    Heng-rui%Liang%NULL%0,                    Zi-sheng%Chen%NULL%0,                    Yi-min%Li%NULL%0,                    Xiao-qing%Liu%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Chun-quan%Ou%NULL%0,                    Li%Li%NULL%0,                    Ping-yan%Chen%NULL%0,                    Ling%Sang%NULL%0,                    Wei%Wang%NULL%0,                    Jian-fu%Li%NULL%0,                    Cai-chen%Li%NULL%0,                    Li-min%Ou%NULL%0,                    Bo%Cheng%NULL%0,                    Shan%Xiong%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Jie%Xiang%NULL%0,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Lin-ling%Cheng%NULL%0,                    Feng%Ye%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-ping%Zheng%NULL%0,                    Nuo-fu%Zhang%NULL%0,                    Nan-shan%Zhong%NULL%0,                    Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                    Xiao-Xin%Wu%NULL%0,                    Xian-Gao%Jiang%NULL%0,                    Kai-Jin%Xu%NULL%0,                    Ling-Jun%Ying%NULL%0,                    Chun-Lian%Ma%NULL%0,                    Shi-Bo%Li%NULL%0,                    Hua-Ying%Wang%NULL%0,                    Sheng%Zhang%NULL%0,                    Hai-Nv%Gao%NULL%0,                    Ji-Fang%Sheng%NULL%0,                    Hong-Liu%Cai%NULL%0,                    Yun-Qing%Qiu%NULL%0,                    Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                    Zhe%Dai%NULL%1,                    Pingzheng%Mo%NULL%1,                    Xinyu%Li%NULL%1,                    Zhiyong%Ma%NULL%0,                    Shihui%Song%NULL%0,                    Xiaoping%Chen%NULL%0,                    Mingqi%Luo%NULL%0,                    Ke%Liang%NULL%0,                    Shicheng%Gao%NULL%0,                    Yongxi%Zhang%NULL%0,                    Liping%Deng%dengdeng78@126.com%0,                    Yong%Xiong%NULL%0,                    Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                    Wei-jie%Guan%NULL%0,                    Cai-chen%Li%NULL%0,                    Yi-min%Li%NULL%0,                    Heng-rui%Liang%NULL%0,                    Yi%Zhao%NULL%0,                    Xiao-qing%Liu%NULL%0,                    Ling%Sang%NULL%0,                    Ru-chong%Chen%NULL%0,                    Chun-li%Tang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Wang%NULL%0,                    Qi-hua%He%NULL%0,                    Zi-sheng%Chen%NULL%0,                    Sook-San%Wong%NULL%0,                    Mark%Zanin%NULL%0,                    Jun%Liu%NULL%0,                    Xin%Xu%NULL%0,                    Jun%Huang%NULL%0,                    Jian-fu%Li%NULL%0,                    Li-min%Ou%NULL%0,                    Bo%Cheng%NULL%0,                    Shan%Xiong%NULL%0,                    Zhan-hong%Xie%NULL%0,                    Zheng-yi%Ni%NULL%0,                    Yu%Hu%NULL%0,                    Lei%Liu%NULL%0,                    Hong%Shan%NULL%0,                    Chun-liang%Lei%NULL%0,                    Yi-xiang%Peng%NULL%0,                    Li%Wei%NULL%0,                    Yong%Liu%NULL%0,                    Ya-hua%Hu%NULL%0,                    Peng%Peng%NULL%0,                    Jian-ming%Wang%NULL%0,                    Ji-yang%Liu%NULL%0,                    Zhong%Chen%NULL%0,                    Gang%Li%NULL%0,                    Zhi-jian%Zheng%NULL%0,                    Shao-qin%Qiu%NULL%0,                    Jie%Luo%NULL%0,                    Chang-jiang%Ye%NULL%0,                    Shao-yong%Zhu%NULL%0,                    Lin-ling%Cheng%NULL%0,                    Feng%Ye%NULL%0,                    Shi-yue%Li%NULL%0,                    Jin-ping%Zheng%NULL%0,                    Nuo-fu%Zhang%NULL%0,                    Nan-shan%Zhong%NULL%0,                    Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                    Wenbo%He%NULL%0,                    Xiaomei%Yu%NULL%0,                    Dalong%Hu%NULL%0,                    Mingwei%Bao%NULL%0,                    Huafen%Liu%NULL%0,                    Jiali%Zhou%NULL%0,                    Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                    Wenlin%Cheng%NULL%0,                    Lei%Yu%NULL%0,                    Ya-Kun%Liu%NULL%0,                    Xiaoyong%Hu%NULL%0,                    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                    Huangqing%Ouyang%NULL%1,                    Lingli%Fu%NULL%1,                    Shijie%Wang%NULL%1,                    Jianglong%Han%NULL%1,                    Kejie%Huang%NULL%1,                    Mingfang%Jia%NULL%1,                    Qibin%Song%NULL%1,                    Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3473,7 +3621,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3485,7 +3633,7 @@
         <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3">
@@ -3502,7 +3650,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3514,7 +3662,7 @@
         <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="4">
@@ -3531,7 +3679,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>824</v>
+        <v>862</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3543,7 +3691,7 @@
         <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5">
@@ -3560,7 +3708,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>825</v>
+        <v>864</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3572,7 +3720,7 @@
         <v>462</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6">
@@ -3589,7 +3737,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>826</v>
+        <v>865</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3601,7 +3749,7 @@
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7">
@@ -3618,7 +3766,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>827</v>
+        <v>866</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3630,7 +3778,7 @@
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8">
@@ -3647,7 +3795,7 @@
         <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>828</v>
+        <v>867</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -3659,7 +3807,7 @@
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9">
@@ -3676,7 +3824,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>829</v>
+        <v>869</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -3688,7 +3836,7 @@
         <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10">
@@ -3705,7 +3853,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3717,7 +3865,7 @@
         <v>86</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="11">
@@ -3734,7 +3882,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>830</v>
+        <v>871</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3746,7 +3894,7 @@
         <v>92</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12">
@@ -3763,7 +3911,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>831</v>
+        <v>872</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -3775,7 +3923,7 @@
         <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="13">
@@ -3792,7 +3940,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -3804,7 +3952,7 @@
         <v>102</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14">
@@ -3821,7 +3969,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>833</v>
+        <v>874</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3833,7 +3981,7 @@
         <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15">
@@ -3850,7 +3998,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>834</v>
+        <v>875</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -3862,7 +4010,7 @@
         <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="16">
@@ -3879,7 +4027,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>835</v>
+        <v>876</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -3891,7 +4039,7 @@
         <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="17">
@@ -3908,7 +4056,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>836</v>
+        <v>877</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -3920,7 +4068,7 @@
         <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="18">
@@ -3937,7 +4085,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>837</v>
+        <v>878</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -3949,7 +4097,7 @@
         <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19">
@@ -3966,7 +4114,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>838</v>
+        <v>879</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -3978,7 +4126,7 @@
         <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="20">
@@ -3995,7 +4143,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>839</v>
+        <v>880</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -4007,7 +4155,7 @@
         <v>462</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>859</v>
       </c>
     </row>
     <row r="21">
@@ -4018,22 +4166,22 @@
         <v>43931.0</v>
       </c>
       <c r="C21" t="s">
-        <v>258</v>
+        <v>881</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>882</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>883</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>461</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>884</v>
       </c>
       <c r="I21" t="s">
         <v>69</v>
@@ -4053,7 +4201,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>840</v>
+        <v>885</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4065,7 +4213,7 @@
         <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>859</v>
       </c>
     </row>
     <row r="23">
@@ -4082,7 +4230,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>841</v>
+        <v>886</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -4094,7 +4242,7 @@
         <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="24">
@@ -4123,7 +4271,7 @@
         <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="25">
@@ -4140,7 +4288,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>842</v>
+        <v>887</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -4152,7 +4300,7 @@
         <v>58</v>
       </c>
       <c r="I25" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="26">
@@ -4169,7 +4317,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>843</v>
+        <v>888</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -4181,7 +4329,7 @@
         <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>859</v>
       </c>
     </row>
     <row r="27">
@@ -4210,7 +4358,7 @@
         <v>111</v>
       </c>
       <c r="I27" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28">
@@ -4227,7 +4375,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>844</v>
+        <v>889</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -4239,7 +4387,7 @@
         <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29">
@@ -4256,7 +4404,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>845</v>
+        <v>890</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -4268,7 +4416,7 @@
         <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="30">
@@ -4285,7 +4433,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>846</v>
+        <v>891</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -4297,7 +4445,7 @@
         <v>154</v>
       </c>
       <c r="I30" t="s">
-        <v>325</v>
+        <v>868</v>
       </c>
     </row>
     <row r="31">
@@ -4314,7 +4462,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>847</v>
+        <v>892</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -4326,7 +4474,7 @@
         <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="32">
@@ -4343,7 +4491,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>848</v>
+        <v>893</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -4355,7 +4503,7 @@
         <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="33">
@@ -4372,7 +4520,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>849</v>
+        <v>894</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -4384,7 +4532,7 @@
         <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34">
@@ -4401,7 +4549,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>850</v>
+        <v>895</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4413,7 +4561,7 @@
         <v>173</v>
       </c>
       <c r="I34" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="35">
@@ -4430,7 +4578,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>851</v>
+        <v>896</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4442,7 +4590,7 @@
         <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36">
@@ -4459,7 +4607,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>852</v>
+        <v>897</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -4471,7 +4619,7 @@
         <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="37">
@@ -4488,7 +4636,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>853</v>
+        <v>898</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4500,7 +4648,7 @@
         <v>187</v>
       </c>
       <c r="I37" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38">
@@ -4517,7 +4665,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>854</v>
+        <v>899</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -4529,7 +4677,7 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
     <row r="39">
@@ -4546,7 +4694,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>855</v>
+        <v>900</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -4558,7 +4706,7 @@
         <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>321</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40">
@@ -4575,7 +4723,7 @@
         <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>856</v>
+        <v>901</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4587,7 +4735,7 @@
         <v>200</v>
       </c>
       <c r="I40" t="s">
-        <v>325</v>
+        <v>868</v>
       </c>
     </row>
     <row r="41">
@@ -4604,7 +4752,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>857</v>
+        <v>902</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>
@@ -4616,7 +4764,7 @@
         <v>205</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>861</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6239" uniqueCount="941">
   <si>
     <t>Doi</t>
   </si>
@@ -3264,6 +3264,120 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%0,                    Huilong%Chen%NULL%0,                    Weiming%Yan%NULL%0,                    Danlei%Yang%NULL%0,                    Guang%Chen%NULL%0,                    Ke%Ma%NULL%0,                    Dong%Xu%NULL%0,                    Haijing%Yu%NULL%0,                    Hongwu%Wang%NULL%0,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%0,                    Jia%Chen%NULL%0,                    Chen%Ding%NULL%0,                    Xiaoping%Zhang%NULL%0,                    Jiaquan%Huang%NULL%0,                    Meifang%Han%NULL%0,                    Shusheng%Li%NULL%0,                    Xiaoping%Luo%NULL%0,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                   Cao%Yi-yuan%coreGivesNoEmail%0,                   Dong%Xiang%coreGivesNoEmail%0,                   Gao%Ya-dong%coreGivesNoEmail%0,                   Yan%You-qin%coreGivesNoEmail%0,                   Yang%Yi-bin%coreGivesNoEmail%0,                   Yuan%Ya-dong%coreGivesNoEmail%0,                   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                     Bohan%Yang%NULL%0,                     Qianwen%Li%NULL%0,                     Lu%Wen%NULL%0,                     Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                     Yuan%Yu%NULL%0,                     Jiqian%Xu%NULL%0,                     Huaqing%Shu%NULL%0,                     Jia'an%Xia%NULL%0,                     Hong%Liu%NULL%0,                     Yongran%Wu%NULL%0,                     Lu%Zhang%NULL%0,                     Zhui%Yu%NULL%0,                     Minghao%Fang%NULL%0,                     Ting%Yu%NULL%0,                     Yaxin%Wang%NULL%0,                     Shangwen%Pan%NULL%0,                     Xiaojing%Zou%NULL%0,                     Shiying%Yuan%NULL%0,                     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaomin%Wu%xref no email%0,             Xiaoyan%Chen%xref no email%0,             Yanping%Cai%xref no email%0,             Jia\u2019an%Xia%xref no email%0,             Xing%Zhou%xref no email%0,             Sha%Xu%xref no email%0,             Hanping%Huang%xref no email%0,             Li%Zhang%xref no email%0,             Xia%Zhou%xref no email%0,             Chunling%Du%xref no email%0,             Yuye%Zhang%xref no email%0,             Juan%Song%xref no email%0,             Sijiao%Wang%xref no email%0,             Yencheng%Chao%xref no email%0,             Zeyong%Yang%xref no email%0,             Jie%Xu%xref no email%0,             Xin%Zhou%xref no email%0,             Dechang%Chen%xref no email%0,             Weining%Xiong%xref no email%0,             Lei%Xu%xref no email%0,             Feng%Zhou%xref no email%0,             Jinjun%Jiang%xref no email%0,             Chunxue%Bai%xref no email%0,             Junhua%Zheng%xref no email%0,             Yuanlin%Song%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                     Mengqi%Tu%NULL%0,                     Shipei%Wang%NULL%0,                     Sichao%Chen%NULL%0,                     Wei%Zhou%NULL%0,                     Danyang%Chen%NULL%0,                     Lin%Zhou%NULL%0,                     Min%Wang%NULL%0,                     Yan%Zhao%NULL%0,                     Wen%Zeng%NULL%0,                     Qi%Huang%NULL%0,                     Hai'bo%Xu%NULL%0,                     Zeming%Liu%NULL%0,                     Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                     Jiong%Wu%NULL%0,                     Faqi%Wu%NULL%0,                     Dajing%Guo%NULL%0,                     Linli%Chen%NULL%0,                     Zheng%Fang%NULL%0,                     Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                     Chengcheng%Yu%NULL%1,                     Jing%Qu%NULL%1,                     Lieguang%Zhang%NULL%1,                     Songfeng%Jiang%NULL%1,                     Deyang%Huang%NULL%1,                     Bihua%Chen%NULL%1,                     Zhiping%Zhang%NULL%1,                     Wanhua%Guan%NULL%1,                     Zhoukun%Ling%NULL%1,                     Rui%Jiang%NULL%1,                     Tianli%Hu%NULL%1,                     Yan%Ding%NULL%1,                     Lin%Lin%NULL%1,                     Qingxin%Gan%NULL%1,                     Liangping%Luo%tluolp@jnu.edu.cn%1,                     Xiaoping%Tang%xtang@21cn.com%1,                     Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                     Qiqi%Cao%NULL%2,                     Le%Qin%NULL%2,                     Xiaoyang%Wang%NULL%2,                     Zenghui%Cheng%NULL%2,                     Ashan%Pan%NULL%2,                     Jianyi%Dai%NULL%2,                     Qingfeng%Sun%NULL%2,                     Fengquan%Zhao%NULL%2,                     Jieming%Qu%NULL%0,                     Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                     Qiqi%Cao%NULL%0,                     Le%Qin%NULL%0,                     Xiaoyang%Wang%NULL%0,                     Zenghui%Cheng%NULL%0,                     Ashan%Pan%NULL%0,                     Jianyi%Dai%NULL%0,                     Qingfeng%Sun%NULL%0,                     Fengquan%Zhao%NULL%0,                     Jieming%Qu%NULL%0,                     Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                     Fang%Jiang%NULL%0,                     Wating%Su%NULL%0,                     Chang%Chen%NULL%0,                     Jingli%Chen%NULL%0,                     Wei%Mei%NULL%0,                     Li-Ying%Zhan%NULL%0,                     Yifan%Jia%NULL%0,                     Liangqing%Zhang%NULL%0,                     Danyong%Liu%NULL%0,                     Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                     Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                     Yun%Ling%NULL%0,                     Yun%Ling%NULL%0,                     Tao%Bai%NULL%0,                     Tao%Bai%NULL%0,                     Yusang%Xie%NULL%1,                     Jie%Huang%NULL%2,                     Jie%Huang%NULL%0,                     Jian%Li%NULL%1,                     Weining%Xiong%NULL%1,                     Dexiang%Yang%NULL%1,                     Rong%Chen%NULL%1,                     Fangying%Lu%NULL%1,                     Yunfei%Lu%NULL%2,                     Xuhui%Liu%NULL%1,                     Yuqing%Chen%NULL%2,                     Yuqing%Chen%NULL%0,                     Xin%Li%NULL%0,                     Yong%Li%NULL%1,                     Hanssa Dwarka%Summah%NULL%1,                     Huihuang%Lin%NULL%1,                     Jiayang%Yan%NULL%1,                     Min%Zhou%NULL%0,                     Hongzhou%Lu%NULL%0,                     Hongzhou%Lu%NULL%0,                     Jieming%Qu%NULL%0,                     Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                     Wen%Yin%NULL%0,                     Wen%Yin%NULL%0,                     Zhaowu%Tao%NULL%1,                     Weijun%Tan%NULL%1,                     Yi%Hu%NULL%0,                     Oliver%Schildgen%NULL%2,                     Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                     Yuanyuan%Xing%NULL%0,                     Yu%Xiao%NULL%0,                     Liping%Deng%NULL%0,                     Qiu%Zhao%NULL%0,                     Hongling%Wang%NULL%0,                     Yong%Xiong%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Shicheng%Gao%NULL%0,                     Ke%Liang%NULL%0,                     Mingqi%Luo%NULL%0,                     Tielong%Chen%NULL%0,                     Shihui%Song%NULL%0,                     Zhiyong%Ma%NULL%0,                     Xiaoping%Chen%NULL%0,                     Ruiying%Zheng%NULL%0,                     Qian%Cao%NULL%0,                     Fan%Wang%fanndywang@foxmail.com%0,                     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                     Xun%Li%NULL%1,                     Hui%Chen%NULL%0,                     Shaonan%Yan%NULL%1,                     Dong%Li%NULL%1,                     Yan%Li%NULL%1,                     Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                     Chang%Hu%NULL%0,                     Linjie%Luo%NULL%0,                     Fang%Fang%NULL%0,                     Yongfeng%Chen%NULL%0,                     Jianguo%Li%NULL%0,                     Zhiyong%Peng%NULL%0,                     Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                     Yongzhen%Fan%NULL%0,                     Ming%Chen%NULL%0,                     Xiaoyan%Wu%NULL%0,                     Lin%Zhang%NULL%0,                     Tao%He%NULL%0,                     Hairong%Wang%NULL%0,                     Jing%Wan%NULL%0,                     Xinghuan%Wang%NULL%0,                     Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                   Becker%L.B.%coreGivesNoEmail%0,                   Chelico%J.D.%coreGivesNoEmail%0,                   Cohen%S.L.%coreGivesNoEmail%0,                   Cookingham%J.%coreGivesNoEmail%0,                   Coppa%K.%coreGivesNoEmail%0,                   Crawford%J.M.%coreGivesNoEmail%0,                   Davidson%K.W.%coreGivesNoEmail%0,                   Diefenbach%M.A.%coreGivesNoEmail%0,                   Dominello%A.J.%coreGivesNoEmail%0,                   Duer-Hefele%J.%coreGivesNoEmail%0,                   Falzon%L.%coreGivesNoEmail%0,                   Gitlin%J.%coreGivesNoEmail%0,                   Hajizadeh%N.%coreGivesNoEmail%0,                   Harvin%T.G.%coreGivesNoEmail%0,                   Hirsch%J.S.%coreGivesNoEmail%0,                   Hirschwerk%D.A.%coreGivesNoEmail%0,                   Kim%E.J.%coreGivesNoEmail%0,                   Kozel%Z.M.%coreGivesNoEmail%0,                   Marrast%L.M.%coreGivesNoEmail%0,                   McGinn%T.%coreGivesNoEmail%0,                   Mogavero%J.N.%coreGivesNoEmail%0,                   Narasimhan%M.%coreGivesNoEmail%0,                   Osorio%G.A.%coreGivesNoEmail%0,                   Qiu%M.%coreGivesNoEmail%0,                   Richardson%S.%coreGivesNoEmail%0,                   Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0,                     Nancy%Chow%NULL%0,                     Katherine%Fleming-Dutra%NULL%1,                     Ryan%Gierke%NULL%0,                     Aron%Hall%NULL%0,                     Michelle%Hughes%NULL%1,                     Tamara%Pilishvili%NULL%0,                     Matthew%Ritchey%NULL%0,                     Katherine%Roguski%NULL%1,                     Tami%Skoff%NULL%1,                     Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Barnaby Edward%Young%xref no email%0,             Sean Wei Xiang%Ong%xref no email%0,             Shirin%Kalimuddin%xref no email%0,             Jenny G.%Low%xref no email%0,             Seow Yen%Tan%xref no email%0,             Jiashen%Loh%xref no email%0,             Oon-Tek%Ng%xref no email%0,             Kalisvar%Marimuthu%xref no email%0,             Li Wei%Ang%xref no email%0,             Tze Minn%Mak%xref no email%0,             Sok Kiang%Lau%xref no email%0,             Danielle E.%Anderson%xref no email%0,             Kian Sing%Chan%xref no email%0,             Thean Yen%Tan%xref no email%0,             Tong Yong%Ng%xref no email%0,             Lin%Cui%xref no email%0,             Zubaidah%Said%xref no email%0,             Lalitha%Kurupatham%xref no email%0,             Mark I-Cheng%Chen%xref no email%0,             Monica%Chan%xref no email%0,             Shawn%Vasoo%xref no email%0,             Lin-Fa%Wang%xref no email%0,             Boon Huan%Tan%xref no email%0,             Raymond Tzer Pin%Lin%xref no email%0,             Vernon Jian Ming%Lee%xref no email%0,             Yee-Sin%Leo%xref no email%0,             David Chien%Lye%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Nitesh%Gupta%xref no email%1,  Sumita%Agrawal%xref no email%1,  Pranav%Ish%xref no email%1,  Suruchi%Mishra%xref no email%1,  Rajni%Gaind%xref no email%1,  Ganapathy%Usha%xref no email%1,  Balvinder%Singh%xref no email%1,  Manas Kamal%Sen%xref no email%1,  *Safdarjung Hospital%COVID 2019 working group%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                   Cabrini%Luca%coreGivesNoEmail%0,                   Castelli%Antonio%coreGivesNoEmail%0,                   Cecconi%Maurizio%coreGivesNoEmail%0,                   Cereda%Danilo%coreGivesNoEmail%0,                   Coluccello%Antonio%coreGivesNoEmail%0,                   Foti%Giuseppe%coreGivesNoEmail%0,                   Fumagalli%Roberto%coreGivesNoEmail%0,                   Grasselli%Giacomo%coreGivesNoEmail%0,                   Iotti%Giorgio%coreGivesNoEmail%0,                   Latronico%Nicola%coreGivesNoEmail%0,                   Lorini%Luca%coreGivesNoEmail%0,                   Merler%Stefano%coreGivesNoEmail%0,                   Natalini%Giuseppe%coreGivesNoEmail%0,                   Pesenti%Antonio%coreGivesNoEmail%0,                   Piatti%Alessandra%coreGivesNoEmail%0,                   Ranieri%Marco Vito%coreGivesNoEmail%0,                   Scandroglio%Anna Mara%coreGivesNoEmail%0,                   Storti%Enrico%coreGivesNoEmail%0,                   Zanella%Alberto%coreGivesNoEmail%0,                   Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                     Lei%Tu%NULL%0,                     Lei%Tu%NULL%0,                     Pingjun%Zhu%NULL%0,                     Pingjun%Zhu%NULL%0,                     Mi%Mu%NULL%0,                     Mi%Mu%NULL%0,                     Runsheng%Wang%NULL%0,                     Pengcheng%Yang%NULL%0,                     Xi%Wang%NULL%0,                     Chao%Hu%NULL%0,                     Rongyu%Ping%NULL%0,                     Peng%Hu%NULL%0,                     Tianzhi%Li%NULL%0,                     Feng%Cao%NULL%0,                     Christopher%Chang%NULL%0,                     Qinyong%Hu%NULL%0,                     Yang%Jin%NULL%0,                     Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                     Min%Zhou%NULL%0,                     Xuan%Dong%NULL%0,                     Jieming%Qu%NULL%0,                     Fengyun%Gong%NULL%0,                     Yang%Han%NULL%0,                     Yang%Qiu%NULL%0,                     Jingli%Wang%NULL%0,                     Ying%Liu%NULL%0,                     Yuan%Wei%NULL%0,                     Jia'an%Xia%NULL%0,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%0,                     Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                   Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                     Yeming%Wang%NULL%0,                     Xingwang%Li%NULL%0,                     Lili%Ren%NULL%0,                     Jianping%Zhao%NULL%0,                     Yi%Hu%NULL%0,                     Li%Zhang%NULL%0,                     Guohui%Fan%NULL%0,                     Jiuyang%Xu%NULL%0,                     Xiaoying%Gu%NULL%0,                     Zhenshun%Cheng%NULL%0,                     Ting%Yu%NULL%0,                     Jiaan%Xia%NULL%0,                     Yuan%Wei%NULL%0,                     Wenjuan%Wu%NULL%0,                     Xuelei%Xie%NULL%0,                     Wen%Yin%NULL%0,                     Hui%Li%NULL%0,                     Min%Liu%NULL%0,                     Yan%Xiao%NULL%0,                     Hong%Gao%NULL%0,                     Li%Guo%NULL%0,                     Jungang%Xie%NULL%0,                     Guangfa%Wang%NULL%0,                     Rongmeng%Jiang%NULL%0,                     Zhancheng%Gao%NULL%0,                     Qi%Jin%NULL%0,                     Jianwei%Wang%wangjw28@163.com%0,                     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                     Yuan-Yuan%Fang%NULL%0,                     Yan%Deng%NULL%0,                     Wei%Liu%NULL%0,                     Mei-Fang%Wang%NULL%1,                     Jing-Ping%Ma%NULL%1,                     Wei%Xiao%NULL%1,                     Ying-Nan%Wang%NULL%1,                     Min-Hua%Zhong%NULL%1,                     Cheng-Hong%Li%NULL%1,                     Guang-Cai%Li%NULL%1,                     Hui-Guo%Liu%NULL%0,                     Xiu-Yuan%Hao%NULL%2,                     Xiu-Yuan%Hao%NULL%0,                     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                     Yang%Yang%NULL%0,                     Cong%Zhang%NULL%0,                     Fengming%Huang%NULL%0,                     Fuxiang%Wang%NULL%0,                     Jing%Yuan%NULL%0,                     Zhaoqin%Wang%NULL%0,                     Jinxiu%Li%NULL%0,                     Jianming%Li%NULL%0,                     Cheng%Feng%NULL%0,                     Zheng%Zhang%NULL%0,                     Lifei%Wang%NULL%0,                     Ling%Peng%NULL%0,                     Li%Chen%NULL%0,                     Yuhao%Qin%NULL%0,                     Dandan%Zhao%NULL%0,                     Shuguang%Tan%NULL%0,                     Lu%Yin%NULL%0,                     Jun%Xu%NULL%0,                     Congzhao%Zhou%NULL%0,                     Chengyu%Jiang%jiang@pumc.edu.cn%0,                     Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Wen-hua%Liang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Jian-xing%He%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     David S.C.%Hui%NULL%0,                     Bin%Du%NULL%0,                     Lan-juan%Li%NULL%0,                     Guang%Zeng%NULL%0,                     Kwok-Yung%Yuen%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Ping-yan%Chen%NULL%0,                     Jie%Xiang%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-lin%Wang%NULL%0,                     Zi-jing%Liang%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                     Li-Min%Liu%NULL%0,                     Wen%Yin%NULL%0,                     Wen%Wang%NULL%0,                     Lu-Lu%Guan%NULL%0,                     Ming-Li%Yuan%NULL%0,                     Yu-Lei%Li%NULL%0,                     Yi%Hu%NULL%0,                     Xu-Yan%Li%NULL%0,                     Bing%Sun%NULL%0,                     Peng%Peng%NULL%0,                     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                     Wen-hua%Liang%NULL%0,                     Yi%Zhao%NULL%0,                     Heng-rui%Liang%NULL%0,                     Zi-sheng%Chen%NULL%0,                     Yi-min%Li%NULL%0,                     Xiao-qing%Liu%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Chun-quan%Ou%NULL%0,                     Li%Li%NULL%0,                     Ping-yan%Chen%NULL%0,                     Ling%Sang%NULL%0,                     Wei%Wang%NULL%0,                     Jian-fu%Li%NULL%0,                     Cai-chen%Li%NULL%0,                     Li-min%Ou%NULL%0,                     Bo%Cheng%NULL%0,                     Shan%Xiong%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Jie%Xiang%NULL%0,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Lin-ling%Cheng%NULL%0,                     Feng%Ye%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-ping%Zheng%NULL%0,                     Nuo-fu%Zhang%NULL%0,                     Nan-shan%Zhong%NULL%0,                     Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                     Xiao-Xin%Wu%NULL%0,                     Xian-Gao%Jiang%NULL%0,                     Kai-Jin%Xu%NULL%0,                     Ling-Jun%Ying%NULL%0,                     Chun-Lian%Ma%NULL%0,                     Shi-Bo%Li%NULL%0,                     Hua-Ying%Wang%NULL%0,                     Sheng%Zhang%NULL%0,                     Hai-Nv%Gao%NULL%0,                     Ji-Fang%Sheng%NULL%0,                     Hong-Liu%Cai%NULL%0,                     Yun-Qing%Qiu%NULL%0,                     Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                     Zhe%Dai%NULL%1,                     Pingzheng%Mo%NULL%1,                     Xinyu%Li%NULL%1,                     Zhiyong%Ma%NULL%0,                     Shihui%Song%NULL%0,                     Xiaoping%Chen%NULL%0,                     Mingqi%Luo%NULL%0,                     Ke%Liang%NULL%0,                     Shicheng%Gao%NULL%0,                     Yongxi%Zhang%NULL%0,                     Liping%Deng%dengdeng78@126.com%0,                     Yong%Xiong%NULL%0,                     Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                     Wei-jie%Guan%NULL%0,                     Cai-chen%Li%NULL%0,                     Yi-min%Li%NULL%0,                     Heng-rui%Liang%NULL%0,                     Yi%Zhao%NULL%0,                     Xiao-qing%Liu%NULL%0,                     Ling%Sang%NULL%0,                     Ru-chong%Chen%NULL%0,                     Chun-li%Tang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Wang%NULL%0,                     Qi-hua%He%NULL%0,                     Zi-sheng%Chen%NULL%0,                     Sook-San%Wong%NULL%0,                     Mark%Zanin%NULL%0,                     Jun%Liu%NULL%0,                     Xin%Xu%NULL%0,                     Jun%Huang%NULL%0,                     Jian-fu%Li%NULL%0,                     Li-min%Ou%NULL%0,                     Bo%Cheng%NULL%0,                     Shan%Xiong%NULL%0,                     Zhan-hong%Xie%NULL%0,                     Zheng-yi%Ni%NULL%0,                     Yu%Hu%NULL%0,                     Lei%Liu%NULL%0,                     Hong%Shan%NULL%0,                     Chun-liang%Lei%NULL%0,                     Yi-xiang%Peng%NULL%0,                     Li%Wei%NULL%0,                     Yong%Liu%NULL%0,                     Ya-hua%Hu%NULL%0,                     Peng%Peng%NULL%0,                     Jian-ming%Wang%NULL%0,                     Ji-yang%Liu%NULL%0,                     Zhong%Chen%NULL%0,                     Gang%Li%NULL%0,                     Zhi-jian%Zheng%NULL%0,                     Shao-qin%Qiu%NULL%0,                     Jie%Luo%NULL%0,                     Chang-jiang%Ye%NULL%0,                     Shao-yong%Zhu%NULL%0,                     Lin-ling%Cheng%NULL%0,                     Feng%Ye%NULL%0,                     Shi-yue%Li%NULL%0,                     Jin-ping%Zheng%NULL%0,                     Nuo-fu%Zhang%NULL%0,                     Nan-shan%Zhong%NULL%0,                     Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                     Wenbo%He%NULL%0,                     Xiaomei%Yu%NULL%0,                     Dalong%Hu%NULL%0,                     Mingwei%Bao%NULL%0,                     Huafen%Liu%NULL%0,                     Jiali%Zhou%NULL%0,                     Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                     Wenlin%Cheng%NULL%0,                     Lei%Yu%NULL%0,                     Ya-Kun%Liu%NULL%0,                     Xiaoyong%Hu%NULL%0,                     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                     Huangqing%Ouyang%NULL%1,                     Lingli%Fu%NULL%1,                     Shijie%Wang%NULL%1,                     Jianglong%Han%NULL%1,                     Kejie%Huang%NULL%1,                     Mingfang%Jia%NULL%1,                     Qibin%Song%NULL%1,                     Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3621,7 +3735,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>858</v>
+        <v>903</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3650,7 +3764,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>860</v>
+        <v>904</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3679,7 +3793,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>862</v>
+        <v>905</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3708,7 +3822,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3737,7 +3851,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3766,7 +3880,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3795,7 +3909,7 @@
         <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -3824,7 +3938,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>869</v>
+        <v>910</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -3853,7 +3967,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>870</v>
+        <v>911</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3882,7 +3996,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>871</v>
+        <v>912</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -3911,7 +4025,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>872</v>
+        <v>913</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -3940,7 +4054,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>873</v>
+        <v>914</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -3969,7 +4083,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>874</v>
+        <v>915</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -3998,7 +4112,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>875</v>
+        <v>916</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -4027,7 +4141,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>876</v>
+        <v>917</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -4056,7 +4170,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -4085,7 +4199,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>878</v>
+        <v>919</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4114,7 +4228,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>879</v>
+        <v>920</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -4143,7 +4257,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>880</v>
+        <v>921</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -4172,7 +4286,7 @@
         <v>882</v>
       </c>
       <c r="E21" t="s">
-        <v>883</v>
+        <v>922</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -4201,7 +4315,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>885</v>
+        <v>923</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4230,7 +4344,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>886</v>
+        <v>924</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -4288,7 +4402,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>887</v>
+        <v>925</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -4317,7 +4431,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>888</v>
+        <v>926</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -4375,7 +4489,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>889</v>
+        <v>927</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -4404,7 +4518,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>890</v>
+        <v>928</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -4433,7 +4547,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>891</v>
+        <v>929</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -4462,7 +4576,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>892</v>
+        <v>930</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -4491,7 +4605,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>893</v>
+        <v>931</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -4520,7 +4634,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>894</v>
+        <v>932</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -4549,7 +4663,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>895</v>
+        <v>933</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4578,7 +4692,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>896</v>
+        <v>934</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4607,7 +4721,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>897</v>
+        <v>935</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -4636,7 +4750,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>898</v>
+        <v>936</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4665,7 +4779,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>899</v>
+        <v>937</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -4694,7 +4808,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>900</v>
+        <v>938</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -4723,7 +4837,7 @@
         <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>901</v>
+        <v>939</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4752,7 +4866,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>902</v>
+        <v>940</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6239" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7879" uniqueCount="1124">
   <si>
     <t>Doi</t>
   </si>
@@ -3378,6 +3378,555 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%0,                     Huilong%Chen%NULL%0,                     Weiming%Yan%NULL%0,                     Danlei%Yang%NULL%0,                     Guang%Chen%NULL%0,                     Ke%Ma%NULL%0,                     Dong%Xu%NULL%0,                     Haijing%Yu%NULL%0,                     Hongwu%Wang%NULL%0,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%0,                     Jia%Chen%NULL%0,                     Chen%Ding%NULL%0,                     Xiaoping%Zhang%NULL%0,                     Jiaquan%Huang%NULL%0,                     Meifang%Han%NULL%0,                     Shusheng%Li%NULL%0,                     Xiaoping%Luo%NULL%0,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                    Cao%Yi-yuan%coreGivesNoEmail%0,                    Dong%Xiang%coreGivesNoEmail%0,                    Gao%Ya-dong%coreGivesNoEmail%0,                    Yan%You-qin%coreGivesNoEmail%0,                    Yang%Yi-bin%coreGivesNoEmail%0,                    Yuan%Ya-dong%coreGivesNoEmail%0,                    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                      Bohan%Yang%NULL%0,                      Qianwen%Li%NULL%0,                      Lu%Wen%NULL%0,                      Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                      Yuan%Yu%NULL%0,                      Jiqian%Xu%NULL%0,                      Huaqing%Shu%NULL%0,                      Jia'an%Xia%NULL%0,                      Hong%Liu%NULL%0,                      Yongran%Wu%NULL%0,                      Lu%Zhang%NULL%0,                      Zhui%Yu%NULL%0,                      Minghao%Fang%NULL%0,                      Ting%Yu%NULL%0,                      Yaxin%Wang%NULL%0,                      Shangwen%Pan%NULL%0,                      Xiaojing%Zou%NULL%0,                      Shiying%Yuan%NULL%0,                      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                      Mengqi%Tu%NULL%0,                      Shipei%Wang%NULL%0,                      Sichao%Chen%NULL%0,                      Wei%Zhou%NULL%0,                      Danyang%Chen%NULL%0,                      Lin%Zhou%NULL%0,                      Min%Wang%NULL%0,                      Yan%Zhao%NULL%0,                      Wen%Zeng%NULL%0,                      Qi%Huang%NULL%0,                      Hai'bo%Xu%NULL%0,                      Zeming%Liu%NULL%0,                      Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                      Jiong%Wu%NULL%0,                      Faqi%Wu%NULL%0,                      Dajing%Guo%NULL%0,                      Linli%Chen%NULL%0,                      Zheng%Fang%NULL%0,                      Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                      Chengcheng%Yu%NULL%1,                      Jing%Qu%NULL%1,                      Lieguang%Zhang%NULL%1,                      Songfeng%Jiang%NULL%1,                      Deyang%Huang%NULL%1,                      Bihua%Chen%NULL%1,                      Zhiping%Zhang%NULL%1,                      Wanhua%Guan%NULL%1,                      Zhoukun%Ling%NULL%1,                      Rui%Jiang%NULL%1,                      Tianli%Hu%NULL%1,                      Yan%Ding%NULL%1,                      Lin%Lin%NULL%1,                      Qingxin%Gan%NULL%1,                      Liangping%Luo%tluolp@jnu.edu.cn%1,                      Xiaoping%Tang%xtang@21cn.com%1,                      Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                      Qiqi%Cao%NULL%2,                      Le%Qin%NULL%2,                      Xiaoyang%Wang%NULL%2,                      Zenghui%Cheng%NULL%2,                      Ashan%Pan%NULL%2,                      Jianyi%Dai%NULL%2,                      Qingfeng%Sun%NULL%2,                      Fengquan%Zhao%NULL%2,                      Jieming%Qu%NULL%0,                      Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                      Qiqi%Cao%NULL%0,                      Le%Qin%NULL%0,                      Xiaoyang%Wang%NULL%0,                      Zenghui%Cheng%NULL%0,                      Ashan%Pan%NULL%0,                      Jianyi%Dai%NULL%0,                      Qingfeng%Sun%NULL%0,                      Fengquan%Zhao%NULL%0,                      Jieming%Qu%NULL%0,                      Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                      Fang%Jiang%NULL%0,                      Wating%Su%NULL%0,                      Chang%Chen%NULL%0,                      Jingli%Chen%NULL%0,                      Wei%Mei%NULL%0,                      Li-Ying%Zhan%NULL%0,                      Yifan%Jia%NULL%0,                      Liangqing%Zhang%NULL%0,                      Danyong%Liu%NULL%0,                      Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                      Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                      Yun%Ling%NULL%0,                      Yun%Ling%NULL%0,                      Tao%Bai%NULL%0,                      Tao%Bai%NULL%0,                      Yusang%Xie%NULL%1,                      Jie%Huang%NULL%2,                      Jie%Huang%NULL%0,                      Jian%Li%NULL%1,                      Weining%Xiong%NULL%1,                      Dexiang%Yang%NULL%1,                      Rong%Chen%NULL%1,                      Fangying%Lu%NULL%1,                      Yunfei%Lu%NULL%2,                      Xuhui%Liu%NULL%1,                      Yuqing%Chen%NULL%2,                      Yuqing%Chen%NULL%0,                      Xin%Li%NULL%0,                      Yong%Li%NULL%1,                      Hanssa Dwarka%Summah%NULL%1,                      Huihuang%Lin%NULL%1,                      Jiayang%Yan%NULL%1,                      Min%Zhou%NULL%0,                      Hongzhou%Lu%NULL%0,                      Hongzhou%Lu%NULL%0,                      Jieming%Qu%NULL%0,                      Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                      Wen%Yin%NULL%0,                      Wen%Yin%NULL%0,                      Zhaowu%Tao%NULL%1,                      Weijun%Tan%NULL%1,                      Yi%Hu%NULL%0,                      Oliver%Schildgen%NULL%2,                      Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                      Yuanyuan%Xing%NULL%0,                      Yu%Xiao%NULL%0,                      Liping%Deng%NULL%0,                      Qiu%Zhao%NULL%0,                      Hongling%Wang%NULL%0,                      Yong%Xiong%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Shicheng%Gao%NULL%0,                      Ke%Liang%NULL%0,                      Mingqi%Luo%NULL%0,                      Tielong%Chen%NULL%0,                      Shihui%Song%NULL%0,                      Zhiyong%Ma%NULL%0,                      Xiaoping%Chen%NULL%0,                      Ruiying%Zheng%NULL%0,                      Qian%Cao%NULL%0,                      Fan%Wang%fanndywang@foxmail.com%0,                      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                      Xun%Li%NULL%1,                      Hui%Chen%NULL%0,                      Shaonan%Yan%NULL%1,                      Dong%Li%NULL%1,                      Yan%Li%NULL%1,                      Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                      Chang%Hu%NULL%0,                      Linjie%Luo%NULL%0,                      Fang%Fang%NULL%0,                      Yongfeng%Chen%NULL%0,                      Jianguo%Li%NULL%0,                      Zhiyong%Peng%NULL%0,                      Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                      Yongzhen%Fan%NULL%0,                      Ming%Chen%NULL%0,                      Xiaoyan%Wu%NULL%0,                      Lin%Zhang%NULL%0,                      Tao%He%NULL%0,                      Hairong%Wang%NULL%0,                      Jing%Wan%NULL%0,                      Xinghuan%Wang%NULL%0,                      Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                    Becker%L.B.%coreGivesNoEmail%0,                    Chelico%J.D.%coreGivesNoEmail%0,                    Cohen%S.L.%coreGivesNoEmail%0,                    Cookingham%J.%coreGivesNoEmail%0,                    Coppa%K.%coreGivesNoEmail%0,                    Crawford%J.M.%coreGivesNoEmail%0,                    Davidson%K.W.%coreGivesNoEmail%0,                    Diefenbach%M.A.%coreGivesNoEmail%0,                    Dominello%A.J.%coreGivesNoEmail%0,                    Duer-Hefele%J.%coreGivesNoEmail%0,                    Falzon%L.%coreGivesNoEmail%0,                    Gitlin%J.%coreGivesNoEmail%0,                    Hajizadeh%N.%coreGivesNoEmail%0,                    Harvin%T.G.%coreGivesNoEmail%0,                    Hirsch%J.S.%coreGivesNoEmail%0,                    Hirschwerk%D.A.%coreGivesNoEmail%0,                    Kim%E.J.%coreGivesNoEmail%0,                    Kozel%Z.M.%coreGivesNoEmail%0,                    Marrast%L.M.%coreGivesNoEmail%0,                    McGinn%T.%coreGivesNoEmail%0,                    Mogavero%J.N.%coreGivesNoEmail%0,                    Narasimhan%M.%coreGivesNoEmail%0,                    Osorio%G.A.%coreGivesNoEmail%0,                    Qiu%M.%coreGivesNoEmail%0,                    Richardson%S.%coreGivesNoEmail%0,                    Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0,                      Nancy%Chow%NULL%0,                      Katherine%Fleming-Dutra%NULL%1,                      Ryan%Gierke%NULL%0,                      Aron%Hall%NULL%0,                      Michelle%Hughes%NULL%1,                      Tamara%Pilishvili%NULL%0,                      Matthew%Ritchey%NULL%0,                      Katherine%Roguski%NULL%1,                      Tami%Skoff%NULL%1,                      Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nitesh%Gupta%xref no email%0, Sumita%Agrawal%xref no email%1, Pranav%Ish%xref no email%1, Suruchi%Mishra%xref no email%1, Rajni%Gaind%xref no email%1, Ganapathy%Usha%xref no email%1, Balvinder%Singh%xref no email%1, Manas Kamal%Sen%xref no email%1, *Safdarjung Hospital%COVID 2019 working group%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: PAGEPress Publications</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                    Cabrini%Luca%coreGivesNoEmail%0,                    Castelli%Antonio%coreGivesNoEmail%0,                    Cecconi%Maurizio%coreGivesNoEmail%0,                    Cereda%Danilo%coreGivesNoEmail%0,                    Coluccello%Antonio%coreGivesNoEmail%0,                    Foti%Giuseppe%coreGivesNoEmail%0,                    Fumagalli%Roberto%coreGivesNoEmail%0,                    Grasselli%Giacomo%coreGivesNoEmail%0,                    Iotti%Giorgio%coreGivesNoEmail%0,                    Latronico%Nicola%coreGivesNoEmail%0,                    Lorini%Luca%coreGivesNoEmail%0,                    Merler%Stefano%coreGivesNoEmail%0,                    Natalini%Giuseppe%coreGivesNoEmail%0,                    Pesenti%Antonio%coreGivesNoEmail%0,                    Piatti%Alessandra%coreGivesNoEmail%0,                    Ranieri%Marco Vito%coreGivesNoEmail%0,                    Scandroglio%Anna Mara%coreGivesNoEmail%0,                    Storti%Enrico%coreGivesNoEmail%0,                    Zanella%Alberto%coreGivesNoEmail%0,                    Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                      Lei%Tu%NULL%0,                      Lei%Tu%NULL%0,                      Pingjun%Zhu%NULL%0,                      Pingjun%Zhu%NULL%0,                      Mi%Mu%NULL%0,                      Mi%Mu%NULL%0,                      Runsheng%Wang%NULL%0,                      Pengcheng%Yang%NULL%0,                      Xi%Wang%NULL%0,                      Chao%Hu%NULL%0,                      Rongyu%Ping%NULL%0,                      Peng%Hu%NULL%0,                      Tianzhi%Li%NULL%0,                      Feng%Cao%NULL%0,                      Christopher%Chang%NULL%0,                      Qinyong%Hu%NULL%0,                      Yang%Jin%NULL%0,                      Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                      Min%Zhou%NULL%0,                      Xuan%Dong%NULL%0,                      Jieming%Qu%NULL%0,                      Fengyun%Gong%NULL%0,                      Yang%Han%NULL%0,                      Yang%Qiu%NULL%0,                      Jingli%Wang%NULL%0,                      Ying%Liu%NULL%0,                      Yuan%Wei%NULL%0,                      Jia'an%Xia%NULL%0,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%0,                      Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                    Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                      Yeming%Wang%NULL%0,                      Xingwang%Li%NULL%0,                      Lili%Ren%NULL%0,                      Jianping%Zhao%NULL%0,                      Yi%Hu%NULL%0,                      Li%Zhang%NULL%0,                      Guohui%Fan%NULL%0,                      Jiuyang%Xu%NULL%0,                      Xiaoying%Gu%NULL%0,                      Zhenshun%Cheng%NULL%0,                      Ting%Yu%NULL%0,                      Jiaan%Xia%NULL%0,                      Yuan%Wei%NULL%0,                      Wenjuan%Wu%NULL%0,                      Xuelei%Xie%NULL%0,                      Wen%Yin%NULL%0,                      Hui%Li%NULL%0,                      Min%Liu%NULL%0,                      Yan%Xiao%NULL%0,                      Hong%Gao%NULL%0,                      Li%Guo%NULL%0,                      Jungang%Xie%NULL%0,                      Guangfa%Wang%NULL%0,                      Rongmeng%Jiang%NULL%0,                      Zhancheng%Gao%NULL%0,                      Qi%Jin%NULL%0,                      Jianwei%Wang%wangjw28@163.com%0,                      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                      Yuan-Yuan%Fang%NULL%0,                      Yan%Deng%NULL%0,                      Wei%Liu%NULL%0,                      Mei-Fang%Wang%NULL%1,                      Jing-Ping%Ma%NULL%1,                      Wei%Xiao%NULL%1,                      Ying-Nan%Wang%NULL%1,                      Min-Hua%Zhong%NULL%1,                      Cheng-Hong%Li%NULL%1,                      Guang-Cai%Li%NULL%1,                      Hui-Guo%Liu%NULL%0,                      Xiu-Yuan%Hao%NULL%2,                      Xiu-Yuan%Hao%NULL%0,                      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                      Yang%Yang%NULL%0,                      Cong%Zhang%NULL%0,                      Fengming%Huang%NULL%0,                      Fuxiang%Wang%NULL%0,                      Jing%Yuan%NULL%0,                      Zhaoqin%Wang%NULL%0,                      Jinxiu%Li%NULL%0,                      Jianming%Li%NULL%0,                      Cheng%Feng%NULL%0,                      Zheng%Zhang%NULL%0,                      Lifei%Wang%NULL%0,                      Ling%Peng%NULL%0,                      Li%Chen%NULL%0,                      Yuhao%Qin%NULL%0,                      Dandan%Zhao%NULL%0,                      Shuguang%Tan%NULL%0,                      Lu%Yin%NULL%0,                      Jun%Xu%NULL%0,                      Congzhao%Zhou%NULL%0,                      Chengyu%Jiang%jiang@pumc.edu.cn%0,                      Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Wen-hua%Liang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Jian-xing%He%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      David S.C.%Hui%NULL%0,                      Bin%Du%NULL%0,                      Lan-juan%Li%NULL%0,                      Guang%Zeng%NULL%0,                      Kwok-Yung%Yuen%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Ping-yan%Chen%NULL%0,                      Jie%Xiang%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-lin%Wang%NULL%0,                      Zi-jing%Liang%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                      Li-Min%Liu%NULL%0,                      Wen%Yin%NULL%0,                      Wen%Wang%NULL%0,                      Lu-Lu%Guan%NULL%0,                      Ming-Li%Yuan%NULL%0,                      Yu-Lei%Li%NULL%0,                      Yi%Hu%NULL%0,                      Xu-Yan%Li%NULL%0,                      Bing%Sun%NULL%0,                      Peng%Peng%NULL%0,                      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                      Wen-hua%Liang%NULL%0,                      Yi%Zhao%NULL%0,                      Heng-rui%Liang%NULL%0,                      Zi-sheng%Chen%NULL%0,                      Yi-min%Li%NULL%0,                      Xiao-qing%Liu%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Chun-quan%Ou%NULL%0,                      Li%Li%NULL%0,                      Ping-yan%Chen%NULL%0,                      Ling%Sang%NULL%0,                      Wei%Wang%NULL%0,                      Jian-fu%Li%NULL%0,                      Cai-chen%Li%NULL%0,                      Li-min%Ou%NULL%0,                      Bo%Cheng%NULL%0,                      Shan%Xiong%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Jie%Xiang%NULL%0,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Lin-ling%Cheng%NULL%0,                      Feng%Ye%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-ping%Zheng%NULL%0,                      Nuo-fu%Zhang%NULL%0,                      Nan-shan%Zhong%NULL%0,                      Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                      Xiao-Xin%Wu%NULL%0,                      Xian-Gao%Jiang%NULL%0,                      Kai-Jin%Xu%NULL%0,                      Ling-Jun%Ying%NULL%0,                      Chun-Lian%Ma%NULL%0,                      Shi-Bo%Li%NULL%0,                      Hua-Ying%Wang%NULL%0,                      Sheng%Zhang%NULL%0,                      Hai-Nv%Gao%NULL%0,                      Ji-Fang%Sheng%NULL%0,                      Hong-Liu%Cai%NULL%0,                      Yun-Qing%Qiu%NULL%0,                      Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                      Zhe%Dai%NULL%1,                      Pingzheng%Mo%NULL%1,                      Xinyu%Li%NULL%1,                      Zhiyong%Ma%NULL%0,                      Shihui%Song%NULL%0,                      Xiaoping%Chen%NULL%0,                      Mingqi%Luo%NULL%0,                      Ke%Liang%NULL%0,                      Shicheng%Gao%NULL%0,                      Yongxi%Zhang%NULL%0,                      Liping%Deng%dengdeng78@126.com%0,                      Yong%Xiong%NULL%0,                      Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                      Wei-jie%Guan%NULL%0,                      Cai-chen%Li%NULL%0,                      Yi-min%Li%NULL%0,                      Heng-rui%Liang%NULL%0,                      Yi%Zhao%NULL%0,                      Xiao-qing%Liu%NULL%0,                      Ling%Sang%NULL%0,                      Ru-chong%Chen%NULL%0,                      Chun-li%Tang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Wang%NULL%0,                      Qi-hua%He%NULL%0,                      Zi-sheng%Chen%NULL%0,                      Sook-San%Wong%NULL%0,                      Mark%Zanin%NULL%0,                      Jun%Liu%NULL%0,                      Xin%Xu%NULL%0,                      Jun%Huang%NULL%0,                      Jian-fu%Li%NULL%0,                      Li-min%Ou%NULL%0,                      Bo%Cheng%NULL%0,                      Shan%Xiong%NULL%0,                      Zhan-hong%Xie%NULL%0,                      Zheng-yi%Ni%NULL%0,                      Yu%Hu%NULL%0,                      Lei%Liu%NULL%0,                      Hong%Shan%NULL%0,                      Chun-liang%Lei%NULL%0,                      Yi-xiang%Peng%NULL%0,                      Li%Wei%NULL%0,                      Yong%Liu%NULL%0,                      Ya-hua%Hu%NULL%0,                      Peng%Peng%NULL%0,                      Jian-ming%Wang%NULL%0,                      Ji-yang%Liu%NULL%0,                      Zhong%Chen%NULL%0,                      Gang%Li%NULL%0,                      Zhi-jian%Zheng%NULL%0,                      Shao-qin%Qiu%NULL%0,                      Jie%Luo%NULL%0,                      Chang-jiang%Ye%NULL%0,                      Shao-yong%Zhu%NULL%0,                      Lin-ling%Cheng%NULL%0,                      Feng%Ye%NULL%0,                      Shi-yue%Li%NULL%0,                      Jin-ping%Zheng%NULL%0,                      Nuo-fu%Zhang%NULL%0,                      Nan-shan%Zhong%NULL%0,                      Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                      Wenbo%He%NULL%0,                      Xiaomei%Yu%NULL%0,                      Dalong%Hu%NULL%0,                      Mingwei%Bao%NULL%0,                      Huafen%Liu%NULL%0,                      Jiali%Zhou%NULL%0,                      Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                      Wenlin%Cheng%NULL%0,                      Lei%Yu%NULL%0,                      Ya-Kun%Liu%NULL%0,                      Xiaoyong%Hu%NULL%0,                      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                      Huangqing%Ouyang%NULL%1,                      Lingli%Fu%NULL%1,                      Shijie%Wang%NULL%1,                      Jianglong%Han%NULL%1,                      Kejie%Huang%NULL%1,                      Mingfang%Jia%NULL%1,                      Qibin%Song%NULL%1,                      Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%0,                      Huilong%Chen%NULL%0,                      Weiming%Yan%NULL%0,                      Danlei%Yang%NULL%0,                      Guang%Chen%NULL%0,                      Ke%Ma%NULL%0,                      Dong%Xu%NULL%0,                      Haijing%Yu%NULL%0,                      Hongwu%Wang%NULL%0,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%0,                      Jia%Chen%NULL%0,                      Chen%Ding%NULL%0,                      Xiaoping%Zhang%NULL%0,                      Jiaquan%Huang%NULL%0,                      Meifang%Han%NULL%0,                      Shusheng%Li%NULL%0,                      Xiaoping%Luo%NULL%0,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                     Cao%Yi-yuan%coreGivesNoEmail%0,                     Dong%Xiang%coreGivesNoEmail%0,                     Gao%Ya-dong%coreGivesNoEmail%0,                     Yan%You-qin%coreGivesNoEmail%0,                     Yang%Yi-bin%coreGivesNoEmail%0,                     Yuan%Ya-dong%coreGivesNoEmail%0,                     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                       Bohan%Yang%NULL%0,                       Qianwen%Li%NULL%0,                       Lu%Wen%NULL%0,                       Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                       Yuan%Yu%NULL%0,                       Jiqian%Xu%NULL%0,                       Huaqing%Shu%NULL%0,                       Jia'an%Xia%NULL%0,                       Hong%Liu%NULL%0,                       Yongran%Wu%NULL%0,                       Lu%Zhang%NULL%0,                       Zhui%Yu%NULL%0,                       Minghao%Fang%NULL%0,                       Ting%Yu%NULL%0,                       Yaxin%Wang%NULL%0,                       Shangwen%Pan%NULL%0,                       Xiaojing%Zou%NULL%0,                       Shiying%Yuan%NULL%0,                       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                       Mengqi%Tu%NULL%0,                       Shipei%Wang%NULL%0,                       Sichao%Chen%NULL%0,                       Wei%Zhou%NULL%0,                       Danyang%Chen%NULL%0,                       Lin%Zhou%NULL%0,                       Min%Wang%NULL%0,                       Yan%Zhao%NULL%0,                       Wen%Zeng%NULL%0,                       Qi%Huang%NULL%0,                       Hai'bo%Xu%NULL%0,                       Zeming%Liu%NULL%0,                       Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                       Jiong%Wu%NULL%0,                       Faqi%Wu%NULL%0,                       Dajing%Guo%NULL%0,                       Linli%Chen%NULL%0,                       Zheng%Fang%NULL%0,                       Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                       Chengcheng%Yu%NULL%1,                       Jing%Qu%NULL%1,                       Lieguang%Zhang%NULL%1,                       Songfeng%Jiang%NULL%1,                       Deyang%Huang%NULL%1,                       Bihua%Chen%NULL%1,                       Zhiping%Zhang%NULL%1,                       Wanhua%Guan%NULL%1,                       Zhoukun%Ling%NULL%1,                       Rui%Jiang%NULL%1,                       Tianli%Hu%NULL%1,                       Yan%Ding%NULL%1,                       Lin%Lin%NULL%1,                       Qingxin%Gan%NULL%1,                       Liangping%Luo%tluolp@jnu.edu.cn%1,                       Xiaoping%Tang%xtang@21cn.com%1,                       Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                       Qiqi%Cao%NULL%2,                       Le%Qin%NULL%2,                       Xiaoyang%Wang%NULL%2,                       Zenghui%Cheng%NULL%2,                       Ashan%Pan%NULL%2,                       Jianyi%Dai%NULL%2,                       Qingfeng%Sun%NULL%2,                       Fengquan%Zhao%NULL%2,                       Jieming%Qu%NULL%0,                       Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                       Qiqi%Cao%NULL%0,                       Le%Qin%NULL%0,                       Xiaoyang%Wang%NULL%0,                       Zenghui%Cheng%NULL%0,                       Ashan%Pan%NULL%0,                       Jianyi%Dai%NULL%0,                       Qingfeng%Sun%NULL%0,                       Fengquan%Zhao%NULL%0,                       Jieming%Qu%NULL%0,                       Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                       Fang%Jiang%NULL%0,                       Wating%Su%NULL%0,                       Chang%Chen%NULL%0,                       Jingli%Chen%NULL%0,                       Wei%Mei%NULL%0,                       Li-Ying%Zhan%NULL%0,                       Yifan%Jia%NULL%0,                       Liangqing%Zhang%NULL%0,                       Danyong%Liu%NULL%0,                       Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                       Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                       Yun%Ling%NULL%0,                       Yun%Ling%NULL%0,                       Tao%Bai%NULL%0,                       Tao%Bai%NULL%0,                       Yusang%Xie%NULL%1,                       Jie%Huang%NULL%2,                       Jie%Huang%NULL%0,                       Jian%Li%NULL%1,                       Weining%Xiong%NULL%1,                       Dexiang%Yang%NULL%1,                       Rong%Chen%NULL%1,                       Fangying%Lu%NULL%1,                       Yunfei%Lu%NULL%2,                       Xuhui%Liu%NULL%1,                       Yuqing%Chen%NULL%2,                       Yuqing%Chen%NULL%0,                       Xin%Li%NULL%0,                       Yong%Li%NULL%1,                       Hanssa Dwarka%Summah%NULL%1,                       Huihuang%Lin%NULL%1,                       Jiayang%Yan%NULL%1,                       Min%Zhou%NULL%0,                       Hongzhou%Lu%NULL%0,                       Hongzhou%Lu%NULL%0,                       Jieming%Qu%NULL%0,                       Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                       Wen%Yin%NULL%0,                       Wen%Yin%NULL%0,                       Zhaowu%Tao%NULL%1,                       Weijun%Tan%NULL%1,                       Yi%Hu%NULL%0,                       Oliver%Schildgen%NULL%2,                       Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                       Yuanyuan%Xing%NULL%0,                       Yu%Xiao%NULL%0,                       Liping%Deng%NULL%0,                       Qiu%Zhao%NULL%0,                       Hongling%Wang%NULL%0,                       Yong%Xiong%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Shicheng%Gao%NULL%0,                       Ke%Liang%NULL%0,                       Mingqi%Luo%NULL%0,                       Tielong%Chen%NULL%0,                       Shihui%Song%NULL%0,                       Zhiyong%Ma%NULL%0,                       Xiaoping%Chen%NULL%0,                       Ruiying%Zheng%NULL%0,                       Qian%Cao%NULL%0,                       Fan%Wang%fanndywang@foxmail.com%0,                       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                       Xun%Li%NULL%1,                       Hui%Chen%NULL%0,                       Shaonan%Yan%NULL%1,                       Dong%Li%NULL%1,                       Yan%Li%NULL%1,                       Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                       Chang%Hu%NULL%0,                       Linjie%Luo%NULL%0,                       Fang%Fang%NULL%0,                       Yongfeng%Chen%NULL%0,                       Jianguo%Li%NULL%0,                       Zhiyong%Peng%NULL%0,                       Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                       Yongzhen%Fan%NULL%0,                       Ming%Chen%NULL%0,                       Xiaoyan%Wu%NULL%0,                       Lin%Zhang%NULL%0,                       Tao%He%NULL%0,                       Hairong%Wang%NULL%0,                       Jing%Wan%NULL%0,                       Xinghuan%Wang%NULL%0,                       Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                     Becker%L.B.%coreGivesNoEmail%0,                     Chelico%J.D.%coreGivesNoEmail%0,                     Cohen%S.L.%coreGivesNoEmail%0,                     Cookingham%J.%coreGivesNoEmail%0,                     Coppa%K.%coreGivesNoEmail%0,                     Crawford%J.M.%coreGivesNoEmail%0,                     Davidson%K.W.%coreGivesNoEmail%0,                     Diefenbach%M.A.%coreGivesNoEmail%0,                     Dominello%A.J.%coreGivesNoEmail%0,                     Duer-Hefele%J.%coreGivesNoEmail%0,                     Falzon%L.%coreGivesNoEmail%0,                     Gitlin%J.%coreGivesNoEmail%0,                     Hajizadeh%N.%coreGivesNoEmail%0,                     Harvin%T.G.%coreGivesNoEmail%0,                     Hirsch%J.S.%coreGivesNoEmail%0,                     Hirschwerk%D.A.%coreGivesNoEmail%0,                     Kim%E.J.%coreGivesNoEmail%0,                     Kozel%Z.M.%coreGivesNoEmail%0,                     Marrast%L.M.%coreGivesNoEmail%0,                     McGinn%T.%coreGivesNoEmail%0,                     Mogavero%J.N.%coreGivesNoEmail%0,                     Narasimhan%M.%coreGivesNoEmail%0,                     Osorio%G.A.%coreGivesNoEmail%0,                     Qiu%M.%coreGivesNoEmail%0,                     Richardson%S.%coreGivesNoEmail%0,                     Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0,                       Nancy%Chow%NULL%0,                       Katherine%Fleming-Dutra%NULL%1,                       Ryan%Gierke%NULL%0,                       Aron%Hall%NULL%0,                       Michelle%Hughes%NULL%1,                       Tamara%Pilishvili%NULL%0,                       Matthew%Ritchey%NULL%0,                       Katherine%Roguski%NULL%1,                       Tami%Skoff%NULL%1,                       Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                     Cabrini%Luca%coreGivesNoEmail%0,                     Castelli%Antonio%coreGivesNoEmail%0,                     Cecconi%Maurizio%coreGivesNoEmail%0,                     Cereda%Danilo%coreGivesNoEmail%0,                     Coluccello%Antonio%coreGivesNoEmail%0,                     Foti%Giuseppe%coreGivesNoEmail%0,                     Fumagalli%Roberto%coreGivesNoEmail%0,                     Grasselli%Giacomo%coreGivesNoEmail%0,                     Iotti%Giorgio%coreGivesNoEmail%0,                     Latronico%Nicola%coreGivesNoEmail%0,                     Lorini%Luca%coreGivesNoEmail%0,                     Merler%Stefano%coreGivesNoEmail%0,                     Natalini%Giuseppe%coreGivesNoEmail%0,                     Pesenti%Antonio%coreGivesNoEmail%0,                     Piatti%Alessandra%coreGivesNoEmail%0,                     Ranieri%Marco Vito%coreGivesNoEmail%0,                     Scandroglio%Anna Mara%coreGivesNoEmail%0,                     Storti%Enrico%coreGivesNoEmail%0,                     Zanella%Alberto%coreGivesNoEmail%0,                     Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                       Lei%Tu%NULL%0,                       Lei%Tu%NULL%0,                       Pingjun%Zhu%NULL%0,                       Pingjun%Zhu%NULL%0,                       Mi%Mu%NULL%0,                       Mi%Mu%NULL%0,                       Runsheng%Wang%NULL%0,                       Pengcheng%Yang%NULL%0,                       Xi%Wang%NULL%0,                       Chao%Hu%NULL%0,                       Rongyu%Ping%NULL%0,                       Peng%Hu%NULL%0,                       Tianzhi%Li%NULL%0,                       Feng%Cao%NULL%0,                       Christopher%Chang%NULL%0,                       Qinyong%Hu%NULL%0,                       Yang%Jin%NULL%0,                       Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                       Min%Zhou%NULL%0,                       Xuan%Dong%NULL%0,                       Jieming%Qu%NULL%0,                       Fengyun%Gong%NULL%0,                       Yang%Han%NULL%0,                       Yang%Qiu%NULL%0,                       Jingli%Wang%NULL%0,                       Ying%Liu%NULL%0,                       Yuan%Wei%NULL%0,                       Jia'an%Xia%NULL%0,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%0,                       Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                     Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                       Yeming%Wang%NULL%0,                       Xingwang%Li%NULL%0,                       Lili%Ren%NULL%0,                       Jianping%Zhao%NULL%0,                       Yi%Hu%NULL%0,                       Li%Zhang%NULL%0,                       Guohui%Fan%NULL%0,                       Jiuyang%Xu%NULL%0,                       Xiaoying%Gu%NULL%0,                       Zhenshun%Cheng%NULL%0,                       Ting%Yu%NULL%0,                       Jiaan%Xia%NULL%0,                       Yuan%Wei%NULL%0,                       Wenjuan%Wu%NULL%0,                       Xuelei%Xie%NULL%0,                       Wen%Yin%NULL%0,                       Hui%Li%NULL%0,                       Min%Liu%NULL%0,                       Yan%Xiao%NULL%0,                       Hong%Gao%NULL%0,                       Li%Guo%NULL%0,                       Jungang%Xie%NULL%0,                       Guangfa%Wang%NULL%0,                       Rongmeng%Jiang%NULL%0,                       Zhancheng%Gao%NULL%0,                       Qi%Jin%NULL%0,                       Jianwei%Wang%wangjw28@163.com%0,                       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                       Yuan-Yuan%Fang%NULL%0,                       Yan%Deng%NULL%0,                       Wei%Liu%NULL%0,                       Mei-Fang%Wang%NULL%1,                       Jing-Ping%Ma%NULL%1,                       Wei%Xiao%NULL%1,                       Ying-Nan%Wang%NULL%1,                       Min-Hua%Zhong%NULL%1,                       Cheng-Hong%Li%NULL%1,                       Guang-Cai%Li%NULL%1,                       Hui-Guo%Liu%NULL%0,                       Xiu-Yuan%Hao%NULL%2,                       Xiu-Yuan%Hao%NULL%0,                       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                       Yang%Yang%NULL%0,                       Cong%Zhang%NULL%0,                       Fengming%Huang%NULL%0,                       Fuxiang%Wang%NULL%0,                       Jing%Yuan%NULL%0,                       Zhaoqin%Wang%NULL%0,                       Jinxiu%Li%NULL%0,                       Jianming%Li%NULL%0,                       Cheng%Feng%NULL%0,                       Zheng%Zhang%NULL%0,                       Lifei%Wang%NULL%0,                       Ling%Peng%NULL%0,                       Li%Chen%NULL%0,                       Yuhao%Qin%NULL%0,                       Dandan%Zhao%NULL%0,                       Shuguang%Tan%NULL%0,                       Lu%Yin%NULL%0,                       Jun%Xu%NULL%0,                       Congzhao%Zhou%NULL%0,                       Chengyu%Jiang%jiang@pumc.edu.cn%0,                       Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Wen-hua%Liang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Jian-xing%He%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       David S.C.%Hui%NULL%0,                       Bin%Du%NULL%0,                       Lan-juan%Li%NULL%0,                       Guang%Zeng%NULL%0,                       Kwok-Yung%Yuen%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Ping-yan%Chen%NULL%0,                       Jie%Xiang%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-lin%Wang%NULL%0,                       Zi-jing%Liang%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                       Li-Min%Liu%NULL%0,                       Wen%Yin%NULL%0,                       Wen%Wang%NULL%0,                       Lu-Lu%Guan%NULL%0,                       Ming-Li%Yuan%NULL%0,                       Yu-Lei%Li%NULL%0,                       Yi%Hu%NULL%0,                       Xu-Yan%Li%NULL%0,                       Bing%Sun%NULL%0,                       Peng%Peng%NULL%0,                       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                       Wen-hua%Liang%NULL%0,                       Yi%Zhao%NULL%0,                       Heng-rui%Liang%NULL%0,                       Zi-sheng%Chen%NULL%0,                       Yi-min%Li%NULL%0,                       Xiao-qing%Liu%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Chun-quan%Ou%NULL%0,                       Li%Li%NULL%0,                       Ping-yan%Chen%NULL%0,                       Ling%Sang%NULL%0,                       Wei%Wang%NULL%0,                       Jian-fu%Li%NULL%0,                       Cai-chen%Li%NULL%0,                       Li-min%Ou%NULL%0,                       Bo%Cheng%NULL%0,                       Shan%Xiong%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Jie%Xiang%NULL%0,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Lin-ling%Cheng%NULL%0,                       Feng%Ye%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-ping%Zheng%NULL%0,                       Nuo-fu%Zhang%NULL%0,                       Nan-shan%Zhong%NULL%0,                       Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                       Xiao-Xin%Wu%NULL%0,                       Xian-Gao%Jiang%NULL%0,                       Kai-Jin%Xu%NULL%0,                       Ling-Jun%Ying%NULL%0,                       Chun-Lian%Ma%NULL%0,                       Shi-Bo%Li%NULL%0,                       Hua-Ying%Wang%NULL%0,                       Sheng%Zhang%NULL%0,                       Hai-Nv%Gao%NULL%0,                       Ji-Fang%Sheng%NULL%0,                       Hong-Liu%Cai%NULL%0,                       Yun-Qing%Qiu%NULL%0,                       Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                       Zhe%Dai%NULL%1,                       Pingzheng%Mo%NULL%1,                       Xinyu%Li%NULL%1,                       Zhiyong%Ma%NULL%0,                       Shihui%Song%NULL%0,                       Xiaoping%Chen%NULL%0,                       Mingqi%Luo%NULL%0,                       Ke%Liang%NULL%0,                       Shicheng%Gao%NULL%0,                       Yongxi%Zhang%NULL%0,                       Liping%Deng%dengdeng78@126.com%0,                       Yong%Xiong%NULL%0,                       Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                       Wei-jie%Guan%NULL%0,                       Cai-chen%Li%NULL%0,                       Yi-min%Li%NULL%0,                       Heng-rui%Liang%NULL%0,                       Yi%Zhao%NULL%0,                       Xiao-qing%Liu%NULL%0,                       Ling%Sang%NULL%0,                       Ru-chong%Chen%NULL%0,                       Chun-li%Tang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Wang%NULL%0,                       Qi-hua%He%NULL%0,                       Zi-sheng%Chen%NULL%0,                       Sook-San%Wong%NULL%0,                       Mark%Zanin%NULL%0,                       Jun%Liu%NULL%0,                       Xin%Xu%NULL%0,                       Jun%Huang%NULL%0,                       Jian-fu%Li%NULL%0,                       Li-min%Ou%NULL%0,                       Bo%Cheng%NULL%0,                       Shan%Xiong%NULL%0,                       Zhan-hong%Xie%NULL%0,                       Zheng-yi%Ni%NULL%0,                       Yu%Hu%NULL%0,                       Lei%Liu%NULL%0,                       Hong%Shan%NULL%0,                       Chun-liang%Lei%NULL%0,                       Yi-xiang%Peng%NULL%0,                       Li%Wei%NULL%0,                       Yong%Liu%NULL%0,                       Ya-hua%Hu%NULL%0,                       Peng%Peng%NULL%0,                       Jian-ming%Wang%NULL%0,                       Ji-yang%Liu%NULL%0,                       Zhong%Chen%NULL%0,                       Gang%Li%NULL%0,                       Zhi-jian%Zheng%NULL%0,                       Shao-qin%Qiu%NULL%0,                       Jie%Luo%NULL%0,                       Chang-jiang%Ye%NULL%0,                       Shao-yong%Zhu%NULL%0,                       Lin-ling%Cheng%NULL%0,                       Feng%Ye%NULL%0,                       Shi-yue%Li%NULL%0,                       Jin-ping%Zheng%NULL%0,                       Nuo-fu%Zhang%NULL%0,                       Nan-shan%Zhong%NULL%0,                       Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                       Wenbo%He%NULL%0,                       Xiaomei%Yu%NULL%0,                       Dalong%Hu%NULL%0,                       Mingwei%Bao%NULL%0,                       Huafen%Liu%NULL%0,                       Jiali%Zhou%NULL%0,                       Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                       Wenlin%Cheng%NULL%0,                       Lei%Yu%NULL%0,                       Ya-Kun%Liu%NULL%0,                       Xiaoyong%Hu%NULL%0,                       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                       Huangqing%Ouyang%NULL%1,                       Lingli%Fu%NULL%1,                       Shijie%Wang%NULL%1,                       Jianglong%Han%NULL%1,                       Kejie%Huang%NULL%1,                       Mingfang%Jia%NULL%1,                       Qibin%Song%NULL%1,                       Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%0,                       Huilong%Chen%NULL%0,                       Weiming%Yan%NULL%0,                       Danlei%Yang%NULL%0,                       Guang%Chen%NULL%0,                       Ke%Ma%NULL%0,                       Dong%Xu%NULL%0,                       Haijing%Yu%NULL%0,                       Hongwu%Wang%NULL%0,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%0,                       Jia%Chen%NULL%0,                       Chen%Ding%NULL%0,                       Xiaoping%Zhang%NULL%0,                       Jiaquan%Huang%NULL%0,                       Meifang%Han%NULL%0,                       Shusheng%Li%NULL%0,                       Xiaoping%Luo%NULL%0,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                      Cao%Yi-yuan%coreGivesNoEmail%0,                      Dong%Xiang%coreGivesNoEmail%0,                      Gao%Ya-dong%coreGivesNoEmail%0,                      Yan%You-qin%coreGivesNoEmail%0,                      Yang%Yi-bin%coreGivesNoEmail%0,                      Yuan%Ya-dong%coreGivesNoEmail%0,                      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                        Bohan%Yang%NULL%0,                        Qianwen%Li%NULL%0,                        Lu%Wen%NULL%0,                        Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                        Yuan%Yu%NULL%0,                        Jiqian%Xu%NULL%0,                        Huaqing%Shu%NULL%0,                        Jia'an%Xia%NULL%0,                        Hong%Liu%NULL%0,                        Yongran%Wu%NULL%0,                        Lu%Zhang%NULL%0,                        Zhui%Yu%NULL%0,                        Minghao%Fang%NULL%0,                        Ting%Yu%NULL%0,                        Yaxin%Wang%NULL%0,                        Shangwen%Pan%NULL%0,                        Xiaojing%Zou%NULL%0,                        Shiying%Yuan%NULL%0,                        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                        Mengqi%Tu%NULL%0,                        Shipei%Wang%NULL%0,                        Sichao%Chen%NULL%0,                        Wei%Zhou%NULL%0,                        Danyang%Chen%NULL%0,                        Lin%Zhou%NULL%0,                        Min%Wang%NULL%0,                        Yan%Zhao%NULL%0,                        Wen%Zeng%NULL%0,                        Qi%Huang%NULL%0,                        Hai'bo%Xu%NULL%0,                        Zeming%Liu%NULL%0,                        Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                        Jiong%Wu%NULL%0,                        Faqi%Wu%NULL%0,                        Dajing%Guo%NULL%0,                        Linli%Chen%NULL%0,                        Zheng%Fang%NULL%0,                        Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                        Chengcheng%Yu%NULL%1,                        Jing%Qu%NULL%1,                        Lieguang%Zhang%NULL%1,                        Songfeng%Jiang%NULL%1,                        Deyang%Huang%NULL%1,                        Bihua%Chen%NULL%1,                        Zhiping%Zhang%NULL%1,                        Wanhua%Guan%NULL%1,                        Zhoukun%Ling%NULL%1,                        Rui%Jiang%NULL%1,                        Tianli%Hu%NULL%1,                        Yan%Ding%NULL%1,                        Lin%Lin%NULL%1,                        Qingxin%Gan%NULL%1,                        Liangping%Luo%tluolp@jnu.edu.cn%1,                        Xiaoping%Tang%xtang@21cn.com%1,                        Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                        Qiqi%Cao%NULL%2,                        Le%Qin%NULL%2,                        Xiaoyang%Wang%NULL%2,                        Zenghui%Cheng%NULL%2,                        Ashan%Pan%NULL%2,                        Jianyi%Dai%NULL%2,                        Qingfeng%Sun%NULL%2,                        Fengquan%Zhao%NULL%2,                        Jieming%Qu%NULL%0,                        Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                        Qiqi%Cao%NULL%0,                        Le%Qin%NULL%0,                        Xiaoyang%Wang%NULL%0,                        Zenghui%Cheng%NULL%0,                        Ashan%Pan%NULL%0,                        Jianyi%Dai%NULL%0,                        Qingfeng%Sun%NULL%0,                        Fengquan%Zhao%NULL%0,                        Jieming%Qu%NULL%0,                        Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                        Fang%Jiang%NULL%0,                        Wating%Su%NULL%0,                        Chang%Chen%NULL%0,                        Jingli%Chen%NULL%0,                        Wei%Mei%NULL%0,                        Li-Ying%Zhan%NULL%0,                        Yifan%Jia%NULL%0,                        Liangqing%Zhang%NULL%0,                        Danyong%Liu%NULL%0,                        Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                        Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                        Yun%Ling%NULL%0,                        Yun%Ling%NULL%0,                        Tao%Bai%NULL%0,                        Tao%Bai%NULL%0,                        Yusang%Xie%NULL%1,                        Jie%Huang%NULL%2,                        Jie%Huang%NULL%0,                        Jian%Li%NULL%1,                        Weining%Xiong%NULL%1,                        Dexiang%Yang%NULL%1,                        Rong%Chen%NULL%1,                        Fangying%Lu%NULL%1,                        Yunfei%Lu%NULL%2,                        Xuhui%Liu%NULL%1,                        Yuqing%Chen%NULL%2,                        Yuqing%Chen%NULL%0,                        Xin%Li%NULL%0,                        Yong%Li%NULL%1,                        Hanssa Dwarka%Summah%NULL%1,                        Huihuang%Lin%NULL%1,                        Jiayang%Yan%NULL%1,                        Min%Zhou%NULL%0,                        Hongzhou%Lu%NULL%0,                        Hongzhou%Lu%NULL%0,                        Jieming%Qu%NULL%0,                        Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                        Wen%Yin%NULL%0,                        Wen%Yin%NULL%0,                        Zhaowu%Tao%NULL%1,                        Weijun%Tan%NULL%1,                        Yi%Hu%NULL%0,                        Oliver%Schildgen%NULL%2,                        Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                        Yuanyuan%Xing%NULL%0,                        Yu%Xiao%NULL%0,                        Liping%Deng%NULL%0,                        Qiu%Zhao%NULL%0,                        Hongling%Wang%NULL%0,                        Yong%Xiong%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Shicheng%Gao%NULL%0,                        Ke%Liang%NULL%0,                        Mingqi%Luo%NULL%0,                        Tielong%Chen%NULL%0,                        Shihui%Song%NULL%0,                        Zhiyong%Ma%NULL%0,                        Xiaoping%Chen%NULL%0,                        Ruiying%Zheng%NULL%0,                        Qian%Cao%NULL%0,                        Fan%Wang%fanndywang@foxmail.com%0,                        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                        Xun%Li%NULL%1,                        Hui%Chen%NULL%0,                        Shaonan%Yan%NULL%1,                        Dong%Li%NULL%1,                        Yan%Li%NULL%1,                        Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                        Chang%Hu%NULL%0,                        Linjie%Luo%NULL%0,                        Fang%Fang%NULL%0,                        Yongfeng%Chen%NULL%0,                        Jianguo%Li%NULL%0,                        Zhiyong%Peng%NULL%0,                        Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                        Yongzhen%Fan%NULL%0,                        Ming%Chen%NULL%0,                        Xiaoyan%Wu%NULL%0,                        Lin%Zhang%NULL%0,                        Tao%He%NULL%0,                        Hairong%Wang%NULL%0,                        Jing%Wan%NULL%0,                        Xinghuan%Wang%NULL%0,                        Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                      Becker%L.B.%coreGivesNoEmail%0,                      Chelico%J.D.%coreGivesNoEmail%0,                      Cohen%S.L.%coreGivesNoEmail%0,                      Cookingham%J.%coreGivesNoEmail%0,                      Coppa%K.%coreGivesNoEmail%0,                      Crawford%J.M.%coreGivesNoEmail%0,                      Davidson%K.W.%coreGivesNoEmail%0,                      Diefenbach%M.A.%coreGivesNoEmail%0,                      Dominello%A.J.%coreGivesNoEmail%0,                      Duer-Hefele%J.%coreGivesNoEmail%0,                      Falzon%L.%coreGivesNoEmail%0,                      Gitlin%J.%coreGivesNoEmail%0,                      Hajizadeh%N.%coreGivesNoEmail%0,                      Harvin%T.G.%coreGivesNoEmail%0,                      Hirsch%J.S.%coreGivesNoEmail%0,                      Hirschwerk%D.A.%coreGivesNoEmail%0,                      Kim%E.J.%coreGivesNoEmail%0,                      Kozel%Z.M.%coreGivesNoEmail%0,                      Marrast%L.M.%coreGivesNoEmail%0,                      McGinn%T.%coreGivesNoEmail%0,                      Mogavero%J.N.%coreGivesNoEmail%0,                      Narasimhan%M.%coreGivesNoEmail%0,                      Osorio%G.A.%coreGivesNoEmail%0,                      Qiu%M.%coreGivesNoEmail%0,                      Richardson%S.%coreGivesNoEmail%0,                      Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0,                        Nancy%Chow%NULL%0,                        Katherine%Fleming-Dutra%NULL%1,                        Ryan%Gierke%NULL%0,                        Aron%Hall%NULL%0,                        Michelle%Hughes%NULL%1,                        Tamara%Pilishvili%NULL%0,                        Matthew%Ritchey%NULL%0,                        Katherine%Roguski%NULL%1,                        Tami%Skoff%NULL%1,                        Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nitesh%Gupta%xref no email%1,   Sumita%Agrawal%xref no email%1,   Pranav%Ish%xref no email%1,   Suruchi%Mishra%xref no email%1,   Rajni%Gaind%xref no email%1,   Ganapathy%Usha%xref no email%1,   Balvinder%Singh%xref no email%1,   Manas Kamal%Sen%xref no email%1,   *Safdarjung Hospital%COVID 2019 working group%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                      Cabrini%Luca%coreGivesNoEmail%0,                      Castelli%Antonio%coreGivesNoEmail%0,                      Cecconi%Maurizio%coreGivesNoEmail%0,                      Cereda%Danilo%coreGivesNoEmail%0,                      Coluccello%Antonio%coreGivesNoEmail%0,                      Foti%Giuseppe%coreGivesNoEmail%0,                      Fumagalli%Roberto%coreGivesNoEmail%0,                      Grasselli%Giacomo%coreGivesNoEmail%0,                      Iotti%Giorgio%coreGivesNoEmail%0,                      Latronico%Nicola%coreGivesNoEmail%0,                      Lorini%Luca%coreGivesNoEmail%0,                      Merler%Stefano%coreGivesNoEmail%0,                      Natalini%Giuseppe%coreGivesNoEmail%0,                      Pesenti%Antonio%coreGivesNoEmail%0,                      Piatti%Alessandra%coreGivesNoEmail%0,                      Ranieri%Marco Vito%coreGivesNoEmail%0,                      Scandroglio%Anna Mara%coreGivesNoEmail%0,                      Storti%Enrico%coreGivesNoEmail%0,                      Zanella%Alberto%coreGivesNoEmail%0,                      Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                        Lei%Tu%NULL%0,                        Lei%Tu%NULL%0,                        Pingjun%Zhu%NULL%0,                        Pingjun%Zhu%NULL%0,                        Mi%Mu%NULL%0,                        Mi%Mu%NULL%0,                        Runsheng%Wang%NULL%0,                        Pengcheng%Yang%NULL%0,                        Xi%Wang%NULL%0,                        Chao%Hu%NULL%0,                        Rongyu%Ping%NULL%0,                        Peng%Hu%NULL%0,                        Tianzhi%Li%NULL%0,                        Feng%Cao%NULL%0,                        Christopher%Chang%NULL%0,                        Qinyong%Hu%NULL%0,                        Yang%Jin%NULL%0,                        Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                        Min%Zhou%NULL%0,                        Xuan%Dong%NULL%0,                        Jieming%Qu%NULL%0,                        Fengyun%Gong%NULL%0,                        Yang%Han%NULL%0,                        Yang%Qiu%NULL%0,                        Jingli%Wang%NULL%0,                        Ying%Liu%NULL%0,                        Yuan%Wei%NULL%0,                        Jia'an%Xia%NULL%0,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%0,                        Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                      Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                        Yeming%Wang%NULL%0,                        Xingwang%Li%NULL%0,                        Lili%Ren%NULL%0,                        Jianping%Zhao%NULL%0,                        Yi%Hu%NULL%0,                        Li%Zhang%NULL%0,                        Guohui%Fan%NULL%0,                        Jiuyang%Xu%NULL%0,                        Xiaoying%Gu%NULL%0,                        Zhenshun%Cheng%NULL%0,                        Ting%Yu%NULL%0,                        Jiaan%Xia%NULL%0,                        Yuan%Wei%NULL%0,                        Wenjuan%Wu%NULL%0,                        Xuelei%Xie%NULL%0,                        Wen%Yin%NULL%0,                        Hui%Li%NULL%0,                        Min%Liu%NULL%0,                        Yan%Xiao%NULL%0,                        Hong%Gao%NULL%0,                        Li%Guo%NULL%0,                        Jungang%Xie%NULL%0,                        Guangfa%Wang%NULL%0,                        Rongmeng%Jiang%NULL%0,                        Zhancheng%Gao%NULL%0,                        Qi%Jin%NULL%0,                        Jianwei%Wang%wangjw28@163.com%0,                        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                        Yuan-Yuan%Fang%NULL%0,                        Yan%Deng%NULL%0,                        Wei%Liu%NULL%0,                        Mei-Fang%Wang%NULL%1,                        Jing-Ping%Ma%NULL%1,                        Wei%Xiao%NULL%1,                        Ying-Nan%Wang%NULL%1,                        Min-Hua%Zhong%NULL%1,                        Cheng-Hong%Li%NULL%1,                        Guang-Cai%Li%NULL%1,                        Hui-Guo%Liu%NULL%0,                        Xiu-Yuan%Hao%NULL%2,                        Xiu-Yuan%Hao%NULL%0,                        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                        Yang%Yang%NULL%0,                        Cong%Zhang%NULL%0,                        Fengming%Huang%NULL%0,                        Fuxiang%Wang%NULL%0,                        Jing%Yuan%NULL%0,                        Zhaoqin%Wang%NULL%0,                        Jinxiu%Li%NULL%0,                        Jianming%Li%NULL%0,                        Cheng%Feng%NULL%0,                        Zheng%Zhang%NULL%0,                        Lifei%Wang%NULL%0,                        Ling%Peng%NULL%0,                        Li%Chen%NULL%0,                        Yuhao%Qin%NULL%0,                        Dandan%Zhao%NULL%0,                        Shuguang%Tan%NULL%0,                        Lu%Yin%NULL%0,                        Jun%Xu%NULL%0,                        Congzhao%Zhou%NULL%0,                        Chengyu%Jiang%jiang@pumc.edu.cn%0,                        Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Wen-hua%Liang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Jian-xing%He%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        David S.C.%Hui%NULL%0,                        Bin%Du%NULL%0,                        Lan-juan%Li%NULL%0,                        Guang%Zeng%NULL%0,                        Kwok-Yung%Yuen%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Ping-yan%Chen%NULL%0,                        Jie%Xiang%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-lin%Wang%NULL%0,                        Zi-jing%Liang%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                        Li-Min%Liu%NULL%0,                        Wen%Yin%NULL%0,                        Wen%Wang%NULL%0,                        Lu-Lu%Guan%NULL%0,                        Ming-Li%Yuan%NULL%0,                        Yu-Lei%Li%NULL%0,                        Yi%Hu%NULL%0,                        Xu-Yan%Li%NULL%0,                        Bing%Sun%NULL%0,                        Peng%Peng%NULL%0,                        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                        Wen-hua%Liang%NULL%0,                        Yi%Zhao%NULL%0,                        Heng-rui%Liang%NULL%0,                        Zi-sheng%Chen%NULL%0,                        Yi-min%Li%NULL%0,                        Xiao-qing%Liu%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Chun-quan%Ou%NULL%0,                        Li%Li%NULL%0,                        Ping-yan%Chen%NULL%0,                        Ling%Sang%NULL%0,                        Wei%Wang%NULL%0,                        Jian-fu%Li%NULL%0,                        Cai-chen%Li%NULL%0,                        Li-min%Ou%NULL%0,                        Bo%Cheng%NULL%0,                        Shan%Xiong%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Jie%Xiang%NULL%0,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Lin-ling%Cheng%NULL%0,                        Feng%Ye%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-ping%Zheng%NULL%0,                        Nuo-fu%Zhang%NULL%0,                        Nan-shan%Zhong%NULL%0,                        Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                        Xiao-Xin%Wu%NULL%0,                        Xian-Gao%Jiang%NULL%0,                        Kai-Jin%Xu%NULL%0,                        Ling-Jun%Ying%NULL%0,                        Chun-Lian%Ma%NULL%0,                        Shi-Bo%Li%NULL%0,                        Hua-Ying%Wang%NULL%0,                        Sheng%Zhang%NULL%0,                        Hai-Nv%Gao%NULL%0,                        Ji-Fang%Sheng%NULL%0,                        Hong-Liu%Cai%NULL%0,                        Yun-Qing%Qiu%NULL%0,                        Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                        Zhe%Dai%NULL%1,                        Pingzheng%Mo%NULL%1,                        Xinyu%Li%NULL%1,                        Zhiyong%Ma%NULL%0,                        Shihui%Song%NULL%0,                        Xiaoping%Chen%NULL%0,                        Mingqi%Luo%NULL%0,                        Ke%Liang%NULL%0,                        Shicheng%Gao%NULL%0,                        Yongxi%Zhang%NULL%0,                        Liping%Deng%dengdeng78@126.com%0,                        Yong%Xiong%NULL%0,                        Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                        Wei-jie%Guan%NULL%0,                        Cai-chen%Li%NULL%0,                        Yi-min%Li%NULL%0,                        Heng-rui%Liang%NULL%0,                        Yi%Zhao%NULL%0,                        Xiao-qing%Liu%NULL%0,                        Ling%Sang%NULL%0,                        Ru-chong%Chen%NULL%0,                        Chun-li%Tang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Wang%NULL%0,                        Qi-hua%He%NULL%0,                        Zi-sheng%Chen%NULL%0,                        Sook-San%Wong%NULL%0,                        Mark%Zanin%NULL%0,                        Jun%Liu%NULL%0,                        Xin%Xu%NULL%0,                        Jun%Huang%NULL%0,                        Jian-fu%Li%NULL%0,                        Li-min%Ou%NULL%0,                        Bo%Cheng%NULL%0,                        Shan%Xiong%NULL%0,                        Zhan-hong%Xie%NULL%0,                        Zheng-yi%Ni%NULL%0,                        Yu%Hu%NULL%0,                        Lei%Liu%NULL%0,                        Hong%Shan%NULL%0,                        Chun-liang%Lei%NULL%0,                        Yi-xiang%Peng%NULL%0,                        Li%Wei%NULL%0,                        Yong%Liu%NULL%0,                        Ya-hua%Hu%NULL%0,                        Peng%Peng%NULL%0,                        Jian-ming%Wang%NULL%0,                        Ji-yang%Liu%NULL%0,                        Zhong%Chen%NULL%0,                        Gang%Li%NULL%0,                        Zhi-jian%Zheng%NULL%0,                        Shao-qin%Qiu%NULL%0,                        Jie%Luo%NULL%0,                        Chang-jiang%Ye%NULL%0,                        Shao-yong%Zhu%NULL%0,                        Lin-ling%Cheng%NULL%0,                        Feng%Ye%NULL%0,                        Shi-yue%Li%NULL%0,                        Jin-ping%Zheng%NULL%0,                        Nuo-fu%Zhang%NULL%0,                        Nan-shan%Zhong%NULL%0,                        Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                        Wenbo%He%NULL%0,                        Xiaomei%Yu%NULL%0,                        Dalong%Hu%NULL%0,                        Mingwei%Bao%NULL%0,                        Huafen%Liu%NULL%0,                        Jiali%Zhou%NULL%0,                        Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                        Wenlin%Cheng%NULL%0,                        Lei%Yu%NULL%0,                        Ya-Kun%Liu%NULL%0,                        Xiaoyong%Hu%NULL%0,                        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                        Huangqing%Ouyang%NULL%1,                        Lingli%Fu%NULL%1,                        Shijie%Wang%NULL%1,                        Jianglong%Han%NULL%1,                        Kejie%Huang%NULL%1,                        Mingfang%Jia%NULL%1,                        Qibin%Song%NULL%1,                        Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%0,                        Huilong%Chen%NULL%0,                        Weiming%Yan%NULL%0,                        Danlei%Yang%NULL%0,                        Guang%Chen%NULL%0,                        Ke%Ma%NULL%0,                        Dong%Xu%NULL%0,                        Haijing%Yu%NULL%0,                        Hongwu%Wang%NULL%0,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%0,                        Jia%Chen%NULL%0,                        Chen%Ding%NULL%0,                        Xiaoping%Zhang%NULL%0,                        Jiaquan%Huang%NULL%0,                        Meifang%Han%NULL%0,                        Shusheng%Li%NULL%0,                        Xiaoping%Luo%NULL%0,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                       Cao%Yi-yuan%coreGivesNoEmail%0,                       Dong%Xiang%coreGivesNoEmail%0,                       Gao%Ya-dong%coreGivesNoEmail%0,                       Yan%You-qin%coreGivesNoEmail%0,                       Yang%Yi-bin%coreGivesNoEmail%0,                       Yuan%Ya-dong%coreGivesNoEmail%0,                       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                         Bohan%Yang%NULL%0,                         Qianwen%Li%NULL%0,                         Lu%Wen%NULL%0,                         Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                         Yuan%Yu%NULL%0,                         Jiqian%Xu%NULL%0,                         Huaqing%Shu%NULL%0,                         Jia'an%Xia%NULL%0,                         Hong%Liu%NULL%0,                         Yongran%Wu%NULL%0,                         Lu%Zhang%NULL%0,                         Zhui%Yu%NULL%0,                         Minghao%Fang%NULL%0,                         Ting%Yu%NULL%0,                         Yaxin%Wang%NULL%0,                         Shangwen%Pan%NULL%0,                         Xiaojing%Zou%NULL%0,                         Shiying%Yuan%NULL%0,                         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                         Mengqi%Tu%NULL%0,                         Shipei%Wang%NULL%0,                         Sichao%Chen%NULL%0,                         Wei%Zhou%NULL%0,                         Danyang%Chen%NULL%0,                         Lin%Zhou%NULL%0,                         Min%Wang%NULL%0,                         Yan%Zhao%NULL%0,                         Wen%Zeng%NULL%0,                         Qi%Huang%NULL%0,                         Hai'bo%Xu%NULL%0,                         Zeming%Liu%NULL%0,                         Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                         Jiong%Wu%NULL%0,                         Faqi%Wu%NULL%0,                         Dajing%Guo%NULL%0,                         Linli%Chen%NULL%0,                         Zheng%Fang%NULL%0,                         Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                         Chengcheng%Yu%NULL%1,                         Jing%Qu%NULL%1,                         Lieguang%Zhang%NULL%1,                         Songfeng%Jiang%NULL%1,                         Deyang%Huang%NULL%1,                         Bihua%Chen%NULL%1,                         Zhiping%Zhang%NULL%1,                         Wanhua%Guan%NULL%1,                         Zhoukun%Ling%NULL%1,                         Rui%Jiang%NULL%1,                         Tianli%Hu%NULL%1,                         Yan%Ding%NULL%1,                         Lin%Lin%NULL%1,                         Qingxin%Gan%NULL%1,                         Liangping%Luo%tluolp@jnu.edu.cn%1,                         Xiaoping%Tang%xtang@21cn.com%1,                         Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                         Qiqi%Cao%NULL%2,                         Le%Qin%NULL%2,                         Xiaoyang%Wang%NULL%2,                         Zenghui%Cheng%NULL%2,                         Ashan%Pan%NULL%2,                         Jianyi%Dai%NULL%2,                         Qingfeng%Sun%NULL%2,                         Fengquan%Zhao%NULL%2,                         Jieming%Qu%NULL%0,                         Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                         Qiqi%Cao%NULL%0,                         Le%Qin%NULL%0,                         Xiaoyang%Wang%NULL%0,                         Zenghui%Cheng%NULL%0,                         Ashan%Pan%NULL%0,                         Jianyi%Dai%NULL%0,                         Qingfeng%Sun%NULL%0,                         Fengquan%Zhao%NULL%0,                         Jieming%Qu%NULL%0,                         Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                         Fang%Jiang%NULL%0,                         Wating%Su%NULL%0,                         Chang%Chen%NULL%0,                         Jingli%Chen%NULL%0,                         Wei%Mei%NULL%0,                         Li-Ying%Zhan%NULL%0,                         Yifan%Jia%NULL%0,                         Liangqing%Zhang%NULL%0,                         Danyong%Liu%NULL%0,                         Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                         Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                         Yun%Ling%NULL%0,                         Yun%Ling%NULL%0,                         Tao%Bai%NULL%0,                         Tao%Bai%NULL%0,                         Yusang%Xie%NULL%1,                         Jie%Huang%NULL%2,                         Jie%Huang%NULL%0,                         Jian%Li%NULL%1,                         Weining%Xiong%NULL%1,                         Dexiang%Yang%NULL%1,                         Rong%Chen%NULL%1,                         Fangying%Lu%NULL%1,                         Yunfei%Lu%NULL%2,                         Xuhui%Liu%NULL%1,                         Yuqing%Chen%NULL%2,                         Yuqing%Chen%NULL%0,                         Xin%Li%NULL%0,                         Yong%Li%NULL%1,                         Hanssa Dwarka%Summah%NULL%1,                         Huihuang%Lin%NULL%1,                         Jiayang%Yan%NULL%1,                         Min%Zhou%NULL%0,                         Hongzhou%Lu%NULL%0,                         Hongzhou%Lu%NULL%0,                         Jieming%Qu%NULL%0,                         Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                         Wen%Yin%NULL%0,                         Wen%Yin%NULL%0,                         Zhaowu%Tao%NULL%1,                         Weijun%Tan%NULL%1,                         Yi%Hu%NULL%0,                         Oliver%Schildgen%NULL%2,                         Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                         Yuanyuan%Xing%NULL%0,                         Yu%Xiao%NULL%0,                         Liping%Deng%NULL%0,                         Qiu%Zhao%NULL%0,                         Hongling%Wang%NULL%0,                         Yong%Xiong%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Shicheng%Gao%NULL%0,                         Ke%Liang%NULL%0,                         Mingqi%Luo%NULL%0,                         Tielong%Chen%NULL%0,                         Shihui%Song%NULL%0,                         Zhiyong%Ma%NULL%0,                         Xiaoping%Chen%NULL%0,                         Ruiying%Zheng%NULL%0,                         Qian%Cao%NULL%0,                         Fan%Wang%fanndywang@foxmail.com%0,                         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                         Xun%Li%NULL%1,                         Hui%Chen%NULL%0,                         Shaonan%Yan%NULL%1,                         Dong%Li%NULL%1,                         Yan%Li%NULL%1,                         Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                         Chang%Hu%NULL%0,                         Linjie%Luo%NULL%0,                         Fang%Fang%NULL%0,                         Yongfeng%Chen%NULL%0,                         Jianguo%Li%NULL%0,                         Zhiyong%Peng%NULL%0,                         Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                         Yongzhen%Fan%NULL%0,                         Ming%Chen%NULL%0,                         Xiaoyan%Wu%NULL%0,                         Lin%Zhang%NULL%0,                         Tao%He%NULL%0,                         Hairong%Wang%NULL%0,                         Jing%Wan%NULL%0,                         Xinghuan%Wang%NULL%0,                         Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                       Becker%L.B.%coreGivesNoEmail%0,                       Chelico%J.D.%coreGivesNoEmail%0,                       Cohen%S.L.%coreGivesNoEmail%0,                       Cookingham%J.%coreGivesNoEmail%0,                       Coppa%K.%coreGivesNoEmail%0,                       Crawford%J.M.%coreGivesNoEmail%0,                       Davidson%K.W.%coreGivesNoEmail%0,                       Diefenbach%M.A.%coreGivesNoEmail%0,                       Dominello%A.J.%coreGivesNoEmail%0,                       Duer-Hefele%J.%coreGivesNoEmail%0,                       Falzon%L.%coreGivesNoEmail%0,                       Gitlin%J.%coreGivesNoEmail%0,                       Hajizadeh%N.%coreGivesNoEmail%0,                       Harvin%T.G.%coreGivesNoEmail%0,                       Hirsch%J.S.%coreGivesNoEmail%0,                       Hirschwerk%D.A.%coreGivesNoEmail%0,                       Kim%E.J.%coreGivesNoEmail%0,                       Kozel%Z.M.%coreGivesNoEmail%0,                       Marrast%L.M.%coreGivesNoEmail%0,                       McGinn%T.%coreGivesNoEmail%0,                       Mogavero%J.N.%coreGivesNoEmail%0,                       Narasimhan%M.%coreGivesNoEmail%0,                       Osorio%G.A.%coreGivesNoEmail%0,                       Qiu%M.%coreGivesNoEmail%0,                       Richardson%S.%coreGivesNoEmail%0,                       Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0,                         Nancy%Chow%NULL%0,                         Katherine%Fleming-Dutra%NULL%1,                         Ryan%Gierke%NULL%0,                         Aron%Hall%NULL%0,                         Michelle%Hughes%NULL%1,                         Tamara%Pilishvili%NULL%0,                         Matthew%Ritchey%NULL%0,                         Katherine%Roguski%NULL%1,                         Tami%Skoff%NULL%1,                         Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nitesh%Gupta%xref no email%1,    Sumita%Agrawal%xref no email%1,    Pranav%Ish%xref no email%1,    Suruchi%Mishra%xref no email%1,    Rajni%Gaind%xref no email%1,    Ganapathy%Usha%xref no email%1,    Balvinder%Singh%xref no email%1,    Manas Kamal%Sen%xref no email%1,    *Safdarjung Hospital%COVID 2019 working group%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                       Cabrini%Luca%coreGivesNoEmail%0,                       Castelli%Antonio%coreGivesNoEmail%0,                       Cecconi%Maurizio%coreGivesNoEmail%0,                       Cereda%Danilo%coreGivesNoEmail%0,                       Coluccello%Antonio%coreGivesNoEmail%0,                       Foti%Giuseppe%coreGivesNoEmail%0,                       Fumagalli%Roberto%coreGivesNoEmail%0,                       Grasselli%Giacomo%coreGivesNoEmail%0,                       Iotti%Giorgio%coreGivesNoEmail%0,                       Latronico%Nicola%coreGivesNoEmail%0,                       Lorini%Luca%coreGivesNoEmail%0,                       Merler%Stefano%coreGivesNoEmail%0,                       Natalini%Giuseppe%coreGivesNoEmail%0,                       Pesenti%Antonio%coreGivesNoEmail%0,                       Piatti%Alessandra%coreGivesNoEmail%0,                       Ranieri%Marco Vito%coreGivesNoEmail%0,                       Scandroglio%Anna Mara%coreGivesNoEmail%0,                       Storti%Enrico%coreGivesNoEmail%0,                       Zanella%Alberto%coreGivesNoEmail%0,                       Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                         Lei%Tu%NULL%0,                         Lei%Tu%NULL%0,                         Pingjun%Zhu%NULL%0,                         Pingjun%Zhu%NULL%0,                         Mi%Mu%NULL%0,                         Mi%Mu%NULL%0,                         Runsheng%Wang%NULL%0,                         Pengcheng%Yang%NULL%0,                         Xi%Wang%NULL%0,                         Chao%Hu%NULL%0,                         Rongyu%Ping%NULL%0,                         Peng%Hu%NULL%0,                         Tianzhi%Li%NULL%0,                         Feng%Cao%NULL%0,                         Christopher%Chang%NULL%0,                         Qinyong%Hu%NULL%0,                         Yang%Jin%NULL%0,                         Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                         Min%Zhou%NULL%0,                         Xuan%Dong%NULL%0,                         Jieming%Qu%NULL%0,                         Fengyun%Gong%NULL%0,                         Yang%Han%NULL%0,                         Yang%Qiu%NULL%0,                         Jingli%Wang%NULL%0,                         Ying%Liu%NULL%0,                         Yuan%Wei%NULL%0,                         Jia'an%Xia%NULL%0,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%0,                         Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                       Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                         Yeming%Wang%NULL%0,                         Xingwang%Li%NULL%0,                         Lili%Ren%NULL%0,                         Jianping%Zhao%NULL%0,                         Yi%Hu%NULL%0,                         Li%Zhang%NULL%0,                         Guohui%Fan%NULL%0,                         Jiuyang%Xu%NULL%0,                         Xiaoying%Gu%NULL%0,                         Zhenshun%Cheng%NULL%0,                         Ting%Yu%NULL%0,                         Jiaan%Xia%NULL%0,                         Yuan%Wei%NULL%0,                         Wenjuan%Wu%NULL%0,                         Xuelei%Xie%NULL%0,                         Wen%Yin%NULL%0,                         Hui%Li%NULL%0,                         Min%Liu%NULL%0,                         Yan%Xiao%NULL%0,                         Hong%Gao%NULL%0,                         Li%Guo%NULL%0,                         Jungang%Xie%NULL%0,                         Guangfa%Wang%NULL%0,                         Rongmeng%Jiang%NULL%0,                         Zhancheng%Gao%NULL%0,                         Qi%Jin%NULL%0,                         Jianwei%Wang%wangjw28@163.com%0,                         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                         Yuan-Yuan%Fang%NULL%0,                         Yan%Deng%NULL%0,                         Wei%Liu%NULL%0,                         Mei-Fang%Wang%NULL%1,                         Jing-Ping%Ma%NULL%1,                         Wei%Xiao%NULL%1,                         Ying-Nan%Wang%NULL%1,                         Min-Hua%Zhong%NULL%1,                         Cheng-Hong%Li%NULL%1,                         Guang-Cai%Li%NULL%1,                         Hui-Guo%Liu%NULL%0,                         Xiu-Yuan%Hao%NULL%2,                         Xiu-Yuan%Hao%NULL%0,                         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                         Yang%Yang%NULL%0,                         Cong%Zhang%NULL%0,                         Fengming%Huang%NULL%0,                         Fuxiang%Wang%NULL%0,                         Jing%Yuan%NULL%0,                         Zhaoqin%Wang%NULL%0,                         Jinxiu%Li%NULL%0,                         Jianming%Li%NULL%0,                         Cheng%Feng%NULL%0,                         Zheng%Zhang%NULL%0,                         Lifei%Wang%NULL%0,                         Ling%Peng%NULL%0,                         Li%Chen%NULL%0,                         Yuhao%Qin%NULL%0,                         Dandan%Zhao%NULL%0,                         Shuguang%Tan%NULL%0,                         Lu%Yin%NULL%0,                         Jun%Xu%NULL%0,                         Congzhao%Zhou%NULL%0,                         Chengyu%Jiang%jiang@pumc.edu.cn%0,                         Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Wen-hua%Liang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Jian-xing%He%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         David S.C.%Hui%NULL%0,                         Bin%Du%NULL%0,                         Lan-juan%Li%NULL%0,                         Guang%Zeng%NULL%0,                         Kwok-Yung%Yuen%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Ping-yan%Chen%NULL%0,                         Jie%Xiang%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-lin%Wang%NULL%0,                         Zi-jing%Liang%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                         Li-Min%Liu%NULL%0,                         Wen%Yin%NULL%0,                         Wen%Wang%NULL%0,                         Lu-Lu%Guan%NULL%0,                         Ming-Li%Yuan%NULL%0,                         Yu-Lei%Li%NULL%0,                         Yi%Hu%NULL%0,                         Xu-Yan%Li%NULL%0,                         Bing%Sun%NULL%0,                         Peng%Peng%NULL%0,                         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                         Wen-hua%Liang%NULL%0,                         Yi%Zhao%NULL%0,                         Heng-rui%Liang%NULL%0,                         Zi-sheng%Chen%NULL%0,                         Yi-min%Li%NULL%0,                         Xiao-qing%Liu%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Chun-quan%Ou%NULL%0,                         Li%Li%NULL%0,                         Ping-yan%Chen%NULL%0,                         Ling%Sang%NULL%0,                         Wei%Wang%NULL%0,                         Jian-fu%Li%NULL%0,                         Cai-chen%Li%NULL%0,                         Li-min%Ou%NULL%0,                         Bo%Cheng%NULL%0,                         Shan%Xiong%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Jie%Xiang%NULL%0,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Lin-ling%Cheng%NULL%0,                         Feng%Ye%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-ping%Zheng%NULL%0,                         Nuo-fu%Zhang%NULL%0,                         Nan-shan%Zhong%NULL%0,                         Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                         Xiao-Xin%Wu%NULL%0,                         Xian-Gao%Jiang%NULL%0,                         Kai-Jin%Xu%NULL%0,                         Ling-Jun%Ying%NULL%0,                         Chun-Lian%Ma%NULL%0,                         Shi-Bo%Li%NULL%0,                         Hua-Ying%Wang%NULL%0,                         Sheng%Zhang%NULL%0,                         Hai-Nv%Gao%NULL%0,                         Ji-Fang%Sheng%NULL%0,                         Hong-Liu%Cai%NULL%0,                         Yun-Qing%Qiu%NULL%0,                         Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                         Zhe%Dai%NULL%1,                         Pingzheng%Mo%NULL%1,                         Xinyu%Li%NULL%1,                         Zhiyong%Ma%NULL%0,                         Shihui%Song%NULL%0,                         Xiaoping%Chen%NULL%0,                         Mingqi%Luo%NULL%0,                         Ke%Liang%NULL%0,                         Shicheng%Gao%NULL%0,                         Yongxi%Zhang%NULL%0,                         Liping%Deng%dengdeng78@126.com%0,                         Yong%Xiong%NULL%0,                         Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                         Wei-jie%Guan%NULL%0,                         Cai-chen%Li%NULL%0,                         Yi-min%Li%NULL%0,                         Heng-rui%Liang%NULL%0,                         Yi%Zhao%NULL%0,                         Xiao-qing%Liu%NULL%0,                         Ling%Sang%NULL%0,                         Ru-chong%Chen%NULL%0,                         Chun-li%Tang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Wang%NULL%0,                         Qi-hua%He%NULL%0,                         Zi-sheng%Chen%NULL%0,                         Sook-San%Wong%NULL%0,                         Mark%Zanin%NULL%0,                         Jun%Liu%NULL%0,                         Xin%Xu%NULL%0,                         Jun%Huang%NULL%0,                         Jian-fu%Li%NULL%0,                         Li-min%Ou%NULL%0,                         Bo%Cheng%NULL%0,                         Shan%Xiong%NULL%0,                         Zhan-hong%Xie%NULL%0,                         Zheng-yi%Ni%NULL%0,                         Yu%Hu%NULL%0,                         Lei%Liu%NULL%0,                         Hong%Shan%NULL%0,                         Chun-liang%Lei%NULL%0,                         Yi-xiang%Peng%NULL%0,                         Li%Wei%NULL%0,                         Yong%Liu%NULL%0,                         Ya-hua%Hu%NULL%0,                         Peng%Peng%NULL%0,                         Jian-ming%Wang%NULL%0,                         Ji-yang%Liu%NULL%0,                         Zhong%Chen%NULL%0,                         Gang%Li%NULL%0,                         Zhi-jian%Zheng%NULL%0,                         Shao-qin%Qiu%NULL%0,                         Jie%Luo%NULL%0,                         Chang-jiang%Ye%NULL%0,                         Shao-yong%Zhu%NULL%0,                         Lin-ling%Cheng%NULL%0,                         Feng%Ye%NULL%0,                         Shi-yue%Li%NULL%0,                         Jin-ping%Zheng%NULL%0,                         Nuo-fu%Zhang%NULL%0,                         Nan-shan%Zhong%NULL%0,                         Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                         Wenbo%He%NULL%0,                         Xiaomei%Yu%NULL%0,                         Dalong%Hu%NULL%0,                         Mingwei%Bao%NULL%0,                         Huafen%Liu%NULL%0,                         Jiali%Zhou%NULL%0,                         Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                         Wenlin%Cheng%NULL%0,                         Lei%Yu%NULL%0,                         Ya-Kun%Liu%NULL%0,                         Xiaoyong%Hu%NULL%0,                         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                         Huangqing%Ouyang%NULL%1,                         Lingli%Fu%NULL%1,                         Shijie%Wang%NULL%1,                         Jianglong%Han%NULL%1,                         Kejie%Huang%NULL%1,                         Mingfang%Jia%NULL%1,                         Qibin%Song%NULL%1,                         Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%0,                         Huilong%Chen%NULL%0,                         Weiming%Yan%NULL%0,                         Danlei%Yang%NULL%0,                         Guang%Chen%NULL%0,                         Ke%Ma%NULL%0,                         Dong%Xu%NULL%0,                         Haijing%Yu%NULL%0,                         Hongwu%Wang%NULL%0,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%0,                         Jia%Chen%NULL%0,                         Chen%Ding%NULL%0,                         Xiaoping%Zhang%NULL%0,                         Jiaquan%Huang%NULL%0,                         Meifang%Han%NULL%0,                         Shusheng%Li%NULL%0,                         Xiaoping%Luo%NULL%0,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                        Cao%Yi-yuan%coreGivesNoEmail%0,                        Dong%Xiang%coreGivesNoEmail%0,                        Gao%Ya-dong%coreGivesNoEmail%0,                        Yan%You-qin%coreGivesNoEmail%0,                        Yang%Yi-bin%coreGivesNoEmail%0,                        Yuan%Ya-dong%coreGivesNoEmail%0,                        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                          Bohan%Yang%NULL%0,                          Qianwen%Li%NULL%0,                          Lu%Wen%NULL%0,                          Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                          Yuan%Yu%NULL%0,                          Jiqian%Xu%NULL%0,                          Huaqing%Shu%NULL%0,                          Jia'an%Xia%NULL%0,                          Hong%Liu%NULL%0,                          Yongran%Wu%NULL%0,                          Lu%Zhang%NULL%0,                          Zhui%Yu%NULL%0,                          Minghao%Fang%NULL%0,                          Ting%Yu%NULL%0,                          Yaxin%Wang%NULL%0,                          Shangwen%Pan%NULL%0,                          Xiaojing%Zou%NULL%0,                          Shiying%Yuan%NULL%0,                          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                          Mengqi%Tu%NULL%0,                          Shipei%Wang%NULL%0,                          Sichao%Chen%NULL%0,                          Wei%Zhou%NULL%0,                          Danyang%Chen%NULL%0,                          Lin%Zhou%NULL%0,                          Min%Wang%NULL%0,                          Yan%Zhao%NULL%0,                          Wen%Zeng%NULL%0,                          Qi%Huang%NULL%0,                          Hai'bo%Xu%NULL%0,                          Zeming%Liu%NULL%0,                          Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                          Jiong%Wu%NULL%0,                          Faqi%Wu%NULL%0,                          Dajing%Guo%NULL%0,                          Linli%Chen%NULL%0,                          Zheng%Fang%NULL%0,                          Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                          Chengcheng%Yu%NULL%1,                          Jing%Qu%NULL%1,                          Lieguang%Zhang%NULL%1,                          Songfeng%Jiang%NULL%1,                          Deyang%Huang%NULL%1,                          Bihua%Chen%NULL%1,                          Zhiping%Zhang%NULL%1,                          Wanhua%Guan%NULL%1,                          Zhoukun%Ling%NULL%1,                          Rui%Jiang%NULL%1,                          Tianli%Hu%NULL%1,                          Yan%Ding%NULL%1,                          Lin%Lin%NULL%1,                          Qingxin%Gan%NULL%1,                          Liangping%Luo%tluolp@jnu.edu.cn%1,                          Xiaoping%Tang%xtang@21cn.com%1,                          Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                          Qiqi%Cao%NULL%2,                          Le%Qin%NULL%2,                          Xiaoyang%Wang%NULL%2,                          Zenghui%Cheng%NULL%2,                          Ashan%Pan%NULL%2,                          Jianyi%Dai%NULL%2,                          Qingfeng%Sun%NULL%2,                          Fengquan%Zhao%NULL%2,                          Jieming%Qu%NULL%0,                          Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                          Qiqi%Cao%NULL%0,                          Le%Qin%NULL%0,                          Xiaoyang%Wang%NULL%0,                          Zenghui%Cheng%NULL%0,                          Ashan%Pan%NULL%0,                          Jianyi%Dai%NULL%0,                          Qingfeng%Sun%NULL%0,                          Fengquan%Zhao%NULL%0,                          Jieming%Qu%NULL%0,                          Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                          Fang%Jiang%NULL%0,                          Wating%Su%NULL%0,                          Chang%Chen%NULL%0,                          Jingli%Chen%NULL%0,                          Wei%Mei%NULL%0,                          Li-Ying%Zhan%NULL%0,                          Yifan%Jia%NULL%0,                          Liangqing%Zhang%NULL%0,                          Danyong%Liu%NULL%0,                          Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                          Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                          Yun%Ling%NULL%0,                          Yun%Ling%NULL%0,                          Tao%Bai%NULL%0,                          Tao%Bai%NULL%0,                          Yusang%Xie%NULL%1,                          Jie%Huang%NULL%2,                          Jie%Huang%NULL%0,                          Jian%Li%NULL%1,                          Weining%Xiong%NULL%1,                          Dexiang%Yang%NULL%1,                          Rong%Chen%NULL%1,                          Fangying%Lu%NULL%1,                          Yunfei%Lu%NULL%2,                          Xuhui%Liu%NULL%1,                          Yuqing%Chen%NULL%2,                          Yuqing%Chen%NULL%0,                          Xin%Li%NULL%0,                          Yong%Li%NULL%1,                          Hanssa Dwarka%Summah%NULL%1,                          Huihuang%Lin%NULL%1,                          Jiayang%Yan%NULL%1,                          Min%Zhou%NULL%0,                          Hongzhou%Lu%NULL%0,                          Hongzhou%Lu%NULL%0,                          Jieming%Qu%NULL%0,                          Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                          Wen%Yin%NULL%0,                          Wen%Yin%NULL%0,                          Zhaowu%Tao%NULL%1,                          Weijun%Tan%NULL%1,                          Yi%Hu%NULL%0,                          Oliver%Schildgen%NULL%2,                          Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                          Yuanyuan%Xing%NULL%0,                          Yu%Xiao%NULL%0,                          Liping%Deng%NULL%0,                          Qiu%Zhao%NULL%0,                          Hongling%Wang%NULL%0,                          Yong%Xiong%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Shicheng%Gao%NULL%0,                          Ke%Liang%NULL%0,                          Mingqi%Luo%NULL%0,                          Tielong%Chen%NULL%0,                          Shihui%Song%NULL%0,                          Zhiyong%Ma%NULL%0,                          Xiaoping%Chen%NULL%0,                          Ruiying%Zheng%NULL%0,                          Qian%Cao%NULL%0,                          Fan%Wang%fanndywang@foxmail.com%0,                          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                          Xun%Li%NULL%1,                          Hui%Chen%NULL%0,                          Shaonan%Yan%NULL%1,                          Dong%Li%NULL%1,                          Yan%Li%NULL%1,                          Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                          Chang%Hu%NULL%0,                          Linjie%Luo%NULL%0,                          Fang%Fang%NULL%0,                          Yongfeng%Chen%NULL%0,                          Jianguo%Li%NULL%0,                          Zhiyong%Peng%NULL%0,                          Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                          Yongzhen%Fan%NULL%0,                          Ming%Chen%NULL%0,                          Xiaoyan%Wu%NULL%0,                          Lin%Zhang%NULL%0,                          Tao%He%NULL%0,                          Hairong%Wang%NULL%0,                          Jing%Wan%NULL%0,                          Xinghuan%Wang%NULL%0,                          Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                        Becker%L.B.%coreGivesNoEmail%0,                        Chelico%J.D.%coreGivesNoEmail%0,                        Cohen%S.L.%coreGivesNoEmail%0,                        Cookingham%J.%coreGivesNoEmail%0,                        Coppa%K.%coreGivesNoEmail%0,                        Crawford%J.M.%coreGivesNoEmail%0,                        Davidson%K.W.%coreGivesNoEmail%0,                        Diefenbach%M.A.%coreGivesNoEmail%0,                        Dominello%A.J.%coreGivesNoEmail%0,                        Duer-Hefele%J.%coreGivesNoEmail%0,                        Falzon%L.%coreGivesNoEmail%0,                        Gitlin%J.%coreGivesNoEmail%0,                        Hajizadeh%N.%coreGivesNoEmail%0,                        Harvin%T.G.%coreGivesNoEmail%0,                        Hirsch%J.S.%coreGivesNoEmail%0,                        Hirschwerk%D.A.%coreGivesNoEmail%0,                        Kim%E.J.%coreGivesNoEmail%0,                        Kozel%Z.M.%coreGivesNoEmail%0,                        Marrast%L.M.%coreGivesNoEmail%0,                        McGinn%T.%coreGivesNoEmail%0,                        Mogavero%J.N.%coreGivesNoEmail%0,                        Narasimhan%M.%coreGivesNoEmail%0,                        Osorio%G.A.%coreGivesNoEmail%0,                        Qiu%M.%coreGivesNoEmail%0,                        Richardson%S.%coreGivesNoEmail%0,                        Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0,                          Nancy%Chow%NULL%0,                          Katherine%Fleming-Dutra%NULL%1,                          Ryan%Gierke%NULL%0,                          Aron%Hall%NULL%0,                          Michelle%Hughes%NULL%1,                          Tamara%Pilishvili%NULL%0,                          Matthew%Ritchey%NULL%0,                          Katherine%Roguski%NULL%1,                          Tami%Skoff%NULL%1,                          Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nitesh%Gupta%xref no email%1,     Sumita%Agrawal%xref no email%1,     Pranav%Ish%xref no email%1,     Suruchi%Mishra%xref no email%1,     Rajni%Gaind%xref no email%1,     Ganapathy%Usha%xref no email%1,     Balvinder%Singh%xref no email%1,     Manas Kamal%Sen%xref no email%1,     *Safdarjung Hospital%COVID 2019 working group%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                        Cabrini%Luca%coreGivesNoEmail%0,                        Castelli%Antonio%coreGivesNoEmail%0,                        Cecconi%Maurizio%coreGivesNoEmail%0,                        Cereda%Danilo%coreGivesNoEmail%0,                        Coluccello%Antonio%coreGivesNoEmail%0,                        Foti%Giuseppe%coreGivesNoEmail%0,                        Fumagalli%Roberto%coreGivesNoEmail%0,                        Grasselli%Giacomo%coreGivesNoEmail%0,                        Iotti%Giorgio%coreGivesNoEmail%0,                        Latronico%Nicola%coreGivesNoEmail%0,                        Lorini%Luca%coreGivesNoEmail%0,                        Merler%Stefano%coreGivesNoEmail%0,                        Natalini%Giuseppe%coreGivesNoEmail%0,                        Pesenti%Antonio%coreGivesNoEmail%0,                        Piatti%Alessandra%coreGivesNoEmail%0,                        Ranieri%Marco Vito%coreGivesNoEmail%0,                        Scandroglio%Anna Mara%coreGivesNoEmail%0,                        Storti%Enrico%coreGivesNoEmail%0,                        Zanella%Alberto%coreGivesNoEmail%0,                        Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                          Lei%Tu%NULL%0,                          Lei%Tu%NULL%0,                          Pingjun%Zhu%NULL%0,                          Pingjun%Zhu%NULL%0,                          Mi%Mu%NULL%0,                          Mi%Mu%NULL%0,                          Runsheng%Wang%NULL%0,                          Pengcheng%Yang%NULL%0,                          Xi%Wang%NULL%0,                          Chao%Hu%NULL%0,                          Rongyu%Ping%NULL%0,                          Peng%Hu%NULL%0,                          Tianzhi%Li%NULL%0,                          Feng%Cao%NULL%0,                          Christopher%Chang%NULL%0,                          Qinyong%Hu%NULL%0,                          Yang%Jin%NULL%0,                          Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                          Min%Zhou%NULL%0,                          Xuan%Dong%NULL%0,                          Jieming%Qu%NULL%0,                          Fengyun%Gong%NULL%0,                          Yang%Han%NULL%0,                          Yang%Qiu%NULL%0,                          Jingli%Wang%NULL%0,                          Ying%Liu%NULL%0,                          Yuan%Wei%NULL%0,                          Jia'an%Xia%NULL%0,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%0,                          Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                        Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                          Yeming%Wang%NULL%0,                          Xingwang%Li%NULL%0,                          Lili%Ren%NULL%0,                          Jianping%Zhao%NULL%0,                          Yi%Hu%NULL%0,                          Li%Zhang%NULL%0,                          Guohui%Fan%NULL%0,                          Jiuyang%Xu%NULL%0,                          Xiaoying%Gu%NULL%0,                          Zhenshun%Cheng%NULL%0,                          Ting%Yu%NULL%0,                          Jiaan%Xia%NULL%0,                          Yuan%Wei%NULL%0,                          Wenjuan%Wu%NULL%0,                          Xuelei%Xie%NULL%0,                          Wen%Yin%NULL%0,                          Hui%Li%NULL%0,                          Min%Liu%NULL%0,                          Yan%Xiao%NULL%0,                          Hong%Gao%NULL%0,                          Li%Guo%NULL%0,                          Jungang%Xie%NULL%0,                          Guangfa%Wang%NULL%0,                          Rongmeng%Jiang%NULL%0,                          Zhancheng%Gao%NULL%0,                          Qi%Jin%NULL%0,                          Jianwei%Wang%wangjw28@163.com%0,                          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                          Yuan-Yuan%Fang%NULL%0,                          Yan%Deng%NULL%0,                          Wei%Liu%NULL%0,                          Mei-Fang%Wang%NULL%1,                          Jing-Ping%Ma%NULL%1,                          Wei%Xiao%NULL%1,                          Ying-Nan%Wang%NULL%1,                          Min-Hua%Zhong%NULL%1,                          Cheng-Hong%Li%NULL%1,                          Guang-Cai%Li%NULL%1,                          Hui-Guo%Liu%NULL%0,                          Xiu-Yuan%Hao%NULL%2,                          Xiu-Yuan%Hao%NULL%0,                          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                          Yang%Yang%NULL%0,                          Cong%Zhang%NULL%0,                          Fengming%Huang%NULL%0,                          Fuxiang%Wang%NULL%0,                          Jing%Yuan%NULL%0,                          Zhaoqin%Wang%NULL%0,                          Jinxiu%Li%NULL%0,                          Jianming%Li%NULL%0,                          Cheng%Feng%NULL%0,                          Zheng%Zhang%NULL%0,                          Lifei%Wang%NULL%0,                          Ling%Peng%NULL%0,                          Li%Chen%NULL%0,                          Yuhao%Qin%NULL%0,                          Dandan%Zhao%NULL%0,                          Shuguang%Tan%NULL%0,                          Lu%Yin%NULL%0,                          Jun%Xu%NULL%0,                          Congzhao%Zhou%NULL%0,                          Chengyu%Jiang%jiang@pumc.edu.cn%0,                          Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Wen-hua%Liang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Jian-xing%He%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          David S.C.%Hui%NULL%0,                          Bin%Du%NULL%0,                          Lan-juan%Li%NULL%0,                          Guang%Zeng%NULL%0,                          Kwok-Yung%Yuen%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Ping-yan%Chen%NULL%0,                          Jie%Xiang%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-lin%Wang%NULL%0,                          Zi-jing%Liang%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                          Li-Min%Liu%NULL%0,                          Wen%Yin%NULL%0,                          Wen%Wang%NULL%0,                          Lu-Lu%Guan%NULL%0,                          Ming-Li%Yuan%NULL%0,                          Yu-Lei%Li%NULL%0,                          Yi%Hu%NULL%0,                          Xu-Yan%Li%NULL%0,                          Bing%Sun%NULL%0,                          Peng%Peng%NULL%0,                          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                          Wen-hua%Liang%NULL%0,                          Yi%Zhao%NULL%0,                          Heng-rui%Liang%NULL%0,                          Zi-sheng%Chen%NULL%0,                          Yi-min%Li%NULL%0,                          Xiao-qing%Liu%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Chun-quan%Ou%NULL%0,                          Li%Li%NULL%0,                          Ping-yan%Chen%NULL%0,                          Ling%Sang%NULL%0,                          Wei%Wang%NULL%0,                          Jian-fu%Li%NULL%0,                          Cai-chen%Li%NULL%0,                          Li-min%Ou%NULL%0,                          Bo%Cheng%NULL%0,                          Shan%Xiong%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Jie%Xiang%NULL%0,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Lin-ling%Cheng%NULL%0,                          Feng%Ye%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-ping%Zheng%NULL%0,                          Nuo-fu%Zhang%NULL%0,                          Nan-shan%Zhong%NULL%0,                          Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                          Xiao-Xin%Wu%NULL%0,                          Xian-Gao%Jiang%NULL%0,                          Kai-Jin%Xu%NULL%0,                          Ling-Jun%Ying%NULL%0,                          Chun-Lian%Ma%NULL%0,                          Shi-Bo%Li%NULL%0,                          Hua-Ying%Wang%NULL%0,                          Sheng%Zhang%NULL%0,                          Hai-Nv%Gao%NULL%0,                          Ji-Fang%Sheng%NULL%0,                          Hong-Liu%Cai%NULL%0,                          Yun-Qing%Qiu%NULL%0,                          Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                          Zhe%Dai%NULL%1,                          Pingzheng%Mo%NULL%1,                          Xinyu%Li%NULL%1,                          Zhiyong%Ma%NULL%0,                          Shihui%Song%NULL%0,                          Xiaoping%Chen%NULL%0,                          Mingqi%Luo%NULL%0,                          Ke%Liang%NULL%0,                          Shicheng%Gao%NULL%0,                          Yongxi%Zhang%NULL%0,                          Liping%Deng%dengdeng78@126.com%0,                          Yong%Xiong%NULL%0,                          Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                          Wei-jie%Guan%NULL%0,                          Cai-chen%Li%NULL%0,                          Yi-min%Li%NULL%0,                          Heng-rui%Liang%NULL%0,                          Yi%Zhao%NULL%0,                          Xiao-qing%Liu%NULL%0,                          Ling%Sang%NULL%0,                          Ru-chong%Chen%NULL%0,                          Chun-li%Tang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Wang%NULL%0,                          Qi-hua%He%NULL%0,                          Zi-sheng%Chen%NULL%0,                          Sook-San%Wong%NULL%0,                          Mark%Zanin%NULL%0,                          Jun%Liu%NULL%0,                          Xin%Xu%NULL%0,                          Jun%Huang%NULL%0,                          Jian-fu%Li%NULL%0,                          Li-min%Ou%NULL%0,                          Bo%Cheng%NULL%0,                          Shan%Xiong%NULL%0,                          Zhan-hong%Xie%NULL%0,                          Zheng-yi%Ni%NULL%0,                          Yu%Hu%NULL%0,                          Lei%Liu%NULL%0,                          Hong%Shan%NULL%0,                          Chun-liang%Lei%NULL%0,                          Yi-xiang%Peng%NULL%0,                          Li%Wei%NULL%0,                          Yong%Liu%NULL%0,                          Ya-hua%Hu%NULL%0,                          Peng%Peng%NULL%0,                          Jian-ming%Wang%NULL%0,                          Ji-yang%Liu%NULL%0,                          Zhong%Chen%NULL%0,                          Gang%Li%NULL%0,                          Zhi-jian%Zheng%NULL%0,                          Shao-qin%Qiu%NULL%0,                          Jie%Luo%NULL%0,                          Chang-jiang%Ye%NULL%0,                          Shao-yong%Zhu%NULL%0,                          Lin-ling%Cheng%NULL%0,                          Feng%Ye%NULL%0,                          Shi-yue%Li%NULL%0,                          Jin-ping%Zheng%NULL%0,                          Nuo-fu%Zhang%NULL%0,                          Nan-shan%Zhong%NULL%0,                          Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                          Wenbo%He%NULL%0,                          Xiaomei%Yu%NULL%0,                          Dalong%Hu%NULL%0,                          Mingwei%Bao%NULL%0,                          Huafen%Liu%NULL%0,                          Jiali%Zhou%NULL%0,                          Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                          Wenlin%Cheng%NULL%0,                          Lei%Yu%NULL%0,                          Ya-Kun%Liu%NULL%0,                          Xiaoyong%Hu%NULL%0,                          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                          Huangqing%Ouyang%NULL%1,                          Lingli%Fu%NULL%1,                          Shijie%Wang%NULL%1,                          Jianglong%Han%NULL%1,                          Kejie%Huang%NULL%1,                          Mingfang%Jia%NULL%1,                          Qibin%Song%NULL%1,                          Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -3720,6 +4269,9 @@
       <c r="I1" t="s">
         <v>316</v>
       </c>
+      <c r="J1" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3735,7 +4287,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>903</v>
+        <v>1088</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -3748,6 +4300,9 @@
       </c>
       <c r="I2" t="s">
         <v>859</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -3764,7 +4319,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>904</v>
+        <v>1089</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -3777,6 +4332,9 @@
       </c>
       <c r="I3" t="s">
         <v>861</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -3793,7 +4351,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>905</v>
+        <v>1090</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -3806,6 +4364,9 @@
       </c>
       <c r="I4" t="s">
         <v>863</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -3822,7 +4383,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>906</v>
+        <v>607</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -3831,10 +4392,13 @@
         <v>461</v>
       </c>
       <c r="H5" t="s">
-        <v>462</v>
+        <v>945</v>
       </c>
       <c r="I5" t="s">
-        <v>859</v>
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="6">
@@ -3851,7 +4415,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>907</v>
+        <v>1091</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3864,6 +4428,9 @@
       </c>
       <c r="I6" t="s">
         <v>863</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -3880,7 +4447,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>908</v>
+        <v>1092</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3893,6 +4460,9 @@
       </c>
       <c r="I7" t="s">
         <v>861</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -3909,7 +4479,7 @@
         <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>909</v>
+        <v>1093</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -3922,6 +4492,9 @@
       </c>
       <c r="I8" t="s">
         <v>868</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -3938,7 +4511,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>910</v>
+        <v>1094</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -3951,6 +4524,9 @@
       </c>
       <c r="I9" t="s">
         <v>863</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -3967,7 +4543,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>911</v>
+        <v>1095</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -3980,6 +4556,9 @@
       </c>
       <c r="I10" t="s">
         <v>863</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -3996,7 +4575,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>912</v>
+        <v>1096</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -4009,6 +4588,9 @@
       </c>
       <c r="I11" t="s">
         <v>863</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -4025,7 +4607,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>913</v>
+        <v>1097</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -4038,6 +4620,9 @@
       </c>
       <c r="I12" t="s">
         <v>861</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -4054,7 +4639,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>914</v>
+        <v>1098</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -4067,6 +4652,9 @@
       </c>
       <c r="I13" t="s">
         <v>861</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14">
@@ -4083,7 +4671,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>915</v>
+        <v>1099</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -4096,6 +4684,9 @@
       </c>
       <c r="I14" t="s">
         <v>861</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -4112,7 +4703,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>916</v>
+        <v>1100</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -4125,6 +4716,9 @@
       </c>
       <c r="I15" t="s">
         <v>861</v>
+      </c>
+      <c r="J15" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -4141,7 +4735,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>917</v>
+        <v>1101</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -4154,6 +4748,9 @@
       </c>
       <c r="I16" t="s">
         <v>863</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -4170,7 +4767,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>918</v>
+        <v>1102</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -4183,6 +4780,9 @@
       </c>
       <c r="I17" t="s">
         <v>861</v>
+      </c>
+      <c r="J17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -4199,7 +4799,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>919</v>
+        <v>1103</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4212,6 +4812,9 @@
       </c>
       <c r="I18" t="s">
         <v>859</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -4228,7 +4831,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>920</v>
+        <v>1104</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -4241,6 +4844,9 @@
       </c>
       <c r="I19" t="s">
         <v>861</v>
+      </c>
+      <c r="J19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
@@ -4257,7 +4863,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>921</v>
+        <v>622</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -4266,10 +4872,13 @@
         <v>461</v>
       </c>
       <c r="H20" t="s">
-        <v>462</v>
+        <v>945</v>
       </c>
       <c r="I20" t="s">
-        <v>859</v>
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="21">
@@ -4286,7 +4895,7 @@
         <v>882</v>
       </c>
       <c r="E21" t="s">
-        <v>922</v>
+        <v>1105</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -4299,6 +4908,9 @@
       </c>
       <c r="I21" t="s">
         <v>69</v>
+      </c>
+      <c r="J21" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="22">
@@ -4315,7 +4927,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>923</v>
+        <v>1106</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4328,6 +4940,9 @@
       </c>
       <c r="I22" t="s">
         <v>859</v>
+      </c>
+      <c r="J22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23">
@@ -4344,7 +4959,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>924</v>
+        <v>1107</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -4357,6 +4972,9 @@
       </c>
       <c r="I23" t="s">
         <v>861</v>
+      </c>
+      <c r="J23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24">
@@ -4387,6 +5005,9 @@
       <c r="I24" t="s">
         <v>861</v>
       </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -4402,7 +5023,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>925</v>
+        <v>1108</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -4415,6 +5036,9 @@
       </c>
       <c r="I25" t="s">
         <v>863</v>
+      </c>
+      <c r="J25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -4431,7 +5055,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>926</v>
+        <v>1109</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -4444,6 +5068,9 @@
       </c>
       <c r="I26" t="s">
         <v>859</v>
+      </c>
+      <c r="J26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -4474,6 +5101,9 @@
       <c r="I27" t="s">
         <v>861</v>
       </c>
+      <c r="J27" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
@@ -4489,7 +5119,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>927</v>
+        <v>1110</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -4502,6 +5132,9 @@
       </c>
       <c r="I28" t="s">
         <v>863</v>
+      </c>
+      <c r="J28" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -4518,7 +5151,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>928</v>
+        <v>1111</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -4531,6 +5164,9 @@
       </c>
       <c r="I29" t="s">
         <v>861</v>
+      </c>
+      <c r="J29" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30">
@@ -4547,7 +5183,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>929</v>
+        <v>1112</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -4560,6 +5196,9 @@
       </c>
       <c r="I30" t="s">
         <v>868</v>
+      </c>
+      <c r="J30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="31">
@@ -4576,7 +5215,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>930</v>
+        <v>1113</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -4589,6 +5228,9 @@
       </c>
       <c r="I31" t="s">
         <v>861</v>
+      </c>
+      <c r="J31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -4605,7 +5247,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>931</v>
+        <v>1114</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -4618,6 +5260,9 @@
       </c>
       <c r="I32" t="s">
         <v>861</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -4634,7 +5279,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>932</v>
+        <v>1115</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -4647,6 +5292,9 @@
       </c>
       <c r="I33" t="s">
         <v>861</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34">
@@ -4663,7 +5311,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>933</v>
+        <v>1116</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -4676,6 +5324,9 @@
       </c>
       <c r="I34" t="s">
         <v>861</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35">
@@ -4692,7 +5343,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>934</v>
+        <v>1117</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -4705,6 +5356,9 @@
       </c>
       <c r="I35" t="s">
         <v>861</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -4721,7 +5375,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>935</v>
+        <v>1118</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -4734,6 +5388,9 @@
       </c>
       <c r="I36" t="s">
         <v>861</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -4750,7 +5407,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>936</v>
+        <v>1119</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -4763,6 +5420,9 @@
       </c>
       <c r="I37" t="s">
         <v>863</v>
+      </c>
+      <c r="J37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38">
@@ -4779,7 +5439,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>937</v>
+        <v>1120</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -4792,6 +5452,9 @@
       </c>
       <c r="I38" t="s">
         <v>861</v>
+      </c>
+      <c r="J38" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="39">
@@ -4808,7 +5471,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>938</v>
+        <v>1121</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -4821,6 +5484,9 @@
       </c>
       <c r="I39" t="s">
         <v>863</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40">
@@ -4837,7 +5503,7 @@
         <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>939</v>
+        <v>1122</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -4850,6 +5516,9 @@
       </c>
       <c r="I40" t="s">
         <v>868</v>
+      </c>
+      <c r="J40" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -4866,7 +5535,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>940</v>
+        <v>1123</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>
@@ -4879,6 +5548,9 @@
       </c>
       <c r="I41" t="s">
         <v>861</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/72.xlsx
+++ b/Covid_19_Dataset_and_References/References/72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7879" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8535" uniqueCount="1196">
   <si>
     <t>Doi</t>
   </si>
@@ -3927,6 +3927,222 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%0,                          Huilong%Chen%NULL%0,                          Weiming%Yan%NULL%0,                          Danlei%Yang%NULL%0,                          Guang%Chen%NULL%0,                          Ke%Ma%NULL%0,                          Dong%Xu%NULL%0,                          Haijing%Yu%NULL%0,                          Hongwu%Wang%NULL%0,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%0,                          Jia%Chen%NULL%0,                          Chen%Ding%NULL%0,                          Xiaoping%Zhang%NULL%0,                          Jiaquan%Huang%NULL%0,                          Meifang%Han%NULL%0,                          Shusheng%Li%NULL%0,                          Xiaoping%Luo%NULL%0,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                         Cao%Yi-yuan%coreGivesNoEmail%0,                         Dong%Xiang%coreGivesNoEmail%0,                         Gao%Ya-dong%coreGivesNoEmail%0,                         Yan%You-qin%coreGivesNoEmail%0,                         Yang%Yi-bin%coreGivesNoEmail%0,                         Yuan%Ya-dong%coreGivesNoEmail%0,                         Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                           Bohan%Yang%NULL%0,                           Qianwen%Li%NULL%0,                           Lu%Wen%NULL%0,                           Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%0,                           Jiqian%Xu%NULL%0,                           Huaqing%Shu%NULL%0,                           Jia'an%Xia%NULL%0,                           Hong%Liu%NULL%0,                           Yongran%Wu%NULL%0,                           Lu%Zhang%NULL%0,                           Zhui%Yu%NULL%0,                           Minghao%Fang%NULL%0,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%0,                           Shangwen%Pan%NULL%0,                           Xiaojing%Zou%NULL%0,                           Shiying%Yuan%NULL%0,                           You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                           Mengqi%Tu%NULL%0,                           Shipei%Wang%NULL%0,                           Sichao%Chen%NULL%0,                           Wei%Zhou%NULL%0,                           Danyang%Chen%NULL%0,                           Lin%Zhou%NULL%0,                           Min%Wang%NULL%0,                           Yan%Zhao%NULL%0,                           Wen%Zeng%NULL%0,                           Qi%Huang%NULL%0,                           Hai'bo%Xu%NULL%0,                           Zeming%Liu%NULL%0,                           Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                           Jiong%Wu%NULL%0,                           Faqi%Wu%NULL%0,                           Dajing%Guo%NULL%0,                           Linli%Chen%NULL%0,                           Zheng%Fang%NULL%0,                           Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                           Chengcheng%Yu%NULL%1,                           Jing%Qu%NULL%1,                           Lieguang%Zhang%NULL%1,                           Songfeng%Jiang%NULL%1,                           Deyang%Huang%NULL%1,                           Bihua%Chen%NULL%1,                           Zhiping%Zhang%NULL%1,                           Wanhua%Guan%NULL%1,                           Zhoukun%Ling%NULL%1,                           Rui%Jiang%NULL%1,                           Tianli%Hu%NULL%1,                           Yan%Ding%NULL%1,                           Lin%Lin%NULL%1,                           Qingxin%Gan%NULL%1,                           Liangping%Luo%tluolp@jnu.edu.cn%1,                           Xiaoping%Tang%xtang@21cn.com%1,                           Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                           Qiqi%Cao%NULL%2,                           Le%Qin%NULL%2,                           Xiaoyang%Wang%NULL%2,                           Zenghui%Cheng%NULL%2,                           Ashan%Pan%NULL%2,                           Jianyi%Dai%NULL%2,                           Qingfeng%Sun%NULL%2,                           Fengquan%Zhao%NULL%2,                           Jieming%Qu%NULL%0,                           Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                           Qiqi%Cao%NULL%0,                           Le%Qin%NULL%0,                           Xiaoyang%Wang%NULL%0,                           Zenghui%Cheng%NULL%0,                           Ashan%Pan%NULL%0,                           Jianyi%Dai%NULL%0,                           Qingfeng%Sun%NULL%0,                           Fengquan%Zhao%NULL%0,                           Jieming%Qu%NULL%0,                           Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                           Fang%Jiang%NULL%0,                           Wating%Su%NULL%0,                           Chang%Chen%NULL%0,                           Jingli%Chen%NULL%0,                           Wei%Mei%NULL%0,                           Li-Ying%Zhan%NULL%0,                           Yifan%Jia%NULL%0,                           Liangqing%Zhang%NULL%0,                           Danyong%Liu%NULL%0,                           Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                           Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                           Yun%Ling%NULL%0,                           Yun%Ling%NULL%0,                           Tao%Bai%NULL%0,                           Tao%Bai%NULL%0,                           Yusang%Xie%NULL%1,                           Jie%Huang%NULL%2,                           Jie%Huang%NULL%0,                           Jian%Li%NULL%1,                           Weining%Xiong%NULL%1,                           Dexiang%Yang%NULL%1,                           Rong%Chen%NULL%1,                           Fangying%Lu%NULL%1,                           Yunfei%Lu%NULL%2,                           Xuhui%Liu%NULL%1,                           Yuqing%Chen%NULL%2,                           Yuqing%Chen%NULL%0,                           Xin%Li%NULL%0,                           Yong%Li%NULL%1,                           Hanssa Dwarka%Summah%NULL%1,                           Huihuang%Lin%NULL%1,                           Jiayang%Yan%NULL%1,                           Min%Zhou%NULL%0,                           Hongzhou%Lu%NULL%0,                           Hongzhou%Lu%NULL%0,                           Jieming%Qu%NULL%0,                           Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                           Wen%Yin%NULL%0,                           Wen%Yin%NULL%0,                           Zhaowu%Tao%NULL%1,                           Weijun%Tan%NULL%1,                           Yi%Hu%NULL%0,                           Oliver%Schildgen%NULL%2,                           Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                           Yuanyuan%Xing%NULL%0,                           Yu%Xiao%NULL%0,                           Liping%Deng%NULL%0,                           Qiu%Zhao%NULL%0,                           Hongling%Wang%NULL%0,                           Yong%Xiong%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Shicheng%Gao%NULL%0,                           Ke%Liang%NULL%0,                           Mingqi%Luo%NULL%0,                           Tielong%Chen%NULL%0,                           Shihui%Song%NULL%0,                           Zhiyong%Ma%NULL%0,                           Xiaoping%Chen%NULL%0,                           Ruiying%Zheng%NULL%0,                           Qian%Cao%NULL%0,                           Fan%Wang%fanndywang@foxmail.com%0,                           Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                           Xun%Li%NULL%1,                           Hui%Chen%NULL%0,                           Shaonan%Yan%NULL%1,                           Dong%Li%NULL%1,                           Yan%Li%NULL%1,                           Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                           Chang%Hu%NULL%0,                           Linjie%Luo%NULL%0,                           Fang%Fang%NULL%0,                           Yongfeng%Chen%NULL%0,                           Jianguo%Li%NULL%0,                           Zhiyong%Peng%NULL%0,                           Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                           Yongzhen%Fan%NULL%0,                           Ming%Chen%NULL%0,                           Xiaoyan%Wu%NULL%0,                           Lin%Zhang%NULL%0,                           Tao%He%NULL%0,                           Hairong%Wang%NULL%0,                           Jing%Wan%NULL%0,                           Xinghuan%Wang%NULL%0,                           Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                         Becker%L.B.%coreGivesNoEmail%0,                         Chelico%J.D.%coreGivesNoEmail%0,                         Cohen%S.L.%coreGivesNoEmail%0,                         Cookingham%J.%coreGivesNoEmail%0,                         Coppa%K.%coreGivesNoEmail%0,                         Crawford%J.M.%coreGivesNoEmail%0,                         Davidson%K.W.%coreGivesNoEmail%0,                         Diefenbach%M.A.%coreGivesNoEmail%0,                         Dominello%A.J.%coreGivesNoEmail%0,                         Duer-Hefele%J.%coreGivesNoEmail%0,                         Falzon%L.%coreGivesNoEmail%0,                         Gitlin%J.%coreGivesNoEmail%0,                         Hajizadeh%N.%coreGivesNoEmail%0,                         Harvin%T.G.%coreGivesNoEmail%0,                         Hirsch%J.S.%coreGivesNoEmail%0,                         Hirschwerk%D.A.%coreGivesNoEmail%0,                         Kim%E.J.%coreGivesNoEmail%0,                         Kozel%Z.M.%coreGivesNoEmail%0,                         Marrast%L.M.%coreGivesNoEmail%0,                         McGinn%T.%coreGivesNoEmail%0,                         Mogavero%J.N.%coreGivesNoEmail%0,                         Narasimhan%M.%coreGivesNoEmail%0,                         Osorio%G.A.%coreGivesNoEmail%0,                         Qiu%M.%coreGivesNoEmail%0,                         Richardson%S.%coreGivesNoEmail%0,                         Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0,                           Nancy%Chow%NULL%0,                           Katherine%Fleming-Dutra%NULL%1,                           Ryan%Gierke%NULL%0,                           Aron%Hall%NULL%0,                           Michelle%Hughes%NULL%1,                           Tamara%Pilishvili%NULL%0,                           Matthew%Ritchey%NULL%0,                           Katherine%Roguski%NULL%1,                           Tami%Skoff%NULL%1,                           Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nitesh%Gupta%xref no email%1,      Sumita%Agrawal%xref no email%1,      Pranav%Ish%xref no email%1,      Suruchi%Mishra%xref no email%1,      Rajni%Gaind%xref no email%1,      Ganapathy%Usha%xref no email%1,      Balvinder%Singh%xref no email%1,      Manas Kamal%Sen%xref no email%1,      *Safdarjung Hospital%COVID 2019 working group%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                         Cabrini%Luca%coreGivesNoEmail%0,                         Castelli%Antonio%coreGivesNoEmail%0,                         Cecconi%Maurizio%coreGivesNoEmail%0,                         Cereda%Danilo%coreGivesNoEmail%0,                         Coluccello%Antonio%coreGivesNoEmail%0,                         Foti%Giuseppe%coreGivesNoEmail%0,                         Fumagalli%Roberto%coreGivesNoEmail%0,                         Grasselli%Giacomo%coreGivesNoEmail%0,                         Iotti%Giorgio%coreGivesNoEmail%0,                         Latronico%Nicola%coreGivesNoEmail%0,                         Lorini%Luca%coreGivesNoEmail%0,                         Merler%Stefano%coreGivesNoEmail%0,                         Natalini%Giuseppe%coreGivesNoEmail%0,                         Pesenti%Antonio%coreGivesNoEmail%0,                         Piatti%Alessandra%coreGivesNoEmail%0,                         Ranieri%Marco Vito%coreGivesNoEmail%0,                         Scandroglio%Anna Mara%coreGivesNoEmail%0,                         Storti%Enrico%coreGivesNoEmail%0,                         Zanella%Alberto%coreGivesNoEmail%0,                         Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                           Lei%Tu%NULL%0,                           Lei%Tu%NULL%0,                           Pingjun%Zhu%NULL%0,                           Pingjun%Zhu%NULL%0,                           Mi%Mu%NULL%0,                           Mi%Mu%NULL%0,                           Runsheng%Wang%NULL%0,                           Pengcheng%Yang%NULL%0,                           Xi%Wang%NULL%0,                           Chao%Hu%NULL%0,                           Rongyu%Ping%NULL%0,                           Peng%Hu%NULL%0,                           Tianzhi%Li%NULL%0,                           Feng%Cao%NULL%0,                           Christopher%Chang%NULL%0,                           Qinyong%Hu%NULL%0,                           Yang%Jin%NULL%0,                           Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                           Min%Zhou%NULL%0,                           Xuan%Dong%NULL%0,                           Jieming%Qu%NULL%0,                           Fengyun%Gong%NULL%0,                           Yang%Han%NULL%0,                           Yang%Qiu%NULL%0,                           Jingli%Wang%NULL%0,                           Ying%Liu%NULL%0,                           Yuan%Wei%NULL%0,                           Jia'an%Xia%NULL%0,                           Ting%Yu%NULL%0,                           Xinxin%Zhang%NULL%0,                           Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                         Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%0,                           Xingwang%Li%NULL%0,                           Lili%Ren%NULL%0,                           Jianping%Zhao%NULL%0,                           Yi%Hu%NULL%0,                           Li%Zhang%NULL%0,                           Guohui%Fan%NULL%0,                           Jiuyang%Xu%NULL%0,                           Xiaoying%Gu%NULL%0,                           Zhenshun%Cheng%NULL%0,                           Ting%Yu%NULL%0,                           Jiaan%Xia%NULL%0,                           Yuan%Wei%NULL%0,                           Wenjuan%Wu%NULL%0,                           Xuelei%Xie%NULL%0,                           Wen%Yin%NULL%0,                           Hui%Li%NULL%0,                           Min%Liu%NULL%0,                           Yan%Xiao%NULL%0,                           Hong%Gao%NULL%0,                           Li%Guo%NULL%0,                           Jungang%Xie%NULL%0,                           Guangfa%Wang%NULL%0,                           Rongmeng%Jiang%NULL%0,                           Zhancheng%Gao%NULL%0,                           Qi%Jin%NULL%0,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                           Yuan-Yuan%Fang%NULL%0,                           Yan%Deng%NULL%0,                           Wei%Liu%NULL%0,                           Mei-Fang%Wang%NULL%1,                           Jing-Ping%Ma%NULL%1,                           Wei%Xiao%NULL%1,                           Ying-Nan%Wang%NULL%1,                           Min-Hua%Zhong%NULL%1,                           Cheng-Hong%Li%NULL%1,                           Guang-Cai%Li%NULL%1,                           Hui-Guo%Liu%NULL%0,                           Xiu-Yuan%Hao%NULL%2,                           Xiu-Yuan%Hao%NULL%0,                           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                           Yang%Yang%NULL%0,                           Cong%Zhang%NULL%0,                           Fengming%Huang%NULL%0,                           Fuxiang%Wang%NULL%0,                           Jing%Yuan%NULL%0,                           Zhaoqin%Wang%NULL%0,                           Jinxiu%Li%NULL%0,                           Jianming%Li%NULL%0,                           Cheng%Feng%NULL%0,                           Zheng%Zhang%NULL%0,                           Lifei%Wang%NULL%0,                           Ling%Peng%NULL%0,                           Li%Chen%NULL%0,                           Yuhao%Qin%NULL%0,                           Dandan%Zhao%NULL%0,                           Shuguang%Tan%NULL%0,                           Lu%Yin%NULL%0,                           Jun%Xu%NULL%0,                           Congzhao%Zhou%NULL%0,                           Chengyu%Jiang%jiang@pumc.edu.cn%0,                           Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Wen-hua%Liang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Jian-xing%He%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           David S.C.%Hui%NULL%0,                           Bin%Du%NULL%0,                           Lan-juan%Li%NULL%0,                           Guang%Zeng%NULL%0,                           Kwok-Yung%Yuen%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Ping-yan%Chen%NULL%0,                           Jie%Xiang%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-lin%Wang%NULL%0,                           Zi-jing%Liang%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                           Li-Min%Liu%NULL%0,                           Wen%Yin%NULL%0,                           Wen%Wang%NULL%0,                           Lu-Lu%Guan%NULL%0,                           Ming-Li%Yuan%NULL%0,                           Yu-Lei%Li%NULL%0,                           Yi%Hu%NULL%0,                           Xu-Yan%Li%NULL%0,                           Bing%Sun%NULL%0,                           Peng%Peng%NULL%0,                           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                           Wen-hua%Liang%NULL%0,                           Yi%Zhao%NULL%0,                           Heng-rui%Liang%NULL%0,                           Zi-sheng%Chen%NULL%0,                           Yi-min%Li%NULL%0,                           Xiao-qing%Liu%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Chun-quan%Ou%NULL%0,                           Li%Li%NULL%0,                           Ping-yan%Chen%NULL%0,                           Ling%Sang%NULL%0,                           Wei%Wang%NULL%0,                           Jian-fu%Li%NULL%0,                           Cai-chen%Li%NULL%0,                           Li-min%Ou%NULL%0,                           Bo%Cheng%NULL%0,                           Shan%Xiong%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Jie%Xiang%NULL%0,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Lin-ling%Cheng%NULL%0,                           Feng%Ye%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-ping%Zheng%NULL%0,                           Nuo-fu%Zhang%NULL%0,                           Nan-shan%Zhong%NULL%0,                           Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                           Xiao-Xin%Wu%NULL%0,                           Xian-Gao%Jiang%NULL%0,                           Kai-Jin%Xu%NULL%0,                           Ling-Jun%Ying%NULL%0,                           Chun-Lian%Ma%NULL%0,                           Shi-Bo%Li%NULL%0,                           Hua-Ying%Wang%NULL%0,                           Sheng%Zhang%NULL%0,                           Hai-Nv%Gao%NULL%0,                           Ji-Fang%Sheng%NULL%0,                           Hong-Liu%Cai%NULL%0,                           Yun-Qing%Qiu%NULL%0,                           Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                           Zhe%Dai%NULL%1,                           Pingzheng%Mo%NULL%1,                           Xinyu%Li%NULL%1,                           Zhiyong%Ma%NULL%0,                           Shihui%Song%NULL%0,                           Xiaoping%Chen%NULL%0,                           Mingqi%Luo%NULL%0,                           Ke%Liang%NULL%0,                           Shicheng%Gao%NULL%0,                           Yongxi%Zhang%NULL%0,                           Liping%Deng%dengdeng78@126.com%0,                           Yong%Xiong%NULL%0,                           Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                           Wei-jie%Guan%NULL%0,                           Cai-chen%Li%NULL%0,                           Yi-min%Li%NULL%0,                           Heng-rui%Liang%NULL%0,                           Yi%Zhao%NULL%0,                           Xiao-qing%Liu%NULL%0,                           Ling%Sang%NULL%0,                           Ru-chong%Chen%NULL%0,                           Chun-li%Tang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Wang%NULL%0,                           Qi-hua%He%NULL%0,                           Zi-sheng%Chen%NULL%0,                           Sook-San%Wong%NULL%0,                           Mark%Zanin%NULL%0,                           Jun%Liu%NULL%0,                           Xin%Xu%NULL%0,                           Jun%Huang%NULL%0,                           Jian-fu%Li%NULL%0,                           Li-min%Ou%NULL%0,                           Bo%Cheng%NULL%0,                           Shan%Xiong%NULL%0,                           Zhan-hong%Xie%NULL%0,                           Zheng-yi%Ni%NULL%0,                           Yu%Hu%NULL%0,                           Lei%Liu%NULL%0,                           Hong%Shan%NULL%0,                           Chun-liang%Lei%NULL%0,                           Yi-xiang%Peng%NULL%0,                           Li%Wei%NULL%0,                           Yong%Liu%NULL%0,                           Ya-hua%Hu%NULL%0,                           Peng%Peng%NULL%0,                           Jian-ming%Wang%NULL%0,                           Ji-yang%Liu%NULL%0,                           Zhong%Chen%NULL%0,                           Gang%Li%NULL%0,                           Zhi-jian%Zheng%NULL%0,                           Shao-qin%Qiu%NULL%0,                           Jie%Luo%NULL%0,                           Chang-jiang%Ye%NULL%0,                           Shao-yong%Zhu%NULL%0,                           Lin-ling%Cheng%NULL%0,                           Feng%Ye%NULL%0,                           Shi-yue%Li%NULL%0,                           Jin-ping%Zheng%NULL%0,                           Nuo-fu%Zhang%NULL%0,                           Nan-shan%Zhong%NULL%0,                           Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                           Wenbo%He%NULL%0,                           Xiaomei%Yu%NULL%0,                           Dalong%Hu%NULL%0,                           Mingwei%Bao%NULL%0,                           Huafen%Liu%NULL%0,                           Jiali%Zhou%NULL%0,                           Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                           Wenlin%Cheng%NULL%0,                           Lei%Yu%NULL%0,                           Ya-Kun%Liu%NULL%0,                           Xiaoyong%Hu%NULL%0,                           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                           Huangqing%Ouyang%NULL%1,                           Lingli%Fu%NULL%1,                           Shijie%Wang%NULL%1,                           Jianglong%Han%NULL%1,                           Kejie%Huang%NULL%1,                           Mingfang%Jia%NULL%1,                           Qibin%Song%NULL%1,                           Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,                          Cao%Yi-yuan%coreGivesNoEmail%0,                          Dong%Xiang%coreGivesNoEmail%0,                          Gao%Ya-dong%coreGivesNoEmail%0,                          Yan%You-qin%coreGivesNoEmail%0,                          Yang%Yi-bin%coreGivesNoEmail%0,                          Yuan%Ya-dong%coreGivesNoEmail%0,                          Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,                            Bohan%Yang%NULL%0,                            Qianwen%Li%NULL%0,                            Lu%Wen%NULL%0,                            Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yihui%Huang%NULL%0,                            Mengqi%Tu%NULL%0,                            Shipei%Wang%NULL%0,                            Sichao%Chen%NULL%0,                            Wei%Zhou%NULL%0,                            Danyang%Chen%NULL%0,                            Lin%Zhou%NULL%0,                            Min%Wang%NULL%0,                            Yan%Zhao%NULL%0,                            Wen%Zeng%NULL%0,                            Qi%Huang%NULL%0,                            Hai'bo%Xu%NULL%0,                            Zeming%Liu%NULL%0,                            Liang%Guo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kunhua%Li%NULL%0,                            Jiong%Wu%NULL%0,                            Faqi%Wu%NULL%0,                            Dajing%Guo%NULL%0,                            Linli%Chen%NULL%0,                            Zheng%Fang%NULL%0,                            Chuanming%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xi%Xu%NULL%0,                            Chengcheng%Yu%NULL%1,                            Jing%Qu%NULL%1,                            Lieguang%Zhang%NULL%1,                            Songfeng%Jiang%NULL%1,                            Deyang%Huang%NULL%1,                            Bihua%Chen%NULL%1,                            Zhiping%Zhang%NULL%1,                            Wanhua%Guan%NULL%1,                            Zhoukun%Ling%NULL%1,                            Rui%Jiang%NULL%1,                            Tianli%Hu%NULL%1,                            Yan%Ding%NULL%1,                            Lin%Lin%NULL%1,                            Qingxin%Gan%NULL%1,                            Liangping%Luo%tluolp@jnu.edu.cn%1,                            Xiaoping%Tang%xtang@21cn.com%1,                            Jinxin%Liu%Liujx83710378@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                            Qiqi%Cao%NULL%2,                            Le%Qin%NULL%2,                            Xiaoyang%Wang%NULL%2,                            Zenghui%Cheng%NULL%2,                            Ashan%Pan%NULL%2,                            Jianyi%Dai%NULL%2,                            Qingfeng%Sun%NULL%2,                            Fengquan%Zhao%NULL%2,                            Jieming%Qu%NULL%0,                            Fuhua%Yan%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Wenjie%Yang%NULL%0,                            Qiqi%Cao%NULL%0,                            Le%Qin%NULL%0,                            Xiaoyang%Wang%NULL%0,                            Zenghui%Cheng%NULL%0,                            Ashan%Pan%NULL%0,                            Jianyi%Dai%NULL%0,                            Qingfeng%Sun%NULL%0,                            Fengquan%Zhao%NULL%0,                            Jieming%Qu%NULL%0,                            Fuhua%Yan%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaoqing%Lei%NULL%0,                            Fang%Jiang%NULL%0,                            Wating%Su%NULL%0,                            Chang%Chen%NULL%0,                            Jingli%Chen%NULL%0,                            Wei%Mei%NULL%0,                            Li-Ying%Zhan%NULL%0,                            Yifan%Jia%NULL%0,                            Liangqing%Zhang%NULL%0,                            Danyong%Liu%NULL%0,                            Zhong-Yuan%Xia%xiazhongyuan2005@aliyun.com%0,                            Zhengyuan%Xia%zyxia@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,                            Yun%Ling%NULL%0,                            Yun%Ling%NULL%0,                            Tao%Bai%NULL%0,                            Tao%Bai%NULL%0,                            Yusang%Xie%NULL%1,                            Jie%Huang%NULL%2,                            Jie%Huang%NULL%0,                            Jian%Li%NULL%1,                            Weining%Xiong%NULL%1,                            Dexiang%Yang%NULL%1,                            Rong%Chen%NULL%1,                            Fangying%Lu%NULL%1,                            Yunfei%Lu%NULL%2,                            Xuhui%Liu%NULL%1,                            Yuqing%Chen%NULL%2,                            Yuqing%Chen%NULL%0,                            Xin%Li%NULL%0,                            Yong%Li%NULL%1,                            Hanssa Dwarka%Summah%NULL%1,                            Huihuang%Lin%NULL%1,                            Jiayang%Yan%NULL%1,                            Min%Zhou%NULL%0,                            Hongzhou%Lu%NULL%0,                            Hongzhou%Lu%NULL%0,                            Jieming%Qu%NULL%0,                            Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mingli%Yuan%NULL%1,                            Wen%Yin%NULL%0,                            Wen%Yin%NULL%0,                            Zhaowu%Tao%NULL%1,                            Weijun%Tan%NULL%1,                            Yi%Hu%NULL%0,                            Oliver%Schildgen%NULL%2,                            Oliver%Schildgen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,                            Yuanyuan%Xing%NULL%0,                            Yu%Xiao%NULL%0,                            Liping%Deng%NULL%0,                            Qiu%Zhao%NULL%0,                            Hongling%Wang%NULL%0,                            Yong%Xiong%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Shicheng%Gao%NULL%0,                            Ke%Liang%NULL%0,                            Mingqi%Luo%NULL%0,                            Tielong%Chen%NULL%0,                            Shihui%Song%NULL%0,                            Zhiyong%Ma%NULL%0,                            Xiaoping%Chen%NULL%0,                            Ruiying%Zheng%NULL%0,                            Qian%Cao%NULL%0,                            Fan%Wang%fanndywang@foxmail.com%0,                            Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Luwen%Wang%NULL%0,                            Xun%Li%NULL%1,                            Hui%Chen%NULL%0,                            Shaonan%Yan%NULL%1,                            Dong%Li%NULL%1,                            Yan%Li%NULL%1,                            Zuojiong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%0,                            Chang%Hu%NULL%0,                            Linjie%Luo%NULL%0,                            Fang%Fang%NULL%0,                            Yongfeng%Chen%NULL%0,                            Jianguo%Li%NULL%0,                            Zhiyong%Peng%NULL%0,                            Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                            Yongzhen%Fan%NULL%0,                            Ming%Chen%NULL%0,                            Xiaoyan%Wu%NULL%0,                            Lin%Zhang%NULL%0,                            Tao%He%NULL%0,                            Hairong%Wang%NULL%0,                            Jing%Wan%NULL%0,                            Xinghuan%Wang%NULL%0,                            Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Barnaby%D.P.%coreGivesNoEmail%0,                          Becker%L.B.%coreGivesNoEmail%0,                          Chelico%J.D.%coreGivesNoEmail%0,                          Cohen%S.L.%coreGivesNoEmail%0,                          Cookingham%J.%coreGivesNoEmail%0,                          Coppa%K.%coreGivesNoEmail%0,                          Crawford%J.M.%coreGivesNoEmail%0,                          Davidson%K.W.%coreGivesNoEmail%0,                          Diefenbach%M.A.%coreGivesNoEmail%0,                          Dominello%A.J.%coreGivesNoEmail%0,                          Duer-Hefele%J.%coreGivesNoEmail%0,                          Falzon%L.%coreGivesNoEmail%0,                          Gitlin%J.%coreGivesNoEmail%0,                          Hajizadeh%N.%coreGivesNoEmail%0,                          Harvin%T.G.%coreGivesNoEmail%0,                          Hirsch%J.S.%coreGivesNoEmail%0,                          Hirschwerk%D.A.%coreGivesNoEmail%0,                          Kim%E.J.%coreGivesNoEmail%0,                          Kozel%Z.M.%coreGivesNoEmail%0,                          Marrast%L.M.%coreGivesNoEmail%0,                          McGinn%T.%coreGivesNoEmail%0,                          Mogavero%J.N.%coreGivesNoEmail%0,                          Narasimhan%M.%coreGivesNoEmail%0,                          Osorio%G.A.%coreGivesNoEmail%0,                          Qiu%M.%coreGivesNoEmail%0,                          Richardson%S.%coreGivesNoEmail%0,                          Zanos%T.P.%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            NULL%NULL%NULL%0,                            Nancy%Chow%NULL%0,                            Katherine%Fleming-Dutra%NULL%1,                            Ryan%Gierke%NULL%0,                            Aron%Hall%NULL%0,                            Michelle%Hughes%NULL%1,                            Tamara%Pilishvili%NULL%0,                            Matthew%Ritchey%NULL%0,                            Katherine%Roguski%NULL%1,                            Tami%Skoff%NULL%1,                            Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Nitesh%Gupta%xref no email%1,       Sumita%Agrawal%xref no email%1,       Pranav%Ish%xref no email%1,       Suruchi%Mishra%xref no email%1,       Rajni%Gaind%xref no email%1,       Ganapathy%Usha%xref no email%1,       Balvinder%Singh%xref no email%1,       Manas Kamal%Sen%xref no email%1,       *Safdarjung Hospital%COVID 2019 working group%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Antonelli%Massimo%coreGivesNoEmail%0,                          Cabrini%Luca%coreGivesNoEmail%0,                          Castelli%Antonio%coreGivesNoEmail%0,                          Cecconi%Maurizio%coreGivesNoEmail%0,                          Cereda%Danilo%coreGivesNoEmail%0,                          Coluccello%Antonio%coreGivesNoEmail%0,                          Foti%Giuseppe%coreGivesNoEmail%0,                          Fumagalli%Roberto%coreGivesNoEmail%0,                          Grasselli%Giacomo%coreGivesNoEmail%0,                          Iotti%Giorgio%coreGivesNoEmail%0,                          Latronico%Nicola%coreGivesNoEmail%0,                          Lorini%Luca%coreGivesNoEmail%0,                          Merler%Stefano%coreGivesNoEmail%0,                          Natalini%Giuseppe%coreGivesNoEmail%0,                          Pesenti%Antonio%coreGivesNoEmail%0,                          Piatti%Alessandra%coreGivesNoEmail%0,                          Ranieri%Marco Vito%coreGivesNoEmail%0,                          Scandroglio%Anna Mara%coreGivesNoEmail%0,                          Storti%Enrico%coreGivesNoEmail%0,                          Zanella%Alberto%coreGivesNoEmail%0,                          Zangrillo%Alberto%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Yingzhen%Du%NULL%0,                            Lei%Tu%NULL%0,                            Lei%Tu%NULL%0,                            Pingjun%Zhu%NULL%0,                            Pingjun%Zhu%NULL%0,                            Mi%Mu%NULL%0,                            Mi%Mu%NULL%0,                            Runsheng%Wang%NULL%0,                            Pengcheng%Yang%NULL%0,                            Xi%Wang%NULL%0,                            Chao%Hu%NULL%0,                            Rongyu%Ping%NULL%0,                            Peng%Hu%NULL%0,                            Tianzhi%Li%NULL%0,                            Feng%Cao%NULL%0,                            Christopher%Chang%NULL%0,                            Qinyong%Hu%NULL%0,                            Yang%Jin%NULL%0,                            Guogang%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nanshan%Chen%NULL%0,                            Min%Zhou%NULL%0,                            Xuan%Dong%NULL%0,                            Jieming%Qu%NULL%0,                            Fengyun%Gong%NULL%0,                            Yang%Han%NULL%0,                            Yang%Qiu%NULL%0,                            Jingli%Wang%NULL%0,                            Ying%Liu%NULL%0,                            Yuan%Wei%NULL%0,                            Jia'an%Xia%NULL%0,                            Ting%Yu%NULL%0,                            Xinxin%Zhang%NULL%0,                            Li%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,                          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,                          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,                          Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                            Yuan-Yuan%Fang%NULL%0,                            Yan%Deng%NULL%0,                            Wei%Liu%NULL%0,                            Mei-Fang%Wang%NULL%1,                            Jing-Ping%Ma%NULL%1,                            Wei%Xiao%NULL%1,                            Ying-Nan%Wang%NULL%1,                            Min-Hua%Zhong%NULL%1,                            Cheng-Hong%Li%NULL%1,                            Guang-Cai%Li%NULL%1,                            Hui-Guo%Liu%NULL%0,                            Xiu-Yuan%Hao%NULL%2,                            Xiu-Yuan%Hao%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yingxia%Liu%yingxialiu@hotmail.com%0,                            Yang%Yang%NULL%0,                            Cong%Zhang%NULL%0,                            Fengming%Huang%NULL%0,                            Fuxiang%Wang%NULL%0,                            Jing%Yuan%NULL%0,                            Zhaoqin%Wang%NULL%0,                            Jinxiu%Li%NULL%0,                            Jianming%Li%NULL%0,                            Cheng%Feng%NULL%0,                            Zheng%Zhang%NULL%0,                            Lifei%Wang%NULL%0,                            Ling%Peng%NULL%0,                            Li%Chen%NULL%0,                            Yuhao%Qin%NULL%0,                            Dandan%Zhao%NULL%0,                            Shuguang%Tan%NULL%0,                            Lu%Yin%NULL%0,                            Jun%Xu%NULL%0,                            Congzhao%Zhou%NULL%0,                            Chengyu%Jiang%jiang@pumc.edu.cn%0,                            Lei%Liu%liulei3322@aliyun.com%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Wen-hua%Liang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Jian-xing%He%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            David S.C.%Hui%NULL%0,                            Bin%Du%NULL%0,                            Lan-juan%Li%NULL%0,                            Guang%Zeng%NULL%0,                            Kwok-Yung%Yuen%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Ping-yan%Chen%NULL%0,                            Jie%Xiang%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-lin%Wang%NULL%0,                            Zi-jing%Liang%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                            Li-Min%Liu%NULL%0,                            Wen%Yin%NULL%0,                            Wen%Wang%NULL%0,                            Lu-Lu%Guan%NULL%0,                            Ming-Li%Yuan%NULL%0,                            Yu-Lei%Li%NULL%0,                            Yi%Hu%NULL%0,                            Xu-Yan%Li%NULL%0,                            Bing%Sun%NULL%0,                            Peng%Peng%NULL%0,                            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,                            Wen-hua%Liang%NULL%0,                            Yi%Zhao%NULL%0,                            Heng-rui%Liang%NULL%0,                            Zi-sheng%Chen%NULL%0,                            Yi-min%Li%NULL%0,                            Xiao-qing%Liu%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Chun-quan%Ou%NULL%0,                            Li%Li%NULL%0,                            Ping-yan%Chen%NULL%0,                            Ling%Sang%NULL%0,                            Wei%Wang%NULL%0,                            Jian-fu%Li%NULL%0,                            Cai-chen%Li%NULL%0,                            Li-min%Ou%NULL%0,                            Bo%Cheng%NULL%0,                            Shan%Xiong%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Jie%Xiang%NULL%0,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Lin-ling%Cheng%NULL%0,                            Feng%Ye%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-ping%Zheng%NULL%0,                            Nuo-fu%Zhang%NULL%0,                            Nan-shan%Zhong%NULL%0,                            Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                            Xiao-Xin%Wu%NULL%0,                            Xian-Gao%Jiang%NULL%0,                            Kai-Jin%Xu%NULL%0,                            Ling-Jun%Ying%NULL%0,                            Chun-Lian%Ma%NULL%0,                            Shi-Bo%Li%NULL%0,                            Hua-Ying%Wang%NULL%0,                            Sheng%Zhang%NULL%0,                            Hai-Nv%Gao%NULL%0,                            Ji-Fang%Sheng%NULL%0,                            Hong-Liu%Cai%NULL%0,                            Yun-Qing%Qiu%NULL%0,                            Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[TieLong%Chen%NULL%0,                            Zhe%Dai%NULL%1,                            Pingzheng%Mo%NULL%1,                            Xinyu%Li%NULL%1,                            Zhiyong%Ma%NULL%0,                            Shihui%Song%NULL%0,                            Xiaoping%Chen%NULL%0,                            Mingqi%Luo%NULL%0,                            Ke%Liang%NULL%0,                            Shicheng%Gao%NULL%0,                            Yongxi%Zhang%NULL%0,                            Liping%Deng%dengdeng78@126.com%0,                            Yong%Xiong%NULL%0,                            Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wen-hua%Liang%NULL%0,                            Wei-jie%Guan%NULL%0,                            Cai-chen%Li%NULL%0,                            Yi-min%Li%NULL%0,                            Heng-rui%Liang%NULL%0,                            Yi%Zhao%NULL%0,                            Xiao-qing%Liu%NULL%0,                            Ling%Sang%NULL%0,                            Ru-chong%Chen%NULL%0,                            Chun-li%Tang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Wang%NULL%0,                            Qi-hua%He%NULL%0,                            Zi-sheng%Chen%NULL%0,                            Sook-San%Wong%NULL%0,                            Mark%Zanin%NULL%0,                            Jun%Liu%NULL%0,                            Xin%Xu%NULL%0,                            Jun%Huang%NULL%0,                            Jian-fu%Li%NULL%0,                            Li-min%Ou%NULL%0,                            Bo%Cheng%NULL%0,                            Shan%Xiong%NULL%0,                            Zhan-hong%Xie%NULL%0,                            Zheng-yi%Ni%NULL%0,                            Yu%Hu%NULL%0,                            Lei%Liu%NULL%0,                            Hong%Shan%NULL%0,                            Chun-liang%Lei%NULL%0,                            Yi-xiang%Peng%NULL%0,                            Li%Wei%NULL%0,                            Yong%Liu%NULL%0,                            Ya-hua%Hu%NULL%0,                            Peng%Peng%NULL%0,                            Jian-ming%Wang%NULL%0,                            Ji-yang%Liu%NULL%0,                            Zhong%Chen%NULL%0,                            Gang%Li%NULL%0,                            Zhi-jian%Zheng%NULL%0,                            Shao-qin%Qiu%NULL%0,                            Jie%Luo%NULL%0,                            Chang-jiang%Ye%NULL%0,                            Shao-yong%Zhu%NULL%0,                            Lin-ling%Cheng%NULL%0,                            Feng%Ye%NULL%0,                            Shi-yue%Li%NULL%0,                            Jin-ping%Zheng%NULL%0,                            Nuo-fu%Zhang%NULL%0,                            Nan-shan%Zhong%NULL%0,                            Jian-xing%He%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%0,                            Wenbo%He%NULL%0,                            Xiaomei%Yu%NULL%0,                            Dalong%Hu%NULL%0,                            Mingwei%Bao%NULL%0,                            Huafen%Liu%NULL%0,                            Jiali%Zhou%NULL%0,                            Hong%Jiang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,                            Wenlin%Cheng%NULL%0,                            Lei%Yu%NULL%0,                            Ya-Kun%Liu%NULL%0,                            Xiaoyong%Hu%NULL%0,                            Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%0,                            Huangqing%Ouyang%NULL%1,                            Lingli%Fu%NULL%1,                            Shijie%Wang%NULL%1,                            Jianglong%Han%NULL%1,                            Kejie%Huang%NULL%1,                            Mingfang%Jia%NULL%1,                            Qibin%Song%NULL%1,                            Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -4287,7 +4503,7 @@
         <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>1088</v>
+        <v>1160</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -4319,7 +4535,7 @@
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>1089</v>
+        <v>1161</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -4351,7 +4567,7 @@
         <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>1090</v>
+        <v>1162</v>
       </c>
       <c r="F4" t="s">
         <v>67</v>
@@ -4383,7 +4599,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -4415,7 +4631,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>1091</v>
+        <v>1163</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -4447,7 +4663,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>1092</v>
+        <v>1164</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -4479,7 +4695,7 @@
         <v>610</v>
       </c>
       <c r="E8" t="s">
-        <v>1093</v>
+        <v>1165</v>
       </c>
       <c r="F8" t="s">
         <v>80</v>
@@ -4511,7 +4727,7 @@
         <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>1094</v>
+        <v>1166</v>
       </c>
       <c r="F9" t="s">
         <v>85</v>
@@ -4543,7 +4759,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>1095</v>
+        <v>1167</v>
       </c>
       <c r="F10" t="s">
         <v>85</v>
@@ -4575,7 +4791,7 @@
         <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>1096</v>
+        <v>1168</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
@@ -4607,7 +4823,7 @@
         <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>1097</v>
+        <v>1169</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
@@ -4639,7 +4855,7 @@
         <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>1098</v>
+        <v>1170</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
@@ -4671,7 +4887,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>1099</v>
+        <v>1171</v>
       </c>
       <c r="F14" t="s">
         <v>106</v>
@@ -4703,7 +4919,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>1100</v>
+        <v>1172</v>
       </c>
       <c r="F15" t="s">
         <v>110</v>
@@ -4735,7 +4951,7 @@
         <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>1101</v>
+        <v>1173</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -4767,7 +4983,7 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>1102</v>
+        <v>1174</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -4799,7 +5015,7 @@
         <v>255</v>
       </c>
       <c r="E18" t="s">
-        <v>1103</v>
+        <v>1175</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -4831,7 +5047,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>1104</v>
+        <v>1176</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -4863,7 +5079,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -4895,7 +5111,7 @@
         <v>882</v>
       </c>
       <c r="E21" t="s">
-        <v>1105</v>
+        <v>1177</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
@@ -4927,7 +5143,7 @@
         <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>1106</v>
+        <v>1178</v>
       </c>
       <c r="F22" t="s">
         <v>22</v>
@@ -4959,7 +5175,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>1107</v>
+        <v>1179</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -5023,7 +5239,7 @@
         <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>1108</v>
+        <v>1180</v>
       </c>
       <c r="F25" t="s">
         <v>138</v>
@@ -5055,7 +5271,7 @@
         <v>265</v>
       </c>
       <c r="E26" t="s">
-        <v>1109</v>
+        <v>1181</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -5119,7 +5335,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>1110</v>
+        <v>1182</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
@@ -5151,7 +5367,7 @@
         <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>1111</v>
+        <v>1183</v>
       </c>
       <c r="F29" t="s">
         <v>149</v>
@@ -5183,7 +5399,7 @@
         <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>1112</v>
+        <v>1184</v>
       </c>
       <c r="F30" t="s">
         <v>153</v>
@@ -5215,7 +5431,7 @@
         <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>1113</v>
+        <v>1185</v>
       </c>
       <c r="F31" t="s">
         <v>158</v>
@@ -5247,7 +5463,7 @@
         <v>160</v>
       </c>
       <c r="E32" t="s">
-        <v>1114</v>
+        <v>1186</v>
       </c>
       <c r="F32" t="s">
         <v>162</v>
@@ -5279,7 +5495,7 @@
         <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>1115</v>
+        <v>1187</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -5311,7 +5527,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>1116</v>
+        <v>1188</v>
       </c>
       <c r="F34" t="s">
         <v>172</v>
@@ -5343,7 +5559,7 @@
         <v>175</v>
       </c>
       <c r="E35" t="s">
-        <v>1117</v>
+        <v>1189</v>
       </c>
       <c r="F35" t="s">
         <v>177</v>
@@ -5375,7 +5591,7 @@
         <v>179</v>
       </c>
       <c r="E36" t="s">
-        <v>1118</v>
+        <v>1190</v>
       </c>
       <c r="F36" t="s">
         <v>181</v>
@@ -5407,7 +5623,7 @@
         <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>1119</v>
+        <v>1191</v>
       </c>
       <c r="F37" t="s">
         <v>186</v>
@@ -5439,7 +5655,7 @@
         <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>1120</v>
+        <v>1192</v>
       </c>
       <c r="F38" t="s">
         <v>191</v>
@@ -5471,7 +5687,7 @@
         <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>1121</v>
+        <v>1193</v>
       </c>
       <c r="F39" t="s">
         <v>195</v>
@@ -5503,7 +5719,7 @@
         <v>639</v>
       </c>
       <c r="E40" t="s">
-        <v>1122</v>
+        <v>1194</v>
       </c>
       <c r="F40" t="s">
         <v>199</v>
@@ -5535,7 +5751,7 @@
         <v>202</v>
       </c>
       <c r="E41" t="s">
-        <v>1123</v>
+        <v>1195</v>
       </c>
       <c r="F41" t="s">
         <v>204</v>
